--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1081">
   <si>
     <t>name</t>
   </si>
@@ -3250,6 +3250,21 @@
   </si>
   <si>
     <t>South Korea</t>
+  </si>
+  <si>
+    <t>Rb, Er, theory</t>
+  </si>
+  <si>
+    <t>Rb, CsYb, Ca, RbCs, Sr, theory</t>
+  </si>
+  <si>
+    <t>Li, theory</t>
+  </si>
+  <si>
+    <t>He, theory</t>
+  </si>
+  <si>
+    <t>Rb, Li, theory</t>
   </si>
 </sst>
 </file>
@@ -3836,174 +3851,26 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="9">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -4033,75 +3900,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4116,7 +3914,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L241" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L241" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:L241"/>
   <sortState ref="A2:L248">
     <sortCondition ref="A1:A248"/>
@@ -4130,10 +3928,10 @@
     <tableColumn id="6" name="lat"/>
     <tableColumn id="7" name="long"/>
     <tableColumn id="8" name="exp_theor"/>
-    <tableColumn id="9" name="fields" dataDxfId="38"/>
-    <tableColumn id="10" name="people" dataDxfId="37"/>
-    <tableColumn id="11" name="atom" dataDxfId="36"/>
-    <tableColumn id="12" name="comment" dataDxfId="35"/>
+    <tableColumn id="9" name="fields" dataDxfId="3"/>
+    <tableColumn id="10" name="people" dataDxfId="2"/>
+    <tableColumn id="11" name="atom" dataDxfId="1"/>
+    <tableColumn id="12" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4404,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="H201" sqref="H201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6275,7 +6073,7 @@
         <v>187</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>708</v>
+        <v>1076</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>723</v>
@@ -6782,7 +6580,7 @@
         <v>228</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>670</v>
+        <v>1077</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>661</v>
@@ -6952,7 +6750,7 @@
         <v>247</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>705</v>
+        <v>1078</v>
       </c>
       <c r="L83" s="1"/>
     </row>
@@ -7608,7 +7406,7 @@
         <v>294</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>670</v>
+        <v>1077</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>661</v>
@@ -7979,7 +7777,7 @@
         <v>335</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>673</v>
+        <v>1079</v>
       </c>
       <c r="L117" s="1"/>
     </row>
@@ -8923,7 +8721,7 @@
         <v>416</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>688</v>
@@ -9041,7 +8839,7 @@
         <v>425</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>689</v>
@@ -9073,7 +8871,7 @@
         <v>428</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>670</v>
+        <v>1077</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>695</v>
@@ -9386,7 +9184,7 @@
         <v>455</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>670</v>
+        <v>1077</v>
       </c>
       <c r="L163" s="1" t="s">
         <v>695</v>
@@ -9851,7 +9649,7 @@
         <v>501</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L178" s="1" t="s">
         <v>721</v>
@@ -10311,7 +10109,7 @@
         <v>549</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L193" s="1" t="s">
         <v>659</v>
@@ -10405,7 +10203,7 @@
         <v>20</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>702</v>
+        <v>1080</v>
       </c>
       <c r="L196" s="1"/>
     </row>
@@ -10775,7 +10573,7 @@
         <v>573</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L208" s="1"/>
     </row>
@@ -10958,7 +10756,7 @@
         <v>20</v>
       </c>
       <c r="K214" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L214" s="1" t="s">
         <v>674</v>
@@ -11927,7 +11725,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>844</v>
       </c>
@@ -11959,7 +11757,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>858</v>
       </c>
@@ -11988,7 +11786,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>867</v>
       </c>
@@ -12017,7 +11815,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>883</v>
       </c>
@@ -12046,7 +11844,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>892</v>
       </c>
@@ -12081,7 +11879,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>893</v>
       </c>
@@ -12116,7 +11914,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>903</v>
       </c>
@@ -12142,7 +11940,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>911</v>
       </c>
@@ -12415,18 +12213,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K242">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="4">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Exp"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Exp/Theory"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ucan_utoronto_database_producti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$242</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1083">
   <si>
     <t>name</t>
   </si>
@@ -3265,6 +3265,12 @@
   </si>
   <si>
     <t>Rb, Li, theory</t>
+  </si>
+  <si>
+    <t>Sherson Group</t>
+  </si>
+  <si>
+    <t>http://phys.au.dk/qmmg/</t>
   </si>
 </sst>
 </file>
@@ -3851,26 +3857,20 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3896,9 +3896,36 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3914,8 +3941,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L241" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:L241"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L242" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:L242"/>
   <sortState ref="A2:L248">
     <sortCondition ref="A1:A248"/>
   </sortState>
@@ -3928,10 +3955,10 @@
     <tableColumn id="6" name="lat"/>
     <tableColumn id="7" name="long"/>
     <tableColumn id="8" name="exp_theor"/>
-    <tableColumn id="9" name="fields" dataDxfId="3"/>
-    <tableColumn id="10" name="people" dataDxfId="2"/>
-    <tableColumn id="11" name="atom" dataDxfId="1"/>
-    <tableColumn id="12" name="comment" dataDxfId="0"/>
+    <tableColumn id="9" name="fields" dataDxfId="10"/>
+    <tableColumn id="10" name="people" dataDxfId="9"/>
+    <tableColumn id="11" name="atom" dataDxfId="8"/>
+    <tableColumn id="12" name="comment" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4200,10 +4227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L265"/>
+  <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="H191" sqref="A1:L242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5480,7 +5507,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>824</v>
       </c>
@@ -8638,7 +8665,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>927</v>
       </c>
@@ -9992,883 +10019,885 @@
         <v>753</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C190" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" t="s">
+        <v>42</v>
+      </c>
+      <c r="F190">
+        <v>56.168191999999998</v>
+      </c>
+      <c r="G190">
+        <v>10.202991000000001</v>
+      </c>
+      <c r="H190" t="s">
+        <v>15</v>
+      </c>
+      <c r="I190"/>
+      <c r="J190"/>
+      <c r="K190" t="s">
+        <v>665</v>
+      </c>
+      <c r="L190"/>
+    </row>
+    <row r="191" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>972</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>529</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>63</v>
       </c>
-      <c r="F190">
+      <c r="F191">
         <v>30.975639399999999</v>
       </c>
-      <c r="G190">
+      <c r="G191">
         <v>76.538867999999994</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H191" t="s">
         <v>20</v>
       </c>
-      <c r="I190" s="1" t="s">
+      <c r="I191" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="K190" s="6" t="s">
+      <c r="K191" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="L190" s="1"/>
-    </row>
-    <row r="191" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>973</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C191" t="s">
-        <v>274</v>
-      </c>
-      <c r="D191" t="s">
-        <v>140</v>
-      </c>
-      <c r="F191">
-        <v>-37.822150399999998</v>
-      </c>
-      <c r="G191">
-        <v>145.03895460000001</v>
-      </c>
-      <c r="H191" t="s">
-        <v>24</v>
-      </c>
-      <c r="K191" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="L191" s="1" t="s">
-        <v>676</v>
-      </c>
+      <c r="L191" s="1"/>
     </row>
     <row r="192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>974</v>
-      </c>
-      <c r="B192" t="s">
-        <v>532</v>
+        <v>973</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>531</v>
       </c>
       <c r="C192" t="s">
-        <v>533</v>
+        <v>274</v>
       </c>
       <c r="D192" t="s">
-        <v>1074</v>
+        <v>140</v>
       </c>
       <c r="F192">
-        <v>50.087110600000003</v>
+        <v>-37.822150399999998</v>
       </c>
       <c r="G192">
-        <v>14.423488900000001</v>
+        <v>145.03895460000001</v>
       </c>
       <c r="H192" t="s">
-        <v>20</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>534</v>
+        <v>24</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>975</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>548</v>
+        <v>974</v>
+      </c>
+      <c r="B193" t="s">
+        <v>532</v>
       </c>
       <c r="C193" t="s">
-        <v>452</v>
+        <v>533</v>
       </c>
       <c r="D193" t="s">
-        <v>42</v>
+        <v>1074</v>
       </c>
       <c r="F193">
-        <v>55.696949600000003</v>
+        <v>50.087110600000003</v>
       </c>
       <c r="G193">
-        <v>12.5715789</v>
+        <v>14.423488900000001</v>
       </c>
       <c r="H193" t="s">
         <v>20</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="K193" s="6" t="s">
         <v>666</v>
       </c>
       <c r="L193" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>975</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C194" t="s">
+        <v>452</v>
+      </c>
+      <c r="D194" t="s">
+        <v>42</v>
+      </c>
+      <c r="F194">
+        <v>55.696949600000003</v>
+      </c>
+      <c r="G194">
+        <v>12.5715789</v>
+      </c>
+      <c r="H194" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="K194" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="195" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>976</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>536</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>1029</v>
       </c>
-      <c r="F194">
+      <c r="F195">
         <v>37.871899200000001</v>
       </c>
-      <c r="G194">
+      <c r="G195">
         <v>-122.2585399</v>
       </c>
-      <c r="H194" t="s">
-        <v>24</v>
-      </c>
-      <c r="I194" s="1" t="s">
+      <c r="H195" t="s">
+        <v>24</v>
+      </c>
+      <c r="I195" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K194" s="6" t="s">
+      <c r="K195" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="L195" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="196" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>977</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>539</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>82</v>
       </c>
-      <c r="F195">
+      <c r="F196">
         <v>43.653225999999997</v>
       </c>
-      <c r="G195">
+      <c r="G196">
         <v>-79.383184299999996</v>
       </c>
-      <c r="H195" t="s">
-        <v>24</v>
-      </c>
-      <c r="I195" s="1" t="s">
+      <c r="H196" t="s">
+        <v>24</v>
+      </c>
+      <c r="I196" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="J195" s="1" t="s">
+      <c r="J196" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="K195" s="6" t="s">
+      <c r="K196" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="L195" s="1"/>
-    </row>
-    <row r="196" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="L196" s="1"/>
+    </row>
+    <row r="197" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>978</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>184</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>1073</v>
       </c>
-      <c r="F196">
+      <c r="F197">
         <v>52.090737400000002</v>
       </c>
-      <c r="G196">
+      <c r="G197">
         <v>5.1214200999999999</v>
-      </c>
-      <c r="H196" t="s">
-        <v>20</v>
-      </c>
-      <c r="K196" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="L196" s="1"/>
-    </row>
-    <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>979</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C197" t="s">
-        <v>543</v>
-      </c>
-      <c r="D197" t="s">
-        <v>39</v>
-      </c>
-      <c r="F197">
-        <v>46.069476999999999</v>
-      </c>
-      <c r="G197">
-        <v>11.121046</v>
       </c>
       <c r="H197" t="s">
         <v>20</v>
       </c>
-      <c r="I197" s="1" t="s">
+      <c r="K197" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L197" s="1"/>
+    </row>
+    <row r="198" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>979</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C198" t="s">
+        <v>543</v>
+      </c>
+      <c r="D198" t="s">
+        <v>39</v>
+      </c>
+      <c r="F198">
+        <v>46.069476999999999</v>
+      </c>
+      <c r="G198">
+        <v>11.121046</v>
+      </c>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="J197" s="1" t="s">
+      <c r="J198" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="K197" s="6" t="s">
+      <c r="K198" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="L198" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="199" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>980</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
         <v>547</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D199" t="s">
         <v>1029</v>
       </c>
-      <c r="F198">
+      <c r="F199">
         <v>47.655335100000002</v>
       </c>
-      <c r="G198">
+      <c r="G199">
         <v>-122.3035199</v>
       </c>
-      <c r="H198" t="s">
-        <v>24</v>
-      </c>
-      <c r="K198" s="6" t="s">
+      <c r="H199" t="s">
+        <v>24</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="L199" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="200" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>981</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>551</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D200" t="s">
         <v>256</v>
       </c>
-      <c r="F199">
+      <c r="F200">
         <v>35.026244400000003</v>
       </c>
-      <c r="G199">
+      <c r="G200">
         <v>135.78082180000001</v>
       </c>
-      <c r="H199" t="s">
-        <v>24</v>
-      </c>
-      <c r="I199" s="1" t="s">
+      <c r="H200" t="s">
+        <v>24</v>
+      </c>
+      <c r="I200" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="K199" s="6" t="s">
+      <c r="K200" s="6" t="s">
         <v>736</v>
-      </c>
-      <c r="L199" s="1"/>
-    </row>
-    <row r="200" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>982</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C200" t="s">
-        <v>554</v>
-      </c>
-      <c r="D200" t="s">
-        <v>405</v>
-      </c>
-      <c r="F200">
-        <v>41.275596999999998</v>
-      </c>
-      <c r="G200">
-        <v>1.9895659999999999</v>
-      </c>
-      <c r="H200" t="s">
-        <v>24</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="K200" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="L200" s="1"/>
     </row>
     <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>982</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C201" t="s">
+        <v>554</v>
+      </c>
+      <c r="D201" t="s">
+        <v>405</v>
+      </c>
+      <c r="F201">
+        <v>41.275596999999998</v>
+      </c>
+      <c r="G201">
+        <v>1.9895659999999999</v>
+      </c>
+      <c r="H201" t="s">
+        <v>24</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K201" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="L201" s="1"/>
+    </row>
+    <row r="202" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>1060</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>1061</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D202" t="s">
         <v>105</v>
       </c>
-      <c r="F201">
+      <c r="F202">
         <v>-21.9841446</v>
       </c>
-      <c r="G201">
+      <c r="G202">
         <v>-47.8802454</v>
       </c>
-      <c r="H201" t="s">
+      <c r="H202" t="s">
         <v>15</v>
       </c>
-      <c r="K201" s="6" t="s">
+      <c r="K202" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L201" s="1"/>
-    </row>
-    <row r="202" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="L202" s="1"/>
+    </row>
+    <row r="203" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>984</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>559</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" t="s">
         <v>560</v>
       </c>
-      <c r="F202">
+      <c r="F203">
         <v>51.222809699999999</v>
       </c>
-      <c r="G202">
+      <c r="G203">
         <v>4.4102318</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H203" t="s">
         <v>20</v>
       </c>
-      <c r="I202" s="1" t="s">
+      <c r="I203" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J202" s="1" t="s">
+      <c r="J203" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="K202" s="6" t="s">
+      <c r="K203" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="L202" s="1"/>
-    </row>
-    <row r="203" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="L203" s="1"/>
+    </row>
+    <row r="204" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>985</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>1066</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" t="s">
         <v>1067</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F203">
-        <v>35.759573099999997</v>
-      </c>
-      <c r="G203">
-        <v>-79.019299699999905</v>
-      </c>
-      <c r="H203" t="s">
-        <v>24</v>
-      </c>
-      <c r="K203" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="L203" s="1"/>
-    </row>
-    <row r="204" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>986</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C204" t="s">
-        <v>27</v>
       </c>
       <c r="D204" t="s">
         <v>1029</v>
       </c>
       <c r="F204">
+        <v>35.759573099999997</v>
+      </c>
+      <c r="G204">
+        <v>-79.019299699999905</v>
+      </c>
+      <c r="H204" t="s">
+        <v>24</v>
+      </c>
+      <c r="K204" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="L204" s="1"/>
+    </row>
+    <row r="205" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>986</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F205">
         <v>40.007436300000002</v>
       </c>
-      <c r="G204">
+      <c r="G205">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H204" t="s">
-        <v>24</v>
-      </c>
-      <c r="I204" s="1" t="s">
+      <c r="H205" t="s">
+        <v>24</v>
+      </c>
+      <c r="I205" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="K204" s="6" t="s">
+      <c r="K205" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="L205" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="206" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>987</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C206" t="s">
         <v>452</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D206" t="s">
         <v>42</v>
       </c>
-      <c r="F205">
+      <c r="F206">
         <v>55.696949600000003</v>
       </c>
-      <c r="G205">
+      <c r="G206">
         <v>12.5715789</v>
       </c>
-      <c r="H205" t="s">
-        <v>24</v>
-      </c>
-      <c r="I205" s="1" t="s">
+      <c r="H206" t="s">
+        <v>24</v>
+      </c>
+      <c r="I206" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="K205" s="6" t="s">
+      <c r="K206" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="L205" s="1"/>
-    </row>
-    <row r="206" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>988</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>539</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D207" t="s">
         <v>82</v>
       </c>
-      <c r="F206">
+      <c r="F207">
         <v>43.653225999999997</v>
       </c>
-      <c r="G206">
+      <c r="G207">
         <v>-79.383184299999996</v>
       </c>
-      <c r="H206" t="s">
-        <v>24</v>
-      </c>
-      <c r="I206" s="1" t="s">
+      <c r="H207" t="s">
+        <v>24</v>
+      </c>
+      <c r="I207" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J206" s="1" t="s">
+      <c r="J207" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="K206" s="6" t="s">
+      <c r="K207" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="L207" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="208" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>989</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C208" t="s">
         <v>298</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D208" t="s">
         <v>39</v>
       </c>
-      <c r="F207">
+      <c r="F208">
         <v>43.818863999999998</v>
       </c>
-      <c r="G207">
+      <c r="G208">
         <v>11.192811000000001</v>
       </c>
-      <c r="H207" t="s">
-        <v>24</v>
-      </c>
-      <c r="I207" s="1" t="s">
+      <c r="H208" t="s">
+        <v>24</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="K207" s="6" t="s">
+      <c r="K208" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="L208" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="209" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>990</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
         <v>572</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D209" t="s">
         <v>412</v>
       </c>
-      <c r="F208">
+      <c r="F209">
         <v>60.209825299999999</v>
       </c>
-      <c r="G208">
+      <c r="G209">
         <v>24.976551300000001</v>
-      </c>
-      <c r="H208" t="s">
-        <v>20</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="K208" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="L208" s="1"/>
-    </row>
-    <row r="209" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>991</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C209" t="s">
-        <v>575</v>
-      </c>
-      <c r="D209" t="s">
-        <v>238</v>
-      </c>
-      <c r="F209">
-        <v>52.240346299999999</v>
-      </c>
-      <c r="G209">
-        <v>21.018601199999999</v>
       </c>
       <c r="H209" t="s">
         <v>20</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="J209" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K209" s="6" t="s">
         <v>666</v>
       </c>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>991</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C210" t="s">
+        <v>575</v>
+      </c>
+      <c r="D210" t="s">
+        <v>238</v>
+      </c>
+      <c r="F210">
+        <v>52.240346299999999</v>
+      </c>
+      <c r="G210">
+        <v>21.018601199999999</v>
+      </c>
+      <c r="H210" t="s">
+        <v>20</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="K210" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="L210" s="1"/>
+    </row>
+    <row r="211" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>992</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B211" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>139</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D211" t="s">
         <v>140</v>
       </c>
-      <c r="F210">
+      <c r="F211">
         <v>-35.277699900000002</v>
       </c>
-      <c r="G210">
+      <c r="G211">
         <v>149.118527</v>
       </c>
-      <c r="H210" t="s">
-        <v>24</v>
-      </c>
-      <c r="J210" s="1" t="s">
+      <c r="H211" t="s">
+        <v>24</v>
+      </c>
+      <c r="J211" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="K210" s="6" t="s">
+      <c r="K211" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="L211" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="212" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>993</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>581</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D212" t="s">
         <v>63</v>
       </c>
-      <c r="F211">
+      <c r="F212">
         <v>18.905388899999998</v>
       </c>
-      <c r="G211">
+      <c r="G212">
         <v>72.804928000000004</v>
       </c>
-      <c r="H211" t="s">
-        <v>24</v>
-      </c>
-      <c r="I211" s="1" t="s">
+      <c r="H212" t="s">
+        <v>24</v>
+      </c>
+      <c r="I212" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="K211" s="6" t="s">
+      <c r="K212" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="L211" s="4" t="s">
+      <c r="L212" s="4" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="213" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>994</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B213" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>274</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D213" t="s">
         <v>140</v>
       </c>
-      <c r="F212">
+      <c r="F213">
         <v>-37.822150399999998</v>
       </c>
-      <c r="G212">
+      <c r="G213">
         <v>145.03895460000001</v>
       </c>
-      <c r="H212" t="s">
-        <v>24</v>
-      </c>
-      <c r="J212" s="1" t="s">
+      <c r="H213" t="s">
+        <v>24</v>
+      </c>
+      <c r="J213" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="K212" s="6" t="s">
+      <c r="K213" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="L213" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="214" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>995</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C214" t="s">
         <v>586</v>
-      </c>
-      <c r="D213" t="s">
-        <v>82</v>
-      </c>
-      <c r="F213">
-        <v>43.773453500000002</v>
-      </c>
-      <c r="G213">
-        <v>-79.501868400000006</v>
-      </c>
-      <c r="H213" t="s">
-        <v>24</v>
-      </c>
-      <c r="K213" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="L213" s="1"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>996</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="C214" t="s">
-        <v>648</v>
       </c>
       <c r="D214" t="s">
         <v>82</v>
       </c>
       <c r="F214">
+        <v>43.773453500000002</v>
+      </c>
+      <c r="G214">
+        <v>-79.501868400000006</v>
+      </c>
+      <c r="H214" t="s">
+        <v>24</v>
+      </c>
+      <c r="K214" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="L214" s="1"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>996</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C215" t="s">
+        <v>648</v>
+      </c>
+      <c r="D215" t="s">
+        <v>82</v>
+      </c>
+      <c r="F215">
         <v>45.617910899999998</v>
       </c>
-      <c r="G214">
+      <c r="G215">
         <v>-61.995441599999999</v>
       </c>
-      <c r="H214" t="s">
+      <c r="H215" t="s">
         <v>20</v>
       </c>
-      <c r="K214" s="6" t="s">
+      <c r="K215" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="L215" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="216" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>997</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C216" t="s">
         <v>346</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D216" t="s">
         <v>1073</v>
       </c>
-      <c r="F215">
+      <c r="F216">
         <v>52.333756800000003</v>
       </c>
-      <c r="G215">
+      <c r="G216">
         <v>4.8657199000000002</v>
       </c>
-      <c r="H215" t="s">
-        <v>24</v>
-      </c>
-      <c r="K215" s="6" t="s">
+      <c r="H216" t="s">
+        <v>24</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="L215" s="1"/>
-    </row>
-    <row r="216" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="L216" s="1"/>
+    </row>
+    <row r="217" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>998</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C217" t="s">
         <v>650</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D217" t="s">
         <v>651</v>
       </c>
-      <c r="F216">
+      <c r="F217">
         <v>35.305134000000002</v>
       </c>
-      <c r="G216">
+      <c r="G217">
         <v>25.072593000000001</v>
       </c>
-      <c r="H216" t="s">
-        <v>24</v>
-      </c>
-      <c r="I216" s="7" t="s">
+      <c r="H217" t="s">
+        <v>24</v>
+      </c>
+      <c r="I217" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="J216" s="1" t="s">
+      <c r="J217" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="K216" s="6" t="s">
+      <c r="K217" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="L217" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>999</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C218" t="s">
         <v>333</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F217">
-        <v>42.360090999999997</v>
-      </c>
-      <c r="G217">
-        <v>-71.094160000000002</v>
-      </c>
-      <c r="H217" t="s">
-        <v>24</v>
-      </c>
-      <c r="K217" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L217" s="1"/>
-    </row>
-    <row r="218" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C218" t="s">
-        <v>590</v>
       </c>
       <c r="D218" t="s">
         <v>1029</v>
       </c>
       <c r="F218">
-        <v>42.929508400000003</v>
+        <v>42.360090999999997</v>
       </c>
       <c r="G218">
-        <v>-85.588932900000003</v>
+        <v>-71.094160000000002</v>
       </c>
       <c r="H218" t="s">
         <v>24</v>
@@ -10876,297 +10905,297 @@
       <c r="K218" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L218" s="1" t="s">
-        <v>778</v>
-      </c>
+      <c r="L218" s="1"/>
     </row>
     <row r="219" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C219" t="s">
+        <v>590</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F219">
+        <v>42.929508400000003</v>
+      </c>
+      <c r="G219">
+        <v>-85.588932900000003</v>
+      </c>
+      <c r="H219" t="s">
+        <v>24</v>
+      </c>
+      <c r="K219" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>1001</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C220" t="s">
         <v>592</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D220" t="s">
         <v>1073</v>
       </c>
-      <c r="F219">
+      <c r="F220">
         <v>52.355818200000002</v>
       </c>
-      <c r="G219">
+      <c r="G220">
         <v>4.9557263000000003</v>
       </c>
-      <c r="H219" t="s">
-        <v>24</v>
-      </c>
-      <c r="I219" s="1" t="s">
+      <c r="H220" t="s">
+        <v>24</v>
+      </c>
+      <c r="I220" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="K219" s="6" t="s">
+      <c r="K220" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="L220" s="1" t="s">
         <v>740</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C220" t="s">
-        <v>595</v>
-      </c>
-      <c r="D220" t="s">
-        <v>596</v>
-      </c>
-      <c r="F220">
-        <v>22.418096999999999</v>
-      </c>
-      <c r="G220">
-        <v>114.207953</v>
-      </c>
-      <c r="H220" t="s">
-        <v>24</v>
-      </c>
-      <c r="I220" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="K220" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C221" t="s">
+        <v>595</v>
+      </c>
+      <c r="D221" t="s">
+        <v>596</v>
+      </c>
+      <c r="F221">
+        <v>22.418096999999999</v>
+      </c>
+      <c r="G221">
+        <v>114.207953</v>
+      </c>
+      <c r="H221" t="s">
+        <v>24</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="K221" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>1003</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D221" t="s">
-        <v>70</v>
-      </c>
-      <c r="F221">
-        <v>49.419140200000001</v>
-      </c>
-      <c r="G221">
-        <v>8.6702492000000007</v>
-      </c>
-      <c r="H221" t="s">
-        <v>24</v>
-      </c>
-      <c r="I221" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K221" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="L221" s="1"/>
-    </row>
-    <row r="222" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="D222" t="s">
         <v>70</v>
       </c>
       <c r="F222">
-        <v>52.382964100000002</v>
+        <v>49.419140200000001</v>
       </c>
       <c r="G222">
-        <v>9.7196988999999991</v>
+        <v>8.6702492000000007</v>
       </c>
       <c r="H222" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K222" s="6" t="s">
-        <v>666</v>
+        <v>704</v>
       </c>
       <c r="L222" s="1"/>
     </row>
     <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D223" t="s">
+        <v>70</v>
+      </c>
+      <c r="F223">
+        <v>52.382964100000002</v>
+      </c>
+      <c r="G223">
+        <v>9.7196988999999991</v>
+      </c>
+      <c r="H223" t="s">
+        <v>20</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="K223" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="L223" s="1"/>
+    </row>
+    <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>1005</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C224" t="s">
         <v>249</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D224" t="s">
         <v>1029</v>
       </c>
-      <c r="F223">
+      <c r="F224">
         <v>40.7982133</v>
       </c>
-      <c r="G223">
+      <c r="G224">
         <v>-77.859908399999995</v>
       </c>
-      <c r="H223" t="s">
-        <v>24</v>
-      </c>
-      <c r="I223" s="1" t="s">
+      <c r="H224" t="s">
+        <v>24</v>
+      </c>
+      <c r="I224" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="K223" s="6" t="s">
+      <c r="K224" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="L224" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="225" spans="1:12" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>1006</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D225" t="s">
         <v>70</v>
       </c>
-      <c r="F224">
+      <c r="F225">
         <v>50.726771499999998</v>
       </c>
-      <c r="G224">
+      <c r="G225">
         <v>7.0865226999999997</v>
       </c>
-      <c r="H224" t="s">
-        <v>24</v>
-      </c>
-      <c r="K224" s="6" t="s">
+      <c r="H225" t="s">
+        <v>24</v>
+      </c>
+      <c r="K225" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="L224" s="1"/>
-    </row>
-    <row r="225" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C225" t="s">
-        <v>607</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F225">
-        <v>34.413962900000001</v>
-      </c>
-      <c r="G225">
-        <v>-119.848947</v>
-      </c>
-      <c r="H225" t="s">
-        <v>24</v>
-      </c>
-      <c r="K225" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="L225" s="1"/>
     </row>
     <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>44</v>
+        <v>606</v>
       </c>
       <c r="C226" t="s">
-        <v>126</v>
+        <v>607</v>
       </c>
       <c r="D226" t="s">
-        <v>31</v>
+        <v>1029</v>
       </c>
       <c r="F226">
-        <v>48.713740000000001</v>
+        <v>34.413962900000001</v>
       </c>
       <c r="G226">
-        <v>2.2034927</v>
+        <v>-119.848947</v>
       </c>
       <c r="H226" t="s">
         <v>24</v>
       </c>
-      <c r="J226" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K226" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="L226" s="5" t="s">
-        <v>714</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="L226" s="1"/>
     </row>
     <row r="227" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C227" t="s">
+        <v>126</v>
+      </c>
+      <c r="D227" t="s">
+        <v>31</v>
+      </c>
+      <c r="F227">
+        <v>48.713740000000001</v>
+      </c>
+      <c r="G227">
+        <v>2.2034927</v>
+      </c>
+      <c r="H227" t="s">
+        <v>24</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K227" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="L227" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>1009</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" t="s">
         <v>609</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D228" t="s">
         <v>1029</v>
       </c>
-      <c r="F227">
+      <c r="F228">
         <v>34.097743000000001</v>
       </c>
-      <c r="G227">
+      <c r="G228">
         <v>-117.711803</v>
-      </c>
-      <c r="H227" t="s">
-        <v>24</v>
-      </c>
-      <c r="K227" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="L227" s="1"/>
-    </row>
-    <row r="228" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D228" t="s">
-        <v>70</v>
-      </c>
-      <c r="F228">
-        <v>49.425377400000002</v>
-      </c>
-      <c r="G228">
-        <v>7.7555496000000002</v>
       </c>
       <c r="H228" t="s">
         <v>24</v>
@@ -11176,1025 +11205,1045 @@
       </c>
       <c r="L228" s="1"/>
     </row>
-    <row r="229" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D229" t="s">
+        <v>70</v>
+      </c>
+      <c r="F229">
+        <v>49.425377400000002</v>
+      </c>
+      <c r="G229">
+        <v>7.7555496000000002</v>
+      </c>
+      <c r="H229" t="s">
+        <v>24</v>
+      </c>
+      <c r="K229" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>1012</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C230" t="s">
         <v>189</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D230" t="s">
         <v>57</v>
       </c>
-      <c r="F229">
+      <c r="F230">
         <v>1.3483099000000001</v>
       </c>
-      <c r="G229">
+      <c r="G230">
         <v>103.6831347</v>
       </c>
-      <c r="H229" t="s">
-        <v>24</v>
-      </c>
-      <c r="I229" s="1" t="s">
+      <c r="H230" t="s">
+        <v>24</v>
+      </c>
+      <c r="I230" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="J229" s="1" t="s">
+      <c r="J230" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="K229" s="6" t="s">
+      <c r="K230" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="L229" s="1"/>
-    </row>
-    <row r="230" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="L230" s="1"/>
+    </row>
+    <row r="231" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>1013</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C231" t="s">
         <v>617</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D231" t="s">
         <v>1029</v>
       </c>
-      <c r="F230">
+      <c r="F231">
         <v>40.8075355</v>
       </c>
-      <c r="G230">
+      <c r="G231">
         <v>-73.962572699999996</v>
       </c>
-      <c r="H230" t="s">
-        <v>24</v>
-      </c>
-      <c r="K230" s="6" t="s">
+      <c r="H231" t="s">
+        <v>24</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="L230" s="1"/>
-    </row>
-    <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="L231" s="1"/>
+    </row>
+    <row r="232" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>1015</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>620</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D232" t="s">
         <v>63</v>
       </c>
-      <c r="F231">
+      <c r="F232">
         <v>23.253028</v>
       </c>
-      <c r="G231">
+      <c r="G232">
         <v>77.450444000000005</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H232" t="s">
         <v>20</v>
       </c>
-      <c r="I231" s="1" t="s">
+      <c r="I232" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="J231" s="1" t="s">
+      <c r="J232" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="K231" s="6" t="s">
+      <c r="K232" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="L231" s="1"/>
-    </row>
-    <row r="232" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="L232" s="1"/>
+    </row>
+    <row r="233" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>1016</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C233" t="s">
         <v>27</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D233" t="s">
         <v>1029</v>
       </c>
-      <c r="F232">
+      <c r="F233">
         <v>40.007436300000002</v>
       </c>
-      <c r="G232">
+      <c r="G233">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H232" t="s">
-        <v>24</v>
-      </c>
-      <c r="I232" s="1" t="s">
+      <c r="H233" t="s">
+        <v>24</v>
+      </c>
+      <c r="I233" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="K232" s="6" t="s">
+      <c r="K233" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="L233" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C233" t="s">
-        <v>628</v>
-      </c>
-      <c r="D233" t="s">
-        <v>238</v>
-      </c>
-      <c r="F233">
-        <v>50.0609623</v>
-      </c>
-      <c r="G233">
-        <v>19.934107399999998</v>
-      </c>
-      <c r="H233" t="s">
-        <v>20</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J233" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="K233" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1068</v>
+        <v>1018</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="C234" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D234" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="F234">
-        <v>44.225279499999999</v>
+        <v>50.0609623</v>
       </c>
       <c r="G234">
-        <v>-76.495141199999907</v>
+        <v>19.934107399999998</v>
       </c>
       <c r="H234" t="s">
         <v>20</v>
       </c>
+      <c r="I234" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="K234" s="6" t="s">
         <v>666</v>
       </c>
       <c r="L234" s="1"/>
     </row>
-    <row r="235" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C235" t="s">
+        <v>631</v>
+      </c>
+      <c r="D235" t="s">
+        <v>82</v>
+      </c>
+      <c r="F235">
+        <v>44.225279499999999</v>
+      </c>
+      <c r="G235">
+        <v>-76.495141199999907</v>
+      </c>
+      <c r="H235" t="s">
+        <v>20</v>
+      </c>
+      <c r="K235" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>1020</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
         <v>617</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F235">
-        <v>40.8075355</v>
-      </c>
-      <c r="G235">
-        <v>-73.962572699999996</v>
-      </c>
-      <c r="H235" t="s">
-        <v>24</v>
-      </c>
-      <c r="K235" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="L235" s="1"/>
-    </row>
-    <row r="236" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C236" t="s">
-        <v>634</v>
       </c>
       <c r="D236" t="s">
         <v>1029</v>
       </c>
       <c r="F236">
+        <v>40.8075355</v>
+      </c>
+      <c r="G236">
+        <v>-73.962572699999996</v>
+      </c>
+      <c r="H236" t="s">
+        <v>24</v>
+      </c>
+      <c r="K236" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C237" t="s">
+        <v>634</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F237">
         <v>32.9857619</v>
       </c>
-      <c r="G236">
+      <c r="G237">
         <v>-96.750099300000002</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H237" t="s">
         <v>20</v>
       </c>
-      <c r="K236" s="6" t="s">
+      <c r="K237" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="L236" s="1"/>
-    </row>
-    <row r="237" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="L237" s="1"/>
+    </row>
+    <row r="238" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>1022</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>636</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D238" t="s">
         <v>119</v>
       </c>
-      <c r="F237">
+      <c r="F238">
         <v>37.841507</v>
       </c>
-      <c r="G237">
+      <c r="G238">
         <v>112.53001399999999</v>
       </c>
-      <c r="H237" t="s">
-        <v>24</v>
-      </c>
-      <c r="I237" s="1" t="s">
+      <c r="H238" t="s">
+        <v>24</v>
+      </c>
+      <c r="I238" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="K237" s="6" t="s">
+      <c r="K238" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="L238" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C238" t="s">
-        <v>639</v>
-      </c>
-      <c r="D238" t="s">
-        <v>596</v>
-      </c>
-      <c r="F238">
-        <v>22.4162632</v>
-      </c>
-      <c r="G238">
-        <v>114.2109318</v>
-      </c>
-      <c r="H238" t="s">
-        <v>20</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="K238" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="L238" s="1"/>
     </row>
     <row r="239" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
+      </c>
+      <c r="C239" t="s">
+        <v>639</v>
       </c>
       <c r="D239" t="s">
-        <v>70</v>
+        <v>596</v>
       </c>
       <c r="F239">
-        <v>48.529454999999999</v>
+        <v>22.4162632</v>
       </c>
       <c r="G239">
-        <v>9.0437720000000006</v>
+        <v>114.2109318</v>
       </c>
       <c r="H239" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>658</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="L239" s="1"/>
     </row>
     <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D240" t="s">
+        <v>70</v>
+      </c>
+      <c r="F240">
+        <v>48.529454999999999</v>
+      </c>
+      <c r="G240">
+        <v>9.0437720000000006</v>
+      </c>
+      <c r="H240" t="s">
+        <v>24</v>
+      </c>
+      <c r="K240" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>1025</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B241" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D241" t="s">
         <v>205</v>
       </c>
-      <c r="F240">
+      <c r="F241">
         <v>47.269212400000001</v>
       </c>
-      <c r="G240">
+      <c r="G241">
         <v>11.404102399999999</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H241" t="s">
         <v>20</v>
       </c>
-      <c r="J240" s="1" t="s">
+      <c r="J241" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="K240" s="6" t="s">
+      <c r="K241" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="L240" s="1"/>
-    </row>
-    <row r="241" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>1026</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C242" t="s">
         <v>646</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D242" t="s">
         <v>1029</v>
       </c>
-      <c r="F241">
+      <c r="F242">
         <v>42.360090999999997</v>
       </c>
-      <c r="G241">
+      <c r="G242">
         <v>-71.094160000000002</v>
       </c>
-      <c r="H241" t="s">
-        <v>24</v>
-      </c>
-      <c r="K241" s="6" t="s">
+      <c r="H242" t="s">
+        <v>24</v>
+      </c>
+      <c r="K242" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="L241" s="1"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K242" s="6"/>
-    </row>
-    <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="L242" s="1"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K243" s="6"/>
+    </row>
+    <row r="244" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>786</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>22</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C244" t="s">
         <v>23</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D244" t="s">
         <v>1029</v>
       </c>
-      <c r="F243">
+      <c r="F244">
         <v>32.2318851</v>
       </c>
-      <c r="G243">
+      <c r="G244">
         <v>-110.9501094</v>
       </c>
-      <c r="H243" t="s">
-        <v>24</v>
-      </c>
-      <c r="I243" t="s">
+      <c r="H244" t="s">
+        <v>24</v>
+      </c>
+      <c r="I244" t="s">
         <v>25</v>
       </c>
-      <c r="J243"/>
-      <c r="K243" t="s">
+      <c r="J244"/>
+      <c r="K244" t="s">
         <v>662</v>
       </c>
-      <c r="L243"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>804</v>
-      </c>
-      <c r="B244" t="s">
-        <v>80</v>
-      </c>
-      <c r="C244" t="s">
-        <v>81</v>
-      </c>
-      <c r="D244" t="s">
-        <v>82</v>
-      </c>
-      <c r="F244">
-        <v>53.523218900000003</v>
-      </c>
-      <c r="G244">
-        <v>-113.5263186</v>
-      </c>
-      <c r="H244" t="s">
-        <v>20</v>
-      </c>
-      <c r="I244"/>
-      <c r="J244" t="s">
-        <v>83</v>
-      </c>
-      <c r="K244" t="s">
-        <v>666</v>
-      </c>
-      <c r="L244" t="s">
-        <v>685</v>
-      </c>
+      <c r="L244"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="B245" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C245" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D245" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F245">
-        <v>39.986913000000001</v>
+        <v>53.523218900000003</v>
       </c>
       <c r="G245">
-        <v>116.30587389999999</v>
+        <v>-113.5263186</v>
       </c>
       <c r="H245" t="s">
-        <v>15</v>
-      </c>
-      <c r="I245" t="s">
-        <v>120</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I245"/>
       <c r="J245" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="K245" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L245" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>817</v>
+      </c>
+      <c r="B246" t="s">
+        <v>117</v>
+      </c>
+      <c r="C246" t="s">
+        <v>118</v>
+      </c>
+      <c r="D246" t="s">
+        <v>119</v>
+      </c>
+      <c r="F246">
+        <v>39.986913000000001</v>
+      </c>
+      <c r="G246">
+        <v>116.30587389999999</v>
+      </c>
+      <c r="H246" t="s">
+        <v>15</v>
+      </c>
+      <c r="I246" t="s">
+        <v>120</v>
+      </c>
+      <c r="J246" t="s">
+        <v>121</v>
+      </c>
+      <c r="K246" t="s">
+        <v>665</v>
+      </c>
+      <c r="L246" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>821</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>132</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C247" t="s">
         <v>133</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D247" t="s">
         <v>1029</v>
       </c>
-      <c r="F246">
+      <c r="F247">
         <v>37.427474500000002</v>
       </c>
-      <c r="G246">
+      <c r="G247">
         <v>-122.169719</v>
       </c>
-      <c r="H246" t="s">
-        <v>24</v>
-      </c>
-      <c r="I246"/>
-      <c r="J246"/>
-      <c r="K246" t="s">
+      <c r="H247" t="s">
+        <v>24</v>
+      </c>
+      <c r="I247"/>
+      <c r="J247"/>
+      <c r="K247" t="s">
         <v>756</v>
       </c>
-      <c r="L246" t="s">
+      <c r="L247" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="248" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>826</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D248" t="s">
         <v>31</v>
       </c>
-      <c r="F247">
+      <c r="F248">
         <v>48.842205800000002</v>
       </c>
-      <c r="G247">
+      <c r="G248">
         <v>2.3451689</v>
-      </c>
-      <c r="H247" t="s">
-        <v>15</v>
-      </c>
-      <c r="K247" t="s">
-        <v>718</v>
-      </c>
-      <c r="L247" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>844</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D248" t="s">
-        <v>63</v>
-      </c>
-      <c r="F248">
-        <v>12.9225525</v>
-      </c>
-      <c r="G248">
-        <v>77.592889700000001</v>
       </c>
       <c r="H248" t="s">
         <v>15</v>
       </c>
-      <c r="I248" s="1" t="s">
+      <c r="K248" t="s">
+        <v>718</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>844</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D249" t="s">
+        <v>63</v>
+      </c>
+      <c r="F249">
+        <v>12.9225525</v>
+      </c>
+      <c r="G249">
+        <v>77.592889700000001</v>
+      </c>
+      <c r="H249" t="s">
+        <v>15</v>
+      </c>
+      <c r="I249" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K248" t="s">
+      <c r="K249" t="s">
         <v>665</v>
       </c>
-      <c r="L248" s="5" t="s">
+      <c r="L249" s="5" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="250" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>858</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D250" t="s">
         <v>49</v>
       </c>
-      <c r="F249">
+      <c r="F250">
         <v>-45.479067100000002</v>
       </c>
-      <c r="G249">
+      <c r="G250">
         <v>170.15475670000001</v>
       </c>
-      <c r="H249" t="s">
+      <c r="H250" t="s">
         <v>20</v>
       </c>
-      <c r="K249" t="s">
+      <c r="K250" t="s">
         <v>666</v>
       </c>
-      <c r="L249" s="5" t="s">
+      <c r="L250" s="5" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="251" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>867</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D251" t="s">
         <v>256</v>
       </c>
-      <c r="F250">
+      <c r="F251">
         <v>35.801062000000002</v>
       </c>
-      <c r="G250">
+      <c r="G251">
         <v>139.71977899999999</v>
       </c>
-      <c r="H250" t="s">
-        <v>24</v>
-      </c>
-      <c r="K250" t="s">
+      <c r="H251" t="s">
+        <v>24</v>
+      </c>
+      <c r="K251" t="s">
         <v>654</v>
       </c>
-      <c r="L250" s="5" t="s">
+      <c r="L251" s="5" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="252" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>883</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" t="s">
         <v>140</v>
       </c>
-      <c r="F251">
+      <c r="F252">
         <v>-35.277699900000002</v>
       </c>
-      <c r="G251">
+      <c r="G252">
         <v>149.118527</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H252" t="s">
         <v>20</v>
       </c>
-      <c r="K251" t="s">
+      <c r="K252" t="s">
         <v>666</v>
       </c>
-      <c r="L251" s="5" t="s">
+      <c r="L252" s="5" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="253" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>892</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D253" t="s">
         <v>119</v>
       </c>
-      <c r="F252">
+      <c r="F253">
         <v>37.841507</v>
       </c>
-      <c r="G252">
+      <c r="G253">
         <v>112.53001399999999</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H253" t="s">
         <v>15</v>
       </c>
-      <c r="I252" s="1" t="s">
+      <c r="I253" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J252" s="1" t="s">
+      <c r="J253" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="K252" t="s">
-        <v>665</v>
-      </c>
-      <c r="L252" s="5" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" ht="270" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>893</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D253" t="s">
-        <v>316</v>
-      </c>
-      <c r="F253">
-        <v>19.325721999999999</v>
-      </c>
-      <c r="G253">
-        <v>-99.180436999999998</v>
-      </c>
-      <c r="H253" t="s">
-        <v>24</v>
-      </c>
-      <c r="I253" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="K253" t="s">
         <v>665</v>
       </c>
       <c r="L253" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>893</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D254" t="s">
+        <v>316</v>
+      </c>
+      <c r="F254">
+        <v>19.325721999999999</v>
+      </c>
+      <c r="G254">
+        <v>-99.180436999999998</v>
+      </c>
+      <c r="H254" t="s">
+        <v>24</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K254" t="s">
+        <v>665</v>
+      </c>
+      <c r="L254" s="5" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="255" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>903</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B255" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D255" t="s">
         <v>1073</v>
       </c>
-      <c r="F254">
+      <c r="F255">
         <v>52.333756800000003</v>
       </c>
-      <c r="G254">
+      <c r="G255">
         <v>4.8657199000000002</v>
       </c>
-      <c r="H254" t="s">
-        <v>24</v>
-      </c>
-      <c r="K254" t="s">
+      <c r="H255" t="s">
+        <v>24</v>
+      </c>
+      <c r="K255" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="256" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>911</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D256" t="s">
         <v>31</v>
       </c>
-      <c r="F255">
+      <c r="F256">
         <v>48.842205800000002</v>
       </c>
-      <c r="G255">
+      <c r="G256">
         <v>2.3451689</v>
       </c>
-      <c r="H255" t="s">
-        <v>24</v>
-      </c>
-      <c r="K255" t="s">
+      <c r="H256" t="s">
+        <v>24</v>
+      </c>
+      <c r="K256" t="s">
         <v>718</v>
       </c>
-      <c r="L255" s="5" t="s">
+      <c r="L256" s="5" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="257" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>918</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>379</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C257" t="s">
         <v>380</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D257" t="s">
         <v>1029</v>
       </c>
-      <c r="F256">
+      <c r="F257">
         <v>34.201308099999999</v>
       </c>
-      <c r="G256">
+      <c r="G257">
         <v>-118.1713944</v>
       </c>
-      <c r="H256" t="s">
-        <v>24</v>
-      </c>
-      <c r="I256" t="s">
+      <c r="H257" t="s">
+        <v>24</v>
+      </c>
+      <c r="I257" t="s">
         <v>381</v>
       </c>
-      <c r="J256" t="s">
+      <c r="J257" t="s">
         <v>382</v>
       </c>
-      <c r="K256" t="s">
+      <c r="K257" t="s">
         <v>665</v>
       </c>
-      <c r="L256" t="s">
+      <c r="L257" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="258" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>949</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>469</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C258" t="s">
         <v>470</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
         <v>63</v>
       </c>
-      <c r="F257">
+      <c r="F258">
         <v>18.545665799999998</v>
       </c>
-      <c r="G257">
+      <c r="G258">
         <v>73.806586100000004</v>
       </c>
-      <c r="H257" t="s">
-        <v>24</v>
-      </c>
-      <c r="I257" t="s">
+      <c r="H258" t="s">
+        <v>24</v>
+      </c>
+      <c r="I258" t="s">
         <v>471</v>
       </c>
-      <c r="J257" t="s">
+      <c r="J258" t="s">
         <v>472</v>
       </c>
-      <c r="K257" t="s">
+      <c r="K258" t="s">
         <v>725</v>
       </c>
-      <c r="L257"/>
-    </row>
-    <row r="258" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="L258"/>
+    </row>
+    <row r="259" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>952</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>479</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C259" t="s">
         <v>480</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D259" t="s">
         <v>14</v>
       </c>
-      <c r="F258">
+      <c r="F259">
         <v>51.524559199999999</v>
       </c>
-      <c r="G258">
+      <c r="G259">
         <v>-0.1340401</v>
       </c>
-      <c r="H258" t="s">
-        <v>24</v>
-      </c>
-      <c r="I258" t="s">
+      <c r="H259" t="s">
+        <v>24</v>
+      </c>
+      <c r="I259" t="s">
         <v>481</v>
       </c>
-      <c r="J258"/>
-      <c r="K258" t="s">
-        <v>665</v>
-      </c>
-      <c r="L258" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>983</v>
-      </c>
-      <c r="B259" t="s">
-        <v>556</v>
-      </c>
-      <c r="C259" t="s">
-        <v>557</v>
-      </c>
-      <c r="D259" t="s">
-        <v>63</v>
-      </c>
-      <c r="F259">
-        <v>26.512338799999998</v>
-      </c>
-      <c r="G259">
-        <v>80.232900000000001</v>
-      </c>
-      <c r="H259" t="s">
-        <v>20</v>
-      </c>
-      <c r="I259"/>
       <c r="J259"/>
       <c r="K259" t="s">
-        <v>666</v>
-      </c>
-      <c r="L259"/>
+        <v>665</v>
+      </c>
+      <c r="L259" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="260" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1011</v>
+        <v>983</v>
       </c>
       <c r="B260" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
       <c r="C260" t="s">
-        <v>27</v>
+        <v>557</v>
       </c>
       <c r="D260" t="s">
-        <v>1029</v>
+        <v>63</v>
       </c>
       <c r="F260">
-        <v>40.007436300000002</v>
+        <v>26.512338799999998</v>
       </c>
       <c r="G260">
-        <v>-105.26864809999999</v>
+        <v>80.232900000000001</v>
       </c>
       <c r="H260" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I260"/>
       <c r="J260"/>
       <c r="K260" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="L260"/>
     </row>
-    <row r="261" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B261" t="s">
-        <v>47</v>
+        <v>612</v>
       </c>
       <c r="C261" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D261" t="s">
-        <v>49</v>
+        <v>1029</v>
       </c>
       <c r="F261">
-        <v>-45.479067100000002</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G261">
-        <v>170.15475670000001</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H261" t="s">
         <v>24</v>
       </c>
-      <c r="I261" t="s">
-        <v>618</v>
-      </c>
+      <c r="I261"/>
       <c r="J261"/>
       <c r="K261" t="s">
-        <v>665</v>
-      </c>
-      <c r="L261" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="L261"/>
+    </row>
+    <row r="262" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B262" t="s">
-        <v>625</v>
+        <v>47</v>
       </c>
       <c r="C262" t="s">
-        <v>626</v>
+        <v>48</v>
       </c>
       <c r="D262" t="s">
-        <v>1029</v>
+        <v>49</v>
       </c>
       <c r="F262">
-        <v>40.423705400000003</v>
+        <v>-45.479067100000002</v>
       </c>
       <c r="G262">
-        <v>-86.921194600000007</v>
+        <v>170.15475670000001</v>
       </c>
       <c r="H262" t="s">
         <v>24</v>
       </c>
-      <c r="I262"/>
+      <c r="I262" t="s">
+        <v>618</v>
+      </c>
       <c r="J262"/>
       <c r="K262" t="s">
-        <v>662</v>
-      </c>
-      <c r="L262"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B263"/>
-      <c r="C263"/>
+        <v>665</v>
+      </c>
+      <c r="L262" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B263" t="s">
+        <v>625</v>
+      </c>
+      <c r="C263" t="s">
+        <v>626</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F263">
+        <v>40.423705400000003</v>
+      </c>
+      <c r="G263">
+        <v>-86.921194600000007</v>
+      </c>
+      <c r="H263" t="s">
+        <v>24</v>
+      </c>
       <c r="I263"/>
       <c r="J263"/>
+      <c r="K263" t="s">
+        <v>662</v>
+      </c>
       <c r="L263"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -12211,21 +12260,28 @@
       <c r="J265"/>
       <c r="L265"/>
     </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B266"/>
+      <c r="C266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="L266"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K242">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="4">
+  <conditionalFormatting sqref="K1:K243">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Exp/Theory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Exp"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Theory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"Exp/Theory"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -12305,7 +12361,7 @@
     <hyperlink ref="B107" r:id="rId74"/>
     <hyperlink ref="B23" r:id="rId75"/>
     <hyperlink ref="B97" r:id="rId76"/>
-    <hyperlink ref="B246" r:id="rId77"/>
+    <hyperlink ref="B247" r:id="rId77"/>
     <hyperlink ref="B40" r:id="rId78"/>
     <hyperlink ref="B32" r:id="rId79"/>
     <hyperlink ref="B4" r:id="rId80"/>
@@ -12332,29 +12388,29 @@
     <hyperlink ref="B118" r:id="rId101"/>
     <hyperlink ref="B64" r:id="rId102"/>
     <hyperlink ref="B10" r:id="rId103"/>
-    <hyperlink ref="B243" r:id="rId104"/>
-    <hyperlink ref="B245" r:id="rId105"/>
-    <hyperlink ref="B244" r:id="rId106"/>
+    <hyperlink ref="B244" r:id="rId104"/>
+    <hyperlink ref="B246" r:id="rId105"/>
+    <hyperlink ref="B245" r:id="rId106"/>
     <hyperlink ref="B69" r:id="rId107"/>
     <hyperlink ref="B110" r:id="rId108"/>
-    <hyperlink ref="B198" r:id="rId109"/>
+    <hyperlink ref="B199" r:id="rId109"/>
     <hyperlink ref="B164" r:id="rId110"/>
     <hyperlink ref="B121" r:id="rId111"/>
     <hyperlink ref="B134" r:id="rId112"/>
-    <hyperlink ref="B218" r:id="rId113"/>
-    <hyperlink ref="B241" r:id="rId114"/>
-    <hyperlink ref="B217" r:id="rId115"/>
+    <hyperlink ref="B219" r:id="rId113"/>
+    <hyperlink ref="B242" r:id="rId114"/>
+    <hyperlink ref="B218" r:id="rId115"/>
     <hyperlink ref="B165" r:id="rId116"/>
     <hyperlink ref="B129" r:id="rId117"/>
     <hyperlink ref="B186" r:id="rId118"/>
-    <hyperlink ref="B235" r:id="rId119"/>
-    <hyperlink ref="B230" r:id="rId120"/>
-    <hyperlink ref="B223" r:id="rId121"/>
+    <hyperlink ref="B236" r:id="rId119"/>
+    <hyperlink ref="B231" r:id="rId120"/>
+    <hyperlink ref="B224" r:id="rId121"/>
     <hyperlink ref="B149" r:id="rId122"/>
-    <hyperlink ref="B262" r:id="rId123"/>
-    <hyperlink ref="B232" r:id="rId124"/>
-    <hyperlink ref="B260" r:id="rId125"/>
-    <hyperlink ref="B204" r:id="rId126"/>
+    <hyperlink ref="B263" r:id="rId123"/>
+    <hyperlink ref="B233" r:id="rId124"/>
+    <hyperlink ref="B261" r:id="rId125"/>
+    <hyperlink ref="B205" r:id="rId126"/>
     <hyperlink ref="B171" r:id="rId127"/>
     <hyperlink ref="B158" r:id="rId128"/>
     <hyperlink ref="B147" r:id="rId129"/>
@@ -12362,47 +12418,47 @@
     <hyperlink ref="B159" r:id="rId131"/>
     <hyperlink ref="B182" r:id="rId132"/>
     <hyperlink ref="B175" r:id="rId133"/>
-    <hyperlink ref="B194" r:id="rId134"/>
+    <hyperlink ref="B195" r:id="rId134"/>
     <hyperlink ref="B131" r:id="rId135"/>
     <hyperlink ref="B183" r:id="rId136"/>
     <hyperlink ref="B133" r:id="rId137"/>
-    <hyperlink ref="B203" r:id="rId138" display="http://www.phy.duke.edu/research/photon/qoptics/"/>
+    <hyperlink ref="B204" r:id="rId138" display="http://www.phy.duke.edu/research/photon/qoptics/"/>
     <hyperlink ref="B189" r:id="rId139"/>
-    <hyperlink ref="B225" r:id="rId140"/>
-    <hyperlink ref="B256" r:id="rId141"/>
-    <hyperlink ref="B227" r:id="rId142"/>
+    <hyperlink ref="B226" r:id="rId140"/>
+    <hyperlink ref="B257" r:id="rId141"/>
+    <hyperlink ref="B228" r:id="rId142"/>
     <hyperlink ref="B168" r:id="rId143"/>
-    <hyperlink ref="B236" r:id="rId144"/>
+    <hyperlink ref="B237" r:id="rId144"/>
     <hyperlink ref="B166" r:id="rId145"/>
-    <hyperlink ref="B233" r:id="rId146"/>
-    <hyperlink ref="B209" r:id="rId147"/>
+    <hyperlink ref="B234" r:id="rId146"/>
+    <hyperlink ref="B210" r:id="rId147"/>
     <hyperlink ref="B137" r:id="rId148"/>
-    <hyperlink ref="B229" r:id="rId149"/>
-    <hyperlink ref="B200" r:id="rId150"/>
+    <hyperlink ref="B230" r:id="rId149"/>
+    <hyperlink ref="B201" r:id="rId150"/>
     <hyperlink ref="B145" r:id="rId151"/>
-    <hyperlink ref="B261" r:id="rId152"/>
+    <hyperlink ref="B262" r:id="rId152"/>
     <hyperlink ref="B120" r:id="rId153"/>
-    <hyperlink ref="B219" r:id="rId154"/>
-    <hyperlink ref="B215" r:id="rId155"/>
-    <hyperlink ref="B196" r:id="rId156"/>
-    <hyperlink ref="B199" r:id="rId157"/>
+    <hyperlink ref="B220" r:id="rId154"/>
+    <hyperlink ref="B216" r:id="rId155"/>
+    <hyperlink ref="B197" r:id="rId156"/>
+    <hyperlink ref="B200" r:id="rId157"/>
     <hyperlink ref="B150" r:id="rId158"/>
     <hyperlink ref="B146" r:id="rId159"/>
     <hyperlink ref="B124" r:id="rId160"/>
-    <hyperlink ref="B207" r:id="rId161"/>
-    <hyperlink ref="B197" r:id="rId162"/>
+    <hyperlink ref="B208" r:id="rId161"/>
+    <hyperlink ref="B198" r:id="rId162"/>
     <hyperlink ref="B178" r:id="rId163"/>
-    <hyperlink ref="B231" r:id="rId164"/>
-    <hyperlink ref="B211" r:id="rId165"/>
-    <hyperlink ref="B259" r:id="rId166"/>
-    <hyperlink ref="B190" r:id="rId167"/>
-    <hyperlink ref="B257" r:id="rId168"/>
+    <hyperlink ref="B232" r:id="rId164"/>
+    <hyperlink ref="B212" r:id="rId165"/>
+    <hyperlink ref="B260" r:id="rId166"/>
+    <hyperlink ref="B191" r:id="rId167"/>
+    <hyperlink ref="B258" r:id="rId168"/>
     <hyperlink ref="B167" r:id="rId169"/>
-    <hyperlink ref="B220" r:id="rId170"/>
-    <hyperlink ref="B228" r:id="rId171"/>
-    <hyperlink ref="B224" r:id="rId172"/>
-    <hyperlink ref="B222" r:id="rId173"/>
-    <hyperlink ref="B221" r:id="rId174"/>
+    <hyperlink ref="B221" r:id="rId170"/>
+    <hyperlink ref="B229" r:id="rId171"/>
+    <hyperlink ref="B225" r:id="rId172"/>
+    <hyperlink ref="B223" r:id="rId173"/>
+    <hyperlink ref="B222" r:id="rId174"/>
     <hyperlink ref="B188" r:id="rId175"/>
     <hyperlink ref="B181" r:id="rId176"/>
     <hyperlink ref="B176" r:id="rId177"/>
@@ -12412,25 +12468,25 @@
     <hyperlink ref="B151" r:id="rId181"/>
     <hyperlink ref="B143" r:id="rId182"/>
     <hyperlink ref="B142" r:id="rId183"/>
-    <hyperlink ref="B226" r:id="rId184"/>
+    <hyperlink ref="B227" r:id="rId184"/>
     <hyperlink ref="B179" r:id="rId185"/>
     <hyperlink ref="B169" r:id="rId186"/>
     <hyperlink ref="B160" r:id="rId187"/>
     <hyperlink ref="B155" r:id="rId188"/>
     <hyperlink ref="B127" r:id="rId189"/>
     <hyperlink ref="B125" r:id="rId190"/>
-    <hyperlink ref="B208" r:id="rId191"/>
+    <hyperlink ref="B209" r:id="rId191"/>
     <hyperlink ref="B144" r:id="rId192"/>
-    <hyperlink ref="B205" r:id="rId193"/>
-    <hyperlink ref="B193" r:id="rId194"/>
+    <hyperlink ref="B206" r:id="rId193"/>
+    <hyperlink ref="B194" r:id="rId194"/>
     <hyperlink ref="B161" r:id="rId195"/>
-    <hyperlink ref="B238" r:id="rId196"/>
-    <hyperlink ref="B237" r:id="rId197"/>
-    <hyperlink ref="B214" r:id="rId198"/>
-    <hyperlink ref="B234" r:id="rId199" display="http://www.physics.queensu.ca/%7ezaremba/"/>
-    <hyperlink ref="B213" r:id="rId200"/>
-    <hyperlink ref="B206" r:id="rId201"/>
-    <hyperlink ref="B195" r:id="rId202"/>
+    <hyperlink ref="B239" r:id="rId196"/>
+    <hyperlink ref="B238" r:id="rId197"/>
+    <hyperlink ref="B215" r:id="rId198"/>
+    <hyperlink ref="B235" r:id="rId199" display="http://www.physics.queensu.ca/%7ezaremba/"/>
+    <hyperlink ref="B214" r:id="rId200"/>
+    <hyperlink ref="B207" r:id="rId201"/>
+    <hyperlink ref="B196" r:id="rId202"/>
     <hyperlink ref="B152" r:id="rId203"/>
     <hyperlink ref="B148" r:id="rId204"/>
     <hyperlink ref="B140" r:id="rId205"/>
@@ -12438,35 +12494,36 @@
     <hyperlink ref="B136" r:id="rId207"/>
     <hyperlink ref="B123" r:id="rId208"/>
     <hyperlink ref="B138" r:id="rId209"/>
-    <hyperlink ref="B202" r:id="rId210"/>
-    <hyperlink ref="B240" r:id="rId211"/>
+    <hyperlink ref="B203" r:id="rId210"/>
+    <hyperlink ref="B241" r:id="rId211"/>
     <hyperlink ref="B187" r:id="rId212"/>
     <hyperlink ref="B185" r:id="rId213"/>
-    <hyperlink ref="B212" r:id="rId214"/>
-    <hyperlink ref="B210" r:id="rId215"/>
-    <hyperlink ref="B191" r:id="rId216"/>
+    <hyperlink ref="B213" r:id="rId214"/>
+    <hyperlink ref="B211" r:id="rId215"/>
+    <hyperlink ref="B192" r:id="rId216"/>
     <hyperlink ref="B173" r:id="rId217"/>
     <hyperlink ref="B119" r:id="rId218"/>
-    <hyperlink ref="B258" r:id="rId219"/>
+    <hyperlink ref="B259" r:id="rId219"/>
     <hyperlink ref="B172" r:id="rId220"/>
     <hyperlink ref="B141" r:id="rId221"/>
     <hyperlink ref="B128" r:id="rId222"/>
     <hyperlink ref="B174" r:id="rId223" display="http://www.soton.ac.uk/~janne"/>
     <hyperlink ref="B156" r:id="rId224"/>
-    <hyperlink ref="B216" r:id="rId225"/>
+    <hyperlink ref="B217" r:id="rId225"/>
     <hyperlink ref="B180" r:id="rId226" display="http://www.atomoptic.fr/~theory"/>
     <hyperlink ref="B163" r:id="rId227"/>
     <hyperlink ref="B153" r:id="rId228"/>
-    <hyperlink ref="B239" r:id="rId229"/>
+    <hyperlink ref="B240" r:id="rId229"/>
     <hyperlink ref="B184" r:id="rId230"/>
     <hyperlink ref="B89" r:id="rId231"/>
     <hyperlink ref="B122" r:id="rId232"/>
     <hyperlink ref="B130" r:id="rId233"/>
+    <hyperlink ref="B190" r:id="rId234"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId234"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId235"/>
   <tableParts count="1">
-    <tablePart r:id="rId235"/>
+    <tablePart r:id="rId236"/>
   </tableParts>
 </worksheet>
 </file>
--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ucan_utoronto_database_producti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$249</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$250</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1115">
   <si>
     <t>name</t>
   </si>
@@ -3345,13 +3345,28 @@
     <t>http://qgl.snu.ac.kr</t>
   </si>
   <si>
-    <t>Experiment</t>
-  </si>
-  <si>
     <t>We are a quantum gas experimental group at Seoul National University.</t>
   </si>
   <si>
     <t>Na, Yt</t>
+  </si>
+  <si>
+    <t>Khatami Group</t>
+  </si>
+  <si>
+    <t>http://www.sjsu.edu/people/ehsan.khatami/</t>
+  </si>
+  <si>
+    <t>San Jose State University</t>
+  </si>
+  <si>
+    <t>Ehsan Khatami</t>
+  </si>
+  <si>
+    <t>Not yet on UCAN list.</t>
+  </si>
+  <si>
+    <t>I am theorist, involved in quantum simulations of strongly correlated electronic systems / fermionic lattice models using numerical linked-cluster expansions and quantum Monte Carlo methods, and have collaborated with various experimental groups since 2015:  Randy Hulet's group (Rice) (Nature 519, 211-214 (2015)), Martin Zwierlein's group (MIT) (Science 353, 1260-1264 (2016), Science 363, 383-387 (2019)) and Waseem Bakr's group (Princeton) (Science 357 1385-1388 (2017)).</t>
   </si>
 </sst>
 </file>
@@ -4001,8 +4016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L249" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:L249"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L250" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:L250"/>
   <sortState ref="A2:L248">
     <sortCondition ref="A1:A248"/>
   </sortState>
@@ -4287,10 +4302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L273"/>
+  <dimension ref="A1:L274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D192" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="G198" sqref="A1:L250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7921,1056 +7936,1062 @@
       </c>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>897</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>334</v>
+        <v>1109</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1110</v>
       </c>
       <c r="C120" t="s">
-        <v>159</v>
+        <v>1111</v>
       </c>
       <c r="D120" t="s">
-        <v>140</v>
+        <v>1028</v>
       </c>
       <c r="F120">
-        <v>-27.495430599999999</v>
+        <v>37.335293999999998</v>
       </c>
       <c r="G120">
-        <v>153.0120301</v>
+        <v>-121.88123400000001</v>
       </c>
       <c r="H120" t="s">
         <v>20</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>335</v>
+        <v>1114</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>1112</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>1078</v>
-      </c>
-      <c r="L120" s="1"/>
+        <v>665</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>897</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" t="s">
+        <v>140</v>
+      </c>
+      <c r="F121">
+        <v>-27.495430599999999</v>
+      </c>
+      <c r="G121">
+        <v>153.0120301</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>898</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>292</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>1028</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <v>45.7529003</v>
       </c>
-      <c r="G121">
+      <c r="G122">
         <v>-94.222328300000001</v>
       </c>
-      <c r="H121" t="s">
-        <v>24</v>
-      </c>
-      <c r="I121" s="1" t="s">
+      <c r="H122" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K121" s="6" t="s">
+      <c r="K122" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L121" s="1"/>
-    </row>
-    <row r="122" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>899</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>139</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>140</v>
       </c>
-      <c r="F122">
+      <c r="F123">
         <v>-35.277699900000002</v>
       </c>
-      <c r="G122">
+      <c r="G123">
         <v>149.118527</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H123" t="s">
         <v>20</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K122" s="6" t="s">
+      <c r="K123" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L122" s="1" t="s">
+      <c r="L123" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>900</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>94</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>49</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <v>-45.864683499999998</v>
       </c>
-      <c r="G123">
+      <c r="G124">
         <v>170.51442270000001</v>
       </c>
-      <c r="H123" t="s">
-        <v>24</v>
-      </c>
-      <c r="K123" s="6" t="s">
+      <c r="H124" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L123" s="1"/>
-    </row>
-    <row r="124" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>901</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>343</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>1028</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <v>44.935970900000001</v>
       </c>
-      <c r="G124">
+      <c r="G125">
         <v>-123.03185980000001</v>
       </c>
-      <c r="H124" t="s">
-        <v>24</v>
-      </c>
-      <c r="I124" s="1" t="s">
+      <c r="H125" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="K124" s="6" t="s">
+      <c r="K125" s="6" t="s">
         <v>724</v>
-      </c>
-      <c r="L124" s="1"/>
-    </row>
-    <row r="125" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>903</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C125" t="s">
-        <v>605</v>
-      </c>
-      <c r="D125" t="s">
-        <v>70</v>
-      </c>
-      <c r="F125">
-        <v>50.726771499999998</v>
-      </c>
-      <c r="G125">
-        <v>7.0865226999999997</v>
-      </c>
-      <c r="H125" t="s">
-        <v>24</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="L125" s="1"/>
     </row>
     <row r="126" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>903</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C126" t="s">
+        <v>605</v>
+      </c>
+      <c r="D126" t="s">
+        <v>70</v>
+      </c>
+      <c r="F126">
+        <v>50.726771499999998</v>
+      </c>
+      <c r="G126">
+        <v>7.0865226999999997</v>
+      </c>
+      <c r="H126" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>1082</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>1084</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>1028</v>
       </c>
-      <c r="F126">
+      <c r="F127">
         <v>39.981988000000001</v>
       </c>
-      <c r="G126">
+      <c r="G127">
         <v>-75.153053999999997</v>
-      </c>
-      <c r="H126" t="s">
-        <v>20</v>
-      </c>
-      <c r="K126" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L126" s="1"/>
-    </row>
-    <row r="127" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>904</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C127" t="s">
-        <v>348</v>
-      </c>
-      <c r="D127" t="s">
-        <v>82</v>
-      </c>
-      <c r="F127">
-        <v>49.260605200000001</v>
-      </c>
-      <c r="G127">
-        <v>-123.24599379999999</v>
       </c>
       <c r="H127" t="s">
         <v>20</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="K127" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>904</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C128" t="s">
+        <v>348</v>
+      </c>
+      <c r="D128" t="s">
+        <v>82</v>
+      </c>
+      <c r="F128">
+        <v>49.260605200000001</v>
+      </c>
+      <c r="G128">
+        <v>-123.24599379999999</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>905</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>351</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>256</v>
       </c>
-      <c r="F128">
+      <c r="F129">
         <v>35.689487499999998</v>
       </c>
-      <c r="G128">
+      <c r="G129">
         <v>139.69170639999999</v>
       </c>
-      <c r="H128" t="s">
-        <v>24</v>
-      </c>
-      <c r="K128" s="6" t="s">
+      <c r="H129" t="s">
+        <v>24</v>
+      </c>
+      <c r="K129" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="L128" s="1"/>
-    </row>
-    <row r="129" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>906</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C129" t="s">
-        <v>354</v>
-      </c>
-      <c r="D129" t="s">
-        <v>31</v>
-      </c>
-      <c r="F129">
-        <v>43.617282400000001</v>
-      </c>
-      <c r="G129">
-        <v>7.0600584</v>
-      </c>
-      <c r="H129" t="s">
-        <v>15</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K129" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="L129" s="5" t="s">
-        <v>721</v>
-      </c>
+      <c r="L129" s="1"/>
     </row>
     <row r="130" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1051</v>
+        <v>906</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1030</v>
+        <v>353</v>
       </c>
       <c r="C130" t="s">
-        <v>86</v>
+        <v>354</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
       </c>
       <c r="F130">
-        <v>48.713739999999902</v>
+        <v>43.617282400000001</v>
       </c>
       <c r="G130">
-        <v>2.2034927</v>
+        <v>7.0600584</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
       </c>
+      <c r="J130" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="K130" s="6" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L130" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>907</v>
+        <v>1051</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>356</v>
+        <v>1030</v>
       </c>
       <c r="C131" t="s">
-        <v>357</v>
+        <v>86</v>
       </c>
       <c r="D131" t="s">
         <v>31</v>
       </c>
       <c r="F131">
-        <v>48.8358925</v>
+        <v>48.713739999999902</v>
       </c>
       <c r="G131">
-        <v>2.3365122999999999</v>
+        <v>2.2034927</v>
       </c>
       <c r="H131" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K131" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C132" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F132">
-        <v>54.584408699999997</v>
+        <v>48.8358925</v>
       </c>
       <c r="G132">
-        <v>-5.9340492999999999</v>
+        <v>2.3365122999999999</v>
       </c>
       <c r="H132" t="s">
-        <v>15</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>360</v>
+        <v>24</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L132" s="1" t="s">
-        <v>667</v>
-      </c>
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C133" t="s">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="D133" t="s">
-        <v>1028</v>
+        <v>14</v>
       </c>
       <c r="F133">
-        <v>42.278043599999997</v>
+        <v>54.584408699999997</v>
       </c>
       <c r="G133">
-        <v>-83.738224099999996</v>
+        <v>-5.9340492999999999</v>
       </c>
       <c r="H133" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K133" s="6" t="s">
         <v>664</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>749</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1052</v>
+        <v>909</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1053</v>
+        <v>361</v>
       </c>
       <c r="C134" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="D134" t="s">
-        <v>82</v>
+        <v>1028</v>
       </c>
       <c r="F134">
-        <v>53.523218900000003</v>
+        <v>42.278043599999997</v>
       </c>
       <c r="G134">
-        <v>-113.5263186</v>
+        <v>-83.738224099999996</v>
       </c>
       <c r="H134" t="s">
         <v>24</v>
       </c>
+      <c r="I134" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="K134" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="L134" s="1"/>
+        <v>664</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C135" t="s">
+        <v>81</v>
+      </c>
+      <c r="D135" t="s">
+        <v>82</v>
+      </c>
+      <c r="F135">
+        <v>53.523218900000003</v>
+      </c>
+      <c r="G135">
+        <v>-113.5263186</v>
+      </c>
+      <c r="H135" t="s">
+        <v>24</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>911</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>364</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F135">
-        <v>37.427474500000002</v>
-      </c>
-      <c r="G135">
-        <v>-122.169719</v>
-      </c>
-      <c r="H135" t="s">
-        <v>24</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K135" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>912</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C136" t="s">
-        <v>27</v>
       </c>
       <c r="D136" t="s">
         <v>1028</v>
       </c>
       <c r="F136">
-        <v>40.007436300000002</v>
+        <v>37.427474500000002</v>
       </c>
       <c r="G136">
-        <v>-105.26864809999999</v>
+        <v>-122.169719</v>
       </c>
       <c r="H136" t="s">
         <v>24</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C137" t="s">
-        <v>369</v>
+        <v>27</v>
       </c>
       <c r="D137" t="s">
         <v>1028</v>
       </c>
       <c r="F137">
-        <v>36.127023600000001</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G137">
-        <v>-97.073722200000006</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H137" t="s">
         <v>24</v>
       </c>
+      <c r="I137" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="K137" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="L137" s="1"/>
-    </row>
-    <row r="138" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C138" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D138" t="s">
         <v>1028</v>
       </c>
       <c r="F138">
-        <v>44.105721600000003</v>
+        <v>36.127023600000001</v>
       </c>
       <c r="G138">
-        <v>-70.202186499999996</v>
+        <v>-97.073722200000006</v>
       </c>
       <c r="H138" t="s">
         <v>24</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="K138" s="6" t="s">
-        <v>661</v>
+        <v>719</v>
       </c>
       <c r="L138" s="1"/>
     </row>
     <row r="139" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>914</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" t="s">
+        <v>371</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F139">
+        <v>44.105721600000003</v>
+      </c>
+      <c r="G139">
+        <v>-70.202186499999996</v>
+      </c>
+      <c r="H139" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>1054</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>1056</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>105</v>
       </c>
-      <c r="F139">
+      <c r="F140">
         <v>-5.8393706999999999</v>
       </c>
-      <c r="G139">
+      <c r="G140">
         <v>-35.200772700000002</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H140" t="s">
         <v>20</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I140" t="s">
         <v>1071</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J140" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="K139" s="6" t="s">
+      <c r="K140" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L139" s="1"/>
-    </row>
-    <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>915</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>348</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>82</v>
       </c>
-      <c r="F140">
+      <c r="F141">
         <v>49.260605200000001</v>
       </c>
-      <c r="G140">
+      <c r="G141">
         <v>-123.24599379999999</v>
       </c>
-      <c r="H140" t="s">
-        <v>24</v>
-      </c>
-      <c r="K140" s="6" t="s">
+      <c r="H141" t="s">
+        <v>24</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="L140" s="1"/>
-    </row>
-    <row r="141" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>916</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>376</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D142" t="s">
         <v>238</v>
       </c>
-      <c r="F141">
+      <c r="F142">
         <v>52.221201200000003</v>
       </c>
-      <c r="G141">
+      <c r="G142">
         <v>21.008085699999999</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H142" t="s">
         <v>20</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="I142" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="J142" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K141" s="6" t="s">
+      <c r="K142" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L141" s="1"/>
-    </row>
-    <row r="142" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>918</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>384</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D143" t="s">
         <v>105</v>
       </c>
-      <c r="F142">
+      <c r="F143">
         <v>-23.561399099999999</v>
       </c>
-      <c r="G142">
+      <c r="G143">
         <v>-46.730789100000003</v>
       </c>
-      <c r="H142" t="s">
-        <v>24</v>
-      </c>
-      <c r="I142" s="1" t="s">
+      <c r="H143" t="s">
+        <v>24</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="J143" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="K142" s="6" t="s">
+      <c r="K143" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="L142" s="1" t="s">
+      <c r="L143" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="144" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>919</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>388</v>
-      </c>
-      <c r="D143" t="s">
-        <v>82</v>
-      </c>
-      <c r="F143">
-        <v>43.464257799999999</v>
-      </c>
-      <c r="G143">
-        <v>-80.520409599999994</v>
-      </c>
-      <c r="H143" t="s">
-        <v>24</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="K143" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="L143" s="1"/>
-    </row>
-    <row r="144" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>920</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C144" t="s">
-        <v>391</v>
       </c>
       <c r="D144" t="s">
         <v>82</v>
       </c>
       <c r="F144">
+        <v>43.464257799999999</v>
+      </c>
+      <c r="G144">
+        <v>-80.520409599999994</v>
+      </c>
+      <c r="H144" t="s">
+        <v>24</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>920</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C145" t="s">
+        <v>391</v>
+      </c>
+      <c r="D145" t="s">
+        <v>82</v>
+      </c>
+      <c r="F145">
         <v>49.278093699999999</v>
       </c>
-      <c r="G144">
+      <c r="G145">
         <v>-122.9198833</v>
       </c>
-      <c r="H144" t="s">
-        <v>24</v>
-      </c>
-      <c r="I144" s="1" t="s">
+      <c r="H145" t="s">
+        <v>24</v>
+      </c>
+      <c r="I145" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K144" s="6" t="s">
+      <c r="K145" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L144" s="1" t="s">
+      <c r="L145" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="146" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>921</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>394</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
         <v>14</v>
       </c>
-      <c r="F145">
+      <c r="F146">
         <v>51.754816400000003</v>
       </c>
-      <c r="G145">
+      <c r="G146">
         <v>-1.2543667999999999</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H146" t="s">
         <v>20</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="I146" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K145" s="6" t="s">
+      <c r="K146" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L145" s="1"/>
-    </row>
-    <row r="146" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>922</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D146" t="s">
-        <v>70</v>
-      </c>
-      <c r="F146">
-        <v>50.728592999999996</v>
-      </c>
-      <c r="G146">
-        <v>7.0884178999999996</v>
-      </c>
-      <c r="H146" t="s">
-        <v>24</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K146" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>706</v>
-      </c>
+      <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D147" t="s">
         <v>70</v>
       </c>
       <c r="F147">
+        <v>50.728592999999996</v>
+      </c>
+      <c r="G147">
+        <v>7.0884178999999996</v>
+      </c>
+      <c r="H147" t="s">
+        <v>24</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>923</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D148" t="s">
+        <v>70</v>
+      </c>
+      <c r="F148">
         <v>53.566564100000001</v>
       </c>
-      <c r="G147">
+      <c r="G148">
         <v>9.9846195000000009</v>
       </c>
-      <c r="H147" t="s">
-        <v>24</v>
-      </c>
-      <c r="I147" s="1" t="s">
+      <c r="H148" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="K147" s="6" t="s">
+      <c r="K148" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="L147" s="1" t="s">
+      <c r="L148" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="149" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>924</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>411</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>412</v>
       </c>
-      <c r="F148">
+      <c r="F149">
         <v>60.172634799999997</v>
       </c>
-      <c r="G148">
+      <c r="G149">
         <v>24.9510419</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H149" t="s">
         <v>15</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="I149" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="K148" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L148" s="1"/>
-    </row>
-    <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>925</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C149" t="s">
-        <v>404</v>
-      </c>
-      <c r="D149" t="s">
-        <v>405</v>
-      </c>
-      <c r="F149">
-        <v>43.3104637</v>
-      </c>
-      <c r="G149">
-        <v>-2.0113401999999998</v>
-      </c>
-      <c r="H149" t="s">
-        <v>20</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="K149" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L149" s="1" t="s">
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>925</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C150" t="s">
+        <v>404</v>
+      </c>
+      <c r="D150" t="s">
+        <v>405</v>
+      </c>
+      <c r="F150">
+        <v>43.3104637</v>
+      </c>
+      <c r="G150">
+        <v>-2.0113401999999998</v>
+      </c>
+      <c r="H150" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L150" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>926</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>408</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>256</v>
       </c>
-      <c r="F150">
+      <c r="F151">
         <v>35.440489599999999</v>
       </c>
-      <c r="G150">
+      <c r="G151">
         <v>139.31561110000001</v>
       </c>
-      <c r="H150" t="s">
-        <v>24</v>
-      </c>
-      <c r="K150" s="6" t="s">
+      <c r="H151" t="s">
+        <v>24</v>
+      </c>
+      <c r="K151" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="L150" s="1"/>
-    </row>
-    <row r="151" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>927</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>27</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>1028</v>
       </c>
-      <c r="F151">
+      <c r="F152">
         <v>40.007436300000002</v>
       </c>
-      <c r="G151">
+      <c r="G152">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H151" t="s">
-        <v>24</v>
-      </c>
-      <c r="I151" s="1" t="s">
+      <c r="H152" t="s">
+        <v>24</v>
+      </c>
+      <c r="I152" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="K151" s="6" t="s">
+      <c r="K152" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L151" s="1"/>
-    </row>
-    <row r="152" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>928</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>415</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>82</v>
       </c>
-      <c r="F152">
+      <c r="F153">
         <v>43.260879000000003</v>
       </c>
-      <c r="G152">
+      <c r="G153">
         <v>-79.919225400000002</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H153" t="s">
         <v>20</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="I153" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="K152" s="6" t="s">
+      <c r="K153" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L152" s="1" t="s">
+      <c r="L153" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="154" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>929</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>249</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D154" t="s">
         <v>1028</v>
       </c>
-      <c r="F153">
+      <c r="F154">
         <v>40.7982133</v>
       </c>
-      <c r="G153">
+      <c r="G154">
         <v>-77.859908399999995</v>
-      </c>
-      <c r="H153" t="s">
-        <v>24</v>
-      </c>
-      <c r="K153" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>930</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C154" t="s">
-        <v>419</v>
-      </c>
-      <c r="D154" t="s">
-        <v>256</v>
-      </c>
-      <c r="F154">
-        <v>34.947723400000001</v>
-      </c>
-      <c r="G154">
-        <v>137.16652089999999</v>
       </c>
       <c r="H154" t="s">
         <v>24</v>
@@ -8978,1026 +8999,1025 @@
       <c r="K154" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L154" s="1"/>
-    </row>
-    <row r="155" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L154" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>930</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C155" t="s">
+        <v>419</v>
+      </c>
+      <c r="D155" t="s">
+        <v>256</v>
+      </c>
+      <c r="F155">
+        <v>34.947723400000001</v>
+      </c>
+      <c r="G155">
+        <v>137.16652089999999</v>
+      </c>
+      <c r="H155" t="s">
+        <v>24</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L155" s="1"/>
+    </row>
+    <row r="156" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>931</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>70</v>
       </c>
-      <c r="F155">
+      <c r="F156">
         <v>49.440065699999998</v>
       </c>
-      <c r="G155">
+      <c r="G156">
         <v>7.7491265</v>
       </c>
-      <c r="H155" t="s">
-        <v>24</v>
-      </c>
-      <c r="I155" s="1" t="s">
+      <c r="H156" t="s">
+        <v>24</v>
+      </c>
+      <c r="I156" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K155" s="6" t="s">
+      <c r="K156" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L155" s="1"/>
-    </row>
-    <row r="156" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>932</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>424</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>82</v>
       </c>
-      <c r="F156">
+      <c r="F157">
         <v>43.662891700000003</v>
       </c>
-      <c r="G156">
+      <c r="G157">
         <v>-79.395656399999993</v>
-      </c>
-      <c r="H156" t="s">
-        <v>20</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K156" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>933</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C157" t="s">
-        <v>427</v>
-      </c>
-      <c r="D157" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157">
-        <v>54.77525</v>
-      </c>
-      <c r="G157">
-        <v>-1.5848519999999999</v>
       </c>
       <c r="H157" t="s">
         <v>20</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>1076</v>
+        <v>665</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="C158" t="s">
+        <v>427</v>
       </c>
       <c r="D158" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F158">
-        <v>49.425377400000002</v>
+        <v>54.77525</v>
       </c>
       <c r="G158">
-        <v>7.7555496000000002</v>
+        <v>-1.5848519999999999</v>
       </c>
       <c r="H158" t="s">
         <v>20</v>
       </c>
       <c r="I158" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>934</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D159" t="s">
+        <v>70</v>
+      </c>
+      <c r="F159">
+        <v>49.425377400000002</v>
+      </c>
+      <c r="G159">
+        <v>7.7555496000000002</v>
+      </c>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K158" s="6" t="s">
+      <c r="K159" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L158" s="1"/>
-    </row>
-    <row r="159" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>935</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>258</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D160" t="s">
         <v>31</v>
       </c>
-      <c r="F159">
+      <c r="F160">
         <v>48.956155000000003</v>
       </c>
-      <c r="G159">
+      <c r="G160">
         <v>2.3414540000000001</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H160" t="s">
         <v>15</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="J160" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="K159" s="6" t="s">
+      <c r="K160" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="L159" s="5" t="s">
+      <c r="L160" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="161" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>936</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>435</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>42</v>
       </c>
-      <c r="F160">
+      <c r="F161">
         <v>55.696947000000002</v>
       </c>
-      <c r="G160">
+      <c r="G161">
         <v>12.571562</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H161" t="s">
         <v>20</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="I161" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J160" s="1" t="s">
+      <c r="J161" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="K160" s="6" t="s">
+      <c r="K161" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L160" s="1" t="s">
+      <c r="L161" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="162" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>937</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D162" t="s">
         <v>70</v>
       </c>
-      <c r="F161">
+      <c r="F162">
         <v>48.781647200000002</v>
       </c>
-      <c r="G161">
+      <c r="G162">
         <v>9.1724984999999997</v>
       </c>
-      <c r="H161" t="s">
-        <v>24</v>
-      </c>
-      <c r="I161" s="1" t="s">
+      <c r="H162" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="J161" s="1" t="s">
+      <c r="J162" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="K161" s="6" t="s">
+      <c r="K162" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="L161" s="1"/>
-    </row>
-    <row r="162" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>938</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C162" t="s">
-        <v>27</v>
-      </c>
-      <c r="D162" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F162">
-        <v>40.007436300000002</v>
-      </c>
-      <c r="G162">
-        <v>-105.26864809999999</v>
-      </c>
-      <c r="H162" t="s">
-        <v>15</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K162" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="L162" s="1"/>
     </row>
     <row r="163" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>938</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F163">
+        <v>40.007436300000002</v>
+      </c>
+      <c r="G163">
+        <v>-105.26864809999999</v>
+      </c>
+      <c r="H163" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>1085</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>1087</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D164" t="s">
         <v>101</v>
       </c>
-      <c r="F163">
+      <c r="F164">
         <v>47.564731000000002</v>
       </c>
-      <c r="G163">
+      <c r="G164">
         <v>7.5786920000000002</v>
       </c>
-      <c r="H163" t="s">
-        <v>24</v>
-      </c>
-      <c r="I163" s="1" t="s">
+      <c r="H164" t="s">
+        <v>24</v>
+      </c>
+      <c r="I164" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="J163" s="1" t="s">
+      <c r="J164" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="K163" s="6" t="s">
+      <c r="K164" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L163" s="1"/>
-    </row>
-    <row r="164" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>939</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>445</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>1028</v>
       </c>
-      <c r="F164">
+      <c r="F165">
         <v>39.138053200000002</v>
       </c>
-      <c r="G164">
+      <c r="G165">
         <v>-77.220833900000002</v>
       </c>
-      <c r="H164" t="s">
-        <v>24</v>
-      </c>
-      <c r="J164" s="1" t="s">
+      <c r="H165" t="s">
+        <v>24</v>
+      </c>
+      <c r="J165" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K164" s="6" t="s">
+      <c r="K165" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="L164" s="1"/>
-    </row>
-    <row r="165" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>940</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>448</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>31</v>
       </c>
-      <c r="F165">
+      <c r="F166">
         <v>48.827264999999997</v>
       </c>
-      <c r="G165">
+      <c r="G166">
         <v>2.276624</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H166" t="s">
         <v>15</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="I166" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J166" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K165" s="6" t="s">
+      <c r="K166" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="L165" s="5" t="s">
+      <c r="L166" s="5" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>941</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C166" t="s">
-        <v>452</v>
-      </c>
-      <c r="D166" t="s">
-        <v>42</v>
-      </c>
-      <c r="F166">
-        <v>55.696949600000003</v>
-      </c>
-      <c r="G166">
-        <v>12.5715789</v>
-      </c>
-      <c r="H166" t="s">
-        <v>24</v>
-      </c>
-      <c r="K166" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1058</v>
+        <v>941</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1030</v>
+        <v>451</v>
       </c>
       <c r="C167" t="s">
-        <v>320</v>
+        <v>452</v>
       </c>
       <c r="D167" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F167">
-        <v>49.398752399999999</v>
+        <v>55.696949600000003</v>
       </c>
       <c r="G167">
-        <v>8.6724335000000004</v>
+        <v>12.5715789</v>
       </c>
       <c r="H167" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K167" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L167" s="1"/>
-    </row>
-    <row r="168" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L167" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C168" t="s">
+        <v>320</v>
+      </c>
+      <c r="D168" t="s">
+        <v>70</v>
+      </c>
+      <c r="F168">
+        <v>49.398752399999999</v>
+      </c>
+      <c r="G168">
+        <v>8.6724335000000004</v>
+      </c>
+      <c r="H168" t="s">
+        <v>15</v>
+      </c>
+      <c r="K168" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>942</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>454</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D169" t="s">
         <v>14</v>
       </c>
-      <c r="F168">
+      <c r="F169">
         <v>54.77525</v>
       </c>
-      <c r="G168">
+      <c r="G169">
         <v>-1.5848519999999999</v>
-      </c>
-      <c r="H168" t="s">
-        <v>20</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K168" s="6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>943</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C169" t="s">
-        <v>292</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F169">
-        <v>45.7529003</v>
-      </c>
-      <c r="G169">
-        <v>-94.222328300000001</v>
       </c>
       <c r="H169" t="s">
         <v>20</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L169" s="1"/>
-    </row>
-    <row r="170" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C170" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="D170" t="s">
         <v>1028</v>
       </c>
       <c r="F170">
-        <v>42.278043599999997</v>
+        <v>45.7529003</v>
       </c>
       <c r="G170">
-        <v>-83.738224099999996</v>
+        <v>-94.222328300000001</v>
       </c>
       <c r="H170" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C171" t="s">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="D171" t="s">
         <v>1028</v>
       </c>
       <c r="F171">
+        <v>42.278043599999997</v>
+      </c>
+      <c r="G171">
+        <v>-83.738224099999996</v>
+      </c>
+      <c r="H171" t="s">
+        <v>24</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>945</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C172" t="s">
+        <v>461</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F172">
         <v>30.2849185</v>
       </c>
-      <c r="G171">
+      <c r="G172">
         <v>-97.734056699999996</v>
       </c>
-      <c r="H171" t="s">
-        <v>24</v>
-      </c>
-      <c r="I171" s="1" t="s">
+      <c r="H172" t="s">
+        <v>24</v>
+      </c>
+      <c r="I172" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K171" s="6" t="s">
+      <c r="K172" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="L171" s="1"/>
-    </row>
-    <row r="172" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>946</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>464</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" t="s">
         <v>63</v>
       </c>
-      <c r="F172">
+      <c r="F173">
         <v>13.012825599999999</v>
       </c>
-      <c r="G172">
+      <c r="G173">
         <v>77.580665999999994</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H173" t="s">
         <v>15</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="I173" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="J172" s="1" t="s">
+      <c r="J173" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="K172" s="6" t="s">
+      <c r="K173" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="L172" s="1"/>
-    </row>
-    <row r="173" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>947</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>116</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D174" t="s">
         <v>1028</v>
       </c>
-      <c r="F173">
+      <c r="F174">
         <v>33.775617799999999</v>
       </c>
-      <c r="G173">
+      <c r="G174">
         <v>-84.396285000000006</v>
       </c>
-      <c r="H173" t="s">
-        <v>24</v>
-      </c>
-      <c r="I173" s="1" t="s">
+      <c r="H174" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K173" s="6" t="s">
+      <c r="K174" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="L174" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="175" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>949</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>474</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>31</v>
       </c>
-      <c r="F174">
+      <c r="F175">
         <v>48.842205800000002</v>
       </c>
-      <c r="G174">
+      <c r="G175">
         <v>2.3451689</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H175" t="s">
         <v>15</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="I175" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="J174" s="1" t="s">
+      <c r="J175" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K174" s="6" t="s">
+      <c r="K175" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="L174" s="5" t="s">
+      <c r="L175" s="5" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>950</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>70</v>
       </c>
-      <c r="F175">
+      <c r="F176">
         <v>48.259664399999998</v>
       </c>
-      <c r="G175">
+      <c r="G176">
         <v>11.666722999999999</v>
       </c>
-      <c r="H175" t="s">
-        <v>24</v>
-      </c>
-      <c r="K175" s="6" t="s">
+      <c r="H176" t="s">
+        <v>24</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L175" s="1"/>
-    </row>
-    <row r="176" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>952</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>27</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>1028</v>
       </c>
-      <c r="F176">
+      <c r="F177">
         <v>40.007436300000002</v>
       </c>
-      <c r="G176">
+      <c r="G177">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H177" t="s">
         <v>20</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="I177" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K176" s="6" t="s">
+      <c r="K177" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L176" s="1"/>
-    </row>
-    <row r="177" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>953</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>485</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>14</v>
       </c>
-      <c r="F177">
+      <c r="F178">
         <v>55.862828499999999</v>
       </c>
-      <c r="G177">
+      <c r="G178">
         <v>-4.2428534999999998</v>
       </c>
-      <c r="H177" t="s">
-        <v>24</v>
-      </c>
-      <c r="I177" s="1" t="s">
+      <c r="H178" t="s">
+        <v>24</v>
+      </c>
+      <c r="I178" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="J177" s="1" t="s">
+      <c r="J178" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="K177" s="6" t="s">
+      <c r="K178" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="L178" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="179" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>954</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B179" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>159</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>140</v>
       </c>
-      <c r="F178">
+      <c r="F179">
         <v>-27.495430599999999</v>
       </c>
-      <c r="G178">
+      <c r="G179">
         <v>153.0120301</v>
       </c>
-      <c r="H178" t="s">
-        <v>24</v>
-      </c>
-      <c r="J178" s="1" t="s">
+      <c r="H179" t="s">
+        <v>24</v>
+      </c>
+      <c r="J179" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="K178" s="6" t="s">
+      <c r="K179" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="L179" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>955</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>1061</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>1062</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="F179">
+      <c r="F180">
         <v>54.0103942</v>
       </c>
-      <c r="G179">
+      <c r="G180">
         <v>-2.7877293999999999</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H180" t="s">
         <v>20</v>
       </c>
-      <c r="K179" s="6" t="s">
+      <c r="K180" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L179" s="1"/>
-    </row>
-    <row r="180" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>956</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>491</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>1028</v>
       </c>
-      <c r="F180">
+      <c r="F181">
         <v>38.033552899999997</v>
       </c>
-      <c r="G180">
+      <c r="G181">
         <v>-78.507977199999999</v>
       </c>
-      <c r="H180" t="s">
-        <v>24</v>
-      </c>
-      <c r="I180" s="1" t="s">
+      <c r="H181" t="s">
+        <v>24</v>
+      </c>
+      <c r="I181" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="K180" s="6" t="s">
+      <c r="K181" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L180" s="1"/>
-    </row>
-    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>957</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>70</v>
       </c>
-      <c r="F181">
+      <c r="F182">
         <v>52.517882999999998</v>
       </c>
-      <c r="G181">
+      <c r="G182">
         <v>13.3936551</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H182" t="s">
         <v>20</v>
       </c>
-      <c r="K181" s="6" t="s">
+      <c r="K182" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L181" s="1"/>
-    </row>
-    <row r="182" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>958</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>495</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>496</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>1028</v>
       </c>
-      <c r="F182">
+      <c r="F183">
         <v>43.076591999999998</v>
       </c>
-      <c r="G182">
+      <c r="G183">
         <v>-89.412487499999997</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H183" t="s">
         <v>15</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="I183" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="K182" s="6" t="s">
+      <c r="K183" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="L183" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="184" spans="1:12" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>959</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>499</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>39</v>
       </c>
-      <c r="F183">
+      <c r="F184">
         <v>45.406765999999998</v>
       </c>
-      <c r="G183">
+      <c r="G184">
         <v>11.8774462</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H184" t="s">
         <v>20</v>
       </c>
-      <c r="I183" s="1" t="s">
+      <c r="I184" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="J183" s="1" t="s">
+      <c r="J184" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="K183" s="6" t="s">
+      <c r="K184" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="L184" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="185" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>960</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>145</v>
-      </c>
-      <c r="D184" t="s">
-        <v>31</v>
-      </c>
-      <c r="F184">
-        <v>48.842205800000002</v>
-      </c>
-      <c r="G184">
-        <v>2.3451689</v>
-      </c>
-      <c r="H184" t="s">
-        <v>24</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="K184" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="L184" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>961</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C185" t="s">
-        <v>1064</v>
       </c>
       <c r="D185" t="s">
         <v>31</v>
       </c>
       <c r="F185">
+        <v>48.842205800000002</v>
+      </c>
+      <c r="G185">
+        <v>2.3451689</v>
+      </c>
+      <c r="H185" t="s">
+        <v>24</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K185" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="L185" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>961</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D186" t="s">
+        <v>31</v>
+      </c>
+      <c r="F186">
         <v>48.714297100000003</v>
       </c>
-      <c r="G185">
+      <c r="G186">
         <v>2.2112916999999999</v>
-      </c>
-      <c r="H185" t="s">
-        <v>20</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K185" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>962</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D186" t="s">
-        <v>70</v>
-      </c>
-      <c r="F186">
-        <v>52.382964100000002</v>
-      </c>
-      <c r="G186">
-        <v>9.7196988999999991</v>
       </c>
       <c r="H186" t="s">
         <v>20</v>
       </c>
+      <c r="I186" s="1" t="s">
+        <v>1069</v>
+      </c>
       <c r="K186" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L186" s="1"/>
-    </row>
-    <row r="187" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C187" t="s">
-        <v>506</v>
+        <v>503</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="D187" t="s">
-        <v>1028</v>
+        <v>70</v>
       </c>
       <c r="F187">
-        <v>38.536048000000001</v>
+        <v>52.382964100000002</v>
       </c>
       <c r="G187">
-        <v>-121.749286</v>
+        <v>9.7196988999999991</v>
       </c>
       <c r="H187" t="s">
         <v>20</v>
       </c>
-      <c r="I187" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="K187" s="6" t="s">
         <v>665</v>
       </c>
@@ -10005,1190 +10025,1193 @@
     </row>
     <row r="188" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C188" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D188" t="s">
         <v>1028</v>
       </c>
       <c r="F188">
-        <v>37.228384300000002</v>
+        <v>38.536048000000001</v>
       </c>
       <c r="G188">
-        <v>-80.423416700000004</v>
+        <v>-121.749286</v>
       </c>
       <c r="H188" t="s">
         <v>20</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K188" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L188" s="1"/>
     </row>
-    <row r="189" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="C189" t="s">
+        <v>509</v>
       </c>
       <c r="D189" t="s">
-        <v>70</v>
+        <v>1028</v>
       </c>
       <c r="F189">
-        <v>53.577424999999998</v>
+        <v>37.228384300000002</v>
       </c>
       <c r="G189">
-        <v>9.8871459999999995</v>
+        <v>-80.423416700000004</v>
       </c>
       <c r="H189" t="s">
         <v>20</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K189" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>965</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D190" t="s">
+        <v>70</v>
+      </c>
+      <c r="F190">
+        <v>53.577424999999998</v>
+      </c>
+      <c r="G190">
+        <v>9.8871459999999995</v>
+      </c>
+      <c r="H190" t="s">
+        <v>20</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K190" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L190" s="1"/>
+    </row>
+    <row r="191" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>966</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>205</v>
       </c>
-      <c r="F190">
+      <c r="F191">
         <v>48.198654599999998</v>
       </c>
-      <c r="G190">
+      <c r="G191">
         <v>16.368462600000001</v>
       </c>
-      <c r="H190" t="s">
-        <v>24</v>
-      </c>
-      <c r="I190" s="1" t="s">
+      <c r="H191" t="s">
+        <v>24</v>
+      </c>
+      <c r="I191" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K190" s="6" t="s">
+      <c r="K191" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="L190" s="1"/>
-    </row>
-    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="L191" s="1"/>
+    </row>
+    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>967</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C192" t="s">
         <v>517</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" t="s">
         <v>1028</v>
       </c>
-      <c r="F191">
+      <c r="F192">
         <v>40.912376100000003</v>
       </c>
-      <c r="G191">
+      <c r="G192">
         <v>-73.123388899999995</v>
       </c>
-      <c r="H191" t="s">
-        <v>24</v>
-      </c>
-      <c r="I191" s="1" t="s">
+      <c r="H192" t="s">
+        <v>24</v>
+      </c>
+      <c r="I192" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K191" s="6" t="s">
+      <c r="K192" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L191" s="1"/>
-    </row>
-    <row r="192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>968</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D192" t="s">
-        <v>205</v>
-      </c>
-      <c r="F192">
-        <v>48.198654599999998</v>
-      </c>
-      <c r="G192">
-        <v>16.368462600000001</v>
-      </c>
-      <c r="H192" t="s">
-        <v>24</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="K192" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="L192" s="1" t="s">
-        <v>680</v>
-      </c>
+      <c r="L192" s="1"/>
     </row>
     <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>969</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>521</v>
+        <v>968</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D193" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="F193">
-        <v>53.551084600000003</v>
+        <v>48.198654599999998</v>
       </c>
       <c r="G193">
-        <v>9.9936819000000003</v>
+        <v>16.368462600000001</v>
       </c>
       <c r="H193" t="s">
         <v>24</v>
       </c>
-      <c r="J193" s="1" t="s">
-        <v>523</v>
+      <c r="I193" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>709</v>
+        <v>680</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>969</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D194" t="s">
+        <v>70</v>
+      </c>
+      <c r="F194">
+        <v>53.551084600000003</v>
+      </c>
+      <c r="G194">
+        <v>9.9936819000000003</v>
+      </c>
+      <c r="H194" t="s">
+        <v>24</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K194" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>970</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>525</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>1028</v>
       </c>
-      <c r="F194">
+      <c r="F195">
         <v>35.205893600000003</v>
       </c>
-      <c r="G194">
+      <c r="G195">
         <v>-97.445713699999999</v>
-      </c>
-      <c r="H194" t="s">
-        <v>15</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J194" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K194" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="L194" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C195" t="s">
-        <v>41</v>
-      </c>
-      <c r="D195" t="s">
-        <v>42</v>
-      </c>
-      <c r="F195">
-        <v>56.168191999999998</v>
-      </c>
-      <c r="G195">
-        <v>10.202991000000001</v>
       </c>
       <c r="H195" t="s">
         <v>15</v>
       </c>
-      <c r="I195"/>
-      <c r="J195"/>
-      <c r="K195" t="s">
-        <v>664</v>
-      </c>
-      <c r="L195"/>
+      <c r="I195" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K195" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1105</v>
+        <v>1080</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="C196" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="D196" t="s">
-        <v>1074</v>
+        <v>42</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>56.168191999999998</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>10.202991000000001</v>
       </c>
       <c r="H196" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I196" t="s">
-        <v>1108</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I196"/>
       <c r="J196"/>
       <c r="K196" t="s">
-        <v>1109</v>
+        <v>664</v>
       </c>
       <c r="L196"/>
     </row>
-    <row r="197" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C197" t="s">
+        <v>215</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F197">
+        <v>37.459879000000001</v>
+      </c>
+      <c r="G197">
+        <v>126.951904</v>
+      </c>
+      <c r="H197" t="s">
+        <v>24</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J197"/>
+      <c r="K197" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L197"/>
+    </row>
+    <row r="198" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>971</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>529</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>63</v>
       </c>
-      <c r="F197">
+      <c r="F198">
         <v>30.975639399999999</v>
       </c>
-      <c r="G197">
+      <c r="G198">
         <v>76.538867999999994</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H198" t="s">
         <v>20</v>
       </c>
-      <c r="I197" s="1" t="s">
+      <c r="I198" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="K197" s="6" t="s">
+      <c r="K198" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L197" s="1"/>
-    </row>
-    <row r="198" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>972</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C198" t="s">
-        <v>274</v>
-      </c>
-      <c r="D198" t="s">
-        <v>140</v>
-      </c>
-      <c r="F198">
-        <v>-37.822150399999998</v>
-      </c>
-      <c r="G198">
-        <v>145.03895460000001</v>
-      </c>
-      <c r="H198" t="s">
-        <v>24</v>
-      </c>
-      <c r="K198" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>675</v>
-      </c>
+      <c r="L198" s="1"/>
     </row>
     <row r="199" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>973</v>
-      </c>
-      <c r="B199" t="s">
-        <v>532</v>
+        <v>972</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>531</v>
       </c>
       <c r="C199" t="s">
-        <v>533</v>
+        <v>274</v>
       </c>
       <c r="D199" t="s">
-        <v>1073</v>
+        <v>140</v>
       </c>
       <c r="F199">
-        <v>50.087110600000003</v>
+        <v>-37.822150399999998</v>
       </c>
       <c r="G199">
-        <v>14.423488900000001</v>
+        <v>145.03895460000001</v>
       </c>
       <c r="H199" t="s">
-        <v>20</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>534</v>
+        <v>24</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>974</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>548</v>
+        <v>973</v>
+      </c>
+      <c r="B200" t="s">
+        <v>532</v>
       </c>
       <c r="C200" t="s">
-        <v>452</v>
+        <v>533</v>
       </c>
       <c r="D200" t="s">
-        <v>42</v>
+        <v>1073</v>
       </c>
       <c r="F200">
-        <v>55.696949600000003</v>
+        <v>50.087110600000003</v>
       </c>
       <c r="G200">
-        <v>12.5715789</v>
+        <v>14.423488900000001</v>
       </c>
       <c r="H200" t="s">
         <v>20</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="K200" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L200" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>974</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C201" t="s">
+        <v>452</v>
+      </c>
+      <c r="D201" t="s">
+        <v>42</v>
+      </c>
+      <c r="F201">
+        <v>55.696949600000003</v>
+      </c>
+      <c r="G201">
+        <v>12.5715789</v>
+      </c>
+      <c r="H201" t="s">
+        <v>20</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="K201" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="202" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>975</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>536</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D202" t="s">
         <v>1028</v>
       </c>
-      <c r="F201">
+      <c r="F202">
         <v>37.871899200000001</v>
       </c>
-      <c r="G201">
+      <c r="G202">
         <v>-122.2585399</v>
       </c>
-      <c r="H201" t="s">
-        <v>24</v>
-      </c>
-      <c r="I201" s="1" t="s">
+      <c r="H202" t="s">
+        <v>24</v>
+      </c>
+      <c r="I202" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K201" s="6" t="s">
+      <c r="K202" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="L202" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="203" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>976</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>539</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" t="s">
         <v>82</v>
       </c>
-      <c r="F202">
+      <c r="F203">
         <v>43.653225999999997</v>
       </c>
-      <c r="G202">
+      <c r="G203">
         <v>-79.383184299999996</v>
       </c>
-      <c r="H202" t="s">
-        <v>24</v>
-      </c>
-      <c r="I202" s="1" t="s">
+      <c r="H203" t="s">
+        <v>24</v>
+      </c>
+      <c r="I203" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="J202" s="1" t="s">
+      <c r="J203" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="K202" s="6" t="s">
+      <c r="K203" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="L202" s="1"/>
-    </row>
-    <row r="203" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D203" t="s">
-        <v>70</v>
-      </c>
-      <c r="F203">
-        <v>52.296484</v>
-      </c>
-      <c r="G203">
-        <v>10.463150000000001</v>
-      </c>
-      <c r="H203" t="s">
-        <v>24</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K203" s="6" t="s">
-        <v>1094</v>
       </c>
       <c r="L203" s="1"/>
     </row>
     <row r="204" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D204" t="s">
+        <v>70</v>
+      </c>
+      <c r="F204">
+        <v>52.296484</v>
+      </c>
+      <c r="G204">
+        <v>10.463150000000001</v>
+      </c>
+      <c r="H204" t="s">
+        <v>24</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K204" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L204" s="1"/>
+    </row>
+    <row r="205" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>977</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
         <v>184</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D205" t="s">
         <v>1072</v>
       </c>
-      <c r="F204">
+      <c r="F205">
         <v>52.090737400000002</v>
       </c>
-      <c r="G204">
+      <c r="G205">
         <v>5.1214200999999999</v>
-      </c>
-      <c r="H204" t="s">
-        <v>20</v>
-      </c>
-      <c r="K204" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="L204" s="1"/>
-    </row>
-    <row r="205" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>978</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C205" t="s">
-        <v>543</v>
-      </c>
-      <c r="D205" t="s">
-        <v>39</v>
-      </c>
-      <c r="F205">
-        <v>46.069476999999999</v>
-      </c>
-      <c r="G205">
-        <v>11.121046</v>
       </c>
       <c r="H205" t="s">
         <v>20</v>
       </c>
-      <c r="I205" s="1" t="s">
+      <c r="K205" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L205" s="1"/>
+    </row>
+    <row r="206" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>978</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" t="s">
+        <v>543</v>
+      </c>
+      <c r="D206" t="s">
+        <v>39</v>
+      </c>
+      <c r="F206">
+        <v>46.069476999999999</v>
+      </c>
+      <c r="G206">
+        <v>11.121046</v>
+      </c>
+      <c r="H206" t="s">
+        <v>20</v>
+      </c>
+      <c r="I206" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="J205" s="1" t="s">
+      <c r="J206" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="K205" s="6" t="s">
+      <c r="K206" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="L206" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="207" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>979</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>547</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D207" t="s">
         <v>1028</v>
       </c>
-      <c r="F206">
+      <c r="F207">
         <v>47.655335100000002</v>
       </c>
-      <c r="G206">
+      <c r="G207">
         <v>-122.3035199</v>
       </c>
-      <c r="H206" t="s">
-        <v>24</v>
-      </c>
-      <c r="K206" s="6" t="s">
+      <c r="H207" t="s">
+        <v>24</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="L207" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="208" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>980</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C208" t="s">
         <v>551</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D208" t="s">
         <v>256</v>
       </c>
-      <c r="F207">
+      <c r="F208">
         <v>35.026244400000003</v>
       </c>
-      <c r="G207">
+      <c r="G208">
         <v>135.78082180000001</v>
       </c>
-      <c r="H207" t="s">
-        <v>24</v>
-      </c>
-      <c r="I207" s="1" t="s">
+      <c r="H208" t="s">
+        <v>24</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="K207" s="6" t="s">
+      <c r="K208" s="6" t="s">
         <v>735</v>
-      </c>
-      <c r="L207" s="1"/>
-    </row>
-    <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>981</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C208" t="s">
-        <v>554</v>
-      </c>
-      <c r="D208" t="s">
-        <v>405</v>
-      </c>
-      <c r="F208">
-        <v>41.275596999999998</v>
-      </c>
-      <c r="G208">
-        <v>1.9895659999999999</v>
-      </c>
-      <c r="H208" t="s">
-        <v>24</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="K208" s="6" t="s">
-        <v>743</v>
       </c>
       <c r="L208" s="1"/>
     </row>
     <row r="209" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>981</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C209" t="s">
+        <v>554</v>
+      </c>
+      <c r="D209" t="s">
+        <v>405</v>
+      </c>
+      <c r="F209">
+        <v>41.275596999999998</v>
+      </c>
+      <c r="G209">
+        <v>1.9895659999999999</v>
+      </c>
+      <c r="H209" t="s">
+        <v>24</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K209" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="L209" s="1"/>
+    </row>
+    <row r="210" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>1059</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C210" t="s">
         <v>1060</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D210" t="s">
         <v>105</v>
       </c>
-      <c r="F209">
+      <c r="F210">
         <v>-21.9841446</v>
       </c>
-      <c r="G209">
+      <c r="G210">
         <v>-47.8802454</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H210" t="s">
         <v>15</v>
       </c>
-      <c r="K209" s="6" t="s">
+      <c r="K210" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L209" s="1"/>
-    </row>
-    <row r="210" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="L210" s="1"/>
+    </row>
+    <row r="211" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>983</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>559</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D211" t="s">
         <v>560</v>
       </c>
-      <c r="F210">
+      <c r="F211">
         <v>51.222809699999999</v>
       </c>
-      <c r="G210">
+      <c r="G211">
         <v>4.4102318</v>
       </c>
-      <c r="H210" t="s">
+      <c r="H211" t="s">
         <v>20</v>
       </c>
-      <c r="I210" s="1" t="s">
+      <c r="I211" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J210" s="1" t="s">
+      <c r="J211" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="K210" s="6" t="s">
+      <c r="K211" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L210" s="1"/>
-    </row>
-    <row r="211" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="L211" s="1"/>
+    </row>
+    <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>984</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>1065</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>1066</v>
-      </c>
-      <c r="D211" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F211">
-        <v>35.759573099999997</v>
-      </c>
-      <c r="G211">
-        <v>-79.019299699999905</v>
-      </c>
-      <c r="H211" t="s">
-        <v>24</v>
-      </c>
-      <c r="K211" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="L211" s="1"/>
-    </row>
-    <row r="212" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>985</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C212" t="s">
-        <v>27</v>
       </c>
       <c r="D212" t="s">
         <v>1028</v>
       </c>
       <c r="F212">
+        <v>35.759573099999997</v>
+      </c>
+      <c r="G212">
+        <v>-79.019299699999905</v>
+      </c>
+      <c r="H212" t="s">
+        <v>24</v>
+      </c>
+      <c r="K212" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>985</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C213" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F213">
         <v>40.007436300000002</v>
       </c>
-      <c r="G212">
+      <c r="G213">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H212" t="s">
-        <v>24</v>
-      </c>
-      <c r="I212" s="1" t="s">
+      <c r="H213" t="s">
+        <v>24</v>
+      </c>
+      <c r="I213" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="K212" s="6" t="s">
+      <c r="K213" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="L213" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="214" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>986</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C214" t="s">
         <v>452</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D214" t="s">
         <v>42</v>
       </c>
-      <c r="F213">
+      <c r="F214">
         <v>55.696949600000003</v>
       </c>
-      <c r="G213">
+      <c r="G214">
         <v>12.5715789</v>
       </c>
-      <c r="H213" t="s">
-        <v>24</v>
-      </c>
-      <c r="I213" s="1" t="s">
+      <c r="H214" t="s">
+        <v>24</v>
+      </c>
+      <c r="I214" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="K213" s="6" t="s">
+      <c r="K214" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L213" s="1"/>
-    </row>
-    <row r="214" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="L214" s="1"/>
+    </row>
+    <row r="215" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>987</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>539</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D215" t="s">
         <v>82</v>
       </c>
-      <c r="F214">
+      <c r="F215">
         <v>43.653225999999997</v>
       </c>
-      <c r="G214">
+      <c r="G215">
         <v>-79.383184299999996</v>
       </c>
-      <c r="H214" t="s">
-        <v>24</v>
-      </c>
-      <c r="I214" s="1" t="s">
+      <c r="H215" t="s">
+        <v>24</v>
+      </c>
+      <c r="I215" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="J215" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="K214" s="6" t="s">
+      <c r="K215" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="L215" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="216" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>988</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C216" t="s">
         <v>298</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D216" t="s">
         <v>39</v>
       </c>
-      <c r="F215">
+      <c r="F216">
         <v>43.818863999999998</v>
       </c>
-      <c r="G215">
+      <c r="G216">
         <v>11.192811000000001</v>
       </c>
-      <c r="H215" t="s">
-        <v>24</v>
-      </c>
-      <c r="I215" s="1" t="s">
+      <c r="H216" t="s">
+        <v>24</v>
+      </c>
+      <c r="I216" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="K215" s="6" t="s">
+      <c r="K216" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="L216" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>989</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C217" t="s">
         <v>572</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D217" t="s">
         <v>412</v>
       </c>
-      <c r="F216">
+      <c r="F217">
         <v>60.209825299999999</v>
       </c>
-      <c r="G216">
+      <c r="G217">
         <v>24.976551300000001</v>
-      </c>
-      <c r="H216" t="s">
-        <v>20</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="K216" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L216" s="1"/>
-    </row>
-    <row r="217" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>990</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C217" t="s">
-        <v>575</v>
-      </c>
-      <c r="D217" t="s">
-        <v>238</v>
-      </c>
-      <c r="F217">
-        <v>52.240346299999999</v>
-      </c>
-      <c r="G217">
-        <v>21.018601199999999</v>
       </c>
       <c r="H217" t="s">
         <v>20</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="J217" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K217" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L217" s="1"/>
     </row>
-    <row r="218" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>991</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>578</v>
+        <v>990</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="C218" t="s">
-        <v>139</v>
+        <v>575</v>
       </c>
       <c r="D218" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F218">
-        <v>-35.277699900000002</v>
+        <v>52.240346299999999</v>
       </c>
       <c r="G218">
-        <v>149.118527</v>
+        <v>21.018601199999999</v>
       </c>
       <c r="H218" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K218" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>676</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="L218" s="1"/>
     </row>
     <row r="219" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>991</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C219" t="s">
+        <v>139</v>
+      </c>
+      <c r="D219" t="s">
+        <v>140</v>
+      </c>
+      <c r="F219">
+        <v>-35.277699900000002</v>
+      </c>
+      <c r="G219">
+        <v>149.118527</v>
+      </c>
+      <c r="H219" t="s">
+        <v>24</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K219" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>992</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C220" t="s">
         <v>581</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D220" t="s">
         <v>63</v>
       </c>
-      <c r="F219">
+      <c r="F220">
         <v>18.905388899999998</v>
       </c>
-      <c r="G219">
+      <c r="G220">
         <v>72.804928000000004</v>
       </c>
-      <c r="H219" t="s">
-        <v>24</v>
-      </c>
-      <c r="I219" s="1" t="s">
+      <c r="H220" t="s">
+        <v>24</v>
+      </c>
+      <c r="I220" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="K219" s="6" t="s">
+      <c r="K220" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="L219" s="4" t="s">
+      <c r="L220" s="4" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="221" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>993</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>274</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D221" t="s">
         <v>140</v>
       </c>
-      <c r="F220">
+      <c r="F221">
         <v>-37.822150399999998</v>
       </c>
-      <c r="G220">
+      <c r="G221">
         <v>145.03895460000001</v>
       </c>
-      <c r="H220" t="s">
-        <v>24</v>
-      </c>
-      <c r="J220" s="1" t="s">
+      <c r="H221" t="s">
+        <v>24</v>
+      </c>
+      <c r="J221" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="K220" s="6" t="s">
+      <c r="K221" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="L221" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="222" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>994</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C222" t="s">
         <v>586</v>
-      </c>
-      <c r="D221" t="s">
-        <v>82</v>
-      </c>
-      <c r="F221">
-        <v>43.773453500000002</v>
-      </c>
-      <c r="G221">
-        <v>-79.501868400000006</v>
-      </c>
-      <c r="H221" t="s">
-        <v>24</v>
-      </c>
-      <c r="K221" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="L221" s="1"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>995</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="C222" t="s">
-        <v>648</v>
       </c>
       <c r="D222" t="s">
         <v>82</v>
       </c>
       <c r="F222">
+        <v>43.773453500000002</v>
+      </c>
+      <c r="G222">
+        <v>-79.501868400000006</v>
+      </c>
+      <c r="H222" t="s">
+        <v>24</v>
+      </c>
+      <c r="K222" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="L222" s="1"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>995</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C223" t="s">
+        <v>648</v>
+      </c>
+      <c r="D223" t="s">
+        <v>82</v>
+      </c>
+      <c r="F223">
         <v>45.617910899999998</v>
       </c>
-      <c r="G222">
+      <c r="G223">
         <v>-61.995441599999999</v>
       </c>
-      <c r="H222" t="s">
+      <c r="H223" t="s">
         <v>20</v>
       </c>
-      <c r="K222" s="6" t="s">
+      <c r="K223" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="L223" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>996</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C224" t="s">
         <v>346</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D224" t="s">
         <v>1072</v>
       </c>
-      <c r="F223">
+      <c r="F224">
         <v>52.333756800000003</v>
       </c>
-      <c r="G223">
+      <c r="G224">
         <v>4.8657199000000002</v>
       </c>
-      <c r="H223" t="s">
-        <v>24</v>
-      </c>
-      <c r="K223" s="6" t="s">
+      <c r="H224" t="s">
+        <v>24</v>
+      </c>
+      <c r="K224" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="L223" s="1"/>
-    </row>
-    <row r="224" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="L224" s="1"/>
+    </row>
+    <row r="225" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>997</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>649</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D225" t="s">
         <v>650</v>
       </c>
-      <c r="F224">
+      <c r="F225">
         <v>35.305134000000002</v>
       </c>
-      <c r="G224">
+      <c r="G225">
         <v>25.072593000000001</v>
       </c>
-      <c r="H224" t="s">
-        <v>24</v>
-      </c>
-      <c r="I224" s="7" t="s">
+      <c r="H225" t="s">
+        <v>24</v>
+      </c>
+      <c r="I225" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="J224" s="1" t="s">
+      <c r="J225" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="K224" s="6" t="s">
+      <c r="K225" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="L225" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>998</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>333</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F225">
-        <v>42.360090999999997</v>
-      </c>
-      <c r="G225">
-        <v>-71.094160000000002</v>
-      </c>
-      <c r="H225" t="s">
-        <v>24</v>
-      </c>
-      <c r="K225" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="L225" s="1"/>
-    </row>
-    <row r="226" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>999</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C226" t="s">
-        <v>590</v>
       </c>
       <c r="D226" t="s">
         <v>1028</v>
       </c>
       <c r="F226">
-        <v>42.929508400000003</v>
+        <v>42.360090999999997</v>
       </c>
       <c r="G226">
-        <v>-85.588932900000003</v>
+        <v>-71.094160000000002</v>
       </c>
       <c r="H226" t="s">
         <v>24</v>
@@ -11196,297 +11219,297 @@
       <c r="K226" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>999</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C227" t="s">
+        <v>590</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F227">
+        <v>42.929508400000003</v>
+      </c>
+      <c r="G227">
+        <v>-85.588932900000003</v>
+      </c>
+      <c r="H227" t="s">
+        <v>24</v>
+      </c>
+      <c r="K227" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="228" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>1000</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" t="s">
         <v>592</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D228" t="s">
         <v>1072</v>
       </c>
-      <c r="F227">
+      <c r="F228">
         <v>52.355818200000002</v>
       </c>
-      <c r="G227">
+      <c r="G228">
         <v>4.9557263000000003</v>
       </c>
-      <c r="H227" t="s">
-        <v>24</v>
-      </c>
-      <c r="I227" s="1" t="s">
+      <c r="H228" t="s">
+        <v>24</v>
+      </c>
+      <c r="I228" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="K227" s="6" t="s">
+      <c r="K228" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="L228" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="229" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>1001</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C229" t="s">
         <v>595</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D229" t="s">
         <v>596</v>
       </c>
-      <c r="F228">
+      <c r="F229">
         <v>22.418096999999999</v>
       </c>
-      <c r="G228">
+      <c r="G229">
         <v>114.207953</v>
       </c>
-      <c r="H228" t="s">
-        <v>24</v>
-      </c>
-      <c r="I228" s="1" t="s">
+      <c r="H229" t="s">
+        <v>24</v>
+      </c>
+      <c r="I229" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="K228" s="6" t="s">
+      <c r="K229" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="L229" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>1002</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D229" t="s">
-        <v>70</v>
-      </c>
-      <c r="F229">
-        <v>49.419140200000001</v>
-      </c>
-      <c r="G229">
-        <v>8.6702492000000007</v>
-      </c>
-      <c r="H229" t="s">
-        <v>24</v>
-      </c>
-      <c r="I229" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K229" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="L229" s="1"/>
-    </row>
-    <row r="230" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="D230" t="s">
         <v>70</v>
       </c>
       <c r="F230">
-        <v>52.382964100000002</v>
+        <v>49.419140200000001</v>
       </c>
       <c r="G230">
-        <v>9.7196988999999991</v>
+        <v>8.6702492000000007</v>
       </c>
       <c r="H230" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>665</v>
+        <v>703</v>
       </c>
       <c r="L230" s="1"/>
     </row>
     <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D231" t="s">
+        <v>70</v>
+      </c>
+      <c r="F231">
+        <v>52.382964100000002</v>
+      </c>
+      <c r="G231">
+        <v>9.7196988999999991</v>
+      </c>
+      <c r="H231" t="s">
+        <v>20</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="K231" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L231" s="1"/>
+    </row>
+    <row r="232" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>1004</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>249</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D232" t="s">
         <v>1028</v>
       </c>
-      <c r="F231">
+      <c r="F232">
         <v>40.7982133</v>
       </c>
-      <c r="G231">
+      <c r="G232">
         <v>-77.859908399999995</v>
       </c>
-      <c r="H231" t="s">
-        <v>24</v>
-      </c>
-      <c r="I231" s="1" t="s">
+      <c r="H232" t="s">
+        <v>24</v>
+      </c>
+      <c r="I232" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="K231" s="6" t="s">
+      <c r="K232" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="L232" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="233" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>1005</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D233" t="s">
         <v>70</v>
       </c>
-      <c r="F232">
+      <c r="F233">
         <v>50.726771499999998</v>
       </c>
-      <c r="G232">
+      <c r="G233">
         <v>7.0865226999999997</v>
       </c>
-      <c r="H232" t="s">
-        <v>24</v>
-      </c>
-      <c r="K232" s="6" t="s">
+      <c r="H233" t="s">
+        <v>24</v>
+      </c>
+      <c r="K233" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="L232" s="1"/>
-    </row>
-    <row r="233" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C233" t="s">
-        <v>607</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F233">
-        <v>34.413962900000001</v>
-      </c>
-      <c r="G233">
-        <v>-119.848947</v>
-      </c>
-      <c r="H233" t="s">
-        <v>24</v>
-      </c>
-      <c r="K233" s="6" t="s">
-        <v>751</v>
       </c>
       <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>44</v>
+        <v>606</v>
       </c>
       <c r="C234" t="s">
-        <v>126</v>
+        <v>607</v>
       </c>
       <c r="D234" t="s">
-        <v>31</v>
+        <v>1028</v>
       </c>
       <c r="F234">
-        <v>48.713740000000001</v>
+        <v>34.413962900000001</v>
       </c>
       <c r="G234">
-        <v>2.2034927</v>
+        <v>-119.848947</v>
       </c>
       <c r="H234" t="s">
         <v>24</v>
       </c>
-      <c r="J234" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K234" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="L234" s="5" t="s">
-        <v>713</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="L234" s="1"/>
     </row>
     <row r="235" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C235" t="s">
+        <v>126</v>
+      </c>
+      <c r="D235" t="s">
+        <v>31</v>
+      </c>
+      <c r="F235">
+        <v>48.713740000000001</v>
+      </c>
+      <c r="G235">
+        <v>2.2034927</v>
+      </c>
+      <c r="H235" t="s">
+        <v>24</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K235" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="L235" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>1008</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
         <v>609</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D236" t="s">
         <v>1028</v>
       </c>
-      <c r="F235">
+      <c r="F236">
         <v>34.097743000000001</v>
       </c>
-      <c r="G235">
+      <c r="G236">
         <v>-117.711803</v>
-      </c>
-      <c r="H235" t="s">
-        <v>24</v>
-      </c>
-      <c r="K235" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="L235" s="1"/>
-    </row>
-    <row r="236" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D236" t="s">
-        <v>70</v>
-      </c>
-      <c r="F236">
-        <v>49.425377400000002</v>
-      </c>
-      <c r="G236">
-        <v>7.7555496000000002</v>
       </c>
       <c r="H236" t="s">
         <v>24</v>
@@ -11496,1025 +11519,1045 @@
       </c>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D237" t="s">
+        <v>70</v>
+      </c>
+      <c r="F237">
+        <v>49.425377400000002</v>
+      </c>
+      <c r="G237">
+        <v>7.7555496000000002</v>
+      </c>
+      <c r="H237" t="s">
+        <v>24</v>
+      </c>
+      <c r="K237" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="L237" s="1"/>
+    </row>
+    <row r="238" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>1011</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>189</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D238" t="s">
         <v>57</v>
       </c>
-      <c r="F237">
+      <c r="F238">
         <v>1.3483099000000001</v>
       </c>
-      <c r="G237">
+      <c r="G238">
         <v>103.6831347</v>
       </c>
-      <c r="H237" t="s">
-        <v>24</v>
-      </c>
-      <c r="I237" s="1" t="s">
+      <c r="H238" t="s">
+        <v>24</v>
+      </c>
+      <c r="I238" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="J237" s="1" t="s">
+      <c r="J238" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="K237" s="6" t="s">
+      <c r="K238" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L237" s="1"/>
-    </row>
-    <row r="238" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="L238" s="1"/>
+    </row>
+    <row r="239" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>1012</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>617</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D239" t="s">
         <v>1028</v>
       </c>
-      <c r="F238">
+      <c r="F239">
         <v>40.8075355</v>
       </c>
-      <c r="G238">
+      <c r="G239">
         <v>-73.962572699999996</v>
       </c>
-      <c r="H238" t="s">
-        <v>24</v>
-      </c>
-      <c r="K238" s="6" t="s">
+      <c r="H239" t="s">
+        <v>24</v>
+      </c>
+      <c r="K239" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="L238" s="1"/>
-    </row>
-    <row r="239" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>1014</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C240" t="s">
         <v>620</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D240" t="s">
         <v>63</v>
       </c>
-      <c r="F239">
+      <c r="F240">
         <v>23.253028</v>
       </c>
-      <c r="G239">
+      <c r="G240">
         <v>77.450444000000005</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H240" t="s">
         <v>20</v>
       </c>
-      <c r="I239" s="1" t="s">
+      <c r="I240" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="J239" s="1" t="s">
+      <c r="J240" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="K239" s="6" t="s">
+      <c r="K240" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L239" s="1"/>
-    </row>
-    <row r="240" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>1015</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C241" t="s">
         <v>27</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D241" t="s">
         <v>1028</v>
       </c>
-      <c r="F240">
+      <c r="F241">
         <v>40.007436300000002</v>
       </c>
-      <c r="G240">
+      <c r="G241">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H240" t="s">
-        <v>24</v>
-      </c>
-      <c r="I240" s="1" t="s">
+      <c r="H241" t="s">
+        <v>24</v>
+      </c>
+      <c r="I241" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="K240" s="6" t="s">
+      <c r="K241" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="L241" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C241" t="s">
-        <v>628</v>
-      </c>
-      <c r="D241" t="s">
-        <v>238</v>
-      </c>
-      <c r="F241">
-        <v>50.0609623</v>
-      </c>
-      <c r="G241">
-        <v>19.934107399999998</v>
-      </c>
-      <c r="H241" t="s">
-        <v>20</v>
-      </c>
-      <c r="I241" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J241" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="K241" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L241" s="1"/>
     </row>
     <row r="242" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1067</v>
+        <v>1017</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="C242" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D242" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="F242">
-        <v>44.225279499999999</v>
+        <v>50.0609623</v>
       </c>
       <c r="G242">
-        <v>-76.495141199999907</v>
+        <v>19.934107399999998</v>
       </c>
       <c r="H242" t="s">
         <v>20</v>
       </c>
+      <c r="I242" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="K242" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L242" s="1"/>
     </row>
-    <row r="243" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C243" t="s">
+        <v>631</v>
+      </c>
+      <c r="D243" t="s">
+        <v>82</v>
+      </c>
+      <c r="F243">
+        <v>44.225279499999999</v>
+      </c>
+      <c r="G243">
+        <v>-76.495141199999907</v>
+      </c>
+      <c r="H243" t="s">
+        <v>20</v>
+      </c>
+      <c r="K243" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L243" s="1"/>
+    </row>
+    <row r="244" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>1019</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C244" t="s">
         <v>617</v>
-      </c>
-      <c r="D243" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F243">
-        <v>40.8075355</v>
-      </c>
-      <c r="G243">
-        <v>-73.962572699999996</v>
-      </c>
-      <c r="H243" t="s">
-        <v>24</v>
-      </c>
-      <c r="K243" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="L243" s="1"/>
-    </row>
-    <row r="244" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C244" t="s">
-        <v>634</v>
       </c>
       <c r="D244" t="s">
         <v>1028</v>
       </c>
       <c r="F244">
+        <v>40.8075355</v>
+      </c>
+      <c r="G244">
+        <v>-73.962572699999996</v>
+      </c>
+      <c r="H244" t="s">
+        <v>24</v>
+      </c>
+      <c r="K244" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="L244" s="1"/>
+    </row>
+    <row r="245" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C245" t="s">
+        <v>634</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F245">
         <v>32.9857619</v>
       </c>
-      <c r="G244">
+      <c r="G245">
         <v>-96.750099300000002</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H245" t="s">
         <v>20</v>
       </c>
-      <c r="K244" s="6" t="s">
+      <c r="K245" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L244" s="1"/>
-    </row>
-    <row r="245" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>1021</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C246" t="s">
         <v>636</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D246" t="s">
         <v>119</v>
       </c>
-      <c r="F245">
+      <c r="F246">
         <v>37.841507</v>
       </c>
-      <c r="G245">
+      <c r="G246">
         <v>112.53001399999999</v>
       </c>
-      <c r="H245" t="s">
-        <v>24</v>
-      </c>
-      <c r="I245" s="1" t="s">
+      <c r="H246" t="s">
+        <v>24</v>
+      </c>
+      <c r="I246" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="K245" s="6" t="s">
+      <c r="K246" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="L246" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C246" t="s">
-        <v>639</v>
-      </c>
-      <c r="D246" t="s">
-        <v>596</v>
-      </c>
-      <c r="F246">
-        <v>22.4162632</v>
-      </c>
-      <c r="G246">
-        <v>114.2109318</v>
-      </c>
-      <c r="H246" t="s">
-        <v>20</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="K246" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L246" s="1"/>
     </row>
     <row r="247" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
+      </c>
+      <c r="C247" t="s">
+        <v>639</v>
       </c>
       <c r="D247" t="s">
-        <v>70</v>
+        <v>596</v>
       </c>
       <c r="F247">
-        <v>48.529454999999999</v>
+        <v>22.4162632</v>
       </c>
       <c r="G247">
-        <v>9.0437720000000006</v>
+        <v>114.2109318</v>
       </c>
       <c r="H247" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>657</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="L247" s="1"/>
     </row>
     <row r="248" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D248" t="s">
+        <v>70</v>
+      </c>
+      <c r="F248">
+        <v>48.529454999999999</v>
+      </c>
+      <c r="G248">
+        <v>9.0437720000000006</v>
+      </c>
+      <c r="H248" t="s">
+        <v>24</v>
+      </c>
+      <c r="K248" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>1024</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B249" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D249" t="s">
         <v>205</v>
       </c>
-      <c r="F248">
+      <c r="F249">
         <v>47.269212400000001</v>
       </c>
-      <c r="G248">
+      <c r="G249">
         <v>11.404102399999999</v>
       </c>
-      <c r="H248" t="s">
+      <c r="H249" t="s">
         <v>20</v>
       </c>
-      <c r="J248" s="1" t="s">
+      <c r="J249" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="K248" s="6" t="s">
+      <c r="K249" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L248" s="1"/>
-    </row>
-    <row r="249" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="L249" s="1"/>
+    </row>
+    <row r="250" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>1025</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C250" t="s">
         <v>646</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D250" t="s">
         <v>1028</v>
       </c>
-      <c r="F249">
+      <c r="F250">
         <v>42.360090999999997</v>
       </c>
-      <c r="G249">
+      <c r="G250">
         <v>-71.094160000000002</v>
       </c>
-      <c r="H249" t="s">
-        <v>24</v>
-      </c>
-      <c r="K249" s="6" t="s">
+      <c r="H250" t="s">
+        <v>24</v>
+      </c>
+      <c r="K250" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="L249" s="1"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K250" s="6"/>
-    </row>
-    <row r="251" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="L250" s="1"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K251" s="6"/>
+    </row>
+    <row r="252" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>785</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>22</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C252" t="s">
         <v>23</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" t="s">
         <v>1028</v>
       </c>
-      <c r="F251">
+      <c r="F252">
         <v>32.2318851</v>
       </c>
-      <c r="G251">
+      <c r="G252">
         <v>-110.9501094</v>
       </c>
-      <c r="H251" t="s">
-        <v>24</v>
-      </c>
-      <c r="I251" t="s">
+      <c r="H252" t="s">
+        <v>24</v>
+      </c>
+      <c r="I252" t="s">
         <v>25</v>
       </c>
-      <c r="J251"/>
-      <c r="K251" t="s">
+      <c r="J252"/>
+      <c r="K252" t="s">
         <v>661</v>
       </c>
-      <c r="L251"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>803</v>
-      </c>
-      <c r="B252" t="s">
-        <v>80</v>
-      </c>
-      <c r="C252" t="s">
-        <v>81</v>
-      </c>
-      <c r="D252" t="s">
-        <v>82</v>
-      </c>
-      <c r="F252">
-        <v>53.523218900000003</v>
-      </c>
-      <c r="G252">
-        <v>-113.5263186</v>
-      </c>
-      <c r="H252" t="s">
-        <v>20</v>
-      </c>
-      <c r="I252"/>
-      <c r="J252" t="s">
-        <v>83</v>
-      </c>
-      <c r="K252" t="s">
-        <v>665</v>
-      </c>
-      <c r="L252" t="s">
-        <v>684</v>
-      </c>
+      <c r="L252"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="B253" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C253" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D253" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F253">
-        <v>39.986913000000001</v>
+        <v>53.523218900000003</v>
       </c>
       <c r="G253">
-        <v>116.30587389999999</v>
+        <v>-113.5263186</v>
       </c>
       <c r="H253" t="s">
-        <v>15</v>
-      </c>
-      <c r="I253" t="s">
-        <v>120</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I253"/>
       <c r="J253" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="K253" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L253" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>816</v>
+      </c>
+      <c r="B254" t="s">
+        <v>117</v>
+      </c>
+      <c r="C254" t="s">
+        <v>118</v>
+      </c>
+      <c r="D254" t="s">
+        <v>119</v>
+      </c>
+      <c r="F254">
+        <v>39.986913000000001</v>
+      </c>
+      <c r="G254">
+        <v>116.30587389999999</v>
+      </c>
+      <c r="H254" t="s">
+        <v>15</v>
+      </c>
+      <c r="I254" t="s">
+        <v>120</v>
+      </c>
+      <c r="J254" t="s">
+        <v>121</v>
+      </c>
+      <c r="K254" t="s">
+        <v>664</v>
+      </c>
+      <c r="L254" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>820</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>132</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" t="s">
         <v>133</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D255" t="s">
         <v>1028</v>
       </c>
-      <c r="F254">
+      <c r="F255">
         <v>37.427474500000002</v>
       </c>
-      <c r="G254">
+      <c r="G255">
         <v>-122.169719</v>
       </c>
-      <c r="H254" t="s">
-        <v>24</v>
-      </c>
-      <c r="I254"/>
-      <c r="J254"/>
-      <c r="K254" t="s">
+      <c r="H255" t="s">
+        <v>24</v>
+      </c>
+      <c r="I255"/>
+      <c r="J255"/>
+      <c r="K255" t="s">
         <v>755</v>
       </c>
-      <c r="L254" t="s">
+      <c r="L255" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="256" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>825</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D256" t="s">
         <v>31</v>
       </c>
-      <c r="F255">
+      <c r="F256">
         <v>48.842205800000002</v>
       </c>
-      <c r="G255">
+      <c r="G256">
         <v>2.3451689</v>
-      </c>
-      <c r="H255" t="s">
-        <v>15</v>
-      </c>
-      <c r="K255" t="s">
-        <v>717</v>
-      </c>
-      <c r="L255" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>843</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D256" t="s">
-        <v>63</v>
-      </c>
-      <c r="F256">
-        <v>12.9225525</v>
-      </c>
-      <c r="G256">
-        <v>77.592889700000001</v>
       </c>
       <c r="H256" t="s">
         <v>15</v>
       </c>
-      <c r="I256" s="1" t="s">
+      <c r="K256" t="s">
+        <v>717</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>843</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D257" t="s">
+        <v>63</v>
+      </c>
+      <c r="F257">
+        <v>12.9225525</v>
+      </c>
+      <c r="G257">
+        <v>77.592889700000001</v>
+      </c>
+      <c r="H257" t="s">
+        <v>15</v>
+      </c>
+      <c r="I257" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K256" t="s">
+      <c r="K257" t="s">
         <v>664</v>
       </c>
-      <c r="L256" s="5" t="s">
+      <c r="L257" s="5" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>857</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D257" t="s">
-        <v>49</v>
-      </c>
-      <c r="F257">
-        <v>-45.479067100000002</v>
-      </c>
-      <c r="G257">
-        <v>170.15475670000001</v>
-      </c>
-      <c r="H257" t="s">
-        <v>20</v>
-      </c>
-      <c r="K257" t="s">
-        <v>665</v>
-      </c>
-      <c r="L257" s="5" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="D258" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="F258">
-        <v>35.801062000000002</v>
+        <v>-45.479067100000002</v>
       </c>
       <c r="G258">
-        <v>139.71977899999999</v>
+        <v>170.15475670000001</v>
       </c>
       <c r="H258" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K258" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>654</v>
+        <v>740</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>866</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D259" t="s">
+        <v>256</v>
+      </c>
+      <c r="F259">
+        <v>35.801062000000002</v>
+      </c>
+      <c r="G259">
+        <v>139.71977899999999</v>
+      </c>
+      <c r="H259" t="s">
+        <v>24</v>
+      </c>
+      <c r="K259" t="s">
+        <v>653</v>
+      </c>
+      <c r="L259" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>882</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D260" t="s">
         <v>140</v>
       </c>
-      <c r="F259">
+      <c r="F260">
         <v>-35.277699900000002</v>
       </c>
-      <c r="G259">
+      <c r="G260">
         <v>149.118527</v>
       </c>
-      <c r="H259" t="s">
+      <c r="H260" t="s">
         <v>20</v>
       </c>
-      <c r="K259" t="s">
+      <c r="K260" t="s">
         <v>665</v>
       </c>
-      <c r="L259" s="5" t="s">
+      <c r="L260" s="5" t="s">
         <v>671</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>891</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D260" t="s">
-        <v>119</v>
-      </c>
-      <c r="F260">
-        <v>37.841507</v>
-      </c>
-      <c r="G260">
-        <v>112.53001399999999</v>
-      </c>
-      <c r="H260" t="s">
-        <v>15</v>
-      </c>
-      <c r="I260" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J260" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K260" t="s">
-        <v>664</v>
-      </c>
-      <c r="L260" s="5" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D261" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="F261">
-        <v>19.325721999999999</v>
+        <v>37.841507</v>
       </c>
       <c r="G261">
-        <v>-99.180436999999998</v>
+        <v>112.53001399999999</v>
       </c>
       <c r="H261" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K261" t="s">
         <v>664</v>
       </c>
       <c r="L261" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>892</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D262" t="s">
+        <v>316</v>
+      </c>
+      <c r="F262">
+        <v>19.325721999999999</v>
+      </c>
+      <c r="G262">
+        <v>-99.180436999999998</v>
+      </c>
+      <c r="H262" t="s">
+        <v>24</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K262" t="s">
+        <v>664</v>
+      </c>
+      <c r="L262" s="5" t="s">
         <v>736</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>902</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F262">
-        <v>52.333756800000003</v>
-      </c>
-      <c r="G262">
-        <v>4.8657199000000002</v>
-      </c>
-      <c r="H262" t="s">
-        <v>24</v>
-      </c>
-      <c r="K262" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>902</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F263">
+        <v>52.333756800000003</v>
+      </c>
+      <c r="G263">
+        <v>4.8657199000000002</v>
+      </c>
+      <c r="H263" t="s">
+        <v>24</v>
+      </c>
+      <c r="K263" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>910</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D264" t="s">
         <v>31</v>
       </c>
-      <c r="F263">
+      <c r="F264">
         <v>48.842205800000002</v>
       </c>
-      <c r="G263">
+      <c r="G264">
         <v>2.3451689</v>
       </c>
-      <c r="H263" t="s">
-        <v>24</v>
-      </c>
-      <c r="K263" t="s">
+      <c r="H264" t="s">
+        <v>24</v>
+      </c>
+      <c r="K264" t="s">
         <v>717</v>
       </c>
-      <c r="L263" s="5" t="s">
+      <c r="L264" s="5" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="265" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>917</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>379</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C265" t="s">
         <v>380</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D265" t="s">
         <v>1028</v>
       </c>
-      <c r="F264">
+      <c r="F265">
         <v>34.201308099999999</v>
       </c>
-      <c r="G264">
+      <c r="G265">
         <v>-118.1713944</v>
       </c>
-      <c r="H264" t="s">
-        <v>24</v>
-      </c>
-      <c r="I264" t="s">
+      <c r="H265" t="s">
+        <v>24</v>
+      </c>
+      <c r="I265" t="s">
         <v>381</v>
       </c>
-      <c r="J264" t="s">
+      <c r="J265" t="s">
         <v>382</v>
       </c>
-      <c r="K264" t="s">
+      <c r="K265" t="s">
         <v>664</v>
       </c>
-      <c r="L264" t="s">
+      <c r="L265" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="266" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>948</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>469</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C266" t="s">
         <v>470</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D266" t="s">
         <v>63</v>
       </c>
-      <c r="F265">
+      <c r="F266">
         <v>18.545665799999998</v>
       </c>
-      <c r="G265">
+      <c r="G266">
         <v>73.806586100000004</v>
       </c>
-      <c r="H265" t="s">
-        <v>24</v>
-      </c>
-      <c r="I265" t="s">
+      <c r="H266" t="s">
+        <v>24</v>
+      </c>
+      <c r="I266" t="s">
         <v>471</v>
       </c>
-      <c r="J265" t="s">
+      <c r="J266" t="s">
         <v>472</v>
       </c>
-      <c r="K265" t="s">
+      <c r="K266" t="s">
         <v>724</v>
       </c>
-      <c r="L265"/>
-    </row>
-    <row r="266" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="L266"/>
+    </row>
+    <row r="267" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>951</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>479</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C267" t="s">
         <v>480</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D267" t="s">
         <v>14</v>
       </c>
-      <c r="F266">
+      <c r="F267">
         <v>51.524559199999999</v>
       </c>
-      <c r="G266">
+      <c r="G267">
         <v>-0.1340401</v>
       </c>
-      <c r="H266" t="s">
-        <v>24</v>
-      </c>
-      <c r="I266" t="s">
+      <c r="H267" t="s">
+        <v>24</v>
+      </c>
+      <c r="I267" t="s">
         <v>481</v>
       </c>
-      <c r="J266"/>
-      <c r="K266" t="s">
-        <v>664</v>
-      </c>
-      <c r="L266" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>982</v>
-      </c>
-      <c r="B267" t="s">
-        <v>556</v>
-      </c>
-      <c r="C267" t="s">
-        <v>557</v>
-      </c>
-      <c r="D267" t="s">
-        <v>63</v>
-      </c>
-      <c r="F267">
-        <v>26.512338799999998</v>
-      </c>
-      <c r="G267">
-        <v>80.232900000000001</v>
-      </c>
-      <c r="H267" t="s">
-        <v>20</v>
-      </c>
-      <c r="I267"/>
       <c r="J267"/>
       <c r="K267" t="s">
-        <v>665</v>
-      </c>
-      <c r="L267"/>
+        <v>664</v>
+      </c>
+      <c r="L267" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="268" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="B268" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
       <c r="C268" t="s">
-        <v>27</v>
+        <v>557</v>
       </c>
       <c r="D268" t="s">
-        <v>1028</v>
+        <v>63</v>
       </c>
       <c r="F268">
-        <v>40.007436300000002</v>
+        <v>26.512338799999998</v>
       </c>
       <c r="G268">
-        <v>-105.26864809999999</v>
+        <v>80.232900000000001</v>
       </c>
       <c r="H268" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I268"/>
       <c r="J268"/>
       <c r="K268" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="L268"/>
     </row>
-    <row r="269" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B269" t="s">
-        <v>47</v>
+        <v>612</v>
       </c>
       <c r="C269" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D269" t="s">
-        <v>49</v>
+        <v>1028</v>
       </c>
       <c r="F269">
-        <v>-45.479067100000002</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G269">
-        <v>170.15475670000001</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H269" t="s">
         <v>24</v>
       </c>
-      <c r="I269" t="s">
-        <v>618</v>
-      </c>
+      <c r="I269"/>
       <c r="J269"/>
       <c r="K269" t="s">
-        <v>664</v>
-      </c>
-      <c r="L269" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="L269"/>
+    </row>
+    <row r="270" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B270" t="s">
-        <v>625</v>
+        <v>47</v>
       </c>
       <c r="C270" t="s">
-        <v>626</v>
+        <v>48</v>
       </c>
       <c r="D270" t="s">
-        <v>1028</v>
+        <v>49</v>
       </c>
       <c r="F270">
-        <v>40.423705400000003</v>
+        <v>-45.479067100000002</v>
       </c>
       <c r="G270">
-        <v>-86.921194600000007</v>
+        <v>170.15475670000001</v>
       </c>
       <c r="H270" t="s">
         <v>24</v>
       </c>
-      <c r="I270"/>
+      <c r="I270" t="s">
+        <v>618</v>
+      </c>
       <c r="J270"/>
       <c r="K270" t="s">
-        <v>661</v>
-      </c>
-      <c r="L270"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B271"/>
-      <c r="C271"/>
+        <v>664</v>
+      </c>
+      <c r="L270" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B271" t="s">
+        <v>625</v>
+      </c>
+      <c r="C271" t="s">
+        <v>626</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F271">
+        <v>40.423705400000003</v>
+      </c>
+      <c r="G271">
+        <v>-86.921194600000007</v>
+      </c>
+      <c r="H271" t="s">
+        <v>24</v>
+      </c>
       <c r="I271"/>
       <c r="J271"/>
+      <c r="K271" t="s">
+        <v>661</v>
+      </c>
       <c r="L271"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -12531,8 +12574,15 @@
       <c r="J273"/>
       <c r="L273"/>
     </row>
+    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B274"/>
+      <c r="C274"/>
+      <c r="I274"/>
+      <c r="J274"/>
+      <c r="L274"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K250">
+  <conditionalFormatting sqref="K1:K251">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
@@ -12564,7 +12614,7 @@
     <hyperlink ref="B44" r:id="rId13"/>
     <hyperlink ref="B54" r:id="rId14"/>
     <hyperlink ref="B97" r:id="rId15"/>
-    <hyperlink ref="B120" r:id="rId16"/>
+    <hyperlink ref="B121" r:id="rId16"/>
     <hyperlink ref="B71" r:id="rId17"/>
     <hyperlink ref="B93" r:id="rId18"/>
     <hyperlink ref="B33" r:id="rId19"/>
@@ -12625,7 +12675,7 @@
     <hyperlink ref="B110" r:id="rId74"/>
     <hyperlink ref="B24" r:id="rId75"/>
     <hyperlink ref="B100" r:id="rId76"/>
-    <hyperlink ref="B254" r:id="rId77"/>
+    <hyperlink ref="B255" r:id="rId77"/>
     <hyperlink ref="B42" r:id="rId78"/>
     <hyperlink ref="B34" r:id="rId79"/>
     <hyperlink ref="B4" r:id="rId80"/>
@@ -12649,149 +12699,150 @@
     <hyperlink ref="B18" r:id="rId98"/>
     <hyperlink ref="B45" r:id="rId99"/>
     <hyperlink ref="B106" r:id="rId100"/>
-    <hyperlink ref="B121" r:id="rId101"/>
+    <hyperlink ref="B122" r:id="rId101"/>
     <hyperlink ref="B67" r:id="rId102"/>
     <hyperlink ref="B11" r:id="rId103"/>
-    <hyperlink ref="B251" r:id="rId104"/>
-    <hyperlink ref="B253" r:id="rId105"/>
-    <hyperlink ref="B252" r:id="rId106"/>
+    <hyperlink ref="B252" r:id="rId104"/>
+    <hyperlink ref="B254" r:id="rId105"/>
+    <hyperlink ref="B253" r:id="rId106"/>
     <hyperlink ref="B72" r:id="rId107"/>
     <hyperlink ref="B113" r:id="rId108"/>
-    <hyperlink ref="B206" r:id="rId109"/>
-    <hyperlink ref="B169" r:id="rId110"/>
-    <hyperlink ref="B124" r:id="rId111"/>
-    <hyperlink ref="B138" r:id="rId112"/>
-    <hyperlink ref="B226" r:id="rId113"/>
-    <hyperlink ref="B249" r:id="rId114"/>
-    <hyperlink ref="B225" r:id="rId115"/>
-    <hyperlink ref="B170" r:id="rId116"/>
-    <hyperlink ref="B133" r:id="rId117"/>
-    <hyperlink ref="B191" r:id="rId118"/>
-    <hyperlink ref="B243" r:id="rId119"/>
-    <hyperlink ref="B238" r:id="rId120"/>
-    <hyperlink ref="B231" r:id="rId121"/>
-    <hyperlink ref="B153" r:id="rId122"/>
-    <hyperlink ref="B270" r:id="rId123"/>
-    <hyperlink ref="B240" r:id="rId124"/>
-    <hyperlink ref="B268" r:id="rId125"/>
-    <hyperlink ref="B212" r:id="rId126"/>
-    <hyperlink ref="B176" r:id="rId127"/>
-    <hyperlink ref="B162" r:id="rId128"/>
-    <hyperlink ref="B151" r:id="rId129"/>
-    <hyperlink ref="B136" r:id="rId130"/>
-    <hyperlink ref="B164" r:id="rId131"/>
-    <hyperlink ref="B187" r:id="rId132"/>
-    <hyperlink ref="B180" r:id="rId133"/>
-    <hyperlink ref="B201" r:id="rId134"/>
-    <hyperlink ref="B135" r:id="rId135"/>
-    <hyperlink ref="B188" r:id="rId136"/>
-    <hyperlink ref="B137" r:id="rId137"/>
-    <hyperlink ref="B211" r:id="rId138" display="http://www.phy.duke.edu/research/photon/qoptics/"/>
-    <hyperlink ref="B194" r:id="rId139"/>
-    <hyperlink ref="B233" r:id="rId140"/>
-    <hyperlink ref="B264" r:id="rId141"/>
-    <hyperlink ref="B235" r:id="rId142"/>
-    <hyperlink ref="B173" r:id="rId143"/>
-    <hyperlink ref="B244" r:id="rId144"/>
-    <hyperlink ref="B171" r:id="rId145"/>
-    <hyperlink ref="B241" r:id="rId146"/>
-    <hyperlink ref="B217" r:id="rId147"/>
-    <hyperlink ref="B141" r:id="rId148"/>
-    <hyperlink ref="B237" r:id="rId149"/>
-    <hyperlink ref="B208" r:id="rId150"/>
-    <hyperlink ref="B149" r:id="rId151"/>
-    <hyperlink ref="B269" r:id="rId152"/>
-    <hyperlink ref="B123" r:id="rId153"/>
-    <hyperlink ref="B227" r:id="rId154"/>
-    <hyperlink ref="B223" r:id="rId155"/>
-    <hyperlink ref="B204" r:id="rId156"/>
-    <hyperlink ref="B207" r:id="rId157"/>
-    <hyperlink ref="B154" r:id="rId158"/>
-    <hyperlink ref="B150" r:id="rId159"/>
-    <hyperlink ref="B128" r:id="rId160"/>
-    <hyperlink ref="B215" r:id="rId161"/>
-    <hyperlink ref="B205" r:id="rId162"/>
-    <hyperlink ref="B183" r:id="rId163"/>
-    <hyperlink ref="B239" r:id="rId164"/>
-    <hyperlink ref="B219" r:id="rId165"/>
-    <hyperlink ref="B267" r:id="rId166"/>
-    <hyperlink ref="B197" r:id="rId167"/>
-    <hyperlink ref="B265" r:id="rId168"/>
-    <hyperlink ref="B172" r:id="rId169"/>
-    <hyperlink ref="B228" r:id="rId170"/>
-    <hyperlink ref="B236" r:id="rId171"/>
-    <hyperlink ref="B232" r:id="rId172"/>
-    <hyperlink ref="B230" r:id="rId173"/>
-    <hyperlink ref="B229" r:id="rId174"/>
-    <hyperlink ref="B193" r:id="rId175"/>
-    <hyperlink ref="B186" r:id="rId176"/>
-    <hyperlink ref="B181" r:id="rId177"/>
-    <hyperlink ref="B175" r:id="rId178"/>
-    <hyperlink ref="B161" r:id="rId179"/>
-    <hyperlink ref="B158" r:id="rId180"/>
-    <hyperlink ref="B155" r:id="rId181"/>
-    <hyperlink ref="B147" r:id="rId182"/>
-    <hyperlink ref="B146" r:id="rId183"/>
-    <hyperlink ref="B234" r:id="rId184"/>
-    <hyperlink ref="B184" r:id="rId185"/>
-    <hyperlink ref="B174" r:id="rId186"/>
-    <hyperlink ref="B165" r:id="rId187"/>
-    <hyperlink ref="B159" r:id="rId188"/>
-    <hyperlink ref="B131" r:id="rId189"/>
-    <hyperlink ref="B129" r:id="rId190"/>
-    <hyperlink ref="B216" r:id="rId191"/>
-    <hyperlink ref="B148" r:id="rId192"/>
-    <hyperlink ref="B213" r:id="rId193"/>
-    <hyperlink ref="B200" r:id="rId194"/>
-    <hyperlink ref="B166" r:id="rId195"/>
-    <hyperlink ref="B246" r:id="rId196"/>
-    <hyperlink ref="B245" r:id="rId197"/>
-    <hyperlink ref="B222" r:id="rId198"/>
-    <hyperlink ref="B242" r:id="rId199" display="http://www.physics.queensu.ca/%7ezaremba/"/>
-    <hyperlink ref="B221" r:id="rId200"/>
-    <hyperlink ref="B214" r:id="rId201"/>
-    <hyperlink ref="B202" r:id="rId202"/>
-    <hyperlink ref="B156" r:id="rId203"/>
-    <hyperlink ref="B152" r:id="rId204"/>
-    <hyperlink ref="B144" r:id="rId205"/>
-    <hyperlink ref="B143" r:id="rId206"/>
-    <hyperlink ref="B140" r:id="rId207"/>
-    <hyperlink ref="B127" r:id="rId208"/>
-    <hyperlink ref="B142" r:id="rId209"/>
-    <hyperlink ref="B210" r:id="rId210"/>
-    <hyperlink ref="B248" r:id="rId211"/>
-    <hyperlink ref="B192" r:id="rId212"/>
-    <hyperlink ref="B190" r:id="rId213"/>
-    <hyperlink ref="B220" r:id="rId214"/>
-    <hyperlink ref="B218" r:id="rId215"/>
-    <hyperlink ref="B198" r:id="rId216"/>
-    <hyperlink ref="B178" r:id="rId217"/>
-    <hyperlink ref="B122" r:id="rId218"/>
-    <hyperlink ref="B266" r:id="rId219"/>
-    <hyperlink ref="B177" r:id="rId220"/>
-    <hyperlink ref="B145" r:id="rId221"/>
-    <hyperlink ref="B132" r:id="rId222"/>
-    <hyperlink ref="B179" r:id="rId223" display="http://www.soton.ac.uk/~janne"/>
-    <hyperlink ref="B160" r:id="rId224"/>
-    <hyperlink ref="B224" r:id="rId225"/>
-    <hyperlink ref="B185" r:id="rId226" display="http://www.atomoptic.fr/~theory"/>
-    <hyperlink ref="B168" r:id="rId227"/>
-    <hyperlink ref="B157" r:id="rId228"/>
-    <hyperlink ref="B247" r:id="rId229"/>
-    <hyperlink ref="B189" r:id="rId230"/>
+    <hyperlink ref="B207" r:id="rId109"/>
+    <hyperlink ref="B170" r:id="rId110"/>
+    <hyperlink ref="B125" r:id="rId111"/>
+    <hyperlink ref="B139" r:id="rId112"/>
+    <hyperlink ref="B227" r:id="rId113"/>
+    <hyperlink ref="B250" r:id="rId114"/>
+    <hyperlink ref="B226" r:id="rId115"/>
+    <hyperlink ref="B171" r:id="rId116"/>
+    <hyperlink ref="B134" r:id="rId117"/>
+    <hyperlink ref="B192" r:id="rId118"/>
+    <hyperlink ref="B244" r:id="rId119"/>
+    <hyperlink ref="B239" r:id="rId120"/>
+    <hyperlink ref="B232" r:id="rId121"/>
+    <hyperlink ref="B154" r:id="rId122"/>
+    <hyperlink ref="B271" r:id="rId123"/>
+    <hyperlink ref="B241" r:id="rId124"/>
+    <hyperlink ref="B269" r:id="rId125"/>
+    <hyperlink ref="B213" r:id="rId126"/>
+    <hyperlink ref="B177" r:id="rId127"/>
+    <hyperlink ref="B163" r:id="rId128"/>
+    <hyperlink ref="B152" r:id="rId129"/>
+    <hyperlink ref="B137" r:id="rId130"/>
+    <hyperlink ref="B165" r:id="rId131"/>
+    <hyperlink ref="B188" r:id="rId132"/>
+    <hyperlink ref="B181" r:id="rId133"/>
+    <hyperlink ref="B202" r:id="rId134"/>
+    <hyperlink ref="B136" r:id="rId135"/>
+    <hyperlink ref="B189" r:id="rId136"/>
+    <hyperlink ref="B138" r:id="rId137"/>
+    <hyperlink ref="B212" r:id="rId138" display="http://www.phy.duke.edu/research/photon/qoptics/"/>
+    <hyperlink ref="B195" r:id="rId139"/>
+    <hyperlink ref="B234" r:id="rId140"/>
+    <hyperlink ref="B265" r:id="rId141"/>
+    <hyperlink ref="B236" r:id="rId142"/>
+    <hyperlink ref="B174" r:id="rId143"/>
+    <hyperlink ref="B245" r:id="rId144"/>
+    <hyperlink ref="B172" r:id="rId145"/>
+    <hyperlink ref="B242" r:id="rId146"/>
+    <hyperlink ref="B218" r:id="rId147"/>
+    <hyperlink ref="B142" r:id="rId148"/>
+    <hyperlink ref="B238" r:id="rId149"/>
+    <hyperlink ref="B209" r:id="rId150"/>
+    <hyperlink ref="B150" r:id="rId151"/>
+    <hyperlink ref="B270" r:id="rId152"/>
+    <hyperlink ref="B124" r:id="rId153"/>
+    <hyperlink ref="B228" r:id="rId154"/>
+    <hyperlink ref="B224" r:id="rId155"/>
+    <hyperlink ref="B205" r:id="rId156"/>
+    <hyperlink ref="B208" r:id="rId157"/>
+    <hyperlink ref="B155" r:id="rId158"/>
+    <hyperlink ref="B151" r:id="rId159"/>
+    <hyperlink ref="B129" r:id="rId160"/>
+    <hyperlink ref="B216" r:id="rId161"/>
+    <hyperlink ref="B206" r:id="rId162"/>
+    <hyperlink ref="B184" r:id="rId163"/>
+    <hyperlink ref="B240" r:id="rId164"/>
+    <hyperlink ref="B220" r:id="rId165"/>
+    <hyperlink ref="B268" r:id="rId166"/>
+    <hyperlink ref="B198" r:id="rId167"/>
+    <hyperlink ref="B266" r:id="rId168"/>
+    <hyperlink ref="B173" r:id="rId169"/>
+    <hyperlink ref="B229" r:id="rId170"/>
+    <hyperlink ref="B237" r:id="rId171"/>
+    <hyperlink ref="B233" r:id="rId172"/>
+    <hyperlink ref="B231" r:id="rId173"/>
+    <hyperlink ref="B230" r:id="rId174"/>
+    <hyperlink ref="B194" r:id="rId175"/>
+    <hyperlink ref="B187" r:id="rId176"/>
+    <hyperlink ref="B182" r:id="rId177"/>
+    <hyperlink ref="B176" r:id="rId178"/>
+    <hyperlink ref="B162" r:id="rId179"/>
+    <hyperlink ref="B159" r:id="rId180"/>
+    <hyperlink ref="B156" r:id="rId181"/>
+    <hyperlink ref="B148" r:id="rId182"/>
+    <hyperlink ref="B147" r:id="rId183"/>
+    <hyperlink ref="B235" r:id="rId184"/>
+    <hyperlink ref="B185" r:id="rId185"/>
+    <hyperlink ref="B175" r:id="rId186"/>
+    <hyperlink ref="B166" r:id="rId187"/>
+    <hyperlink ref="B160" r:id="rId188"/>
+    <hyperlink ref="B132" r:id="rId189"/>
+    <hyperlink ref="B130" r:id="rId190"/>
+    <hyperlink ref="B217" r:id="rId191"/>
+    <hyperlink ref="B149" r:id="rId192"/>
+    <hyperlink ref="B214" r:id="rId193"/>
+    <hyperlink ref="B201" r:id="rId194"/>
+    <hyperlink ref="B167" r:id="rId195"/>
+    <hyperlink ref="B247" r:id="rId196"/>
+    <hyperlink ref="B246" r:id="rId197"/>
+    <hyperlink ref="B223" r:id="rId198"/>
+    <hyperlink ref="B243" r:id="rId199" display="http://www.physics.queensu.ca/%7ezaremba/"/>
+    <hyperlink ref="B222" r:id="rId200"/>
+    <hyperlink ref="B215" r:id="rId201"/>
+    <hyperlink ref="B203" r:id="rId202"/>
+    <hyperlink ref="B157" r:id="rId203"/>
+    <hyperlink ref="B153" r:id="rId204"/>
+    <hyperlink ref="B145" r:id="rId205"/>
+    <hyperlink ref="B144" r:id="rId206"/>
+    <hyperlink ref="B141" r:id="rId207"/>
+    <hyperlink ref="B128" r:id="rId208"/>
+    <hyperlink ref="B143" r:id="rId209"/>
+    <hyperlink ref="B211" r:id="rId210"/>
+    <hyperlink ref="B249" r:id="rId211"/>
+    <hyperlink ref="B193" r:id="rId212"/>
+    <hyperlink ref="B191" r:id="rId213"/>
+    <hyperlink ref="B221" r:id="rId214"/>
+    <hyperlink ref="B219" r:id="rId215"/>
+    <hyperlink ref="B199" r:id="rId216"/>
+    <hyperlink ref="B179" r:id="rId217"/>
+    <hyperlink ref="B123" r:id="rId218"/>
+    <hyperlink ref="B267" r:id="rId219"/>
+    <hyperlink ref="B178" r:id="rId220"/>
+    <hyperlink ref="B146" r:id="rId221"/>
+    <hyperlink ref="B133" r:id="rId222"/>
+    <hyperlink ref="B180" r:id="rId223" display="http://www.soton.ac.uk/~janne"/>
+    <hyperlink ref="B161" r:id="rId224"/>
+    <hyperlink ref="B225" r:id="rId225"/>
+    <hyperlink ref="B186" r:id="rId226" display="http://www.atomoptic.fr/~theory"/>
+    <hyperlink ref="B169" r:id="rId227"/>
+    <hyperlink ref="B158" r:id="rId228"/>
+    <hyperlink ref="B248" r:id="rId229"/>
+    <hyperlink ref="B190" r:id="rId230"/>
     <hyperlink ref="B92" r:id="rId231"/>
-    <hyperlink ref="B125" r:id="rId232"/>
-    <hyperlink ref="B134" r:id="rId233"/>
-    <hyperlink ref="B195" r:id="rId234"/>
-    <hyperlink ref="B163" r:id="rId235"/>
-    <hyperlink ref="B203" r:id="rId236"/>
+    <hyperlink ref="B126" r:id="rId232"/>
+    <hyperlink ref="B135" r:id="rId233"/>
+    <hyperlink ref="B196" r:id="rId234"/>
+    <hyperlink ref="B164" r:id="rId235"/>
+    <hyperlink ref="B204" r:id="rId236"/>
     <hyperlink ref="B60" r:id="rId237"/>
-    <hyperlink ref="B196" r:id="rId238"/>
+    <hyperlink ref="B197" r:id="rId238"/>
+    <hyperlink ref="B120" r:id="rId239"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId239"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId240"/>
   <tableParts count="1">
-    <tablePart r:id="rId240"/>
+    <tablePart r:id="rId241"/>
   </tableParts>
 </worksheet>
 </file>
--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1115">
   <si>
     <t>name</t>
   </si>
@@ -3955,6 +3955,26 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3982,26 +4002,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4016,7 +4016,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L250" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L250" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:L250"/>
   <sortState ref="A2:L248">
     <sortCondition ref="A1:A248"/>
@@ -4030,10 +4030,10 @@
     <tableColumn id="6" name="lat"/>
     <tableColumn id="7" name="long"/>
     <tableColumn id="8" name="exp_theor"/>
-    <tableColumn id="9" name="fields" dataDxfId="7"/>
-    <tableColumn id="10" name="people" dataDxfId="6"/>
-    <tableColumn id="11" name="atom" dataDxfId="5"/>
-    <tableColumn id="12" name="comment" dataDxfId="4"/>
+    <tableColumn id="9" name="fields" dataDxfId="3"/>
+    <tableColumn id="10" name="people" dataDxfId="2"/>
+    <tableColumn id="11" name="atom" dataDxfId="1"/>
+    <tableColumn id="12" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4304,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="G198" sqref="A1:L250"/>
+    <sheetView tabSelected="1" topLeftCell="B220" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6139,6 +6139,9 @@
         <v>1104</v>
       </c>
       <c r="J60"/>
+      <c r="K60" t="s">
+        <v>665</v>
+      </c>
       <c r="L60"/>
     </row>
     <row r="61" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -12583,18 +12586,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K251">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="4">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Exp/Theory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Exp"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ucan_utoronto_database_producti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$252</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1123">
   <si>
     <t>name</t>
   </si>
@@ -3382,6 +3382,15 @@
   </si>
   <si>
     <t>Quantum simulations of strongly correlated electronic systems / fermionic lattice models using numerical linked-cluster expansions and quantum Monte Carlo methods</t>
+  </si>
+  <si>
+    <t>Oberthaler Group</t>
+  </si>
+  <si>
+    <t>https://www.kip.uni-heidelberg.de/matterwave/</t>
+  </si>
+  <si>
+    <t>Ar, Rb</t>
   </si>
 </sst>
 </file>
@@ -4031,8 +4040,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L251" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:L251"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L252" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:L252"/>
   <sortState ref="A2:L248">
     <sortCondition ref="A1:A248"/>
   </sortState>
@@ -4317,10 +4326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L275"/>
+  <dimension ref="A1:L276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J121" sqref="A1:L251"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8985,85 +8994,83 @@
       </c>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C154" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" t="s">
+        <v>70</v>
+      </c>
+      <c r="F154">
+        <v>49.419111000000001</v>
+      </c>
+      <c r="G154">
+        <v>8.6702499999999993</v>
+      </c>
+      <c r="H154" t="s">
+        <v>24</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>928</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>415</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D155" t="s">
         <v>82</v>
       </c>
-      <c r="F154">
+      <c r="F155">
         <v>43.260879000000003</v>
       </c>
-      <c r="G154">
+      <c r="G155">
         <v>-79.919225400000002</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H155" t="s">
         <v>20</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="I155" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="K154" s="6" t="s">
+      <c r="K155" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L154" s="1" t="s">
+      <c r="L155" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="156" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>929</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>249</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>1028</v>
       </c>
-      <c r="F155">
+      <c r="F156">
         <v>40.7982133</v>
       </c>
-      <c r="G155">
+      <c r="G156">
         <v>-77.859908399999995</v>
-      </c>
-      <c r="H155" t="s">
-        <v>24</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>930</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C156" t="s">
-        <v>419</v>
-      </c>
-      <c r="D156" t="s">
-        <v>256</v>
-      </c>
-      <c r="F156">
-        <v>34.947723400000001</v>
-      </c>
-      <c r="G156">
-        <v>137.16652089999999</v>
       </c>
       <c r="H156" t="s">
         <v>24</v>
@@ -9071,1026 +9078,1025 @@
       <c r="K156" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L156" s="1"/>
-    </row>
-    <row r="157" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L156" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>930</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C157" t="s">
+        <v>419</v>
+      </c>
+      <c r="D157" t="s">
+        <v>256</v>
+      </c>
+      <c r="F157">
+        <v>34.947723400000001</v>
+      </c>
+      <c r="G157">
+        <v>137.16652089999999</v>
+      </c>
+      <c r="H157" t="s">
+        <v>24</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>931</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>70</v>
       </c>
-      <c r="F157">
+      <c r="F158">
         <v>49.440065699999998</v>
       </c>
-      <c r="G157">
+      <c r="G158">
         <v>7.7491265</v>
       </c>
-      <c r="H157" t="s">
-        <v>24</v>
-      </c>
-      <c r="I157" s="1" t="s">
+      <c r="H158" t="s">
+        <v>24</v>
+      </c>
+      <c r="I158" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K157" s="6" t="s">
+      <c r="K158" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L157" s="1"/>
-    </row>
-    <row r="158" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>932</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>424</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>82</v>
       </c>
-      <c r="F158">
+      <c r="F159">
         <v>43.662891700000003</v>
       </c>
-      <c r="G158">
+      <c r="G159">
         <v>-79.395656399999993</v>
-      </c>
-      <c r="H158" t="s">
-        <v>20</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K158" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>933</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C159" t="s">
-        <v>427</v>
-      </c>
-      <c r="D159" t="s">
-        <v>14</v>
-      </c>
-      <c r="F159">
-        <v>54.77525</v>
-      </c>
-      <c r="G159">
-        <v>-1.5848519999999999</v>
       </c>
       <c r="H159" t="s">
         <v>20</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>1076</v>
+        <v>665</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="C160" t="s">
+        <v>427</v>
       </c>
       <c r="D160" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F160">
-        <v>49.425377400000002</v>
+        <v>54.77525</v>
       </c>
       <c r="G160">
-        <v>7.7555496000000002</v>
+        <v>-1.5848519999999999</v>
       </c>
       <c r="H160" t="s">
         <v>20</v>
       </c>
       <c r="I160" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>934</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D161" t="s">
+        <v>70</v>
+      </c>
+      <c r="F161">
+        <v>49.425377400000002</v>
+      </c>
+      <c r="G161">
+        <v>7.7555496000000002</v>
+      </c>
+      <c r="H161" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K160" s="6" t="s">
+      <c r="K161" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L160" s="1"/>
-    </row>
-    <row r="161" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>935</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>258</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D162" t="s">
         <v>31</v>
       </c>
-      <c r="F161">
+      <c r="F162">
         <v>48.956155000000003</v>
       </c>
-      <c r="G161">
+      <c r="G162">
         <v>2.3414540000000001</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H162" t="s">
         <v>15</v>
       </c>
-      <c r="J161" s="1" t="s">
+      <c r="J162" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="K161" s="6" t="s">
+      <c r="K162" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="L161" s="5" t="s">
+      <c r="L162" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="163" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>936</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>435</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>42</v>
       </c>
-      <c r="F162">
+      <c r="F163">
         <v>55.696947000000002</v>
       </c>
-      <c r="G162">
+      <c r="G163">
         <v>12.571562</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H163" t="s">
         <v>20</v>
       </c>
-      <c r="I162" s="1" t="s">
+      <c r="I163" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J162" s="1" t="s">
+      <c r="J163" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="K162" s="6" t="s">
+      <c r="K163" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L162" s="1" t="s">
+      <c r="L163" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="164" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>937</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D164" t="s">
         <v>70</v>
       </c>
-      <c r="F163">
+      <c r="F164">
         <v>48.781647200000002</v>
       </c>
-      <c r="G163">
+      <c r="G164">
         <v>9.1724984999999997</v>
       </c>
-      <c r="H163" t="s">
-        <v>24</v>
-      </c>
-      <c r="I163" s="1" t="s">
+      <c r="H164" t="s">
+        <v>24</v>
+      </c>
+      <c r="I164" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="J163" s="1" t="s">
+      <c r="J164" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="K163" s="6" t="s">
+      <c r="K164" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="L163" s="1"/>
-    </row>
-    <row r="164" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>938</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C164" t="s">
-        <v>27</v>
-      </c>
-      <c r="D164" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F164">
-        <v>40.007436300000002</v>
-      </c>
-      <c r="G164">
-        <v>-105.26864809999999</v>
-      </c>
-      <c r="H164" t="s">
-        <v>15</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K164" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="L164" s="1"/>
     </row>
     <row r="165" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>938</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F165">
+        <v>40.007436300000002</v>
+      </c>
+      <c r="G165">
+        <v>-105.26864809999999</v>
+      </c>
+      <c r="H165" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K165" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>1085</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>1087</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>101</v>
       </c>
-      <c r="F165">
+      <c r="F166">
         <v>47.564731000000002</v>
       </c>
-      <c r="G165">
+      <c r="G166">
         <v>7.5786920000000002</v>
       </c>
-      <c r="H165" t="s">
-        <v>24</v>
-      </c>
-      <c r="I165" s="1" t="s">
+      <c r="H166" t="s">
+        <v>24</v>
+      </c>
+      <c r="I166" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J166" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="K165" s="6" t="s">
+      <c r="K166" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L165" s="1"/>
-    </row>
-    <row r="166" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>939</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>445</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>1028</v>
       </c>
-      <c r="F166">
+      <c r="F167">
         <v>39.138053200000002</v>
       </c>
-      <c r="G166">
+      <c r="G167">
         <v>-77.220833900000002</v>
       </c>
-      <c r="H166" t="s">
-        <v>24</v>
-      </c>
-      <c r="J166" s="1" t="s">
+      <c r="H167" t="s">
+        <v>24</v>
+      </c>
+      <c r="J167" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K166" s="6" t="s">
+      <c r="K167" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="L166" s="1"/>
-    </row>
-    <row r="167" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>940</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>448</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
         <v>31</v>
       </c>
-      <c r="F167">
+      <c r="F168">
         <v>48.827264999999997</v>
       </c>
-      <c r="G167">
+      <c r="G168">
         <v>2.276624</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H168" t="s">
         <v>15</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="I168" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="J168" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K167" s="6" t="s">
+      <c r="K168" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="L167" s="5" t="s">
+      <c r="L168" s="5" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>941</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C168" t="s">
-        <v>452</v>
-      </c>
-      <c r="D168" t="s">
-        <v>42</v>
-      </c>
-      <c r="F168">
-        <v>55.696949600000003</v>
-      </c>
-      <c r="G168">
-        <v>12.5715789</v>
-      </c>
-      <c r="H168" t="s">
-        <v>24</v>
-      </c>
-      <c r="K168" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1058</v>
+        <v>941</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1030</v>
+        <v>451</v>
       </c>
       <c r="C169" t="s">
-        <v>320</v>
+        <v>452</v>
       </c>
       <c r="D169" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F169">
-        <v>49.398752399999999</v>
+        <v>55.696949600000003</v>
       </c>
       <c r="G169">
-        <v>8.6724335000000004</v>
+        <v>12.5715789</v>
       </c>
       <c r="H169" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K169" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L169" s="1"/>
-    </row>
-    <row r="170" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L169" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C170" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" t="s">
+        <v>70</v>
+      </c>
+      <c r="F170">
+        <v>49.398752399999999</v>
+      </c>
+      <c r="G170">
+        <v>8.6724335000000004</v>
+      </c>
+      <c r="H170" t="s">
+        <v>15</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>942</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>454</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D171" t="s">
         <v>14</v>
       </c>
-      <c r="F170">
+      <c r="F171">
         <v>54.77525</v>
       </c>
-      <c r="G170">
+      <c r="G171">
         <v>-1.5848519999999999</v>
-      </c>
-      <c r="H170" t="s">
-        <v>20</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K170" s="6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>943</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C171" t="s">
-        <v>292</v>
-      </c>
-      <c r="D171" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F171">
-        <v>45.7529003</v>
-      </c>
-      <c r="G171">
-        <v>-94.222328300000001</v>
       </c>
       <c r="H171" t="s">
         <v>20</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L171" s="1"/>
-    </row>
-    <row r="172" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C172" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="D172" t="s">
         <v>1028</v>
       </c>
       <c r="F172">
-        <v>42.278043599999997</v>
+        <v>45.7529003</v>
       </c>
       <c r="G172">
-        <v>-83.738224099999996</v>
+        <v>-94.222328300000001</v>
       </c>
       <c r="H172" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C173" t="s">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="D173" t="s">
         <v>1028</v>
       </c>
       <c r="F173">
+        <v>42.278043599999997</v>
+      </c>
+      <c r="G173">
+        <v>-83.738224099999996</v>
+      </c>
+      <c r="H173" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>945</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C174" t="s">
+        <v>461</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F174">
         <v>30.2849185</v>
       </c>
-      <c r="G173">
+      <c r="G174">
         <v>-97.734056699999996</v>
       </c>
-      <c r="H173" t="s">
-        <v>24</v>
-      </c>
-      <c r="I173" s="1" t="s">
+      <c r="H174" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K173" s="6" t="s">
+      <c r="K174" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="L173" s="1"/>
-    </row>
-    <row r="174" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>946</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>464</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>63</v>
       </c>
-      <c r="F174">
+      <c r="F175">
         <v>13.012825599999999</v>
       </c>
-      <c r="G174">
+      <c r="G175">
         <v>77.580665999999994</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H175" t="s">
         <v>15</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="I175" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="J174" s="1" t="s">
+      <c r="J175" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="K174" s="6" t="s">
+      <c r="K175" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="L174" s="1"/>
-    </row>
-    <row r="175" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>947</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>116</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>1028</v>
       </c>
-      <c r="F175">
+      <c r="F176">
         <v>33.775617799999999</v>
       </c>
-      <c r="G175">
+      <c r="G176">
         <v>-84.396285000000006</v>
       </c>
-      <c r="H175" t="s">
-        <v>24</v>
-      </c>
-      <c r="I175" s="1" t="s">
+      <c r="H176" t="s">
+        <v>24</v>
+      </c>
+      <c r="I176" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K175" s="6" t="s">
+      <c r="K176" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="L176" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="177" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>949</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>474</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>31</v>
       </c>
-      <c r="F176">
+      <c r="F177">
         <v>48.842205800000002</v>
       </c>
-      <c r="G176">
+      <c r="G177">
         <v>2.3451689</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H177" t="s">
         <v>15</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="I177" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="J176" s="1" t="s">
+      <c r="J177" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K176" s="6" t="s">
+      <c r="K177" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="L176" s="5" t="s">
+      <c r="L177" s="5" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>950</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>70</v>
       </c>
-      <c r="F177">
+      <c r="F178">
         <v>48.259664399999998</v>
       </c>
-      <c r="G177">
+      <c r="G178">
         <v>11.666722999999999</v>
       </c>
-      <c r="H177" t="s">
-        <v>24</v>
-      </c>
-      <c r="K177" s="6" t="s">
+      <c r="H178" t="s">
+        <v>24</v>
+      </c>
+      <c r="K178" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L177" s="1"/>
-    </row>
-    <row r="178" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>952</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>27</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>1028</v>
       </c>
-      <c r="F178">
+      <c r="F179">
         <v>40.007436300000002</v>
       </c>
-      <c r="G178">
+      <c r="G179">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H179" t="s">
         <v>20</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="I179" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K178" s="6" t="s">
+      <c r="K179" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L178" s="1"/>
-    </row>
-    <row r="179" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>953</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>485</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="F179">
+      <c r="F180">
         <v>55.862828499999999</v>
       </c>
-      <c r="G179">
+      <c r="G180">
         <v>-4.2428534999999998</v>
       </c>
-      <c r="H179" t="s">
-        <v>24</v>
-      </c>
-      <c r="I179" s="1" t="s">
+      <c r="H180" t="s">
+        <v>24</v>
+      </c>
+      <c r="I180" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="J179" s="1" t="s">
+      <c r="J180" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="K179" s="6" t="s">
+      <c r="K180" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="L180" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="181" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>954</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>159</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>140</v>
       </c>
-      <c r="F180">
+      <c r="F181">
         <v>-27.495430599999999</v>
       </c>
-      <c r="G180">
+      <c r="G181">
         <v>153.0120301</v>
       </c>
-      <c r="H180" t="s">
-        <v>24</v>
-      </c>
-      <c r="J180" s="1" t="s">
+      <c r="H181" t="s">
+        <v>24</v>
+      </c>
+      <c r="J181" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="K180" s="6" t="s">
+      <c r="K181" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="L181" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>955</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>1061</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>1062</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>14</v>
       </c>
-      <c r="F181">
+      <c r="F182">
         <v>54.0103942</v>
       </c>
-      <c r="G181">
+      <c r="G182">
         <v>-2.7877293999999999</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H182" t="s">
         <v>20</v>
       </c>
-      <c r="K181" s="6" t="s">
+      <c r="K182" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L181" s="1"/>
-    </row>
-    <row r="182" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>956</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>491</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>1028</v>
       </c>
-      <c r="F182">
+      <c r="F183">
         <v>38.033552899999997</v>
       </c>
-      <c r="G182">
+      <c r="G183">
         <v>-78.507977199999999</v>
       </c>
-      <c r="H182" t="s">
-        <v>24</v>
-      </c>
-      <c r="I182" s="1" t="s">
+      <c r="H183" t="s">
+        <v>24</v>
+      </c>
+      <c r="I183" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="K182" s="6" t="s">
+      <c r="K183" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L182" s="1"/>
-    </row>
-    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>957</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>70</v>
       </c>
-      <c r="F183">
+      <c r="F184">
         <v>52.517882999999998</v>
       </c>
-      <c r="G183">
+      <c r="G184">
         <v>13.3936551</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H184" t="s">
         <v>20</v>
       </c>
-      <c r="K183" s="6" t="s">
+      <c r="K184" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L183" s="1"/>
-    </row>
-    <row r="184" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="L184" s="1"/>
+    </row>
+    <row r="185" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>958</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>495</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>496</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>1028</v>
       </c>
-      <c r="F184">
+      <c r="F185">
         <v>43.076591999999998</v>
       </c>
-      <c r="G184">
+      <c r="G185">
         <v>-89.412487499999997</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H185" t="s">
         <v>15</v>
       </c>
-      <c r="I184" s="1" t="s">
+      <c r="I185" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="K184" s="6" t="s">
+      <c r="K185" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="L185" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="186" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>959</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>499</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>39</v>
       </c>
-      <c r="F185">
+      <c r="F186">
         <v>45.406765999999998</v>
       </c>
-      <c r="G185">
+      <c r="G186">
         <v>11.8774462</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H186" t="s">
         <v>20</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="I186" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="J185" s="1" t="s">
+      <c r="J186" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="K185" s="6" t="s">
+      <c r="K186" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="L186" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="187" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>960</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>145</v>
-      </c>
-      <c r="D186" t="s">
-        <v>31</v>
-      </c>
-      <c r="F186">
-        <v>48.842205800000002</v>
-      </c>
-      <c r="G186">
-        <v>2.3451689</v>
-      </c>
-      <c r="H186" t="s">
-        <v>24</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="K186" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="L186" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>961</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C187" t="s">
-        <v>1064</v>
       </c>
       <c r="D187" t="s">
         <v>31</v>
       </c>
       <c r="F187">
+        <v>48.842205800000002</v>
+      </c>
+      <c r="G187">
+        <v>2.3451689</v>
+      </c>
+      <c r="H187" t="s">
+        <v>24</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>961</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D188" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188">
         <v>48.714297100000003</v>
       </c>
-      <c r="G187">
+      <c r="G188">
         <v>2.2112916999999999</v>
-      </c>
-      <c r="H187" t="s">
-        <v>20</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K187" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>962</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D188" t="s">
-        <v>70</v>
-      </c>
-      <c r="F188">
-        <v>52.382964100000002</v>
-      </c>
-      <c r="G188">
-        <v>9.7196988999999991</v>
       </c>
       <c r="H188" t="s">
         <v>20</v>
       </c>
+      <c r="I188" s="1" t="s">
+        <v>1069</v>
+      </c>
       <c r="K188" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L188" s="1"/>
-    </row>
-    <row r="189" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C189" t="s">
-        <v>506</v>
+        <v>503</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="D189" t="s">
-        <v>1028</v>
+        <v>70</v>
       </c>
       <c r="F189">
-        <v>38.536048000000001</v>
+        <v>52.382964100000002</v>
       </c>
       <c r="G189">
-        <v>-121.749286</v>
+        <v>9.7196988999999991</v>
       </c>
       <c r="H189" t="s">
         <v>20</v>
       </c>
-      <c r="I189" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="K189" s="6" t="s">
         <v>665</v>
       </c>
@@ -10098,1191 +10104,1194 @@
     </row>
     <row r="190" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C190" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D190" t="s">
         <v>1028</v>
       </c>
       <c r="F190">
-        <v>37.228384300000002</v>
+        <v>38.536048000000001</v>
       </c>
       <c r="G190">
-        <v>-80.423416700000004</v>
+        <v>-121.749286</v>
       </c>
       <c r="H190" t="s">
         <v>20</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K190" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L190" s="1"/>
     </row>
-    <row r="191" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="C191" t="s">
+        <v>509</v>
       </c>
       <c r="D191" t="s">
-        <v>70</v>
+        <v>1028</v>
       </c>
       <c r="F191">
-        <v>53.577424999999998</v>
+        <v>37.228384300000002</v>
       </c>
       <c r="G191">
-        <v>9.8871459999999995</v>
+        <v>-80.423416700000004</v>
       </c>
       <c r="H191" t="s">
         <v>20</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K191" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>965</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D192" t="s">
+        <v>70</v>
+      </c>
+      <c r="F192">
+        <v>53.577424999999998</v>
+      </c>
+      <c r="G192">
+        <v>9.8871459999999995</v>
+      </c>
+      <c r="H192" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K192" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L192" s="1"/>
+    </row>
+    <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>966</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B193" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>205</v>
       </c>
-      <c r="F192">
+      <c r="F193">
         <v>48.198654599999998</v>
       </c>
-      <c r="G192">
+      <c r="G193">
         <v>16.368462600000001</v>
       </c>
-      <c r="H192" t="s">
-        <v>24</v>
-      </c>
-      <c r="I192" s="1" t="s">
+      <c r="H193" t="s">
+        <v>24</v>
+      </c>
+      <c r="I193" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K192" s="6" t="s">
+      <c r="K193" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="L192" s="1"/>
-    </row>
-    <row r="193" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="L193" s="1"/>
+    </row>
+    <row r="194" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>967</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>517</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>1028</v>
       </c>
-      <c r="F193">
+      <c r="F194">
         <v>40.912376100000003</v>
       </c>
-      <c r="G193">
+      <c r="G194">
         <v>-73.123388899999995</v>
       </c>
-      <c r="H193" t="s">
-        <v>24</v>
-      </c>
-      <c r="I193" s="1" t="s">
+      <c r="H194" t="s">
+        <v>24</v>
+      </c>
+      <c r="I194" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K193" s="6" t="s">
+      <c r="K194" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L193" s="1"/>
-    </row>
-    <row r="194" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>968</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D194" t="s">
-        <v>205</v>
-      </c>
-      <c r="F194">
-        <v>48.198654599999998</v>
-      </c>
-      <c r="G194">
-        <v>16.368462600000001</v>
-      </c>
-      <c r="H194" t="s">
-        <v>24</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="K194" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="L194" s="1" t="s">
-        <v>680</v>
-      </c>
+      <c r="L194" s="1"/>
     </row>
     <row r="195" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>969</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>521</v>
+        <v>968</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D195" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="F195">
-        <v>53.551084600000003</v>
+        <v>48.198654599999998</v>
       </c>
       <c r="G195">
-        <v>9.9936819000000003</v>
+        <v>16.368462600000001</v>
       </c>
       <c r="H195" t="s">
         <v>24</v>
       </c>
-      <c r="J195" s="1" t="s">
-        <v>523</v>
+      <c r="I195" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>709</v>
+        <v>680</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>969</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D196" t="s">
+        <v>70</v>
+      </c>
+      <c r="F196">
+        <v>53.551084600000003</v>
+      </c>
+      <c r="G196">
+        <v>9.9936819000000003</v>
+      </c>
+      <c r="H196" t="s">
+        <v>24</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K196" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>970</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>525</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>1028</v>
       </c>
-      <c r="F196">
+      <c r="F197">
         <v>35.205893600000003</v>
       </c>
-      <c r="G196">
+      <c r="G197">
         <v>-97.445713699999999</v>
-      </c>
-      <c r="H196" t="s">
-        <v>15</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K196" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C197" t="s">
-        <v>41</v>
-      </c>
-      <c r="D197" t="s">
-        <v>42</v>
-      </c>
-      <c r="F197">
-        <v>56.168191999999998</v>
-      </c>
-      <c r="G197">
-        <v>10.202991000000001</v>
       </c>
       <c r="H197" t="s">
         <v>15</v>
       </c>
-      <c r="I197"/>
-      <c r="J197"/>
-      <c r="K197" t="s">
-        <v>664</v>
-      </c>
-      <c r="L197"/>
+      <c r="I197" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K197" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1105</v>
+        <v>1080</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="C198" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="D198" t="s">
-        <v>1074</v>
+        <v>42</v>
       </c>
       <c r="F198">
-        <v>37.459879000000001</v>
+        <v>56.168191999999998</v>
       </c>
       <c r="G198">
-        <v>126.951904</v>
+        <v>10.202991000000001</v>
       </c>
       <c r="H198" t="s">
-        <v>24</v>
-      </c>
-      <c r="I198" t="s">
-        <v>1107</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I198"/>
       <c r="J198"/>
       <c r="K198" t="s">
+        <v>664</v>
+      </c>
+      <c r="L198"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C199" t="s">
+        <v>215</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F199">
+        <v>37.459879000000001</v>
+      </c>
+      <c r="G199">
+        <v>126.951904</v>
+      </c>
+      <c r="H199" t="s">
+        <v>24</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J199"/>
+      <c r="K199" t="s">
         <v>1108</v>
       </c>
-      <c r="L198"/>
-    </row>
-    <row r="199" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="L199"/>
+    </row>
+    <row r="200" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>971</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>529</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D200" t="s">
         <v>63</v>
       </c>
-      <c r="F199">
+      <c r="F200">
         <v>30.975639399999999</v>
       </c>
-      <c r="G199">
+      <c r="G200">
         <v>76.538867999999994</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H200" t="s">
         <v>20</v>
       </c>
-      <c r="I199" s="1" t="s">
+      <c r="I200" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="K199" s="6" t="s">
+      <c r="K200" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L199" s="1"/>
-    </row>
-    <row r="200" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>972</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C200" t="s">
-        <v>274</v>
-      </c>
-      <c r="D200" t="s">
-        <v>140</v>
-      </c>
-      <c r="F200">
-        <v>-37.822150399999998</v>
-      </c>
-      <c r="G200">
-        <v>145.03895460000001</v>
-      </c>
-      <c r="H200" t="s">
-        <v>24</v>
-      </c>
-      <c r="K200" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="L200" s="1" t="s">
-        <v>675</v>
-      </c>
+      <c r="L200" s="1"/>
     </row>
     <row r="201" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>973</v>
-      </c>
-      <c r="B201" t="s">
-        <v>532</v>
+        <v>972</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>531</v>
       </c>
       <c r="C201" t="s">
-        <v>533</v>
+        <v>274</v>
       </c>
       <c r="D201" t="s">
-        <v>1073</v>
+        <v>140</v>
       </c>
       <c r="F201">
-        <v>50.087110600000003</v>
+        <v>-37.822150399999998</v>
       </c>
       <c r="G201">
-        <v>14.423488900000001</v>
+        <v>145.03895460000001</v>
       </c>
       <c r="H201" t="s">
-        <v>20</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>534</v>
+        <v>24</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>974</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>548</v>
+        <v>973</v>
+      </c>
+      <c r="B202" t="s">
+        <v>532</v>
       </c>
       <c r="C202" t="s">
-        <v>452</v>
+        <v>533</v>
       </c>
       <c r="D202" t="s">
-        <v>42</v>
+        <v>1073</v>
       </c>
       <c r="F202">
-        <v>55.696949600000003</v>
+        <v>50.087110600000003</v>
       </c>
       <c r="G202">
-        <v>12.5715789</v>
+        <v>14.423488900000001</v>
       </c>
       <c r="H202" t="s">
         <v>20</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="K202" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L202" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>974</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C203" t="s">
+        <v>452</v>
+      </c>
+      <c r="D203" t="s">
+        <v>42</v>
+      </c>
+      <c r="F203">
+        <v>55.696949600000003</v>
+      </c>
+      <c r="G203">
+        <v>12.5715789</v>
+      </c>
+      <c r="H203" t="s">
+        <v>20</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="204" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>975</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" t="s">
         <v>536</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D204" t="s">
         <v>1028</v>
       </c>
-      <c r="F203">
+      <c r="F204">
         <v>37.871899200000001</v>
       </c>
-      <c r="G203">
+      <c r="G204">
         <v>-122.2585399</v>
       </c>
-      <c r="H203" t="s">
-        <v>24</v>
-      </c>
-      <c r="I203" s="1" t="s">
+      <c r="H204" t="s">
+        <v>24</v>
+      </c>
+      <c r="I204" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K203" s="6" t="s">
+      <c r="K204" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="L204" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="205" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>976</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
         <v>539</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D205" t="s">
         <v>82</v>
       </c>
-      <c r="F204">
+      <c r="F205">
         <v>43.653225999999997</v>
       </c>
-      <c r="G204">
+      <c r="G205">
         <v>-79.383184299999996</v>
       </c>
-      <c r="H204" t="s">
-        <v>24</v>
-      </c>
-      <c r="I204" s="1" t="s">
+      <c r="H205" t="s">
+        <v>24</v>
+      </c>
+      <c r="I205" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="J204" s="1" t="s">
+      <c r="J205" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="K204" s="6" t="s">
+      <c r="K205" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="L204" s="1"/>
-    </row>
-    <row r="205" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D205" t="s">
-        <v>70</v>
-      </c>
-      <c r="F205">
-        <v>52.296484</v>
-      </c>
-      <c r="G205">
-        <v>10.463150000000001</v>
-      </c>
-      <c r="H205" t="s">
-        <v>24</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K205" s="6" t="s">
-        <v>1094</v>
       </c>
       <c r="L205" s="1"/>
     </row>
     <row r="206" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D206" t="s">
+        <v>70</v>
+      </c>
+      <c r="F206">
+        <v>52.296484</v>
+      </c>
+      <c r="G206">
+        <v>10.463150000000001</v>
+      </c>
+      <c r="H206" t="s">
+        <v>24</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K206" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>977</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>184</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D207" t="s">
         <v>1072</v>
       </c>
-      <c r="F206">
+      <c r="F207">
         <v>52.090737400000002</v>
       </c>
-      <c r="G206">
+      <c r="G207">
         <v>5.1214200999999999</v>
-      </c>
-      <c r="H206" t="s">
-        <v>20</v>
-      </c>
-      <c r="K206" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="L206" s="1"/>
-    </row>
-    <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>978</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C207" t="s">
-        <v>543</v>
-      </c>
-      <c r="D207" t="s">
-        <v>39</v>
-      </c>
-      <c r="F207">
-        <v>46.069476999999999</v>
-      </c>
-      <c r="G207">
-        <v>11.121046</v>
       </c>
       <c r="H207" t="s">
         <v>20</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="K207" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L207" s="1"/>
+    </row>
+    <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>978</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>543</v>
+      </c>
+      <c r="D208" t="s">
+        <v>39</v>
+      </c>
+      <c r="F208">
+        <v>46.069476999999999</v>
+      </c>
+      <c r="G208">
+        <v>11.121046</v>
+      </c>
+      <c r="H208" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="J207" s="1" t="s">
+      <c r="J208" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="K207" s="6" t="s">
+      <c r="K208" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="L208" s="1" t="s">
         <v>731</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>979</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C208" t="s">
-        <v>547</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F208">
-        <v>47.655335100000002</v>
-      </c>
-      <c r="G208">
-        <v>-122.3035199</v>
-      </c>
-      <c r="H208" t="s">
-        <v>24</v>
-      </c>
-      <c r="K208" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1113</v>
+        <v>979</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1114</v>
+        <v>546</v>
       </c>
       <c r="C209" t="s">
-        <v>278</v>
+        <v>547</v>
       </c>
       <c r="D209" t="s">
         <v>1028</v>
       </c>
       <c r="F209">
+        <v>47.655335100000002</v>
+      </c>
+      <c r="G209">
+        <v>-122.3035199</v>
+      </c>
+      <c r="H209" t="s">
+        <v>24</v>
+      </c>
+      <c r="K209" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C210" t="s">
+        <v>278</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F210">
         <v>36.885344000000003</v>
       </c>
-      <c r="G209">
+      <c r="G210">
         <v>-76.305880999999999</v>
       </c>
-      <c r="H209" t="s">
-        <v>24</v>
-      </c>
-      <c r="I209" s="1" t="s">
+      <c r="H210" t="s">
+        <v>24</v>
+      </c>
+      <c r="I210" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="K209" s="6" t="s">
+      <c r="K210" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="L209" s="1"/>
-    </row>
-    <row r="210" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="L210" s="1"/>
+    </row>
+    <row r="211" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>980</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B211" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>551</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D211" t="s">
         <v>256</v>
       </c>
-      <c r="F210">
+      <c r="F211">
         <v>35.026244400000003</v>
       </c>
-      <c r="G210">
+      <c r="G211">
         <v>135.78082180000001</v>
       </c>
-      <c r="H210" t="s">
-        <v>24</v>
-      </c>
-      <c r="I210" s="1" t="s">
+      <c r="H211" t="s">
+        <v>24</v>
+      </c>
+      <c r="I211" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="K210" s="6" t="s">
+      <c r="K211" s="6" t="s">
         <v>735</v>
-      </c>
-      <c r="L210" s="1"/>
-    </row>
-    <row r="211" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>981</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C211" t="s">
-        <v>554</v>
-      </c>
-      <c r="D211" t="s">
-        <v>405</v>
-      </c>
-      <c r="F211">
-        <v>41.275596999999998</v>
-      </c>
-      <c r="G211">
-        <v>1.9895659999999999</v>
-      </c>
-      <c r="H211" t="s">
-        <v>24</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="K211" s="6" t="s">
-        <v>743</v>
       </c>
       <c r="L211" s="1"/>
     </row>
     <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>981</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C212" t="s">
+        <v>554</v>
+      </c>
+      <c r="D212" t="s">
+        <v>405</v>
+      </c>
+      <c r="F212">
+        <v>41.275596999999998</v>
+      </c>
+      <c r="G212">
+        <v>1.9895659999999999</v>
+      </c>
+      <c r="H212" t="s">
+        <v>24</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K212" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>1059</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>1060</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D213" t="s">
         <v>105</v>
       </c>
-      <c r="F212">
+      <c r="F213">
         <v>-21.9841446</v>
       </c>
-      <c r="G212">
+      <c r="G213">
         <v>-47.8802454</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H213" t="s">
         <v>15</v>
       </c>
-      <c r="K212" s="6" t="s">
+      <c r="K213" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L212" s="1"/>
-    </row>
-    <row r="213" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="L213" s="1"/>
+    </row>
+    <row r="214" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>983</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C214" t="s">
         <v>559</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D214" t="s">
         <v>560</v>
       </c>
-      <c r="F213">
+      <c r="F214">
         <v>51.222809699999999</v>
       </c>
-      <c r="G213">
+      <c r="G214">
         <v>4.4102318</v>
       </c>
-      <c r="H213" t="s">
+      <c r="H214" t="s">
         <v>20</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="I214" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J213" s="1" t="s">
+      <c r="J214" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="K213" s="6" t="s">
+      <c r="K214" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L213" s="1"/>
-    </row>
-    <row r="214" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="L214" s="1"/>
+    </row>
+    <row r="215" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>984</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>1065</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>1066</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F214">
-        <v>35.759573099999997</v>
-      </c>
-      <c r="G214">
-        <v>-79.019299699999905</v>
-      </c>
-      <c r="H214" t="s">
-        <v>24</v>
-      </c>
-      <c r="K214" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="L214" s="1"/>
-    </row>
-    <row r="215" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>985</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C215" t="s">
-        <v>27</v>
       </c>
       <c r="D215" t="s">
         <v>1028</v>
       </c>
       <c r="F215">
+        <v>35.759573099999997</v>
+      </c>
+      <c r="G215">
+        <v>-79.019299699999905</v>
+      </c>
+      <c r="H215" t="s">
+        <v>24</v>
+      </c>
+      <c r="K215" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="L215" s="1"/>
+    </row>
+    <row r="216" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>985</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C216" t="s">
+        <v>27</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F216">
         <v>40.007436300000002</v>
       </c>
-      <c r="G215">
+      <c r="G216">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H215" t="s">
-        <v>24</v>
-      </c>
-      <c r="I215" s="1" t="s">
+      <c r="H216" t="s">
+        <v>24</v>
+      </c>
+      <c r="I216" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="K215" s="6" t="s">
+      <c r="K216" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="L216" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="217" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>986</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C217" t="s">
         <v>452</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D217" t="s">
         <v>42</v>
       </c>
-      <c r="F216">
+      <c r="F217">
         <v>55.696949600000003</v>
       </c>
-      <c r="G216">
+      <c r="G217">
         <v>12.5715789</v>
       </c>
-      <c r="H216" t="s">
-        <v>24</v>
-      </c>
-      <c r="I216" s="1" t="s">
+      <c r="H217" t="s">
+        <v>24</v>
+      </c>
+      <c r="I217" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="K216" s="6" t="s">
+      <c r="K217" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L216" s="1"/>
-    </row>
-    <row r="217" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="L217" s="1"/>
+    </row>
+    <row r="218" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>987</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C218" t="s">
         <v>539</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D218" t="s">
         <v>82</v>
       </c>
-      <c r="F217">
+      <c r="F218">
         <v>43.653225999999997</v>
       </c>
-      <c r="G217">
+      <c r="G218">
         <v>-79.383184299999996</v>
       </c>
-      <c r="H217" t="s">
-        <v>24</v>
-      </c>
-      <c r="I217" s="1" t="s">
+      <c r="H218" t="s">
+        <v>24</v>
+      </c>
+      <c r="I218" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J217" s="1" t="s">
+      <c r="J218" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="K217" s="6" t="s">
+      <c r="K218" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="L218" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="219" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>988</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C219" t="s">
         <v>298</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D219" t="s">
         <v>39</v>
       </c>
-      <c r="F218">
+      <c r="F219">
         <v>43.818863999999998</v>
       </c>
-      <c r="G218">
+      <c r="G219">
         <v>11.192811000000001</v>
       </c>
-      <c r="H218" t="s">
-        <v>24</v>
-      </c>
-      <c r="I218" s="1" t="s">
+      <c r="H219" t="s">
+        <v>24</v>
+      </c>
+      <c r="I219" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="K218" s="6" t="s">
+      <c r="K219" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="L219" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>989</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C220" t="s">
         <v>572</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D220" t="s">
         <v>412</v>
       </c>
-      <c r="F219">
+      <c r="F220">
         <v>60.209825299999999</v>
       </c>
-      <c r="G219">
+      <c r="G220">
         <v>24.976551300000001</v>
-      </c>
-      <c r="H219" t="s">
-        <v>20</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="K219" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L219" s="1"/>
-    </row>
-    <row r="220" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>990</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C220" t="s">
-        <v>575</v>
-      </c>
-      <c r="D220" t="s">
-        <v>238</v>
-      </c>
-      <c r="F220">
-        <v>52.240346299999999</v>
-      </c>
-      <c r="G220">
-        <v>21.018601199999999</v>
       </c>
       <c r="H220" t="s">
         <v>20</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K220" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>991</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>578</v>
+        <v>990</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="C221" t="s">
-        <v>139</v>
+        <v>575</v>
       </c>
       <c r="D221" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F221">
-        <v>-35.277699900000002</v>
+        <v>52.240346299999999</v>
       </c>
       <c r="G221">
-        <v>149.118527</v>
+        <v>21.018601199999999</v>
       </c>
       <c r="H221" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K221" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>676</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="L221" s="1"/>
     </row>
     <row r="222" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>991</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C222" t="s">
+        <v>139</v>
+      </c>
+      <c r="D222" t="s">
+        <v>140</v>
+      </c>
+      <c r="F222">
+        <v>-35.277699900000002</v>
+      </c>
+      <c r="G222">
+        <v>149.118527</v>
+      </c>
+      <c r="H222" t="s">
+        <v>24</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K222" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>992</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C223" t="s">
         <v>581</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D223" t="s">
         <v>63</v>
       </c>
-      <c r="F222">
+      <c r="F223">
         <v>18.905388899999998</v>
       </c>
-      <c r="G222">
+      <c r="G223">
         <v>72.804928000000004</v>
       </c>
-      <c r="H222" t="s">
-        <v>24</v>
-      </c>
-      <c r="I222" s="1" t="s">
+      <c r="H223" t="s">
+        <v>24</v>
+      </c>
+      <c r="I223" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="K222" s="6" t="s">
+      <c r="K223" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="L222" s="4" t="s">
+      <c r="L223" s="4" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="224" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>993</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B224" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C224" t="s">
         <v>274</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D224" t="s">
         <v>140</v>
       </c>
-      <c r="F223">
+      <c r="F224">
         <v>-37.822150399999998</v>
       </c>
-      <c r="G223">
+      <c r="G224">
         <v>145.03895460000001</v>
       </c>
-      <c r="H223" t="s">
-        <v>24</v>
-      </c>
-      <c r="J223" s="1" t="s">
+      <c r="H224" t="s">
+        <v>24</v>
+      </c>
+      <c r="J224" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="K223" s="6" t="s">
+      <c r="K224" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="L224" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>994</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C224" t="s">
-        <v>586</v>
-      </c>
-      <c r="D224" t="s">
-        <v>82</v>
-      </c>
-      <c r="F224">
-        <v>43.773453500000002</v>
-      </c>
-      <c r="G224">
-        <v>-79.501868400000006</v>
-      </c>
-      <c r="H224" t="s">
-        <v>24</v>
-      </c>
-      <c r="K224" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="L224" s="1"/>
     </row>
     <row r="225" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>994</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C225" t="s">
+        <v>586</v>
+      </c>
+      <c r="D225" t="s">
+        <v>82</v>
+      </c>
+      <c r="F225">
+        <v>43.773453500000002</v>
+      </c>
+      <c r="G225">
+        <v>-79.501868400000006</v>
+      </c>
+      <c r="H225" t="s">
+        <v>24</v>
+      </c>
+      <c r="K225" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="L225" s="1"/>
+    </row>
+    <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>996</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>346</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D226" t="s">
         <v>1072</v>
       </c>
-      <c r="F225">
+      <c r="F226">
         <v>52.333756800000003</v>
       </c>
-      <c r="G225">
+      <c r="G226">
         <v>4.8657199000000002</v>
       </c>
-      <c r="H225" t="s">
-        <v>24</v>
-      </c>
-      <c r="K225" s="6" t="s">
+      <c r="H226" t="s">
+        <v>24</v>
+      </c>
+      <c r="K226" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="L225" s="1"/>
-    </row>
-    <row r="226" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>997</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
         <v>649</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D227" t="s">
         <v>650</v>
       </c>
-      <c r="F226">
+      <c r="F227">
         <v>35.305134000000002</v>
       </c>
-      <c r="G226">
+      <c r="G227">
         <v>25.072593000000001</v>
       </c>
-      <c r="H226" t="s">
-        <v>24</v>
-      </c>
-      <c r="I226" s="7" t="s">
+      <c r="H227" t="s">
+        <v>24</v>
+      </c>
+      <c r="I227" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="J226" s="1" t="s">
+      <c r="J227" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="K226" s="6" t="s">
+      <c r="K227" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="L227" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>998</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" t="s">
         <v>333</v>
-      </c>
-      <c r="D227" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F227">
-        <v>42.360090999999997</v>
-      </c>
-      <c r="G227">
-        <v>-71.094160000000002</v>
-      </c>
-      <c r="H227" t="s">
-        <v>24</v>
-      </c>
-      <c r="K227" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="L227" s="1"/>
-    </row>
-    <row r="228" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>999</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C228" t="s">
-        <v>590</v>
       </c>
       <c r="D228" t="s">
         <v>1028</v>
       </c>
       <c r="F228">
-        <v>42.929508400000003</v>
+        <v>42.360090999999997</v>
       </c>
       <c r="G228">
-        <v>-85.588932900000003</v>
+        <v>-71.094160000000002</v>
       </c>
       <c r="H228" t="s">
         <v>24</v>
@@ -11290,297 +11299,297 @@
       <c r="K228" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="L228" s="1"/>
+    </row>
+    <row r="229" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>999</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C229" t="s">
+        <v>590</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F229">
+        <v>42.929508400000003</v>
+      </c>
+      <c r="G229">
+        <v>-85.588932900000003</v>
+      </c>
+      <c r="H229" t="s">
+        <v>24</v>
+      </c>
+      <c r="K229" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="230" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>1000</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C230" t="s">
         <v>592</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D230" t="s">
         <v>1072</v>
       </c>
-      <c r="F229">
+      <c r="F230">
         <v>52.355818200000002</v>
       </c>
-      <c r="G229">
+      <c r="G230">
         <v>4.9557263000000003</v>
       </c>
-      <c r="H229" t="s">
-        <v>24</v>
-      </c>
-      <c r="I229" s="1" t="s">
+      <c r="H230" t="s">
+        <v>24</v>
+      </c>
+      <c r="I230" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="K229" s="6" t="s">
+      <c r="K230" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="L230" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="231" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>1001</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C231" t="s">
         <v>595</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D231" t="s">
         <v>596</v>
       </c>
-      <c r="F230">
+      <c r="F231">
         <v>22.418096999999999</v>
       </c>
-      <c r="G230">
+      <c r="G231">
         <v>114.207953</v>
       </c>
-      <c r="H230" t="s">
-        <v>24</v>
-      </c>
-      <c r="I230" s="1" t="s">
+      <c r="H231" t="s">
+        <v>24</v>
+      </c>
+      <c r="I231" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="K230" s="6" t="s">
+      <c r="K231" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="L231" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>1002</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D231" t="s">
-        <v>70</v>
-      </c>
-      <c r="F231">
-        <v>49.419140200000001</v>
-      </c>
-      <c r="G231">
-        <v>8.6702492000000007</v>
-      </c>
-      <c r="H231" t="s">
-        <v>24</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K231" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="L231" s="1"/>
-    </row>
-    <row r="232" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="D232" t="s">
         <v>70</v>
       </c>
       <c r="F232">
-        <v>52.382964100000002</v>
+        <v>49.419140200000001</v>
       </c>
       <c r="G232">
-        <v>9.7196988999999991</v>
+        <v>8.6702492000000007</v>
       </c>
       <c r="H232" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K232" s="6" t="s">
-        <v>665</v>
+        <v>703</v>
       </c>
       <c r="L232" s="1"/>
     </row>
     <row r="233" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D233" t="s">
+        <v>70</v>
+      </c>
+      <c r="F233">
+        <v>52.382964100000002</v>
+      </c>
+      <c r="G233">
+        <v>9.7196988999999991</v>
+      </c>
+      <c r="H233" t="s">
+        <v>20</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="K233" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L233" s="1"/>
+    </row>
+    <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>1004</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
         <v>249</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D234" t="s">
         <v>1028</v>
       </c>
-      <c r="F233">
+      <c r="F234">
         <v>40.7982133</v>
       </c>
-      <c r="G233">
+      <c r="G234">
         <v>-77.859908399999995</v>
       </c>
-      <c r="H233" t="s">
-        <v>24</v>
-      </c>
-      <c r="I233" s="1" t="s">
+      <c r="H234" t="s">
+        <v>24</v>
+      </c>
+      <c r="I234" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="K233" s="6" t="s">
+      <c r="K234" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="L234" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="235" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>1005</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D235" t="s">
         <v>70</v>
       </c>
-      <c r="F234">
+      <c r="F235">
         <v>50.726771499999998</v>
       </c>
-      <c r="G234">
+      <c r="G235">
         <v>7.0865226999999997</v>
       </c>
-      <c r="H234" t="s">
-        <v>24</v>
-      </c>
-      <c r="K234" s="6" t="s">
+      <c r="H235" t="s">
+        <v>24</v>
+      </c>
+      <c r="K235" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="L234" s="1"/>
-    </row>
-    <row r="235" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C235" t="s">
-        <v>607</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F235">
-        <v>34.413962900000001</v>
-      </c>
-      <c r="G235">
-        <v>-119.848947</v>
-      </c>
-      <c r="H235" t="s">
-        <v>24</v>
-      </c>
-      <c r="K235" s="6" t="s">
-        <v>751</v>
       </c>
       <c r="L235" s="1"/>
     </row>
     <row r="236" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>44</v>
+        <v>606</v>
       </c>
       <c r="C236" t="s">
-        <v>126</v>
+        <v>607</v>
       </c>
       <c r="D236" t="s">
-        <v>31</v>
+        <v>1028</v>
       </c>
       <c r="F236">
-        <v>48.713740000000001</v>
+        <v>34.413962900000001</v>
       </c>
       <c r="G236">
-        <v>2.2034927</v>
+        <v>-119.848947</v>
       </c>
       <c r="H236" t="s">
         <v>24</v>
       </c>
-      <c r="J236" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K236" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="L236" s="5" t="s">
-        <v>713</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="L236" s="1"/>
     </row>
     <row r="237" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C237" t="s">
+        <v>126</v>
+      </c>
+      <c r="D237" t="s">
+        <v>31</v>
+      </c>
+      <c r="F237">
+        <v>48.713740000000001</v>
+      </c>
+      <c r="G237">
+        <v>2.2034927</v>
+      </c>
+      <c r="H237" t="s">
+        <v>24</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K237" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="L237" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>1008</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>609</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D238" t="s">
         <v>1028</v>
       </c>
-      <c r="F237">
+      <c r="F238">
         <v>34.097743000000001</v>
       </c>
-      <c r="G237">
+      <c r="G238">
         <v>-117.711803</v>
-      </c>
-      <c r="H237" t="s">
-        <v>24</v>
-      </c>
-      <c r="K237" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="L237" s="1"/>
-    </row>
-    <row r="238" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D238" t="s">
-        <v>70</v>
-      </c>
-      <c r="F238">
-        <v>49.425377400000002</v>
-      </c>
-      <c r="G238">
-        <v>7.7555496000000002</v>
       </c>
       <c r="H238" t="s">
         <v>24</v>
@@ -11590,1055 +11599,1075 @@
       </c>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D239" t="s">
+        <v>70</v>
+      </c>
+      <c r="F239">
+        <v>49.425377400000002</v>
+      </c>
+      <c r="G239">
+        <v>7.7555496000000002</v>
+      </c>
+      <c r="H239" t="s">
+        <v>24</v>
+      </c>
+      <c r="K239" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>1011</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C240" t="s">
         <v>189</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D240" t="s">
         <v>57</v>
       </c>
-      <c r="F239">
+      <c r="F240">
         <v>1.3483099000000001</v>
       </c>
-      <c r="G239">
+      <c r="G240">
         <v>103.6831347</v>
       </c>
-      <c r="H239" t="s">
-        <v>24</v>
-      </c>
-      <c r="I239" s="1" t="s">
+      <c r="H240" t="s">
+        <v>24</v>
+      </c>
+      <c r="I240" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="J239" s="1" t="s">
+      <c r="J240" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="K239" s="6" t="s">
+      <c r="K240" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L239" s="1"/>
-    </row>
-    <row r="240" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>1012</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C241" t="s">
         <v>617</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D241" t="s">
         <v>1028</v>
       </c>
-      <c r="F240">
+      <c r="F241">
         <v>40.8075355</v>
       </c>
-      <c r="G240">
+      <c r="G241">
         <v>-73.962572699999996</v>
       </c>
-      <c r="H240" t="s">
-        <v>24</v>
-      </c>
-      <c r="K240" s="6" t="s">
+      <c r="H241" t="s">
+        <v>24</v>
+      </c>
+      <c r="K241" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="L240" s="1"/>
-    </row>
-    <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>1014</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C242" t="s">
         <v>620</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D242" t="s">
         <v>63</v>
       </c>
-      <c r="F241">
+      <c r="F242">
         <v>23.253028</v>
       </c>
-      <c r="G241">
+      <c r="G242">
         <v>77.450444000000005</v>
       </c>
-      <c r="H241" t="s">
+      <c r="H242" t="s">
         <v>20</v>
       </c>
-      <c r="I241" s="1" t="s">
+      <c r="I242" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="J241" s="1" t="s">
+      <c r="J242" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="K241" s="6" t="s">
+      <c r="K242" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L241" s="1"/>
-    </row>
-    <row r="242" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="L242" s="1"/>
+    </row>
+    <row r="243" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>1015</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C243" t="s">
         <v>27</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D243" t="s">
         <v>1028</v>
       </c>
-      <c r="F242">
+      <c r="F243">
         <v>40.007436300000002</v>
       </c>
-      <c r="G242">
+      <c r="G243">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H242" t="s">
-        <v>24</v>
-      </c>
-      <c r="I242" s="1" t="s">
+      <c r="H243" t="s">
+        <v>24</v>
+      </c>
+      <c r="I243" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="K242" s="6" t="s">
+      <c r="K243" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="L243" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C243" t="s">
-        <v>628</v>
-      </c>
-      <c r="D243" t="s">
-        <v>238</v>
-      </c>
-      <c r="F243">
-        <v>50.0609623</v>
-      </c>
-      <c r="G243">
-        <v>19.934107399999998</v>
-      </c>
-      <c r="H243" t="s">
-        <v>20</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J243" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="K243" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L243" s="1"/>
     </row>
     <row r="244" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1067</v>
+        <v>1017</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="C244" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D244" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="F244">
-        <v>44.225279499999999</v>
+        <v>50.0609623</v>
       </c>
       <c r="G244">
-        <v>-76.495141199999907</v>
+        <v>19.934107399999998</v>
       </c>
       <c r="H244" t="s">
         <v>20</v>
       </c>
+      <c r="I244" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="K244" s="6" t="s">
         <v>665</v>
       </c>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C245" t="s">
+        <v>631</v>
+      </c>
+      <c r="D245" t="s">
+        <v>82</v>
+      </c>
+      <c r="F245">
+        <v>44.225279499999999</v>
+      </c>
+      <c r="G245">
+        <v>-76.495141199999907</v>
+      </c>
+      <c r="H245" t="s">
+        <v>20</v>
+      </c>
+      <c r="K245" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>1019</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C246" t="s">
         <v>617</v>
-      </c>
-      <c r="D245" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F245">
-        <v>40.8075355</v>
-      </c>
-      <c r="G245">
-        <v>-73.962572699999996</v>
-      </c>
-      <c r="H245" t="s">
-        <v>24</v>
-      </c>
-      <c r="K245" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="L245" s="1"/>
-    </row>
-    <row r="246" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C246" t="s">
-        <v>634</v>
       </c>
       <c r="D246" t="s">
         <v>1028</v>
       </c>
       <c r="F246">
+        <v>40.8075355</v>
+      </c>
+      <c r="G246">
+        <v>-73.962572699999996</v>
+      </c>
+      <c r="H246" t="s">
+        <v>24</v>
+      </c>
+      <c r="K246" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="L246" s="1"/>
+    </row>
+    <row r="247" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C247" t="s">
+        <v>634</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F247">
         <v>32.9857619</v>
       </c>
-      <c r="G246">
+      <c r="G247">
         <v>-96.750099300000002</v>
       </c>
-      <c r="H246" t="s">
+      <c r="H247" t="s">
         <v>20</v>
       </c>
-      <c r="K246" s="6" t="s">
+      <c r="K247" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L246" s="1"/>
-    </row>
-    <row r="247" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="L247" s="1"/>
+    </row>
+    <row r="248" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>1021</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C248" t="s">
         <v>636</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D248" t="s">
         <v>119</v>
       </c>
-      <c r="F247">
+      <c r="F248">
         <v>37.841507</v>
       </c>
-      <c r="G247">
+      <c r="G248">
         <v>112.53001399999999</v>
       </c>
-      <c r="H247" t="s">
-        <v>24</v>
-      </c>
-      <c r="I247" s="1" t="s">
+      <c r="H248" t="s">
+        <v>24</v>
+      </c>
+      <c r="I248" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="K247" s="6" t="s">
+      <c r="K248" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="L248" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C248" t="s">
-        <v>639</v>
-      </c>
-      <c r="D248" t="s">
-        <v>596</v>
-      </c>
-      <c r="F248">
-        <v>22.4162632</v>
-      </c>
-      <c r="G248">
-        <v>114.2109318</v>
-      </c>
-      <c r="H248" t="s">
-        <v>20</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="K248" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L248" s="1"/>
     </row>
     <row r="249" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
+      </c>
+      <c r="C249" t="s">
+        <v>639</v>
       </c>
       <c r="D249" t="s">
-        <v>70</v>
+        <v>596</v>
       </c>
       <c r="F249">
-        <v>48.529454999999999</v>
+        <v>22.4162632</v>
       </c>
       <c r="G249">
-        <v>9.0437720000000006</v>
+        <v>114.2109318</v>
       </c>
       <c r="H249" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="K249" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="L249" s="1" t="s">
-        <v>657</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="L249" s="1"/>
     </row>
     <row r="250" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D250" t="s">
+        <v>70</v>
+      </c>
+      <c r="F250">
+        <v>48.529454999999999</v>
+      </c>
+      <c r="G250">
+        <v>9.0437720000000006</v>
+      </c>
+      <c r="H250" t="s">
+        <v>24</v>
+      </c>
+      <c r="K250" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>1024</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B251" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D251" t="s">
         <v>205</v>
       </c>
-      <c r="F250">
+      <c r="F251">
         <v>47.269212400000001</v>
       </c>
-      <c r="G250">
+      <c r="G251">
         <v>11.404102399999999</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H251" t="s">
         <v>20</v>
       </c>
-      <c r="J250" s="1" t="s">
+      <c r="J251" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="K250" s="6" t="s">
+      <c r="K251" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L250" s="1"/>
-    </row>
-    <row r="251" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="L251" s="1"/>
+    </row>
+    <row r="252" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>1025</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B252" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C252" t="s">
         <v>646</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" t="s">
         <v>1028</v>
       </c>
-      <c r="F251">
+      <c r="F252">
         <v>42.360090999999997</v>
       </c>
-      <c r="G251">
+      <c r="G252">
         <v>-71.094160000000002</v>
       </c>
-      <c r="H251" t="s">
-        <v>24</v>
-      </c>
-      <c r="K251" s="6" t="s">
+      <c r="H252" t="s">
+        <v>24</v>
+      </c>
+      <c r="K252" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="L251" s="1"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K252" s="6"/>
-    </row>
-    <row r="253" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="L252" s="1"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K253" s="6"/>
+    </row>
+    <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>785</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B254" t="s">
         <v>22</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C254" t="s">
         <v>23</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D254" t="s">
         <v>1028</v>
       </c>
-      <c r="F253">
+      <c r="F254">
         <v>32.2318851</v>
       </c>
-      <c r="G253">
+      <c r="G254">
         <v>-110.9501094</v>
       </c>
-      <c r="H253" t="s">
-        <v>24</v>
-      </c>
-      <c r="I253" t="s">
+      <c r="H254" t="s">
+        <v>24</v>
+      </c>
+      <c r="I254" t="s">
         <v>25</v>
       </c>
-      <c r="J253"/>
-      <c r="K253" t="s">
+      <c r="J254"/>
+      <c r="K254" t="s">
         <v>661</v>
       </c>
-      <c r="L253"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>803</v>
-      </c>
-      <c r="B254" t="s">
-        <v>80</v>
-      </c>
-      <c r="C254" t="s">
-        <v>81</v>
-      </c>
-      <c r="D254" t="s">
-        <v>82</v>
-      </c>
-      <c r="F254">
-        <v>53.523218900000003</v>
-      </c>
-      <c r="G254">
-        <v>-113.5263186</v>
-      </c>
-      <c r="H254" t="s">
-        <v>20</v>
-      </c>
-      <c r="I254"/>
-      <c r="J254" t="s">
-        <v>83</v>
-      </c>
-      <c r="K254" t="s">
-        <v>665</v>
-      </c>
-      <c r="L254" t="s">
-        <v>684</v>
-      </c>
+      <c r="L254"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="B255" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C255" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D255" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F255">
-        <v>39.986913000000001</v>
+        <v>53.523218900000003</v>
       </c>
       <c r="G255">
-        <v>116.30587389999999</v>
+        <v>-113.5263186</v>
       </c>
       <c r="H255" t="s">
-        <v>15</v>
-      </c>
-      <c r="I255" t="s">
-        <v>120</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I255"/>
       <c r="J255" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="K255" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L255" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>816</v>
+      </c>
+      <c r="B256" t="s">
+        <v>117</v>
+      </c>
+      <c r="C256" t="s">
+        <v>118</v>
+      </c>
+      <c r="D256" t="s">
+        <v>119</v>
+      </c>
+      <c r="F256">
+        <v>39.986913000000001</v>
+      </c>
+      <c r="G256">
+        <v>116.30587389999999</v>
+      </c>
+      <c r="H256" t="s">
+        <v>15</v>
+      </c>
+      <c r="I256" t="s">
+        <v>120</v>
+      </c>
+      <c r="J256" t="s">
+        <v>121</v>
+      </c>
+      <c r="K256" t="s">
+        <v>664</v>
+      </c>
+      <c r="L256" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>820</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>132</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C257" t="s">
         <v>133</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D257" t="s">
         <v>1028</v>
       </c>
-      <c r="F256">
+      <c r="F257">
         <v>37.427474500000002</v>
       </c>
-      <c r="G256">
+      <c r="G257">
         <v>-122.169719</v>
       </c>
-      <c r="H256" t="s">
-        <v>24</v>
-      </c>
-      <c r="I256"/>
-      <c r="J256"/>
-      <c r="K256" t="s">
+      <c r="H257" t="s">
+        <v>24</v>
+      </c>
+      <c r="I257"/>
+      <c r="J257"/>
+      <c r="K257" t="s">
         <v>755</v>
       </c>
-      <c r="L256" t="s">
+      <c r="L257" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="258" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>825</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
         <v>31</v>
       </c>
-      <c r="F257">
+      <c r="F258">
         <v>48.842205800000002</v>
       </c>
-      <c r="G257">
+      <c r="G258">
         <v>2.3451689</v>
-      </c>
-      <c r="H257" t="s">
-        <v>15</v>
-      </c>
-      <c r="K257" t="s">
-        <v>717</v>
-      </c>
-      <c r="L257" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>843</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D258" t="s">
-        <v>63</v>
-      </c>
-      <c r="F258">
-        <v>12.9225525</v>
-      </c>
-      <c r="G258">
-        <v>77.592889700000001</v>
       </c>
       <c r="H258" t="s">
         <v>15</v>
       </c>
-      <c r="I258" s="1" t="s">
+      <c r="K258" t="s">
+        <v>717</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>843</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D259" t="s">
+        <v>63</v>
+      </c>
+      <c r="F259">
+        <v>12.9225525</v>
+      </c>
+      <c r="G259">
+        <v>77.592889700000001</v>
+      </c>
+      <c r="H259" t="s">
+        <v>15</v>
+      </c>
+      <c r="I259" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K258" t="s">
+      <c r="K259" t="s">
         <v>664</v>
       </c>
-      <c r="L258" s="5" t="s">
+      <c r="L259" s="5" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>857</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D259" t="s">
-        <v>49</v>
-      </c>
-      <c r="F259">
-        <v>-45.479067100000002</v>
-      </c>
-      <c r="G259">
-        <v>170.15475670000001</v>
-      </c>
-      <c r="H259" t="s">
-        <v>20</v>
-      </c>
-      <c r="K259" t="s">
-        <v>665</v>
-      </c>
-      <c r="L259" s="5" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="D260" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="F260">
-        <v>35.801062000000002</v>
+        <v>-45.479067100000002</v>
       </c>
       <c r="G260">
-        <v>139.71977899999999</v>
+        <v>170.15475670000001</v>
       </c>
       <c r="H260" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K260" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>654</v>
+        <v>740</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>866</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D261" t="s">
+        <v>256</v>
+      </c>
+      <c r="F261">
+        <v>35.801062000000002</v>
+      </c>
+      <c r="G261">
+        <v>139.71977899999999</v>
+      </c>
+      <c r="H261" t="s">
+        <v>24</v>
+      </c>
+      <c r="K261" t="s">
+        <v>653</v>
+      </c>
+      <c r="L261" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>882</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D262" t="s">
         <v>140</v>
       </c>
-      <c r="F261">
+      <c r="F262">
         <v>-35.277699900000002</v>
       </c>
-      <c r="G261">
+      <c r="G262">
         <v>149.118527</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H262" t="s">
         <v>20</v>
       </c>
-      <c r="K261" t="s">
+      <c r="K262" t="s">
         <v>665</v>
       </c>
-      <c r="L261" s="5" t="s">
+      <c r="L262" s="5" t="s">
         <v>671</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>891</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D262" t="s">
-        <v>119</v>
-      </c>
-      <c r="F262">
-        <v>37.841507</v>
-      </c>
-      <c r="G262">
-        <v>112.53001399999999</v>
-      </c>
-      <c r="H262" t="s">
-        <v>15</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J262" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K262" t="s">
-        <v>664</v>
-      </c>
-      <c r="L262" s="5" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D263" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="F263">
-        <v>19.325721999999999</v>
+        <v>37.841507</v>
       </c>
       <c r="G263">
-        <v>-99.180436999999998</v>
+        <v>112.53001399999999</v>
       </c>
       <c r="H263" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K263" t="s">
         <v>664</v>
       </c>
       <c r="L263" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>892</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D264" t="s">
+        <v>316</v>
+      </c>
+      <c r="F264">
+        <v>19.325721999999999</v>
+      </c>
+      <c r="G264">
+        <v>-99.180436999999998</v>
+      </c>
+      <c r="H264" t="s">
+        <v>24</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K264" t="s">
+        <v>664</v>
+      </c>
+      <c r="L264" s="5" t="s">
         <v>736</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>902</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F264">
-        <v>52.333756800000003</v>
-      </c>
-      <c r="G264">
-        <v>4.8657199000000002</v>
-      </c>
-      <c r="H264" t="s">
-        <v>24</v>
-      </c>
-      <c r="K264" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>902</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F265">
+        <v>52.333756800000003</v>
+      </c>
+      <c r="G265">
+        <v>4.8657199000000002</v>
+      </c>
+      <c r="H265" t="s">
+        <v>24</v>
+      </c>
+      <c r="K265" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>910</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D266" t="s">
         <v>31</v>
       </c>
-      <c r="F265">
+      <c r="F266">
         <v>48.842205800000002</v>
       </c>
-      <c r="G265">
+      <c r="G266">
         <v>2.3451689</v>
       </c>
-      <c r="H265" t="s">
-        <v>24</v>
-      </c>
-      <c r="K265" t="s">
+      <c r="H266" t="s">
+        <v>24</v>
+      </c>
+      <c r="K266" t="s">
         <v>717</v>
       </c>
-      <c r="L265" s="5" t="s">
+      <c r="L266" s="5" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="267" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>917</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>379</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C267" t="s">
         <v>380</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D267" t="s">
         <v>1028</v>
       </c>
-      <c r="F266">
+      <c r="F267">
         <v>34.201308099999999</v>
       </c>
-      <c r="G266">
+      <c r="G267">
         <v>-118.1713944</v>
       </c>
-      <c r="H266" t="s">
-        <v>24</v>
-      </c>
-      <c r="I266" t="s">
+      <c r="H267" t="s">
+        <v>24</v>
+      </c>
+      <c r="I267" t="s">
         <v>381</v>
       </c>
-      <c r="J266" t="s">
+      <c r="J267" t="s">
         <v>382</v>
       </c>
-      <c r="K266" t="s">
+      <c r="K267" t="s">
         <v>664</v>
       </c>
-      <c r="L266" t="s">
+      <c r="L267" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="268" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>948</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>469</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C268" t="s">
         <v>470</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D268" t="s">
         <v>63</v>
       </c>
-      <c r="F267">
+      <c r="F268">
         <v>18.545665799999998</v>
       </c>
-      <c r="G267">
+      <c r="G268">
         <v>73.806586100000004</v>
       </c>
-      <c r="H267" t="s">
-        <v>24</v>
-      </c>
-      <c r="I267" t="s">
+      <c r="H268" t="s">
+        <v>24</v>
+      </c>
+      <c r="I268" t="s">
         <v>471</v>
       </c>
-      <c r="J267" t="s">
+      <c r="J268" t="s">
         <v>472</v>
       </c>
-      <c r="K267" t="s">
+      <c r="K268" t="s">
         <v>724</v>
       </c>
-      <c r="L267"/>
-    </row>
-    <row r="268" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="L268"/>
+    </row>
+    <row r="269" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>951</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>479</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C269" t="s">
         <v>480</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D269" t="s">
         <v>14</v>
       </c>
-      <c r="F268">
+      <c r="F269">
         <v>51.524559199999999</v>
       </c>
-      <c r="G268">
+      <c r="G269">
         <v>-0.1340401</v>
       </c>
-      <c r="H268" t="s">
-        <v>24</v>
-      </c>
-      <c r="I268" t="s">
+      <c r="H269" t="s">
+        <v>24</v>
+      </c>
+      <c r="I269" t="s">
         <v>481</v>
       </c>
-      <c r="J268"/>
-      <c r="K268" t="s">
-        <v>664</v>
-      </c>
-      <c r="L268" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>982</v>
-      </c>
-      <c r="B269" t="s">
-        <v>556</v>
-      </c>
-      <c r="C269" t="s">
-        <v>557</v>
-      </c>
-      <c r="D269" t="s">
-        <v>63</v>
-      </c>
-      <c r="F269">
-        <v>26.512338799999998</v>
-      </c>
-      <c r="G269">
-        <v>80.232900000000001</v>
-      </c>
-      <c r="H269" t="s">
-        <v>20</v>
-      </c>
-      <c r="I269"/>
       <c r="J269"/>
       <c r="K269" t="s">
-        <v>665</v>
-      </c>
-      <c r="L269"/>
+        <v>664</v>
+      </c>
+      <c r="L269" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="270" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="B270" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>557</v>
       </c>
       <c r="D270" t="s">
-        <v>1028</v>
+        <v>63</v>
       </c>
       <c r="F270">
-        <v>40.007436300000002</v>
+        <v>26.512338799999998</v>
       </c>
       <c r="G270">
-        <v>-105.26864809999999</v>
+        <v>80.232900000000001</v>
       </c>
       <c r="H270" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I270"/>
       <c r="J270"/>
       <c r="K270" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="L270"/>
     </row>
-    <row r="271" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B271" t="s">
-        <v>47</v>
+        <v>612</v>
       </c>
       <c r="C271" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D271" t="s">
-        <v>49</v>
+        <v>1028</v>
       </c>
       <c r="F271">
-        <v>-45.479067100000002</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G271">
-        <v>170.15475670000001</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H271" t="s">
         <v>24</v>
       </c>
-      <c r="I271" t="s">
-        <v>618</v>
-      </c>
+      <c r="I271"/>
       <c r="J271"/>
       <c r="K271" t="s">
-        <v>664</v>
-      </c>
-      <c r="L271" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="L271"/>
+    </row>
+    <row r="272" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B272" t="s">
-        <v>625</v>
+        <v>47</v>
       </c>
       <c r="C272" t="s">
-        <v>626</v>
+        <v>48</v>
       </c>
       <c r="D272" t="s">
-        <v>1028</v>
+        <v>49</v>
       </c>
       <c r="F272">
-        <v>40.423705400000003</v>
+        <v>-45.479067100000002</v>
       </c>
       <c r="G272">
-        <v>-86.921194600000007</v>
+        <v>170.15475670000001</v>
       </c>
       <c r="H272" t="s">
         <v>24</v>
       </c>
-      <c r="I272"/>
+      <c r="I272" t="s">
+        <v>618</v>
+      </c>
       <c r="J272"/>
       <c r="K272" t="s">
+        <v>664</v>
+      </c>
+      <c r="L272" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B273" t="s">
+        <v>625</v>
+      </c>
+      <c r="C273" t="s">
+        <v>626</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F273">
+        <v>40.423705400000003</v>
+      </c>
+      <c r="G273">
+        <v>-86.921194600000007</v>
+      </c>
+      <c r="H273" t="s">
+        <v>24</v>
+      </c>
+      <c r="I273"/>
+      <c r="J273"/>
+      <c r="K273" t="s">
         <v>661</v>
       </c>
-      <c r="L272"/>
-    </row>
-    <row r="273" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="L273"/>
+    </row>
+    <row r="274" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>995</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B274" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C274" t="s">
         <v>648</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D274" t="s">
         <v>82</v>
       </c>
-      <c r="F273">
+      <c r="F274">
         <v>45.617910899999998</v>
       </c>
-      <c r="G273">
+      <c r="G274">
         <v>-61.995441599999999</v>
       </c>
-      <c r="H273" t="s">
+      <c r="H274" t="s">
         <v>20</v>
       </c>
-      <c r="K273" s="6" t="s">
+      <c r="K274" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="L273" s="1" t="s">
+      <c r="L274" s="1" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B274"/>
-      <c r="C274"/>
-      <c r="I274"/>
-      <c r="J274"/>
-      <c r="L274"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B275"/>
@@ -12647,8 +12676,15 @@
       <c r="J275"/>
       <c r="L275"/>
     </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B276"/>
+      <c r="C276"/>
+      <c r="I276"/>
+      <c r="J276"/>
+      <c r="L276"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K252 K273">
+  <conditionalFormatting sqref="K1:K253 K274">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
@@ -12741,7 +12777,7 @@
     <hyperlink ref="B111" r:id="rId74"/>
     <hyperlink ref="B24" r:id="rId75"/>
     <hyperlink ref="B101" r:id="rId76"/>
-    <hyperlink ref="B256" r:id="rId77"/>
+    <hyperlink ref="B257" r:id="rId77"/>
     <hyperlink ref="B43" r:id="rId78"/>
     <hyperlink ref="B34" r:id="rId79"/>
     <hyperlink ref="B4" r:id="rId80"/>
@@ -12768,141 +12804,141 @@
     <hyperlink ref="B123" r:id="rId101"/>
     <hyperlink ref="B68" r:id="rId102"/>
     <hyperlink ref="B11" r:id="rId103"/>
-    <hyperlink ref="B253" r:id="rId104"/>
-    <hyperlink ref="B255" r:id="rId105"/>
-    <hyperlink ref="B254" r:id="rId106"/>
+    <hyperlink ref="B254" r:id="rId104"/>
+    <hyperlink ref="B256" r:id="rId105"/>
+    <hyperlink ref="B255" r:id="rId106"/>
     <hyperlink ref="B73" r:id="rId107"/>
     <hyperlink ref="B114" r:id="rId108"/>
-    <hyperlink ref="B208" r:id="rId109"/>
-    <hyperlink ref="B171" r:id="rId110"/>
+    <hyperlink ref="B209" r:id="rId109"/>
+    <hyperlink ref="B172" r:id="rId110"/>
     <hyperlink ref="B126" r:id="rId111"/>
     <hyperlink ref="B140" r:id="rId112"/>
-    <hyperlink ref="B228" r:id="rId113"/>
-    <hyperlink ref="B251" r:id="rId114"/>
-    <hyperlink ref="B227" r:id="rId115"/>
-    <hyperlink ref="B172" r:id="rId116"/>
+    <hyperlink ref="B229" r:id="rId113"/>
+    <hyperlink ref="B252" r:id="rId114"/>
+    <hyperlink ref="B228" r:id="rId115"/>
+    <hyperlink ref="B173" r:id="rId116"/>
     <hyperlink ref="B135" r:id="rId117"/>
-    <hyperlink ref="B193" r:id="rId118"/>
-    <hyperlink ref="B245" r:id="rId119"/>
-    <hyperlink ref="B240" r:id="rId120"/>
-    <hyperlink ref="B233" r:id="rId121"/>
-    <hyperlink ref="B155" r:id="rId122"/>
-    <hyperlink ref="B272" r:id="rId123"/>
-    <hyperlink ref="B242" r:id="rId124"/>
-    <hyperlink ref="B270" r:id="rId125"/>
-    <hyperlink ref="B215" r:id="rId126"/>
-    <hyperlink ref="B178" r:id="rId127"/>
-    <hyperlink ref="B164" r:id="rId128"/>
+    <hyperlink ref="B194" r:id="rId118"/>
+    <hyperlink ref="B246" r:id="rId119"/>
+    <hyperlink ref="B241" r:id="rId120"/>
+    <hyperlink ref="B234" r:id="rId121"/>
+    <hyperlink ref="B156" r:id="rId122"/>
+    <hyperlink ref="B273" r:id="rId123"/>
+    <hyperlink ref="B243" r:id="rId124"/>
+    <hyperlink ref="B271" r:id="rId125"/>
+    <hyperlink ref="B216" r:id="rId126"/>
+    <hyperlink ref="B179" r:id="rId127"/>
+    <hyperlink ref="B165" r:id="rId128"/>
     <hyperlink ref="B153" r:id="rId129"/>
     <hyperlink ref="B138" r:id="rId130"/>
-    <hyperlink ref="B166" r:id="rId131"/>
-    <hyperlink ref="B189" r:id="rId132"/>
-    <hyperlink ref="B182" r:id="rId133"/>
-    <hyperlink ref="B203" r:id="rId134"/>
+    <hyperlink ref="B167" r:id="rId131"/>
+    <hyperlink ref="B190" r:id="rId132"/>
+    <hyperlink ref="B183" r:id="rId133"/>
+    <hyperlink ref="B204" r:id="rId134"/>
     <hyperlink ref="B137" r:id="rId135"/>
-    <hyperlink ref="B190" r:id="rId136"/>
+    <hyperlink ref="B191" r:id="rId136"/>
     <hyperlink ref="B139" r:id="rId137"/>
-    <hyperlink ref="B214" r:id="rId138" display="http://www.phy.duke.edu/research/photon/qoptics/"/>
-    <hyperlink ref="B196" r:id="rId139"/>
-    <hyperlink ref="B235" r:id="rId140"/>
-    <hyperlink ref="B266" r:id="rId141"/>
-    <hyperlink ref="B237" r:id="rId142"/>
-    <hyperlink ref="B175" r:id="rId143"/>
-    <hyperlink ref="B246" r:id="rId144"/>
-    <hyperlink ref="B173" r:id="rId145"/>
-    <hyperlink ref="B243" r:id="rId146"/>
-    <hyperlink ref="B220" r:id="rId147"/>
+    <hyperlink ref="B215" r:id="rId138" display="http://www.phy.duke.edu/research/photon/qoptics/"/>
+    <hyperlink ref="B197" r:id="rId139"/>
+    <hyperlink ref="B236" r:id="rId140"/>
+    <hyperlink ref="B267" r:id="rId141"/>
+    <hyperlink ref="B238" r:id="rId142"/>
+    <hyperlink ref="B176" r:id="rId143"/>
+    <hyperlink ref="B247" r:id="rId144"/>
+    <hyperlink ref="B174" r:id="rId145"/>
+    <hyperlink ref="B244" r:id="rId146"/>
+    <hyperlink ref="B221" r:id="rId147"/>
     <hyperlink ref="B143" r:id="rId148"/>
-    <hyperlink ref="B239" r:id="rId149"/>
-    <hyperlink ref="B211" r:id="rId150"/>
+    <hyperlink ref="B240" r:id="rId149"/>
+    <hyperlink ref="B212" r:id="rId150"/>
     <hyperlink ref="B151" r:id="rId151"/>
-    <hyperlink ref="B271" r:id="rId152"/>
+    <hyperlink ref="B272" r:id="rId152"/>
     <hyperlink ref="B125" r:id="rId153"/>
-    <hyperlink ref="B229" r:id="rId154"/>
-    <hyperlink ref="B225" r:id="rId155"/>
-    <hyperlink ref="B206" r:id="rId156"/>
-    <hyperlink ref="B210" r:id="rId157"/>
-    <hyperlink ref="B156" r:id="rId158"/>
+    <hyperlink ref="B230" r:id="rId154"/>
+    <hyperlink ref="B226" r:id="rId155"/>
+    <hyperlink ref="B207" r:id="rId156"/>
+    <hyperlink ref="B211" r:id="rId157"/>
+    <hyperlink ref="B157" r:id="rId158"/>
     <hyperlink ref="B152" r:id="rId159"/>
     <hyperlink ref="B130" r:id="rId160"/>
-    <hyperlink ref="B218" r:id="rId161"/>
-    <hyperlink ref="B207" r:id="rId162"/>
-    <hyperlink ref="B185" r:id="rId163"/>
-    <hyperlink ref="B241" r:id="rId164"/>
-    <hyperlink ref="B222" r:id="rId165"/>
-    <hyperlink ref="B269" r:id="rId166"/>
-    <hyperlink ref="B199" r:id="rId167"/>
-    <hyperlink ref="B267" r:id="rId168"/>
-    <hyperlink ref="B174" r:id="rId169"/>
-    <hyperlink ref="B230" r:id="rId170"/>
-    <hyperlink ref="B238" r:id="rId171"/>
-    <hyperlink ref="B234" r:id="rId172"/>
-    <hyperlink ref="B232" r:id="rId173"/>
-    <hyperlink ref="B231" r:id="rId174"/>
-    <hyperlink ref="B195" r:id="rId175"/>
-    <hyperlink ref="B188" r:id="rId176"/>
-    <hyperlink ref="B183" r:id="rId177"/>
-    <hyperlink ref="B177" r:id="rId178"/>
-    <hyperlink ref="B163" r:id="rId179"/>
-    <hyperlink ref="B160" r:id="rId180"/>
-    <hyperlink ref="B157" r:id="rId181"/>
+    <hyperlink ref="B219" r:id="rId161"/>
+    <hyperlink ref="B208" r:id="rId162"/>
+    <hyperlink ref="B186" r:id="rId163"/>
+    <hyperlink ref="B242" r:id="rId164"/>
+    <hyperlink ref="B223" r:id="rId165"/>
+    <hyperlink ref="B270" r:id="rId166"/>
+    <hyperlink ref="B200" r:id="rId167"/>
+    <hyperlink ref="B268" r:id="rId168"/>
+    <hyperlink ref="B175" r:id="rId169"/>
+    <hyperlink ref="B231" r:id="rId170"/>
+    <hyperlink ref="B239" r:id="rId171"/>
+    <hyperlink ref="B235" r:id="rId172"/>
+    <hyperlink ref="B233" r:id="rId173"/>
+    <hyperlink ref="B232" r:id="rId174"/>
+    <hyperlink ref="B196" r:id="rId175"/>
+    <hyperlink ref="B189" r:id="rId176"/>
+    <hyperlink ref="B184" r:id="rId177"/>
+    <hyperlink ref="B178" r:id="rId178"/>
+    <hyperlink ref="B164" r:id="rId179"/>
+    <hyperlink ref="B161" r:id="rId180"/>
+    <hyperlink ref="B158" r:id="rId181"/>
     <hyperlink ref="B149" r:id="rId182"/>
     <hyperlink ref="B148" r:id="rId183"/>
-    <hyperlink ref="B236" r:id="rId184"/>
-    <hyperlink ref="B186" r:id="rId185"/>
-    <hyperlink ref="B176" r:id="rId186"/>
-    <hyperlink ref="B167" r:id="rId187"/>
-    <hyperlink ref="B161" r:id="rId188"/>
+    <hyperlink ref="B237" r:id="rId184"/>
+    <hyperlink ref="B187" r:id="rId185"/>
+    <hyperlink ref="B177" r:id="rId186"/>
+    <hyperlink ref="B168" r:id="rId187"/>
+    <hyperlink ref="B162" r:id="rId188"/>
     <hyperlink ref="B133" r:id="rId189"/>
     <hyperlink ref="B131" r:id="rId190"/>
-    <hyperlink ref="B219" r:id="rId191"/>
+    <hyperlink ref="B220" r:id="rId191"/>
     <hyperlink ref="B150" r:id="rId192"/>
-    <hyperlink ref="B216" r:id="rId193"/>
-    <hyperlink ref="B202" r:id="rId194"/>
-    <hyperlink ref="B168" r:id="rId195"/>
-    <hyperlink ref="B248" r:id="rId196"/>
-    <hyperlink ref="B247" r:id="rId197"/>
-    <hyperlink ref="B273" r:id="rId198"/>
-    <hyperlink ref="B244" r:id="rId199" display="http://www.physics.queensu.ca/%7ezaremba/"/>
-    <hyperlink ref="B224" r:id="rId200"/>
-    <hyperlink ref="B217" r:id="rId201"/>
-    <hyperlink ref="B204" r:id="rId202"/>
-    <hyperlink ref="B158" r:id="rId203"/>
-    <hyperlink ref="B154" r:id="rId204"/>
+    <hyperlink ref="B217" r:id="rId193"/>
+    <hyperlink ref="B203" r:id="rId194"/>
+    <hyperlink ref="B169" r:id="rId195"/>
+    <hyperlink ref="B249" r:id="rId196"/>
+    <hyperlink ref="B248" r:id="rId197"/>
+    <hyperlink ref="B274" r:id="rId198"/>
+    <hyperlink ref="B245" r:id="rId199" display="http://www.physics.queensu.ca/%7ezaremba/"/>
+    <hyperlink ref="B225" r:id="rId200"/>
+    <hyperlink ref="B218" r:id="rId201"/>
+    <hyperlink ref="B205" r:id="rId202"/>
+    <hyperlink ref="B159" r:id="rId203"/>
+    <hyperlink ref="B155" r:id="rId204"/>
     <hyperlink ref="B146" r:id="rId205"/>
     <hyperlink ref="B145" r:id="rId206"/>
     <hyperlink ref="B142" r:id="rId207"/>
     <hyperlink ref="B129" r:id="rId208"/>
     <hyperlink ref="B144" r:id="rId209"/>
-    <hyperlink ref="B213" r:id="rId210"/>
-    <hyperlink ref="B250" r:id="rId211"/>
-    <hyperlink ref="B194" r:id="rId212"/>
-    <hyperlink ref="B192" r:id="rId213"/>
-    <hyperlink ref="B223" r:id="rId214"/>
-    <hyperlink ref="B221" r:id="rId215"/>
-    <hyperlink ref="B200" r:id="rId216"/>
-    <hyperlink ref="B180" r:id="rId217"/>
+    <hyperlink ref="B214" r:id="rId210"/>
+    <hyperlink ref="B251" r:id="rId211"/>
+    <hyperlink ref="B195" r:id="rId212"/>
+    <hyperlink ref="B193" r:id="rId213"/>
+    <hyperlink ref="B224" r:id="rId214"/>
+    <hyperlink ref="B222" r:id="rId215"/>
+    <hyperlink ref="B201" r:id="rId216"/>
+    <hyperlink ref="B181" r:id="rId217"/>
     <hyperlink ref="B124" r:id="rId218"/>
-    <hyperlink ref="B268" r:id="rId219"/>
-    <hyperlink ref="B179" r:id="rId220"/>
+    <hyperlink ref="B269" r:id="rId219"/>
+    <hyperlink ref="B180" r:id="rId220"/>
     <hyperlink ref="B147" r:id="rId221"/>
     <hyperlink ref="B134" r:id="rId222"/>
-    <hyperlink ref="B181" r:id="rId223" display="http://www.soton.ac.uk/~janne"/>
-    <hyperlink ref="B162" r:id="rId224"/>
-    <hyperlink ref="B226" r:id="rId225"/>
-    <hyperlink ref="B187" r:id="rId226" display="http://www.atomoptic.fr/~theory"/>
-    <hyperlink ref="B170" r:id="rId227"/>
-    <hyperlink ref="B159" r:id="rId228"/>
-    <hyperlink ref="B249" r:id="rId229"/>
-    <hyperlink ref="B191" r:id="rId230"/>
+    <hyperlink ref="B182" r:id="rId223" display="http://www.soton.ac.uk/~janne"/>
+    <hyperlink ref="B163" r:id="rId224"/>
+    <hyperlink ref="B227" r:id="rId225"/>
+    <hyperlink ref="B188" r:id="rId226" display="http://www.atomoptic.fr/~theory"/>
+    <hyperlink ref="B171" r:id="rId227"/>
+    <hyperlink ref="B160" r:id="rId228"/>
+    <hyperlink ref="B250" r:id="rId229"/>
+    <hyperlink ref="B192" r:id="rId230"/>
     <hyperlink ref="B93" r:id="rId231"/>
     <hyperlink ref="B127" r:id="rId232"/>
     <hyperlink ref="B136" r:id="rId233"/>
-    <hyperlink ref="B197" r:id="rId234"/>
-    <hyperlink ref="B165" r:id="rId235"/>
-    <hyperlink ref="B205" r:id="rId236"/>
+    <hyperlink ref="B198" r:id="rId234"/>
+    <hyperlink ref="B166" r:id="rId235"/>
+    <hyperlink ref="B206" r:id="rId236"/>
     <hyperlink ref="B61" r:id="rId237"/>
-    <hyperlink ref="B198" r:id="rId238"/>
+    <hyperlink ref="B199" r:id="rId238"/>
     <hyperlink ref="B121" r:id="rId239"/>
     <hyperlink ref="B37" r:id="rId240"/>
   </hyperlinks>

--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1122">
   <si>
     <t>name</t>
   </si>
@@ -927,9 +927,6 @@
     <t>Chiara Fort, Francesco Minardi, Giovanni Modugno, Michele Modugno</t>
   </si>
   <si>
-    <t>http://www.physics.ox.ac.uk/qubit/</t>
-  </si>
-  <si>
     <t>Our research focuses on Quantum Optics, Ultra-cold physics such as optical lattices, Bose-Einstein condensation, and applications to Quantum Information Processing.</t>
   </si>
   <si>
@@ -2274,9 +2271,6 @@
     <t>Webpage doesn't work (19.02.2018).</t>
   </si>
   <si>
-    <t>New webpage http://www.physics.ox.ac.uk/groups/qubit/</t>
-  </si>
-  <si>
     <t>Li, Sr</t>
   </si>
   <si>
@@ -3391,6 +3385,9 @@
   </si>
   <si>
     <t>Ar, Rb</t>
+  </si>
+  <si>
+    <t>http://www.physics.ox.ac.uk/groups/qubit/</t>
   </si>
 </sst>
 </file>
@@ -3979,6 +3976,26 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -4006,26 +4023,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4040,7 +4037,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L252" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L252" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:L252"/>
   <sortState ref="A2:L248">
     <sortCondition ref="A1:A248"/>
@@ -4054,10 +4051,10 @@
     <tableColumn id="6" name="lat"/>
     <tableColumn id="7" name="long"/>
     <tableColumn id="8" name="exp_theor"/>
-    <tableColumn id="9" name="fields" dataDxfId="7"/>
-    <tableColumn id="10" name="people" dataDxfId="6"/>
-    <tableColumn id="11" name="atom" dataDxfId="5"/>
-    <tableColumn id="12" name="comment" dataDxfId="4"/>
+    <tableColumn id="9" name="fields" dataDxfId="3"/>
+    <tableColumn id="10" name="people" dataDxfId="2"/>
+    <tableColumn id="11" name="atom" dataDxfId="1"/>
+    <tableColumn id="12" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4328,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G111" sqref="A1:L252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4388,7 +4385,7 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -4412,15 +4409,15 @@
         <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -4444,13 +4441,13 @@
         <v>21</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -4459,7 +4456,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F4">
         <v>40.007436300000002</v>
@@ -4474,21 +4471,21 @@
         <v>28</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D5" t="s">
         <v>105</v>
@@ -4505,13 +4502,13 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
@@ -4538,12 +4535,12 @@
         <v>33</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
@@ -4567,16 +4564,16 @@
         <v>37</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -4594,13 +4591,13 @@
         <v>24</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>40</v>
@@ -4624,13 +4621,13 @@
         <v>43</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>44</v>
@@ -4654,24 +4651,24 @@
         <v>46</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D11" t="s">
         <v>1026</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1028</v>
       </c>
       <c r="F11">
         <v>37.271552999999997</v>
@@ -4683,12 +4680,12 @@
         <v>24</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>47</v>
@@ -4709,15 +4706,15 @@
         <v>20</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
@@ -4738,13 +4735,13 @@
         <v>15</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>53</v>
@@ -4753,7 +4750,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F14">
         <v>32.880060399999998</v>
@@ -4765,13 +4762,13 @@
         <v>24</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>55</v>
@@ -4795,15 +4792,15 @@
         <v>58</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>59</v>
@@ -4812,7 +4809,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F16">
         <v>40.007436300000002</v>
@@ -4827,13 +4824,13 @@
         <v>60</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>61</v>
@@ -4857,13 +4854,13 @@
         <v>64</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>65</v>
@@ -4872,7 +4869,7 @@
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F18">
         <v>43.1305531</v>
@@ -4887,13 +4884,13 @@
         <v>67</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>68</v>
@@ -4917,15 +4914,15 @@
         <v>71</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>47</v>
@@ -4946,15 +4943,15 @@
         <v>20</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>72</v>
@@ -4978,15 +4975,15 @@
         <v>74</v>
       </c>
       <c r="K21" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>75</v>
@@ -4995,7 +4992,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F22">
         <v>40.007436300000002</v>
@@ -5010,13 +5007,13 @@
         <v>76</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>77</v>
@@ -5040,15 +5037,15 @@
         <v>79</v>
       </c>
       <c r="K23" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -5057,7 +5054,7 @@
         <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F24">
         <v>35.844058199999999</v>
@@ -5069,13 +5066,13 @@
         <v>24</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
@@ -5096,24 +5093,24 @@
         <v>15</v>
       </c>
       <c r="K25" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C26" t="s">
         <v>1096</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" t="s">
         <v>1097</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1099</v>
       </c>
       <c r="F26">
         <v>36.225372999999998</v>
@@ -5125,12 +5122,12 @@
         <v>20</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>44</v>
@@ -5154,15 +5151,15 @@
         <v>46</v>
       </c>
       <c r="K27" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>87</v>
@@ -5189,15 +5186,15 @@
         <v>90</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>91</v>
@@ -5221,15 +5218,15 @@
         <v>92</v>
       </c>
       <c r="K29" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>93</v>
@@ -5253,13 +5250,13 @@
         <v>95</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>96</v>
@@ -5283,13 +5280,13 @@
         <v>98</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
@@ -5313,15 +5310,15 @@
         <v>102</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>103</v>
@@ -5348,13 +5345,13 @@
         <v>107</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>108</v>
@@ -5363,7 +5360,7 @@
         <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F34">
         <v>39.7510136</v>
@@ -5378,13 +5375,13 @@
         <v>110</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>111</v>
@@ -5411,13 +5408,13 @@
         <v>114</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>115</v>
@@ -5426,7 +5423,7 @@
         <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F36">
         <v>33.775617799999999</v>
@@ -5438,18 +5435,18 @@
         <v>24</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C37" t="s">
         <v>118</v>
@@ -5467,25 +5464,25 @@
         <v>15</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B38" t="s">
+        <v>624</v>
+      </c>
+      <c r="C38" t="s">
         <v>625</v>
       </c>
-      <c r="C38" t="s">
-        <v>626</v>
-      </c>
       <c r="D38" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F38">
         <v>40.423681000000002</v>
@@ -5497,12 +5494,12 @@
         <v>24</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>122</v>
@@ -5529,13 +5526,13 @@
         <v>125</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
@@ -5559,15 +5556,15 @@
         <v>46</v>
       </c>
       <c r="K40" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>127</v>
@@ -5588,15 +5585,15 @@
         <v>15</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>129</v>
@@ -5605,7 +5602,7 @@
         <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F42">
         <v>41.788607900000002</v>
@@ -5620,13 +5617,13 @@
         <v>131</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>134</v>
@@ -5635,7 +5632,7 @@
         <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F43">
         <v>39.138053200000002</v>
@@ -5653,15 +5650,15 @@
         <v>137</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>44</v>
@@ -5685,15 +5682,15 @@
         <v>46</v>
       </c>
       <c r="K44" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>138</v>
@@ -5714,13 +5711,13 @@
         <v>24</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>141</v>
@@ -5729,7 +5726,7 @@
         <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F46">
         <v>44.477852800000001</v>
@@ -5744,13 +5741,13 @@
         <v>143</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>146</v>
@@ -5771,13 +5768,13 @@
         <v>20</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>148</v>
@@ -5786,7 +5783,7 @@
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F48">
         <v>40.007436300000002</v>
@@ -5801,13 +5798,13 @@
         <v>149</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B49" t="s">
         <v>150</v>
@@ -5831,15 +5828,15 @@
         <v>152</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>153</v>
@@ -5848,7 +5845,7 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F50">
         <v>40.007436300000002</v>
@@ -5863,13 +5860,13 @@
         <v>154</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>155</v>
@@ -5890,18 +5887,18 @@
         <v>24</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B52" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C52" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D52" t="s">
         <v>238</v>
@@ -5918,18 +5915,18 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B53" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C53" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D53" t="s">
         <v>256</v>
@@ -5945,15 +5942,15 @@
       </c>
       <c r="I53"/>
       <c r="K53" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C54" t="s">
         <v>157</v>
@@ -5971,16 +5968,16 @@
         <v>24</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>158</v>
@@ -6007,13 +6004,13 @@
         <v>161</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>162</v>
@@ -6022,7 +6019,7 @@
         <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F56">
         <v>40.105215899999997</v>
@@ -6034,13 +6031,13 @@
         <v>24</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>164</v>
@@ -6049,7 +6046,7 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F57">
         <v>41.316324399999999</v>
@@ -6067,15 +6064,15 @@
         <v>167</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>168</v>
@@ -6102,15 +6099,15 @@
         <v>171</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>172</v>
@@ -6131,13 +6128,13 @@
         <v>24</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>174</v>
@@ -6146,7 +6143,7 @@
         <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F60">
         <v>52.090152699999997</v>
@@ -6161,24 +6158,24 @@
         <v>176</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F61">
         <v>40.007436300000002</v>
@@ -6190,17 +6187,17 @@
         <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="J61"/>
       <c r="K61" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L61"/>
     </row>
     <row r="62" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>177</v>
@@ -6209,7 +6206,7 @@
         <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F62">
         <v>42.377002900000001</v>
@@ -6224,15 +6221,15 @@
         <v>179</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>180</v>
@@ -6241,7 +6238,7 @@
         <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F63">
         <v>42.278043599999997</v>
@@ -6256,13 +6253,13 @@
         <v>182</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>183</v>
@@ -6271,7 +6268,7 @@
         <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F64">
         <v>52.090737400000002</v>
@@ -6283,15 +6280,15 @@
         <v>20</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>185</v>
@@ -6315,15 +6312,15 @@
         <v>187</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>188</v>
@@ -6347,19 +6344,19 @@
         <v>71</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C67" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
@@ -6375,13 +6372,13 @@
       </c>
       <c r="I67"/>
       <c r="K67" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>193</v>
@@ -6390,7 +6387,7 @@
         <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F68">
         <v>46.731922500000003</v>
@@ -6402,13 +6399,13 @@
         <v>24</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>195</v>
@@ -6429,15 +6426,15 @@
         <v>24</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>197</v>
@@ -6458,13 +6455,13 @@
         <v>24</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>199</v>
@@ -6491,13 +6488,13 @@
         <v>202</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>203</v>
@@ -6521,16 +6518,16 @@
         <v>206</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C73" t="s">
         <v>226</v>
@@ -6549,16 +6546,16 @@
       </c>
       <c r="I73"/>
       <c r="J73" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="K73" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L73"/>
     </row>
     <row r="74" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>207</v>
@@ -6585,15 +6582,15 @@
         <v>210</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>211</v>
@@ -6602,7 +6599,7 @@
         <v>212</v>
       </c>
       <c r="D75" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F75">
         <v>33.948005299999998</v>
@@ -6617,15 +6614,15 @@
         <v>213</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>214</v>
@@ -6634,7 +6631,7 @@
         <v>215</v>
       </c>
       <c r="D76" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F76">
         <v>37.459882</v>
@@ -6646,13 +6643,13 @@
         <v>20</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>216</v>
@@ -6676,13 +6673,13 @@
         <v>218</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>219</v>
@@ -6703,15 +6700,15 @@
         <v>24</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>221</v>
@@ -6738,13 +6735,13 @@
         <v>224</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L79" s="1"/>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>225</v>
@@ -6765,13 +6762,13 @@
         <v>20</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>227</v>
@@ -6780,7 +6777,7 @@
         <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F81">
         <v>40.105215899999997</v>
@@ -6792,13 +6789,13 @@
         <v>24</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B82" t="s">
         <v>150</v>
@@ -6822,15 +6819,15 @@
         <v>228</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>229</v>
@@ -6854,15 +6851,15 @@
         <v>231</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>232</v>
@@ -6889,13 +6886,13 @@
         <v>235</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>236</v>
@@ -6922,18 +6919,18 @@
         <v>240</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C86" t="s">
         <v>241</v>
@@ -6957,15 +6954,15 @@
         <v>243</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>244</v>
@@ -6992,13 +6989,13 @@
         <v>247</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>248</v>
@@ -7007,7 +7004,7 @@
         <v>249</v>
       </c>
       <c r="D88" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F88">
         <v>40.7982133</v>
@@ -7019,13 +7016,13 @@
         <v>24</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>250</v>
@@ -7049,15 +7046,15 @@
         <v>251</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>252</v>
@@ -7081,15 +7078,15 @@
         <v>253</v>
       </c>
       <c r="K90" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>257</v>
@@ -7116,15 +7113,15 @@
         <v>260</v>
       </c>
       <c r="K91" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="L91" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="L91" s="5" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>261</v>
@@ -7133,7 +7130,7 @@
         <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F92">
         <v>40.007436300000002</v>
@@ -7145,22 +7142,22 @@
         <v>20</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L92" s="1"/>
     </row>
     <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C93" t="s">
         <v>262</v>
       </c>
       <c r="D93" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F93">
         <v>42.377002900000001</v>
@@ -7172,13 +7169,13 @@
         <v>24</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="L93" s="1"/>
     </row>
     <row r="94" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>263</v>
@@ -7199,15 +7196,15 @@
         <v>24</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>265</v>
@@ -7234,15 +7231,15 @@
         <v>268</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>269</v>
@@ -7263,13 +7260,13 @@
         <v>24</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>271</v>
@@ -7278,7 +7275,7 @@
         <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F97">
         <v>40.007436300000002</v>
@@ -7293,13 +7290,13 @@
         <v>272</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L97" s="1"/>
     </row>
     <row r="98" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>273</v>
@@ -7323,15 +7320,15 @@
         <v>275</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>295</v>
@@ -7352,13 +7349,13 @@
         <v>24</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L99" s="1"/>
     </row>
     <row r="100" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>276</v>
@@ -7367,7 +7364,7 @@
         <v>262</v>
       </c>
       <c r="D100" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F100">
         <v>42.377002900000001</v>
@@ -7379,13 +7376,13 @@
         <v>24</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L100" s="1"/>
     </row>
     <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>277</v>
@@ -7394,7 +7391,7 @@
         <v>278</v>
       </c>
       <c r="D101" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F101">
         <v>36.885610399999997</v>
@@ -7412,13 +7409,13 @@
         <v>280</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>281</v>
@@ -7427,7 +7424,7 @@
         <v>282</v>
       </c>
       <c r="D102" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F102">
         <v>30.2849185</v>
@@ -7439,15 +7436,15 @@
         <v>24</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>283</v>
@@ -7468,13 +7465,13 @@
         <v>24</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L103" s="1"/>
     </row>
     <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>285</v>
@@ -7483,7 +7480,7 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F104">
         <v>40.007436300000002</v>
@@ -7498,15 +7495,15 @@
         <v>286</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>287</v>
@@ -7527,13 +7524,13 @@
         <v>24</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L105" s="1"/>
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B106" t="s">
         <v>150</v>
@@ -7557,15 +7554,15 @@
         <v>290</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>291</v>
@@ -7574,7 +7571,7 @@
         <v>292</v>
       </c>
       <c r="D107" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F107">
         <v>45.7529003</v>
@@ -7586,13 +7583,13 @@
         <v>24</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L107" s="1"/>
     </row>
     <row r="108" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>47</v>
@@ -7613,18 +7610,18 @@
         <v>20</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C109" t="s">
         <v>151</v>
@@ -7648,15 +7645,15 @@
         <v>294</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>297</v>
@@ -7683,56 +7680,54 @@
         <v>300</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>301</v>
+        <v>1121</v>
       </c>
       <c r="C111" t="s">
         <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>1028</v>
+        <v>14</v>
       </c>
       <c r="F111">
-        <v>34.366495100000002</v>
+        <v>51.759810000000002</v>
       </c>
       <c r="G111">
-        <v>-89.519248399999995</v>
+        <v>-1.2564340000000001</v>
       </c>
       <c r="H111" t="s">
         <v>20</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>750</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="L111" s="1"/>
     </row>
     <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B112" t="s">
+        <v>302</v>
+      </c>
+      <c r="C112" t="s">
         <v>303</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>304</v>
-      </c>
-      <c r="D112" t="s">
-        <v>305</v>
       </c>
       <c r="F112">
         <v>46.042355899999997</v>
@@ -7744,25 +7739,25 @@
         <v>24</v>
       </c>
       <c r="I112" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="K112" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L112" s="1"/>
     </row>
     <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D113" t="s">
         <v>70</v>
@@ -7777,25 +7772,25 @@
         <v>24</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C114" t="s">
         <v>1043</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1045</v>
-      </c>
       <c r="D114" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F114">
         <v>22.336399799999999</v>
@@ -7808,19 +7803,19 @@
       </c>
       <c r="I114" s="3"/>
       <c r="K114" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D115" t="s">
         <v>70</v>
@@ -7835,22 +7830,22 @@
         <v>24</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" t="s">
         <v>322</v>
-      </c>
-      <c r="C116" t="s">
-        <v>323</v>
       </c>
       <c r="D116" t="s">
         <v>31</v>
@@ -7865,27 +7860,27 @@
         <v>15</v>
       </c>
       <c r="I116" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="J116" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="K116" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B117" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C117" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D117" t="s">
         <v>205</v>
@@ -7901,21 +7896,21 @@
       </c>
       <c r="I117"/>
       <c r="K117" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F118">
         <v>40.007436300000002</v>
@@ -7927,25 +7922,25 @@
         <v>24</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C119" t="s">
         <v>328</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>329</v>
-      </c>
-      <c r="D119" t="s">
-        <v>330</v>
       </c>
       <c r="F119">
         <v>63.8205484</v>
@@ -7957,27 +7952,27 @@
         <v>15</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C120" t="s">
         <v>332</v>
       </c>
-      <c r="C120" t="s">
-        <v>333</v>
-      </c>
       <c r="D120" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F120">
         <v>42.360090999999997</v>
@@ -7989,22 +7984,22 @@
         <v>24</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C121" t="s">
         <v>1109</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1111</v>
-      </c>
       <c r="D121" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F121">
         <v>37.335293999999998</v>
@@ -8016,19 +8011,19 @@
         <v>20</v>
       </c>
       <c r="I121" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C122" t="s">
         <v>159</v>
@@ -8046,25 +8041,25 @@
         <v>20</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C123" t="s">
         <v>292</v>
       </c>
       <c r="D123" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F123">
         <v>45.7529003</v>
@@ -8076,19 +8071,19 @@
         <v>24</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C124" t="s">
         <v>139</v>
@@ -8106,24 +8101,24 @@
         <v>20</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J124" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J124" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="K124" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C125" t="s">
         <v>94</v>
@@ -8141,22 +8136,22 @@
         <v>24</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L125" s="1"/>
     </row>
     <row r="126" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C126" t="s">
         <v>342</v>
       </c>
-      <c r="C126" t="s">
-        <v>343</v>
-      </c>
       <c r="D126" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F126">
         <v>44.935970900000001</v>
@@ -8168,22 +8163,22 @@
         <v>24</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L126" s="1"/>
     </row>
     <row r="127" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C127" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D127" t="s">
         <v>70</v>
@@ -8198,25 +8193,25 @@
         <v>24</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L127" s="1"/>
     </row>
     <row r="128" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C128" t="s">
         <v>1082</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1084</v>
-      </c>
       <c r="D128" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F128">
         <v>39.981988000000001</v>
@@ -8228,19 +8223,19 @@
         <v>20</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L128" s="1"/>
     </row>
     <row r="129" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C129" t="s">
         <v>347</v>
-      </c>
-      <c r="C129" t="s">
-        <v>348</v>
       </c>
       <c r="D129" t="s">
         <v>82</v>
@@ -8255,22 +8250,22 @@
         <v>20</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L129" s="1"/>
     </row>
     <row r="130" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C130" t="s">
         <v>350</v>
-      </c>
-      <c r="C130" t="s">
-        <v>351</v>
       </c>
       <c r="D130" t="s">
         <v>256</v>
@@ -8285,19 +8280,19 @@
         <v>24</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L130" s="1"/>
     </row>
     <row r="131" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C131" t="s">
         <v>353</v>
-      </c>
-      <c r="C131" t="s">
-        <v>354</v>
       </c>
       <c r="D131" t="s">
         <v>31</v>
@@ -8312,21 +8307,21 @@
         <v>15</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C132" t="s">
         <v>86</v>
@@ -8344,18 +8339,18 @@
         <v>15</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C133" t="s">
         <v>356</v>
-      </c>
-      <c r="C133" t="s">
-        <v>357</v>
       </c>
       <c r="D133" t="s">
         <v>31</v>
@@ -8370,18 +8365,18 @@
         <v>24</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C134" t="s">
         <v>358</v>
-      </c>
-      <c r="C134" t="s">
-        <v>359</v>
       </c>
       <c r="D134" t="s">
         <v>14</v>
@@ -8396,27 +8391,27 @@
         <v>15</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C135" t="s">
         <v>181</v>
       </c>
       <c r="D135" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F135">
         <v>42.278043599999997</v>
@@ -8428,21 +8423,21 @@
         <v>24</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C136" t="s">
         <v>81</v>
@@ -8460,22 +8455,22 @@
         <v>24</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L136" s="1"/>
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C137" t="s">
         <v>363</v>
       </c>
-      <c r="C137" t="s">
-        <v>364</v>
-      </c>
       <c r="D137" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F137">
         <v>37.427474500000002</v>
@@ -8487,27 +8482,27 @@
         <v>24</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
       </c>
       <c r="D138" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F138">
         <v>40.007436300000002</v>
@@ -8519,27 +8514,27 @@
         <v>24</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C139" t="s">
         <v>368</v>
       </c>
-      <c r="C139" t="s">
-        <v>369</v>
-      </c>
       <c r="D139" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F139">
         <v>36.127023600000001</v>
@@ -8551,22 +8546,22 @@
         <v>24</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L139" s="1"/>
     </row>
     <row r="140" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C140" t="s">
         <v>370</v>
       </c>
-      <c r="C140" t="s">
-        <v>371</v>
-      </c>
       <c r="D140" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F140">
         <v>44.105721600000003</v>
@@ -8578,25 +8573,25 @@
         <v>24</v>
       </c>
       <c r="I140" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J140" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J140" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="K140" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L140" s="1"/>
     </row>
     <row r="141" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C141" t="s">
         <v>1054</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1056</v>
       </c>
       <c r="D141" t="s">
         <v>105</v>
@@ -8611,25 +8606,25 @@
         <v>20</v>
       </c>
       <c r="I141" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L141" s="1"/>
     </row>
     <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D142" t="s">
         <v>82</v>
@@ -8644,19 +8639,19 @@
         <v>24</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L142" s="1"/>
     </row>
     <row r="143" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C143" t="s">
         <v>375</v>
-      </c>
-      <c r="C143" t="s">
-        <v>376</v>
       </c>
       <c r="D143" t="s">
         <v>238</v>
@@ -8671,25 +8666,25 @@
         <v>20</v>
       </c>
       <c r="I143" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="J143" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="K143" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L143" s="1"/>
     </row>
     <row r="144" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C144" t="s">
         <v>383</v>
-      </c>
-      <c r="C144" t="s">
-        <v>384</v>
       </c>
       <c r="D144" t="s">
         <v>105</v>
@@ -8704,27 +8699,27 @@
         <v>24</v>
       </c>
       <c r="I144" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J144" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="K144" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="L144" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C145" t="s">
         <v>387</v>
-      </c>
-      <c r="C145" t="s">
-        <v>388</v>
       </c>
       <c r="D145" t="s">
         <v>82</v>
@@ -8739,22 +8734,22 @@
         <v>24</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L145" s="1"/>
     </row>
     <row r="146" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C146" t="s">
         <v>390</v>
-      </c>
-      <c r="C146" t="s">
-        <v>391</v>
       </c>
       <c r="D146" t="s">
         <v>82</v>
@@ -8769,24 +8764,24 @@
         <v>24</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C147" t="s">
         <v>393</v>
-      </c>
-      <c r="C147" t="s">
-        <v>394</v>
       </c>
       <c r="D147" t="s">
         <v>14</v>
@@ -8801,22 +8796,22 @@
         <v>20</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L147" s="1"/>
     </row>
     <row r="148" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D148" t="s">
         <v>70</v>
@@ -8831,27 +8826,27 @@
         <v>24</v>
       </c>
       <c r="I148" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="J148" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="K148" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="L148" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="D149" t="s">
         <v>70</v>
@@ -8866,27 +8861,27 @@
         <v>24</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C150" t="s">
         <v>410</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>411</v>
-      </c>
-      <c r="D150" t="s">
-        <v>412</v>
       </c>
       <c r="F150">
         <v>60.172634799999997</v>
@@ -8898,25 +8893,25 @@
         <v>15</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L150" s="1"/>
     </row>
     <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C151" t="s">
         <v>403</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>404</v>
-      </c>
-      <c r="D151" t="s">
-        <v>405</v>
       </c>
       <c r="F151">
         <v>43.3104637</v>
@@ -8928,24 +8923,24 @@
         <v>20</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C152" t="s">
         <v>407</v>
-      </c>
-      <c r="C152" t="s">
-        <v>408</v>
       </c>
       <c r="D152" t="s">
         <v>256</v>
@@ -8960,22 +8955,22 @@
         <v>24</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L152" s="1"/>
     </row>
     <row r="153" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F153">
         <v>40.007436300000002</v>
@@ -8987,19 +8982,19 @@
         <v>24</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L153" s="1"/>
     </row>
     <row r="154" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C154" t="s">
         <v>233</v>
@@ -9017,19 +9012,19 @@
         <v>24</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L154" s="1"/>
     </row>
     <row r="155" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C155" t="s">
         <v>414</v>
-      </c>
-      <c r="C155" t="s">
-        <v>415</v>
       </c>
       <c r="D155" t="s">
         <v>82</v>
@@ -9044,27 +9039,27 @@
         <v>20</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s">
         <v>249</v>
       </c>
       <c r="D156" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F156">
         <v>40.7982133</v>
@@ -9076,21 +9071,21 @@
         <v>24</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C157" t="s">
         <v>418</v>
-      </c>
-      <c r="C157" t="s">
-        <v>419</v>
       </c>
       <c r="D157" t="s">
         <v>256</v>
@@ -9105,19 +9100,19 @@
         <v>24</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L157" s="1"/>
     </row>
     <row r="158" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="D158" t="s">
         <v>70</v>
@@ -9132,22 +9127,22 @@
         <v>24</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L158" s="1"/>
     </row>
     <row r="159" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C159" t="s">
         <v>423</v>
-      </c>
-      <c r="C159" t="s">
-        <v>424</v>
       </c>
       <c r="D159" t="s">
         <v>82</v>
@@ -9162,24 +9157,24 @@
         <v>20</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C160" t="s">
         <v>426</v>
-      </c>
-      <c r="C160" t="s">
-        <v>427</v>
       </c>
       <c r="D160" t="s">
         <v>14</v>
@@ -9194,24 +9189,24 @@
         <v>20</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="D161" t="s">
         <v>70</v>
@@ -9226,19 +9221,19 @@
         <v>20</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L161" s="1"/>
     </row>
     <row r="162" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C162" t="s">
         <v>258</v>
@@ -9256,24 +9251,24 @@
         <v>15</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C163" t="s">
         <v>434</v>
-      </c>
-      <c r="C163" t="s">
-        <v>435</v>
       </c>
       <c r="D163" t="s">
         <v>42</v>
@@ -9288,27 +9283,27 @@
         <v>20</v>
       </c>
       <c r="I163" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J163" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J163" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="K163" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="D164" t="s">
         <v>70</v>
@@ -9323,28 +9318,28 @@
         <v>24</v>
       </c>
       <c r="I164" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J164" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="J164" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="K164" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L164" s="1"/>
     </row>
     <row r="165" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F165">
         <v>40.007436300000002</v>
@@ -9356,22 +9351,22 @@
         <v>15</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L165" s="1"/>
     </row>
     <row r="166" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C166" t="s">
         <v>1085</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1087</v>
       </c>
       <c r="D166" t="s">
         <v>101</v>
@@ -9386,28 +9381,28 @@
         <v>24</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L166" s="1"/>
     </row>
     <row r="167" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C167" t="s">
         <v>444</v>
       </c>
-      <c r="C167" t="s">
-        <v>445</v>
-      </c>
       <c r="D167" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F167">
         <v>39.138053200000002</v>
@@ -9419,22 +9414,22 @@
         <v>24</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L167" s="1"/>
     </row>
     <row r="168" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C168" t="s">
         <v>447</v>
-      </c>
-      <c r="C168" t="s">
-        <v>448</v>
       </c>
       <c r="D168" t="s">
         <v>31</v>
@@ -9449,27 +9444,27 @@
         <v>15</v>
       </c>
       <c r="I168" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J168" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="J168" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="K168" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C169" t="s">
         <v>451</v>
-      </c>
-      <c r="C169" t="s">
-        <v>452</v>
       </c>
       <c r="D169" t="s">
         <v>42</v>
@@ -9484,21 +9479,21 @@
         <v>24</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C170" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D170" t="s">
         <v>70</v>
@@ -9513,19 +9508,19 @@
         <v>15</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L170" s="1"/>
     </row>
     <row r="171" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C171" t="s">
         <v>453</v>
-      </c>
-      <c r="C171" t="s">
-        <v>454</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
@@ -9540,27 +9535,27 @@
         <v>20</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C172" t="s">
         <v>292</v>
       </c>
       <c r="D172" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F172">
         <v>45.7529003</v>
@@ -9572,25 +9567,25 @@
         <v>20</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L172" s="1"/>
     </row>
     <row r="173" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C173" t="s">
         <v>181</v>
       </c>
       <c r="D173" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F173">
         <v>42.278043599999997</v>
@@ -9602,25 +9597,25 @@
         <v>24</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L173" s="1"/>
     </row>
     <row r="174" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C174" t="s">
         <v>460</v>
       </c>
-      <c r="C174" t="s">
-        <v>461</v>
-      </c>
       <c r="D174" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F174">
         <v>30.2849185</v>
@@ -9632,22 +9627,22 @@
         <v>24</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L174" s="1"/>
     </row>
     <row r="175" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C175" t="s">
         <v>463</v>
-      </c>
-      <c r="C175" t="s">
-        <v>464</v>
       </c>
       <c r="D175" t="s">
         <v>63</v>
@@ -9662,28 +9657,28 @@
         <v>15</v>
       </c>
       <c r="I175" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="J175" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="K175" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L175" s="1"/>
     </row>
     <row r="176" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C176" t="s">
         <v>116</v>
       </c>
       <c r="D176" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F176">
         <v>33.775617799999999</v>
@@ -9695,24 +9690,24 @@
         <v>24</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C177" t="s">
         <v>473</v>
-      </c>
-      <c r="C177" t="s">
-        <v>474</v>
       </c>
       <c r="D177" t="s">
         <v>31</v>
@@ -9727,27 +9722,27 @@
         <v>15</v>
       </c>
       <c r="I177" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J177" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="J177" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="K177" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L177" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D178" t="s">
         <v>70</v>
@@ -9762,22 +9757,22 @@
         <v>24</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L178" s="1"/>
     </row>
     <row r="179" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
       </c>
       <c r="D179" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F179">
         <v>40.007436300000002</v>
@@ -9789,22 +9784,22 @@
         <v>20</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L179" s="1"/>
     </row>
     <row r="180" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C180" t="s">
         <v>484</v>
-      </c>
-      <c r="C180" t="s">
-        <v>485</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
@@ -9819,24 +9814,24 @@
         <v>24</v>
       </c>
       <c r="I180" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J180" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="J180" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="K180" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C181" t="s">
         <v>159</v>
@@ -9854,24 +9849,24 @@
         <v>24</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B182" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C182" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
@@ -9886,22 +9881,22 @@
         <v>20</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L182" s="1"/>
     </row>
     <row r="183" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C183" t="s">
         <v>490</v>
       </c>
-      <c r="C183" t="s">
-        <v>491</v>
-      </c>
       <c r="D183" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F183">
         <v>38.033552899999997</v>
@@ -9913,22 +9908,22 @@
         <v>24</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L183" s="1"/>
     </row>
     <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="D184" t="s">
         <v>70</v>
@@ -9943,22 +9938,22 @@
         <v>20</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L184" s="1"/>
     </row>
     <row r="185" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B185" t="s">
+        <v>494</v>
+      </c>
+      <c r="C185" t="s">
         <v>495</v>
       </c>
-      <c r="C185" t="s">
-        <v>496</v>
-      </c>
       <c r="D185" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F185">
         <v>43.076591999999998</v>
@@ -9970,24 +9965,24 @@
         <v>15</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C186" t="s">
         <v>498</v>
-      </c>
-      <c r="C186" t="s">
-        <v>499</v>
       </c>
       <c r="D186" t="s">
         <v>39</v>
@@ -10002,21 +9997,21 @@
         <v>20</v>
       </c>
       <c r="I186" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J186" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="J186" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="K186" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>144</v>
@@ -10037,24 +10032,24 @@
         <v>24</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K187" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B188" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C188" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D188" t="s">
         <v>31</v>
@@ -10069,21 +10064,21 @@
         <v>20</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="D189" t="s">
         <v>70</v>
@@ -10098,22 +10093,22 @@
         <v>20</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C190" t="s">
         <v>505</v>
       </c>
-      <c r="C190" t="s">
-        <v>506</v>
-      </c>
       <c r="D190" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F190">
         <v>38.536048000000001</v>
@@ -10125,25 +10120,25 @@
         <v>20</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K190" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L190" s="1"/>
     </row>
     <row r="191" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C191" t="s">
         <v>508</v>
       </c>
-      <c r="C191" t="s">
-        <v>509</v>
-      </c>
       <c r="D191" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F191">
         <v>37.228384300000002</v>
@@ -10155,22 +10150,22 @@
         <v>20</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L191" s="1"/>
     </row>
     <row r="192" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="D192" t="s">
         <v>70</v>
@@ -10185,22 +10180,22 @@
         <v>20</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L192" s="1"/>
     </row>
     <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="D193" t="s">
         <v>205</v>
@@ -10218,22 +10213,22 @@
         <v>218</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L193" s="1"/>
     </row>
     <row r="194" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C194" t="s">
         <v>516</v>
       </c>
-      <c r="C194" t="s">
-        <v>517</v>
-      </c>
       <c r="D194" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F194">
         <v>40.912376100000003</v>
@@ -10245,22 +10240,22 @@
         <v>24</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L194" s="1"/>
     </row>
     <row r="195" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D195" t="s">
         <v>205</v>
@@ -10275,24 +10270,24 @@
         <v>24</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="D196" t="s">
         <v>70</v>
@@ -10307,27 +10302,27 @@
         <v>24</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C197" t="s">
         <v>524</v>
       </c>
-      <c r="C197" t="s">
-        <v>525</v>
-      </c>
       <c r="D197" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F197">
         <v>35.205893600000003</v>
@@ -10339,24 +10334,24 @@
         <v>15</v>
       </c>
       <c r="I197" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="J197" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="J197" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="K197" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C198" t="s">
         <v>41</v>
@@ -10376,22 +10371,22 @@
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L198"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C199" t="s">
         <v>215</v>
       </c>
       <c r="D199" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F199">
         <v>37.459879000000001</v>
@@ -10403,23 +10398,23 @@
         <v>24</v>
       </c>
       <c r="I199" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="J199"/>
       <c r="K199" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="L199"/>
     </row>
     <row r="200" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C200" t="s">
         <v>528</v>
-      </c>
-      <c r="C200" t="s">
-        <v>529</v>
       </c>
       <c r="D200" t="s">
         <v>63</v>
@@ -10434,19 +10429,19 @@
         <v>20</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L200" s="1"/>
     </row>
     <row r="201" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C201" t="s">
         <v>274</v>
@@ -10464,24 +10459,24 @@
         <v>24</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B202" t="s">
+        <v>531</v>
+      </c>
+      <c r="C202" t="s">
         <v>532</v>
       </c>
-      <c r="C202" t="s">
-        <v>533</v>
-      </c>
       <c r="D202" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F202">
         <v>50.087110600000003</v>
@@ -10493,24 +10488,24 @@
         <v>20</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D203" t="s">
         <v>42</v>
@@ -10525,27 +10520,27 @@
         <v>20</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C204" t="s">
         <v>535</v>
       </c>
-      <c r="C204" t="s">
-        <v>536</v>
-      </c>
       <c r="D204" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F204">
         <v>37.871899200000001</v>
@@ -10557,24 +10552,24 @@
         <v>24</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C205" t="s">
         <v>538</v>
-      </c>
-      <c r="C205" t="s">
-        <v>539</v>
       </c>
       <c r="D205" t="s">
         <v>82</v>
@@ -10589,25 +10584,25 @@
         <v>24</v>
       </c>
       <c r="I205" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J205" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="J205" s="1" t="s">
-        <v>541</v>
-      </c>
       <c r="K205" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L205" s="1"/>
     </row>
     <row r="206" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C206" t="s">
         <v>1090</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1092</v>
       </c>
       <c r="D206" t="s">
         <v>70</v>
@@ -10622,25 +10617,25 @@
         <v>24</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="L206" s="1"/>
     </row>
     <row r="207" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C207" t="s">
         <v>184</v>
       </c>
       <c r="D207" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F207">
         <v>52.090737400000002</v>
@@ -10652,19 +10647,19 @@
         <v>20</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="L207" s="1"/>
     </row>
     <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D208" t="s">
         <v>39</v>
@@ -10679,30 +10674,30 @@
         <v>20</v>
       </c>
       <c r="I208" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J208" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="J208" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="K208" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C209" t="s">
         <v>546</v>
       </c>
-      <c r="C209" t="s">
-        <v>547</v>
-      </c>
       <c r="D209" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F209">
         <v>47.655335100000002</v>
@@ -10714,24 +10709,24 @@
         <v>24</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C210" t="s">
         <v>278</v>
       </c>
       <c r="D210" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F210">
         <v>36.885344000000003</v>
@@ -10743,22 +10738,22 @@
         <v>24</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="L210" s="1"/>
     </row>
     <row r="211" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C211" t="s">
         <v>550</v>
-      </c>
-      <c r="C211" t="s">
-        <v>551</v>
       </c>
       <c r="D211" t="s">
         <v>256</v>
@@ -10773,25 +10768,25 @@
         <v>24</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L211" s="1"/>
     </row>
     <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C212" t="s">
         <v>553</v>
       </c>
-      <c r="C212" t="s">
-        <v>554</v>
-      </c>
       <c r="D212" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F212">
         <v>41.275596999999998</v>
@@ -10803,22 +10798,22 @@
         <v>24</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K212" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L212" s="1"/>
     </row>
     <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C213" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D213" t="s">
         <v>105</v>
@@ -10833,22 +10828,22 @@
         <v>15</v>
       </c>
       <c r="K213" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L213" s="1"/>
     </row>
     <row r="214" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C214" t="s">
         <v>558</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>559</v>
-      </c>
-      <c r="D214" t="s">
-        <v>560</v>
       </c>
       <c r="F214">
         <v>51.222809699999999</v>
@@ -10860,28 +10855,28 @@
         <v>20</v>
       </c>
       <c r="I214" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J214" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J214" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="K214" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L214" s="1"/>
     </row>
     <row r="215" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B215" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C215" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D215" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F215">
         <v>35.759573099999997</v>
@@ -10893,22 +10888,22 @@
         <v>24</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L215" s="1"/>
     </row>
     <row r="216" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
       </c>
       <c r="D216" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F216">
         <v>40.007436300000002</v>
@@ -10920,24 +10915,24 @@
         <v>24</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K216" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C217" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D217" t="s">
         <v>42</v>
@@ -10952,22 +10947,22 @@
         <v>24</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K217" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L217" s="1"/>
     </row>
     <row r="218" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C218" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D218" t="s">
         <v>82</v>
@@ -10982,24 +10977,24 @@
         <v>24</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K218" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C219" t="s">
         <v>298</v>
@@ -11017,27 +11012,27 @@
         <v>24</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K219" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C220" t="s">
         <v>571</v>
       </c>
-      <c r="C220" t="s">
-        <v>572</v>
-      </c>
       <c r="D220" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F220">
         <v>60.209825299999999</v>
@@ -11049,22 +11044,22 @@
         <v>20</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L220" s="1"/>
     </row>
     <row r="221" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C221" t="s">
         <v>574</v>
-      </c>
-      <c r="C221" t="s">
-        <v>575</v>
       </c>
       <c r="D221" t="s">
         <v>238</v>
@@ -11079,22 +11074,22 @@
         <v>20</v>
       </c>
       <c r="I221" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J221" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J221" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="K221" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L221" s="1"/>
     </row>
     <row r="222" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C222" t="s">
         <v>139</v>
@@ -11112,24 +11107,24 @@
         <v>24</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K222" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C223" t="s">
         <v>580</v>
-      </c>
-      <c r="C223" t="s">
-        <v>581</v>
       </c>
       <c r="D223" t="s">
         <v>63</v>
@@ -11144,21 +11139,21 @@
         <v>24</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L223" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C224" t="s">
         <v>274</v>
@@ -11176,24 +11171,24 @@
         <v>24</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C225" t="s">
         <v>585</v>
-      </c>
-      <c r="C225" t="s">
-        <v>586</v>
       </c>
       <c r="D225" t="s">
         <v>82</v>
@@ -11208,22 +11203,22 @@
         <v>24</v>
       </c>
       <c r="K225" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L225" s="1"/>
     </row>
     <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C226" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D226" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F226">
         <v>52.333756800000003</v>
@@ -11235,22 +11230,22 @@
         <v>24</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L226" s="1"/>
     </row>
     <row r="227" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C227" t="s">
+        <v>648</v>
+      </c>
+      <c r="D227" t="s">
         <v>649</v>
-      </c>
-      <c r="D227" t="s">
-        <v>650</v>
       </c>
       <c r="F227">
         <v>35.305134000000002</v>
@@ -11262,30 +11257,30 @@
         <v>24</v>
       </c>
       <c r="I227" s="7" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C228" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D228" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F228">
         <v>42.360090999999997</v>
@@ -11297,22 +11292,22 @@
         <v>24</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L228" s="1"/>
     </row>
     <row r="229" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C229" t="s">
         <v>589</v>
       </c>
-      <c r="C229" t="s">
-        <v>590</v>
-      </c>
       <c r="D229" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F229">
         <v>42.929508400000003</v>
@@ -11324,24 +11319,24 @@
         <v>24</v>
       </c>
       <c r="K229" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C230" t="s">
         <v>591</v>
       </c>
-      <c r="C230" t="s">
-        <v>592</v>
-      </c>
       <c r="D230" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F230">
         <v>52.355818200000002</v>
@@ -11353,27 +11348,27 @@
         <v>24</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C231" t="s">
         <v>594</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>595</v>
-      </c>
-      <c r="D231" t="s">
-        <v>596</v>
       </c>
       <c r="F231">
         <v>22.418096999999999</v>
@@ -11385,21 +11380,21 @@
         <v>24</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>233</v>
@@ -11417,22 +11412,22 @@
         <v>24</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K232" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L232" s="1"/>
     </row>
     <row r="233" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D233" t="s">
         <v>70</v>
@@ -11447,25 +11442,25 @@
         <v>20</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C234" t="s">
         <v>249</v>
       </c>
       <c r="D234" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F234">
         <v>40.7982133</v>
@@ -11477,24 +11472,24 @@
         <v>24</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K234" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="D235" t="s">
         <v>70</v>
@@ -11509,22 +11504,22 @@
         <v>24</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L235" s="1"/>
     </row>
     <row r="236" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C236" t="s">
         <v>606</v>
       </c>
-      <c r="C236" t="s">
-        <v>607</v>
-      </c>
       <c r="D236" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F236">
         <v>34.413962900000001</v>
@@ -11536,13 +11531,13 @@
         <v>24</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L236" s="1"/>
     </row>
     <row r="237" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>44</v>
@@ -11566,24 +11561,24 @@
         <v>46</v>
       </c>
       <c r="K237" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="L237" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="L237" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C238" t="s">
         <v>608</v>
       </c>
-      <c r="C238" t="s">
-        <v>609</v>
-      </c>
       <c r="D238" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F238">
         <v>34.097743000000001</v>
@@ -11595,19 +11590,19 @@
         <v>24</v>
       </c>
       <c r="K238" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L238" s="1"/>
     </row>
     <row r="239" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="D239" t="s">
         <v>70</v>
@@ -11622,16 +11617,16 @@
         <v>24</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L239" s="1"/>
     </row>
     <row r="240" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C240" t="s">
         <v>189</v>
@@ -11649,28 +11644,28 @@
         <v>24</v>
       </c>
       <c r="I240" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="J240" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="J240" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="K240" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L240" s="1"/>
     </row>
     <row r="241" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C241" t="s">
         <v>616</v>
       </c>
-      <c r="C241" t="s">
-        <v>617</v>
-      </c>
       <c r="D241" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F241">
         <v>40.8075355</v>
@@ -11682,19 +11677,19 @@
         <v>24</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="L241" s="1"/>
     </row>
     <row r="242" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C242" t="s">
         <v>619</v>
-      </c>
-      <c r="C242" t="s">
-        <v>620</v>
       </c>
       <c r="D242" t="s">
         <v>63</v>
@@ -11709,28 +11704,28 @@
         <v>20</v>
       </c>
       <c r="I242" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J242" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="J242" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="K242" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L242" s="1"/>
     </row>
     <row r="243" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C243" t="s">
         <v>27</v>
       </c>
       <c r="D243" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F243">
         <v>40.007436300000002</v>
@@ -11742,24 +11737,24 @@
         <v>24</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C244" t="s">
         <v>627</v>
-      </c>
-      <c r="C244" t="s">
-        <v>628</v>
       </c>
       <c r="D244" t="s">
         <v>238</v>
@@ -11774,25 +11769,25 @@
         <v>20</v>
       </c>
       <c r="I244" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J244" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="J244" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="K244" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L244" s="1"/>
     </row>
     <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B245" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C245" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D245" t="s">
         <v>82</v>
@@ -11807,22 +11802,22 @@
         <v>20</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L245" s="1"/>
     </row>
     <row r="246" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C246" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D246" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F246">
         <v>40.8075355</v>
@@ -11834,22 +11829,22 @@
         <v>24</v>
       </c>
       <c r="K246" s="6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L246" s="1"/>
     </row>
     <row r="247" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C247" t="s">
         <v>633</v>
       </c>
-      <c r="C247" t="s">
-        <v>634</v>
-      </c>
       <c r="D247" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F247">
         <v>32.9857619</v>
@@ -11861,19 +11856,19 @@
         <v>20</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L247" s="1"/>
     </row>
     <row r="248" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C248" t="s">
         <v>635</v>
-      </c>
-      <c r="C248" t="s">
-        <v>636</v>
       </c>
       <c r="D248" t="s">
         <v>119</v>
@@ -11888,27 +11883,27 @@
         <v>24</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C249" t="s">
         <v>638</v>
       </c>
-      <c r="C249" t="s">
-        <v>639</v>
-      </c>
       <c r="D249" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F249">
         <v>22.4162632</v>
@@ -11920,22 +11915,22 @@
         <v>20</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K249" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L249" s="1"/>
     </row>
     <row r="250" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="D250" t="s">
         <v>70</v>
@@ -11950,18 +11945,18 @@
         <v>24</v>
       </c>
       <c r="K250" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>264</v>
@@ -11979,25 +11974,25 @@
         <v>20</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K251" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L251" s="1"/>
     </row>
     <row r="252" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C252" t="s">
         <v>645</v>
       </c>
-      <c r="C252" t="s">
-        <v>646</v>
-      </c>
       <c r="D252" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F252">
         <v>42.360090999999997</v>
@@ -12009,7 +12004,7 @@
         <v>24</v>
       </c>
       <c r="K252" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="L252" s="1"/>
     </row>
@@ -12018,7 +12013,7 @@
     </row>
     <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B254" t="s">
         <v>22</v>
@@ -12027,7 +12022,7 @@
         <v>23</v>
       </c>
       <c r="D254" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F254">
         <v>32.2318851</v>
@@ -12043,13 +12038,13 @@
       </c>
       <c r="J254"/>
       <c r="K254" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L254"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B255" t="s">
         <v>80</v>
@@ -12074,15 +12069,15 @@
         <v>83</v>
       </c>
       <c r="K255" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L255" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B256" t="s">
         <v>117</v>
@@ -12109,15 +12104,15 @@
         <v>121</v>
       </c>
       <c r="K256" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L256" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B257" t="s">
         <v>132</v>
@@ -12126,7 +12121,7 @@
         <v>133</v>
       </c>
       <c r="D257" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F257">
         <v>37.427474500000002</v>
@@ -12140,15 +12135,15 @@
       <c r="I257"/>
       <c r="J257"/>
       <c r="K257" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="L257" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>144</v>
@@ -12169,15 +12164,15 @@
         <v>15</v>
       </c>
       <c r="K258" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>190</v>
@@ -12201,15 +12196,15 @@
         <v>192</v>
       </c>
       <c r="K259" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>47</v>
@@ -12230,15 +12225,15 @@
         <v>20</v>
       </c>
       <c r="K260" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>254</v>
@@ -12259,15 +12254,15 @@
         <v>24</v>
       </c>
       <c r="K261" t="s">
+        <v>652</v>
+      </c>
+      <c r="L261" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="L261" s="5" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="262" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>289</v>
@@ -12288,21 +12283,21 @@
         <v>20</v>
       </c>
       <c r="K262" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D263" t="s">
         <v>119</v>
@@ -12317,30 +12312,30 @@
         <v>15</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K263" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="264" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" t="s">
         <v>315</v>
-      </c>
-      <c r="D264" t="s">
-        <v>316</v>
       </c>
       <c r="F264">
         <v>19.325721999999999</v>
@@ -12352,30 +12347,30 @@
         <v>24</v>
       </c>
       <c r="I264" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J264" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J264" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="K264" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="D265" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F265">
         <v>52.333756800000003</v>
@@ -12387,12 +12382,12 @@
         <v>24</v>
       </c>
       <c r="K265" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="266" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>144</v>
@@ -12413,24 +12408,24 @@
         <v>24</v>
       </c>
       <c r="K266" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B267" t="s">
+        <v>378</v>
+      </c>
+      <c r="C267" t="s">
         <v>379</v>
       </c>
-      <c r="C267" t="s">
-        <v>380</v>
-      </c>
       <c r="D267" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F267">
         <v>34.201308099999999</v>
@@ -12442,27 +12437,27 @@
         <v>24</v>
       </c>
       <c r="I267" t="s">
+        <v>380</v>
+      </c>
+      <c r="J267" t="s">
         <v>381</v>
       </c>
-      <c r="J267" t="s">
-        <v>382</v>
-      </c>
       <c r="K267" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L267" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="268" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B268" t="s">
+        <v>468</v>
+      </c>
+      <c r="C268" t="s">
         <v>469</v>
-      </c>
-      <c r="C268" t="s">
-        <v>470</v>
       </c>
       <c r="D268" t="s">
         <v>63</v>
@@ -12477,25 +12472,25 @@
         <v>24</v>
       </c>
       <c r="I268" t="s">
+        <v>470</v>
+      </c>
+      <c r="J268" t="s">
         <v>471</v>
       </c>
-      <c r="J268" t="s">
-        <v>472</v>
-      </c>
       <c r="K268" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L268"/>
     </row>
     <row r="269" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B269" t="s">
+        <v>478</v>
+      </c>
+      <c r="C269" t="s">
         <v>479</v>
-      </c>
-      <c r="C269" t="s">
-        <v>480</v>
       </c>
       <c r="D269" t="s">
         <v>14</v>
@@ -12510,25 +12505,25 @@
         <v>24</v>
       </c>
       <c r="I269" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J269"/>
       <c r="K269" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L269" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B270" t="s">
+        <v>555</v>
+      </c>
+      <c r="C270" t="s">
         <v>556</v>
-      </c>
-      <c r="C270" t="s">
-        <v>557</v>
       </c>
       <c r="D270" t="s">
         <v>63</v>
@@ -12545,22 +12540,22 @@
       <c r="I270"/>
       <c r="J270"/>
       <c r="K270" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L270"/>
     </row>
     <row r="271" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B271" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C271" t="s">
         <v>27</v>
       </c>
       <c r="D271" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F271">
         <v>40.007436300000002</v>
@@ -12574,13 +12569,13 @@
       <c r="I271"/>
       <c r="J271"/>
       <c r="K271" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L271"/>
     </row>
     <row r="272" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B272" t="s">
         <v>47</v>
@@ -12601,28 +12596,28 @@
         <v>24</v>
       </c>
       <c r="I272" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J272"/>
       <c r="K272" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L272" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B273" t="s">
+        <v>624</v>
+      </c>
+      <c r="C273" t="s">
         <v>625</v>
       </c>
-      <c r="C273" t="s">
-        <v>626</v>
-      </c>
       <c r="D273" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F273">
         <v>40.423705400000003</v>
@@ -12636,19 +12631,19 @@
       <c r="I273"/>
       <c r="J273"/>
       <c r="K273" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L273"/>
     </row>
     <row r="274" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C274" t="s">
         <v>647</v>
-      </c>
-      <c r="C274" t="s">
-        <v>648</v>
       </c>
       <c r="D274" t="s">
         <v>82</v>
@@ -12663,10 +12658,10 @@
         <v>20</v>
       </c>
       <c r="K274" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -12685,18 +12680,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K253 K274">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="4">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Exp/Theory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Exp"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Work\Ultracool\AllColdAtoms\generate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF25EA-EB1C-4482-BEF2-A4176370032D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C9367-309D-48A2-AADF-4968C6100523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1140">
   <si>
     <t>name</t>
   </si>
@@ -3437,9 +3437,6 @@
   </si>
   <si>
     <t>https://www.sussexquantum.com/</t>
-  </si>
-  <si>
-    <t>exp</t>
   </si>
   <si>
     <t>Quantum systems and devices (qsd) group, based at the University of Sussex. We work with Rubdium atoms, and study fundamental questions as well as implementing BEC microscopy.</t>
@@ -4406,7 +4403,7 @@
   <dimension ref="A1:L281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+      <selection activeCell="H132" sqref="A1:L257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8402,7 +8399,7 @@
         <v>1137</v>
       </c>
       <c r="C132" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D132" t="s">
         <v>14</v>
@@ -8414,10 +8411,10 @@
         <v>-8.7287000000000003E-2</v>
       </c>
       <c r="H132" t="s">
+        <v>23</v>
+      </c>
+      <c r="I132" s="8" t="s">
         <v>1138</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>1139</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>654</v>

--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Work\Ultracool\AllColdAtoms\generate\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89388375-C765-4AAE-BA88-81E9C4CCEE85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ucan_utoronto_database_producti" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ucan_utoronto_database_producti!$A$1:$L$262</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1167">
   <si>
     <t>name</t>
   </si>
@@ -3460,12 +3461,75 @@
   </si>
   <si>
     <t>https://physwww.mcmaster.ca/people/faculty/O%27Dell/O%27Dell_DHJ_h.html</t>
+  </si>
+  <si>
+    <t>Han Group</t>
+  </si>
+  <si>
+    <t>https://www.southalabama.edu/colleges/artsandsci/physics/han.html</t>
+  </si>
+  <si>
+    <t>University of South Alabama</t>
+  </si>
+  <si>
+    <t>Jianing Han</t>
+  </si>
+  <si>
+    <t>McCarron Group</t>
+  </si>
+  <si>
+    <t>http://themccarrongroup.com</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>Rb, RbCs, AlCl, CH</t>
+  </si>
+  <si>
+    <t>Molecules including AlCl, CH</t>
+  </si>
+  <si>
+    <t>Schauss Group</t>
+  </si>
+  <si>
+    <t>http://ultracold.phys.virginia.edu</t>
+  </si>
+  <si>
+    <t>Using the recently developed techniques of quantum gas microscopy, Peter Schauss is working on quantum simulation of bosonic and fermionic quantum many-body systems with ultracold atoms in optical lattices. The single-site and single-atom resolved imaging of these systems enables a new view on strongly correlated condensed-matter-like systems with full tunability of all relevant parameters of the Hamiltonian, reaching into regimes where exact calculations on classical computers become inaccessible.</t>
+  </si>
+  <si>
+    <t>Tomza Group</t>
+  </si>
+  <si>
+    <t>http://quantmol.uw.edu.pl/</t>
+  </si>
+  <si>
+    <t>We are an interdisciplinary group of theoretical physicists and chemists located at the Faculty of Physics of the University of Warsaw. We are a part of the Department of Modeling Complex Systems at the Institute of Theoretical Physics. We are also a part of Centre for Atomic Molecular and Optical Physics.We work on the intersection of theoretical atomic, molecular, and optical (AMO) physics and quantum chemistry. We are primary interested in engineering novel controllable quantum molecular systems for both fundamental research and upcoming quantum technologies.</t>
+  </si>
+  <si>
+    <t>W-SLDA Toolkit Group</t>
+  </si>
+  <si>
+    <t>https://wslda.fizyka.pw.edu.pl/</t>
+  </si>
+  <si>
+    <t>Warsaw University of Technology</t>
+  </si>
+  <si>
+    <t>W-SLDA ToolkitSelf-consistent solver of mathematical problems which have structure formally equivalent to Bogoliubov-de Gennes equations. The toolkit allows for simulating fermionic superfluids like ultracold atomic gases. Both static and time-depend phenomena can be investigated by means of W-SLDA. The software is optimized towards simulations of large systems, consisting of thousands of particles.W-SLDA Toolkit is designed to solve problems related to fermionic superfluidity. Particularly it is well suited to study static and dynamic properties of ultracold Fermi gases across BCS - BEC crossover. W-SLDA Toolkit implements functionals for reliable studies of systems being in weakly interacting BCS regime (BdG functional) and in the strongly interacting regime, called unitary Fermi gas (SLDA functional).W-SLDA Toolkit allows for studies of the system properties as a function of:interaction strength askF,system dimensionality (1D, 2D, 3D),population imbalance,mass imbalance,temperature.For full list of functionalities see here.</t>
+  </si>
+  <si>
+    <t>Project leader: Gabriel Wlazłowski; Theory expertise: Aurel Bulgac, Piotr Magierski, Michael McNeil Forbes; HPC expertise: Kenneth J. Roche, Maciej Marchwiany;</t>
+  </si>
+  <si>
+    <t>Michał Tomza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3830,7 +3894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3956,6 +4020,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4002,7 +4103,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4020,6 +4121,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4068,7 +4179,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -4094,27 +4205,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4152,24 +4242,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L258" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:L258"/>
-  <sortState ref="A2:L253">
-    <sortCondition ref="A1:A253"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L262" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:L262" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:L256">
+    <sortCondition ref="A1:A256"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="webpage" dataCellStyle="Heading 4"/>
-    <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="country"/>
-    <tableColumn id="5" name="address"/>
-    <tableColumn id="6" name="lat"/>
-    <tableColumn id="7" name="long"/>
-    <tableColumn id="8" name="exp_theor"/>
-    <tableColumn id="9" name="fields" dataDxfId="10"/>
-    <tableColumn id="10" name="people" dataDxfId="9"/>
-    <tableColumn id="11" name="atom" dataDxfId="8"/>
-    <tableColumn id="12" name="comment" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="webpage" dataCellStyle="Heading 4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="institution"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="country"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="address"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="lat"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="long"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="exp_theor"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="fields" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="people" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="atom" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="comment" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4437,11 +4527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L282"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L232" sqref="L232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6003,336 +6093,336 @@
       </c>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>819</v>
+        <v>1090</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>152</v>
+        <v>1091</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>1017</v>
       </c>
       <c r="F52">
-        <v>48.848883899999997</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G52">
-        <v>2.3454896000000001</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>656</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52" t="s">
+        <v>657</v>
+      </c>
+      <c r="L52"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1019</v>
+        <v>819</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>1022</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="F53">
-        <v>50.060986999999997</v>
+        <v>48.848883899999997</v>
       </c>
       <c r="G53">
-        <v>19.933964</v>
+        <v>2.3454896000000001</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53"/>
-      <c r="J53"/>
+        <v>23</v>
+      </c>
       <c r="K53" s="6" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B54" t="s">
         <v>1019</v>
       </c>
       <c r="C54" t="s">
-        <v>543</v>
+        <v>1022</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F54">
-        <v>35.026244400000003</v>
+        <v>50.060986999999997</v>
       </c>
       <c r="G54">
-        <v>135.78082180000001</v>
+        <v>19.933964</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
       </c>
       <c r="I54"/>
+      <c r="J54"/>
       <c r="K54" s="6" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>820</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1019</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>543</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F55">
-        <v>31.904505499999999</v>
+        <v>35.026244400000003</v>
       </c>
       <c r="G55">
-        <v>34.808340700000002</v>
+        <v>135.78082180000001</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>1057</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I55"/>
       <c r="K55" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>820</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <v>31.904505499999999</v>
+      </c>
+      <c r="G56">
+        <v>34.808340700000002</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>821</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>156</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>137</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>-27.495430599999999</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>153.0120301</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H57" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>657</v>
-      </c>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>822</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F57">
-        <v>40.105215899999997</v>
-      </c>
-      <c r="G57">
-        <v>-88.225920500000001</v>
-      </c>
-      <c r="H57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
         <v>1017</v>
       </c>
       <c r="F58">
+        <v>40.105215899999997</v>
+      </c>
+      <c r="G58">
+        <v>-88.225920500000001</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>823</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F59">
         <v>41.316324399999999</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>-72.922343100000006</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H59" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>824</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>69</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>48.422230499999998</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>9.9555819999999997</v>
       </c>
-      <c r="H59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K60" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>825</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>170</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>56</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>1.2971550000000001</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>103.78031</v>
       </c>
-      <c r="H60" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="6" t="s">
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>826</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>172</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>1060</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>52.090152699999997</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>5.1226018</v>
       </c>
-      <c r="H61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="K62" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F62">
-        <v>40.007436300000002</v>
-      </c>
-      <c r="G62">
-        <v>-105.26864809999999</v>
-      </c>
-      <c r="H62" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J62"/>
-      <c r="K62" t="s">
-        <v>657</v>
-      </c>
-      <c r="L62"/>
     </row>
     <row r="63" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -7466,64 +7556,68 @@
       </c>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F100">
+        <v>30.695768098503201</v>
+      </c>
+      <c r="G100">
+        <v>-88.184333703461405</v>
+      </c>
+      <c r="H100" t="s">
+        <v>23</v>
+      </c>
+      <c r="I100"/>
+      <c r="J100" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K100" t="s">
+        <v>653</v>
+      </c>
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>863</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>270</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>137</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>-37.822150399999998</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <v>145.03895460000001</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H101" t="s">
         <v>15</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="K101" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>864</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D101" t="s">
-        <v>69</v>
-      </c>
-      <c r="F101">
-        <v>48.259664399999998</v>
-      </c>
-      <c r="G101">
-        <v>11.666722999999999</v>
-      </c>
-      <c r="H101" t="s">
-        <v>23</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -7552,276 +7646,270 @@
       </c>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D103" t="s">
         <v>1017</v>
       </c>
       <c r="F103">
-        <v>36.885610399999997</v>
+        <v>30.2849185</v>
       </c>
       <c r="G103">
-        <v>-76.306777699999998</v>
+        <v>-97.734056699999996</v>
       </c>
       <c r="H103" t="s">
         <v>23</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="K103" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="L103" s="1"/>
-    </row>
-    <row r="104" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D104" t="s">
-        <v>1017</v>
+        <v>14</v>
       </c>
       <c r="F104">
-        <v>30.2849185</v>
+        <v>51.498799699999999</v>
       </c>
       <c r="G104">
-        <v>-97.734056699999996</v>
+        <v>-0.17487720000000001</v>
       </c>
       <c r="H104" t="s">
         <v>23</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>736</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C105" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F105">
+        <v>40.007436300000002</v>
+      </c>
+      <c r="G105">
+        <v>-105.26864809999999</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>870</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" t="s">
+        <v>284</v>
+      </c>
+      <c r="D106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106">
+        <v>-36.852337800000001</v>
+      </c>
+      <c r="G106">
+        <v>174.7691073</v>
+      </c>
+      <c r="H106" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>872</v>
+      </c>
+      <c r="B107" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="F105">
-        <v>51.498799699999999</v>
-      </c>
-      <c r="G105">
-        <v>-0.17487720000000001</v>
-      </c>
-      <c r="H105" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="L105" s="1"/>
-    </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>869</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C106" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F106">
-        <v>40.007436300000002</v>
-      </c>
-      <c r="G106">
-        <v>-105.26864809999999</v>
-      </c>
-      <c r="H106" t="s">
-        <v>20</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>870</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C107" t="s">
-        <v>284</v>
-      </c>
-      <c r="D107" t="s">
-        <v>48</v>
-      </c>
       <c r="F107">
-        <v>-36.852337800000001</v>
+        <v>54.764985899999999</v>
       </c>
       <c r="G107">
-        <v>174.7691073</v>
+        <v>-1.5782029</v>
       </c>
       <c r="H107" t="s">
         <v>23</v>
       </c>
+      <c r="I107" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="K107" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="L107" s="1"/>
+        <v>661</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>872</v>
-      </c>
-      <c r="B108" t="s">
-        <v>147</v>
+        <v>873</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="C108" t="s">
+        <v>288</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F108">
+        <v>45.7529003</v>
+      </c>
+      <c r="G108">
+        <v>-94.222328300000001</v>
+      </c>
+      <c r="H108" t="s">
+        <v>23</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>874</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109">
+        <v>-45.479067100000002</v>
+      </c>
+      <c r="G109">
+        <v>170.15475670000001</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>875</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C110" t="s">
         <v>148</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="F108">
+      <c r="F110">
         <v>54.764985899999999</v>
       </c>
-      <c r="G108">
+      <c r="G110">
         <v>-1.5782029</v>
-      </c>
-      <c r="H108" t="s">
-        <v>23</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>873</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C109" t="s">
-        <v>288</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F109">
-        <v>45.7529003</v>
-      </c>
-      <c r="G109">
-        <v>-94.222328300000001</v>
-      </c>
-      <c r="H109" t="s">
-        <v>23</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>874</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C110" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" t="s">
-        <v>48</v>
-      </c>
-      <c r="F110">
-        <v>-45.479067100000002</v>
-      </c>
-      <c r="G110">
-        <v>170.15475670000001</v>
       </c>
       <c r="H110" t="s">
         <v>20</v>
       </c>
+      <c r="I110" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="K110" s="6" t="s">
-        <v>657</v>
+        <v>1064</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>730</v>
+        <v>652</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C111" t="s">
-        <v>148</v>
+        <v>291</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F111">
-        <v>54.764985899999999</v>
+        <v>48.259664399999998</v>
       </c>
       <c r="G111">
-        <v>-1.5782029</v>
+        <v>11.666722999999999</v>
       </c>
       <c r="H111" t="s">
-        <v>20</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>652</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="L111" s="1"/>
     </row>
     <row r="112" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -8344,115 +8432,115 @@
     </row>
     <row r="129" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>892</v>
+        <v>1070</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1038</v>
+        <v>1071</v>
       </c>
       <c r="C129" t="s">
-        <v>597</v>
+        <v>1072</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>1017</v>
       </c>
       <c r="F129">
-        <v>50.726771499999998</v>
+        <v>39.981988000000001</v>
       </c>
       <c r="G129">
-        <v>7.0865226999999997</v>
+        <v>-75.153053999999997</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1070</v>
+        <v>893</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1071</v>
+        <v>342</v>
       </c>
       <c r="C130" t="s">
-        <v>1072</v>
+        <v>343</v>
       </c>
       <c r="D130" t="s">
-        <v>1017</v>
+        <v>81</v>
       </c>
       <c r="F130">
-        <v>39.981988000000001</v>
+        <v>49.260605200000001</v>
       </c>
       <c r="G130">
-        <v>-75.153053999999997</v>
+        <v>-123.24599379999999</v>
       </c>
       <c r="H130" t="s">
         <v>20</v>
       </c>
+      <c r="I130" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="K130" s="6" t="s">
         <v>657</v>
       </c>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>893</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>342</v>
+        <v>894</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="C131" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="F131">
-        <v>49.260605200000001</v>
+        <v>35.689487499999998</v>
       </c>
       <c r="G131">
-        <v>-123.24599379999999</v>
+        <v>139.69170639999999</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>657</v>
+        <v>710</v>
       </c>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>894</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>345</v>
+        <v>892</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1038</v>
       </c>
       <c r="C132" t="s">
-        <v>346</v>
+        <v>597</v>
       </c>
       <c r="D132" t="s">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="F132">
-        <v>35.689487499999998</v>
+        <v>50.726771499999998</v>
       </c>
       <c r="G132">
-        <v>139.69170639999999</v>
+        <v>7.0865226999999997</v>
       </c>
       <c r="H132" t="s">
         <v>23</v>
       </c>
+      <c r="I132" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="K132" s="6" t="s">
-        <v>710</v>
+        <v>656</v>
       </c>
       <c r="L132" s="1"/>
     </row>
@@ -8574,62 +8662,62 @@
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>898</v>
+        <v>1041</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>356</v>
+        <v>1042</v>
       </c>
       <c r="C137" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="D137" t="s">
-        <v>1017</v>
+        <v>81</v>
       </c>
       <c r="F137">
-        <v>42.278043599999997</v>
+        <v>53.523218900000003</v>
       </c>
       <c r="G137">
-        <v>-83.738224099999996</v>
+        <v>-113.5263186</v>
       </c>
       <c r="H137" t="s">
         <v>23</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="K137" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>739</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="L137" s="1"/>
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1041</v>
+        <v>898</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1042</v>
+        <v>356</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>1017</v>
       </c>
       <c r="F138">
-        <v>53.523218900000003</v>
+        <v>42.278043599999997</v>
       </c>
       <c r="G138">
-        <v>-113.5263186</v>
+        <v>-83.738224099999996</v>
       </c>
       <c r="H138" t="s">
         <v>23</v>
       </c>
+      <c r="I138" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="K138" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="L138" s="1"/>
+        <v>656</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -8913,164 +9001,163 @@
       </c>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F148">
+        <v>41.807733382103898</v>
+      </c>
+      <c r="G148">
+        <v>-72.253980502146007</v>
+      </c>
+      <c r="H148" t="s">
+        <v>23</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>909</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>384</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>81</v>
       </c>
-      <c r="F148">
+      <c r="F149">
         <v>49.278093699999999</v>
       </c>
-      <c r="G148">
+      <c r="G149">
         <v>-122.9198833</v>
       </c>
-      <c r="H148" t="s">
-        <v>23</v>
-      </c>
-      <c r="I148" s="1" t="s">
+      <c r="H149" t="s">
+        <v>23</v>
+      </c>
+      <c r="I149" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K148" s="6" t="s">
+      <c r="K149" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L148" s="1" t="s">
+      <c r="L149" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="150" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>910</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>387</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D150" t="s">
         <v>14</v>
       </c>
-      <c r="F149">
+      <c r="F150">
         <v>51.754816400000003</v>
       </c>
-      <c r="G149">
+      <c r="G150">
         <v>-1.2543667999999999</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H150" t="s">
         <v>20</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="I150" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K149" s="6" t="s">
+      <c r="K150" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L149" s="1"/>
-    </row>
-    <row r="150" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>911</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D150" t="s">
-        <v>69</v>
-      </c>
-      <c r="F150">
-        <v>50.728592999999996</v>
-      </c>
-      <c r="G150">
-        <v>7.0884178999999996</v>
-      </c>
-      <c r="H150" t="s">
-        <v>23</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K150" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>698</v>
-      </c>
+      <c r="L150" s="1"/>
     </row>
     <row r="151" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D151" t="s">
         <v>69</v>
       </c>
       <c r="F151">
+        <v>50.728592999999996</v>
+      </c>
+      <c r="G151">
+        <v>7.0884178999999996</v>
+      </c>
+      <c r="H151" t="s">
+        <v>23</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>912</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="F152">
         <v>53.566564100000001</v>
       </c>
-      <c r="G151">
+      <c r="G152">
         <v>9.9846195000000009</v>
       </c>
-      <c r="H151" t="s">
-        <v>23</v>
-      </c>
-      <c r="I151" s="1" t="s">
+      <c r="H152" t="s">
+        <v>23</v>
+      </c>
+      <c r="I152" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K151" s="6" t="s">
+      <c r="K152" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="L151" s="1" t="s">
+      <c r="L152" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>913</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C152" t="s">
-        <v>404</v>
-      </c>
-      <c r="D152" t="s">
-        <v>405</v>
-      </c>
-      <c r="F152">
-        <v>60.172634799999997</v>
-      </c>
-      <c r="G152">
-        <v>24.9510419</v>
-      </c>
-      <c r="H152" t="s">
-        <v>15</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K152" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L152" s="1"/>
     </row>
     <row r="153" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -9161,57 +9248,60 @@
       </c>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1120</v>
+        <v>913</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1114</v>
+        <v>403</v>
       </c>
       <c r="C156" t="s">
-        <v>1115</v>
+        <v>404</v>
       </c>
       <c r="D156" t="s">
-        <v>202</v>
+        <v>405</v>
       </c>
       <c r="F156">
-        <v>47.263354200000002</v>
+        <v>60.172634799999997</v>
       </c>
       <c r="G156">
-        <v>11.383800600000001</v>
+        <v>24.9510419</v>
       </c>
       <c r="H156" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>1116</v>
+        <v>657</v>
       </c>
       <c r="L156" s="1"/>
     </row>
     <row r="157" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="C157" t="s">
-        <v>229</v>
+        <v>1115</v>
       </c>
       <c r="D157" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="F157">
-        <v>49.419111000000001</v>
+        <v>47.263354200000002</v>
       </c>
       <c r="G157">
-        <v>8.6702499999999993</v>
+        <v>11.383800600000001</v>
       </c>
       <c r="H157" t="s">
         <v>23</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="L157" s="1"/>
     </row>
@@ -9276,995 +9366,990 @@
         <v>754</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C160" t="s">
+        <v>229</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="F160">
+        <v>49.419111000000001</v>
+      </c>
+      <c r="G160">
+        <v>8.6702499999999993</v>
+      </c>
+      <c r="H160" t="s">
+        <v>23</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>919</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>411</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>252</v>
       </c>
-      <c r="F160">
+      <c r="F161">
         <v>34.947723400000001</v>
       </c>
-      <c r="G160">
+      <c r="G161">
         <v>137.16652089999999</v>
       </c>
-      <c r="H160" t="s">
-        <v>23</v>
-      </c>
-      <c r="K160" s="6" t="s">
+      <c r="H161" t="s">
+        <v>23</v>
+      </c>
+      <c r="K161" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L160" s="1"/>
-    </row>
-    <row r="161" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>920</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D162" t="s">
         <v>69</v>
       </c>
-      <c r="F161">
+      <c r="F162">
         <v>49.440065699999998</v>
       </c>
-      <c r="G161">
+      <c r="G162">
         <v>7.7491265</v>
       </c>
-      <c r="H161" t="s">
-        <v>23</v>
-      </c>
-      <c r="I161" s="1" t="s">
+      <c r="H162" t="s">
+        <v>23</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K161" s="6" t="s">
+      <c r="K162" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L161" s="1"/>
-    </row>
-    <row r="162" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>921</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>416</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>81</v>
       </c>
-      <c r="F162">
+      <c r="F163">
         <v>43.662891700000003</v>
       </c>
-      <c r="G162">
+      <c r="G163">
         <v>-79.395656399999993</v>
-      </c>
-      <c r="H162" t="s">
-        <v>20</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K162" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>922</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C163" t="s">
-        <v>419</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163">
-        <v>54.77525</v>
-      </c>
-      <c r="G163">
-        <v>-1.5848519999999999</v>
       </c>
       <c r="H163" t="s">
         <v>20</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>1064</v>
+        <v>657</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="C164" t="s">
+        <v>419</v>
       </c>
       <c r="D164" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F164">
-        <v>49.425377400000002</v>
+        <v>54.77525</v>
       </c>
       <c r="G164">
-        <v>7.7555496000000002</v>
+        <v>-1.5848519999999999</v>
       </c>
       <c r="H164" t="s">
         <v>20</v>
       </c>
       <c r="I164" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K164" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>923</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="F165">
+        <v>49.425377400000002</v>
+      </c>
+      <c r="G165">
+        <v>7.7555496000000002</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K164" s="6" t="s">
+      <c r="K165" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L164" s="1"/>
-    </row>
-    <row r="165" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>924</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>254</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>30</v>
       </c>
-      <c r="F165">
+      <c r="F166">
         <v>48.956155000000003</v>
       </c>
-      <c r="G165">
+      <c r="G166">
         <v>2.3414540000000001</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H166" t="s">
         <v>15</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J166" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="K165" s="6" t="s">
+      <c r="K166" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="L165" s="5" t="s">
+      <c r="L166" s="5" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="167" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>925</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>427</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>41</v>
       </c>
-      <c r="F166">
+      <c r="F167">
         <v>55.696947000000002</v>
       </c>
-      <c r="G166">
+      <c r="G167">
         <v>12.571562</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H167" t="s">
         <v>20</v>
       </c>
-      <c r="I166" s="1" t="s">
+      <c r="I167" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J166" s="1" t="s">
+      <c r="J167" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="K166" s="6" t="s">
+      <c r="K167" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L166" s="1" t="s">
+      <c r="L167" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="168" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>926</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
         <v>69</v>
       </c>
-      <c r="F167">
+      <c r="F168">
         <v>48.781647200000002</v>
       </c>
-      <c r="G167">
+      <c r="G168">
         <v>9.1724984999999997</v>
       </c>
-      <c r="H167" t="s">
-        <v>23</v>
-      </c>
-      <c r="I167" s="1" t="s">
+      <c r="H168" t="s">
+        <v>23</v>
+      </c>
+      <c r="I168" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="J168" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="K167" s="6" t="s">
+      <c r="K168" s="6" t="s">
         <v>703</v>
-      </c>
-      <c r="L167" s="1"/>
-    </row>
-    <row r="168" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>927</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C168" t="s">
-        <v>26</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F168">
-        <v>40.007436300000002</v>
-      </c>
-      <c r="G168">
-        <v>-105.26864809999999</v>
-      </c>
-      <c r="H168" t="s">
-        <v>15</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="K168" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="L168" s="1"/>
     </row>
     <row r="169" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>927</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C169" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F169">
+        <v>40.007436300000002</v>
+      </c>
+      <c r="G169">
+        <v>-105.26864809999999</v>
+      </c>
+      <c r="H169" t="s">
+        <v>15</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K169" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>1073</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>1075</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D170" t="s">
         <v>98</v>
       </c>
-      <c r="F169">
+      <c r="F170">
         <v>47.564731000000002</v>
       </c>
-      <c r="G169">
+      <c r="G170">
         <v>7.5786920000000002</v>
       </c>
-      <c r="H169" t="s">
-        <v>23</v>
-      </c>
-      <c r="I169" s="1" t="s">
+      <c r="H170" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="J169" s="1" t="s">
+      <c r="J170" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="K169" s="6" t="s">
+      <c r="K170" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L169" s="1"/>
-    </row>
-    <row r="170" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>928</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>437</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D171" t="s">
         <v>1017</v>
       </c>
-      <c r="F170">
+      <c r="F171">
         <v>39.138053200000002</v>
       </c>
-      <c r="G170">
+      <c r="G171">
         <v>-77.220833900000002</v>
       </c>
-      <c r="H170" t="s">
-        <v>23</v>
-      </c>
-      <c r="J170" s="1" t="s">
+      <c r="H171" t="s">
+        <v>23</v>
+      </c>
+      <c r="J171" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="K170" s="6" t="s">
+      <c r="K171" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="L170" s="1"/>
-    </row>
-    <row r="171" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>929</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C172" t="s">
         <v>440</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D172" t="s">
         <v>30</v>
       </c>
-      <c r="F171">
+      <c r="F172">
         <v>48.827264999999997</v>
       </c>
-      <c r="G171">
+      <c r="G172">
         <v>2.276624</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H172" t="s">
         <v>15</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="I172" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J171" s="1" t="s">
+      <c r="J172" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="K171" s="6" t="s">
+      <c r="K172" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="L171" s="5" t="s">
+      <c r="L172" s="5" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>930</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C172" t="s">
-        <v>444</v>
-      </c>
-      <c r="D172" t="s">
-        <v>41</v>
-      </c>
-      <c r="F172">
-        <v>55.696949600000003</v>
-      </c>
-      <c r="G172">
-        <v>12.5715789</v>
-      </c>
-      <c r="H172" t="s">
-        <v>23</v>
-      </c>
-      <c r="K172" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1047</v>
+        <v>930</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1019</v>
+        <v>443</v>
       </c>
       <c r="C173" t="s">
-        <v>315</v>
+        <v>444</v>
       </c>
       <c r="D173" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F173">
-        <v>49.398752399999999</v>
+        <v>55.696949600000003</v>
       </c>
       <c r="G173">
-        <v>8.6724335000000004</v>
+        <v>12.5715789</v>
       </c>
       <c r="H173" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K173" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L173" s="1"/>
-    </row>
-    <row r="174" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L173" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C174" t="s">
+        <v>315</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="F174">
+        <v>49.398752399999999</v>
+      </c>
+      <c r="G174">
+        <v>8.6724335000000004</v>
+      </c>
+      <c r="H174" t="s">
+        <v>15</v>
+      </c>
+      <c r="K174" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>931</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>446</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>14</v>
       </c>
-      <c r="F174">
+      <c r="F175">
         <v>54.77525</v>
       </c>
-      <c r="G174">
+      <c r="G175">
         <v>-1.5848519999999999</v>
-      </c>
-      <c r="H174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="K174" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>932</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C175" t="s">
-        <v>288</v>
-      </c>
-      <c r="D175" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F175">
-        <v>45.7529003</v>
-      </c>
-      <c r="G175">
-        <v>-94.222328300000001</v>
       </c>
       <c r="H175" t="s">
         <v>20</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L175" s="1"/>
-    </row>
-    <row r="176" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C176" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="D176" t="s">
         <v>1017</v>
       </c>
       <c r="F176">
-        <v>42.278043599999997</v>
+        <v>45.7529003</v>
       </c>
       <c r="G176">
-        <v>-83.738224099999996</v>
+        <v>-94.222328300000001</v>
       </c>
       <c r="H176" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="L176" s="1"/>
     </row>
-    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C177" t="s">
-        <v>453</v>
+        <v>178</v>
       </c>
       <c r="D177" t="s">
         <v>1017</v>
       </c>
       <c r="F177">
+        <v>42.278043599999997</v>
+      </c>
+      <c r="G177">
+        <v>-83.738224099999996</v>
+      </c>
+      <c r="H177" t="s">
+        <v>23</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>934</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C178" t="s">
+        <v>453</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F178">
         <v>30.2849185</v>
       </c>
-      <c r="G177">
+      <c r="G178">
         <v>-97.734056699999996</v>
       </c>
-      <c r="H177" t="s">
-        <v>23</v>
-      </c>
-      <c r="I177" s="1" t="s">
+      <c r="H178" t="s">
+        <v>23</v>
+      </c>
+      <c r="I178" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K177" s="6" t="s">
+      <c r="K178" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="L177" s="1"/>
-    </row>
-    <row r="178" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>935</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>456</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>62</v>
       </c>
-      <c r="F178">
+      <c r="F179">
         <v>13.012825599999999</v>
       </c>
-      <c r="G178">
+      <c r="G179">
         <v>77.580665999999994</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H179" t="s">
         <v>15</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="I179" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="J178" s="1" t="s">
+      <c r="J179" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="K178" s="6" t="s">
+      <c r="K179" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="L178" s="1"/>
-    </row>
-    <row r="179" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>936</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>113</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>1017</v>
       </c>
-      <c r="F179">
+      <c r="F180">
         <v>33.775617799999999</v>
       </c>
-      <c r="G179">
+      <c r="G180">
         <v>-84.396285000000006</v>
       </c>
-      <c r="H179" t="s">
-        <v>23</v>
-      </c>
-      <c r="I179" s="1" t="s">
+      <c r="H180" t="s">
+        <v>23</v>
+      </c>
+      <c r="I180" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K179" s="6" t="s">
+      <c r="K180" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="L180" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="181" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>938</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>466</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>30</v>
       </c>
-      <c r="F180">
+      <c r="F181">
         <v>48.842205800000002</v>
       </c>
-      <c r="G180">
+      <c r="G181">
         <v>2.3451689</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H181" t="s">
         <v>15</v>
       </c>
-      <c r="I180" s="1" t="s">
+      <c r="I181" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="J180" s="1" t="s">
+      <c r="J181" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K180" s="6" t="s">
+      <c r="K181" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="L180" s="5" t="s">
+      <c r="L181" s="5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>939</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>69</v>
       </c>
-      <c r="F181">
+      <c r="F182">
         <v>48.259664399999998</v>
       </c>
-      <c r="G181">
+      <c r="G182">
         <v>11.666722999999999</v>
       </c>
-      <c r="H181" t="s">
-        <v>23</v>
-      </c>
-      <c r="K181" s="6" t="s">
+      <c r="H182" t="s">
+        <v>23</v>
+      </c>
+      <c r="K182" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L181" s="1"/>
-    </row>
-    <row r="182" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>941</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>26</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>1017</v>
       </c>
-      <c r="F182">
+      <c r="F183">
         <v>40.007436300000002</v>
       </c>
-      <c r="G182">
+      <c r="G183">
         <v>-105.26864809999999</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H183" t="s">
         <v>20</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="I183" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="K182" s="6" t="s">
+      <c r="K183" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L182" s="1"/>
-    </row>
-    <row r="183" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>942</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>477</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>14</v>
       </c>
-      <c r="F183">
+      <c r="F184">
         <v>55.862828499999999</v>
       </c>
-      <c r="G183">
+      <c r="G184">
         <v>-4.2428534999999998</v>
       </c>
-      <c r="H183" t="s">
-        <v>23</v>
-      </c>
-      <c r="I183" s="1" t="s">
+      <c r="H184" t="s">
+        <v>23</v>
+      </c>
+      <c r="I184" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="J183" s="1" t="s">
+      <c r="J184" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="K183" s="6" t="s">
+      <c r="K184" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="L184" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="185" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>943</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>156</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>137</v>
       </c>
-      <c r="F184">
+      <c r="F185">
         <v>-27.495430599999999</v>
       </c>
-      <c r="G184">
+      <c r="G185">
         <v>153.0120301</v>
       </c>
-      <c r="H184" t="s">
-        <v>23</v>
-      </c>
-      <c r="J184" s="1" t="s">
+      <c r="H185" t="s">
+        <v>23</v>
+      </c>
+      <c r="J185" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="K184" s="6" t="s">
+      <c r="K185" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="L185" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>944</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>1050</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>1051</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>14</v>
       </c>
-      <c r="F185">
+      <c r="F186">
         <v>54.0103942</v>
       </c>
-      <c r="G185">
+      <c r="G186">
         <v>-2.7877293999999999</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H186" t="s">
         <v>20</v>
       </c>
-      <c r="K185" s="6" t="s">
+      <c r="K186" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L185" s="1"/>
-    </row>
-    <row r="186" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>945</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>483</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>1017</v>
       </c>
-      <c r="F186">
+      <c r="F187">
         <v>38.033552899999997</v>
       </c>
-      <c r="G186">
+      <c r="G187">
         <v>-78.507977199999999</v>
       </c>
-      <c r="H186" t="s">
-        <v>23</v>
-      </c>
-      <c r="I186" s="1" t="s">
+      <c r="H187" t="s">
+        <v>23</v>
+      </c>
+      <c r="I187" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="K186" s="6" t="s">
+      <c r="K187" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L186" s="1"/>
-    </row>
-    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>946</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>69</v>
       </c>
-      <c r="F187">
+      <c r="F188">
         <v>52.517882999999998</v>
       </c>
-      <c r="G187">
+      <c r="G188">
         <v>13.3936551</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H188" t="s">
         <v>20</v>
       </c>
-      <c r="K187" s="6" t="s">
+      <c r="K188" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L187" s="1"/>
-    </row>
-    <row r="188" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>947</v>
-      </c>
-      <c r="B188" t="s">
-        <v>487</v>
-      </c>
-      <c r="C188" t="s">
-        <v>488</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F188">
-        <v>43.076591999999998</v>
-      </c>
-      <c r="G188">
-        <v>-89.412487499999997</v>
-      </c>
-      <c r="H188" t="s">
-        <v>15</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="K188" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="L188" s="1" t="s">
-        <v>1020</v>
-      </c>
+      <c r="L188" s="1"/>
     </row>
     <row r="189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>947</v>
+      </c>
+      <c r="B189" t="s">
+        <v>487</v>
+      </c>
+      <c r="C189" t="s">
+        <v>488</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F189">
+        <v>43.076591999999998</v>
+      </c>
+      <c r="G189">
+        <v>-89.412487499999997</v>
+      </c>
+      <c r="H189" t="s">
+        <v>15</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="K189" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>1117</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C190" t="s">
         <v>1119</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D190" t="s">
         <v>19</v>
       </c>
-      <c r="F189">
+      <c r="F190">
         <v>32.776757000000003</v>
       </c>
-      <c r="G189">
+      <c r="G190">
         <v>35.023128999999997</v>
       </c>
-      <c r="H189" t="s">
-        <v>23</v>
-      </c>
-      <c r="K189" s="6" t="s">
+      <c r="H190" t="s">
+        <v>23</v>
+      </c>
+      <c r="K190" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="L189" s="1"/>
-    </row>
-    <row r="190" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="L190" s="1"/>
+    </row>
+    <row r="191" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>948</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>491</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>38</v>
       </c>
-      <c r="F190">
+      <c r="F191">
         <v>45.406765999999998</v>
       </c>
-      <c r="G190">
+      <c r="G191">
         <v>11.8774462</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H191" t="s">
         <v>20</v>
       </c>
-      <c r="I190" s="1" t="s">
+      <c r="I191" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="J190" s="1" t="s">
+      <c r="J191" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="K190" s="6" t="s">
+      <c r="K191" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="L191" s="1" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>949</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C191" t="s">
-        <v>142</v>
-      </c>
-      <c r="D191" t="s">
-        <v>30</v>
-      </c>
-      <c r="F191">
-        <v>48.842205800000002</v>
-      </c>
-      <c r="G191">
-        <v>2.3451689</v>
-      </c>
-      <c r="H191" t="s">
-        <v>23</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="K191" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="L191" s="5" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -10272,108 +10357,110 @@
         <v>949</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C192" t="s">
+        <v>142</v>
+      </c>
+      <c r="D192" t="s">
+        <v>30</v>
+      </c>
+      <c r="F192">
+        <v>48.842205800000002</v>
+      </c>
+      <c r="G192">
+        <v>2.3451689</v>
+      </c>
+      <c r="H192" t="s">
+        <v>23</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="K192" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>949</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>394</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>69</v>
       </c>
-      <c r="F192">
+      <c r="F193">
         <v>53.566564100000001</v>
       </c>
-      <c r="G192">
+      <c r="G193">
         <v>9.9846195000000009</v>
       </c>
-      <c r="H192" t="s">
+      <c r="H193" t="s">
         <v>1143</v>
       </c>
-      <c r="K192" s="6" t="s">
+      <c r="K193" s="6" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="194" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>950</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>1052</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>1053</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>30</v>
       </c>
-      <c r="F193">
+      <c r="F194">
         <v>48.714297100000003</v>
       </c>
-      <c r="G193">
+      <c r="G194">
         <v>2.2112916999999999</v>
-      </c>
-      <c r="H193" t="s">
-        <v>20</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K193" s="6" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>951</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D194" t="s">
-        <v>69</v>
-      </c>
-      <c r="F194">
-        <v>52.382964100000002</v>
-      </c>
-      <c r="G194">
-        <v>9.7196988999999991</v>
       </c>
       <c r="H194" t="s">
         <v>20</v>
       </c>
+      <c r="I194" s="1" t="s">
+        <v>1058</v>
+      </c>
       <c r="K194" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L194" s="1"/>
-    </row>
-    <row r="195" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C195" t="s">
-        <v>498</v>
+        <v>495</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="D195" t="s">
-        <v>1017</v>
+        <v>69</v>
       </c>
       <c r="F195">
-        <v>38.536048000000001</v>
+        <v>52.382964100000002</v>
       </c>
       <c r="G195">
-        <v>-121.749286</v>
+        <v>9.7196988999999991</v>
       </c>
       <c r="H195" t="s">
         <v>20</v>
       </c>
-      <c r="I195" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="K195" s="6" t="s">
         <v>657</v>
       </c>
@@ -10381,2606 +10468,2760 @@
     </row>
     <row r="196" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C196" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D196" t="s">
         <v>1017</v>
       </c>
       <c r="F196">
-        <v>37.228384300000002</v>
+        <v>38.536048000000001</v>
       </c>
       <c r="G196">
-        <v>-80.423416700000004</v>
+        <v>-121.749286</v>
       </c>
       <c r="H196" t="s">
         <v>20</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K196" s="6" t="s">
         <v>657</v>
       </c>
       <c r="L196" s="1"/>
     </row>
-    <row r="197" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="C197" t="s">
+        <v>501</v>
       </c>
       <c r="D197" t="s">
-        <v>69</v>
+        <v>1017</v>
       </c>
       <c r="F197">
-        <v>53.577424999999998</v>
+        <v>37.228384300000002</v>
       </c>
       <c r="G197">
-        <v>9.8871459999999995</v>
+        <v>-80.423416700000004</v>
       </c>
       <c r="H197" t="s">
         <v>20</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K197" s="6" t="s">
         <v>657</v>
       </c>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C198" t="s">
+        <v>483</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F198">
+        <v>38.033628934789498</v>
+      </c>
+      <c r="G198">
+        <v>-78.508052304125002</v>
+      </c>
+      <c r="H198" t="s">
+        <v>23</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J198"/>
+      <c r="K198" t="s">
+        <v>696</v>
+      </c>
+      <c r="L198"/>
+    </row>
+    <row r="199" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>954</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="F199">
+        <v>53.577424999999998</v>
+      </c>
+      <c r="G199">
+        <v>9.8871459999999995</v>
+      </c>
+      <c r="H199" t="s">
+        <v>20</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K199" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L199" s="1"/>
+    </row>
+    <row r="200" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>955</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D200" t="s">
         <v>202</v>
       </c>
-      <c r="F198">
+      <c r="F200">
         <v>48.198654599999998</v>
       </c>
-      <c r="G198">
+      <c r="G200">
         <v>16.368462600000001</v>
       </c>
-      <c r="H198" t="s">
-        <v>23</v>
-      </c>
-      <c r="I198" s="1" t="s">
+      <c r="H200" t="s">
+        <v>23</v>
+      </c>
+      <c r="I200" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K198" s="6" t="s">
+      <c r="K200" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="L198" s="1"/>
-    </row>
-    <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="L200" s="1"/>
+    </row>
+    <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>956</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C201" t="s">
         <v>509</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D201" t="s">
         <v>1017</v>
       </c>
-      <c r="F199">
+      <c r="F201">
         <v>40.912376100000003</v>
       </c>
-      <c r="G199">
+      <c r="G201">
         <v>-73.123388899999995</v>
       </c>
-      <c r="H199" t="s">
-        <v>23</v>
-      </c>
-      <c r="I199" s="1" t="s">
+      <c r="H201" t="s">
+        <v>23</v>
+      </c>
+      <c r="I201" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="K199" s="6" t="s">
+      <c r="K201" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L199" s="1"/>
-    </row>
-    <row r="200" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="L201" s="1"/>
+    </row>
+    <row r="202" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>1139</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B202" t="s">
         <v>1140</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C202" t="s">
         <v>144</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D202" t="s">
         <v>14</v>
       </c>
-      <c r="F200">
+      <c r="F202">
         <v>52.204266599999997</v>
       </c>
-      <c r="G200">
+      <c r="G202">
         <v>0.1149085</v>
       </c>
-      <c r="H200" t="s">
-        <v>23</v>
-      </c>
-      <c r="I200"/>
-      <c r="K200" s="6" t="s">
+      <c r="H202" t="s">
+        <v>23</v>
+      </c>
+      <c r="I202"/>
+      <c r="K202" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="L200" s="1"/>
-    </row>
-    <row r="201" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>957</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D201" t="s">
-        <v>202</v>
-      </c>
-      <c r="F201">
-        <v>48.198654599999998</v>
-      </c>
-      <c r="G201">
-        <v>16.368462600000001</v>
-      </c>
-      <c r="H201" t="s">
-        <v>23</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="K201" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>958</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D202" t="s">
-        <v>69</v>
-      </c>
-      <c r="F202">
-        <v>53.551084600000003</v>
-      </c>
-      <c r="G202">
-        <v>9.9936819000000003</v>
-      </c>
-      <c r="H202" t="s">
-        <v>23</v>
-      </c>
-      <c r="J202" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="K202" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>701</v>
-      </c>
+      <c r="L202" s="1"/>
     </row>
     <row r="203" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>957</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D203" t="s">
+        <v>202</v>
+      </c>
+      <c r="F203">
+        <v>48.198654599999998</v>
+      </c>
+      <c r="G203">
+        <v>16.368462600000001</v>
+      </c>
+      <c r="H203" t="s">
+        <v>23</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>958</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="F204">
+        <v>53.551084600000003</v>
+      </c>
+      <c r="G204">
+        <v>9.9936819000000003</v>
+      </c>
+      <c r="H204" t="s">
+        <v>23</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K204" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>959</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C205" t="s">
         <v>517</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D205" t="s">
         <v>1017</v>
       </c>
-      <c r="F203">
+      <c r="F205">
         <v>35.205893600000003</v>
       </c>
-      <c r="G203">
+      <c r="G205">
         <v>-97.445713699999999</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H205" t="s">
         <v>15</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="I205" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="J203" s="1" t="s">
+      <c r="J205" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="K203" s="6" t="s">
+      <c r="K205" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="L205" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>1068</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C206" t="s">
         <v>40</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D206" t="s">
         <v>41</v>
       </c>
-      <c r="F204">
+      <c r="F206">
         <v>56.168191999999998</v>
       </c>
-      <c r="G204">
+      <c r="G206">
         <v>10.202991000000001</v>
       </c>
-      <c r="H204" t="s">
+      <c r="H206" t="s">
         <v>15</v>
       </c>
-      <c r="I204"/>
-      <c r="J204"/>
-      <c r="K204" t="s">
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206" t="s">
         <v>656</v>
       </c>
-      <c r="L204"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="L206"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>1093</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C207" t="s">
         <v>212</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D207" t="s">
         <v>1062</v>
       </c>
-      <c r="F205">
+      <c r="F207">
         <v>37.459879000000001</v>
       </c>
-      <c r="G205">
+      <c r="G207">
         <v>126.951904</v>
       </c>
-      <c r="H205" t="s">
-        <v>23</v>
-      </c>
-      <c r="I205" t="s">
+      <c r="H207" t="s">
+        <v>23</v>
+      </c>
+      <c r="I207" t="s">
         <v>1095</v>
       </c>
-      <c r="J205"/>
-      <c r="K205" t="s">
+      <c r="J207"/>
+      <c r="K207" t="s">
         <v>1096</v>
       </c>
-      <c r="L205"/>
-    </row>
-    <row r="206" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="L207"/>
+    </row>
+    <row r="208" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>960</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C208" t="s">
         <v>521</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D208" t="s">
         <v>62</v>
       </c>
-      <c r="F206">
+      <c r="F208">
         <v>30.975639399999999</v>
       </c>
-      <c r="G206">
+      <c r="G208">
         <v>76.538867999999994</v>
-      </c>
-      <c r="H206" t="s">
-        <v>20</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="K206" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L206" s="1"/>
-    </row>
-    <row r="207" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>961</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C207" t="s">
-        <v>270</v>
-      </c>
-      <c r="D207" t="s">
-        <v>137</v>
-      </c>
-      <c r="F207">
-        <v>-37.822150399999998</v>
-      </c>
-      <c r="G207">
-        <v>145.03895460000001</v>
-      </c>
-      <c r="H207" t="s">
-        <v>23</v>
-      </c>
-      <c r="K207" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="L207" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>962</v>
-      </c>
-      <c r="B208" t="s">
-        <v>524</v>
-      </c>
-      <c r="C208" t="s">
-        <v>525</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F208">
-        <v>50.087110600000003</v>
-      </c>
-      <c r="G208">
-        <v>14.423488900000001</v>
       </c>
       <c r="H208" t="s">
         <v>20</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K208" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L208" s="1" t="s">
-        <v>684</v>
-      </c>
+      <c r="L208" s="1"/>
     </row>
     <row r="209" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>963</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>540</v>
+        <v>961</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="C209" t="s">
-        <v>444</v>
+        <v>270</v>
       </c>
       <c r="D209" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="F209">
-        <v>55.696949600000003</v>
+        <v>-37.822150399999998</v>
       </c>
       <c r="G209">
-        <v>12.5715789</v>
+        <v>145.03895460000001</v>
       </c>
       <c r="H209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K209" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>962</v>
+      </c>
+      <c r="B210" t="s">
+        <v>524</v>
+      </c>
+      <c r="C210" t="s">
+        <v>525</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F210">
+        <v>50.087110600000003</v>
+      </c>
+      <c r="G210">
+        <v>14.423488900000001</v>
+      </c>
+      <c r="H210" t="s">
         <v>20</v>
       </c>
-      <c r="I209" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="K209" s="6" t="s">
+      <c r="I210" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K210" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L209" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="L210" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>964</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>528</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D211" t="s">
         <v>1017</v>
       </c>
-      <c r="F210">
+      <c r="F211">
         <v>37.871899200000001</v>
       </c>
-      <c r="G210">
+      <c r="G211">
         <v>-122.2585399</v>
       </c>
-      <c r="H210" t="s">
-        <v>23</v>
-      </c>
-      <c r="I210" s="1" t="s">
+      <c r="H211" t="s">
+        <v>23</v>
+      </c>
+      <c r="I211" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="K210" s="6" t="s">
+      <c r="K211" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="L211" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="212" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>965</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>531</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D212" t="s">
         <v>81</v>
       </c>
-      <c r="F211">
+      <c r="F212">
         <v>43.653225999999997</v>
       </c>
-      <c r="G211">
+      <c r="G212">
         <v>-79.383184299999996</v>
       </c>
-      <c r="H211" t="s">
-        <v>23</v>
-      </c>
-      <c r="I211" s="1" t="s">
+      <c r="H212" t="s">
+        <v>23</v>
+      </c>
+      <c r="I212" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="J211" s="1" t="s">
+      <c r="J212" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K211" s="6" t="s">
+      <c r="K212" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="L211" s="1"/>
-    </row>
-    <row r="212" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D212" t="s">
-        <v>69</v>
-      </c>
-      <c r="F212">
-        <v>52.296484</v>
-      </c>
-      <c r="G212">
-        <v>10.463150000000001</v>
-      </c>
-      <c r="H212" t="s">
-        <v>23</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="K212" s="6" t="s">
-        <v>1082</v>
       </c>
       <c r="L212" s="1"/>
     </row>
     <row r="213" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="F213">
+        <v>52.296484</v>
+      </c>
+      <c r="G213">
+        <v>10.463150000000001</v>
+      </c>
+      <c r="H213" t="s">
+        <v>23</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K213" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L213" s="1"/>
+    </row>
+    <row r="214" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>966</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C214" t="s">
         <v>181</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D214" t="s">
         <v>1060</v>
       </c>
-      <c r="F213">
+      <c r="F214">
         <v>52.090737400000002</v>
       </c>
-      <c r="G213">
+      <c r="G214">
         <v>5.1214200999999999</v>
-      </c>
-      <c r="H213" t="s">
-        <v>20</v>
-      </c>
-      <c r="K213" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L213" s="1"/>
-    </row>
-    <row r="214" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>967</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C214" t="s">
-        <v>535</v>
-      </c>
-      <c r="D214" t="s">
-        <v>38</v>
-      </c>
-      <c r="F214">
-        <v>46.069476999999999</v>
-      </c>
-      <c r="G214">
-        <v>11.121046</v>
       </c>
       <c r="H214" t="s">
         <v>20</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="K214" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L214" s="1"/>
+    </row>
+    <row r="215" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>967</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C215" t="s">
+        <v>535</v>
+      </c>
+      <c r="D215" t="s">
+        <v>38</v>
+      </c>
+      <c r="F215">
+        <v>46.069476999999999</v>
+      </c>
+      <c r="G215">
+        <v>11.121046</v>
+      </c>
+      <c r="H215" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="J215" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K214" s="6" t="s">
+      <c r="K215" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="L215" s="1" t="s">
         <v>721</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>968</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C215" t="s">
-        <v>539</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F215">
-        <v>47.655335100000002</v>
-      </c>
-      <c r="G215">
-        <v>-122.3035199</v>
-      </c>
-      <c r="H215" t="s">
-        <v>23</v>
-      </c>
-      <c r="K215" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1101</v>
+        <v>968</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1125</v>
+        <v>538</v>
       </c>
       <c r="C216" t="s">
-        <v>274</v>
+        <v>539</v>
       </c>
       <c r="D216" t="s">
         <v>1017</v>
       </c>
       <c r="F216">
+        <v>47.655335100000002</v>
+      </c>
+      <c r="G216">
+        <v>-122.3035199</v>
+      </c>
+      <c r="H216" t="s">
+        <v>23</v>
+      </c>
+      <c r="K216" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C217" t="s">
+        <v>274</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F217">
         <v>36.885344000000003</v>
       </c>
-      <c r="G216">
+      <c r="G217">
         <v>-76.305880999999999</v>
       </c>
-      <c r="H216" t="s">
-        <v>23</v>
-      </c>
-      <c r="I216" s="1" t="s">
+      <c r="H217" t="s">
+        <v>23</v>
+      </c>
+      <c r="I217" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="K216" s="6" t="s">
+      <c r="K217" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="L216" s="1"/>
-    </row>
-    <row r="217" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="L217" s="1"/>
+    </row>
+    <row r="218" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>963</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C218" t="s">
+        <v>444</v>
+      </c>
+      <c r="D218" t="s">
+        <v>41</v>
+      </c>
+      <c r="F218">
+        <v>55.696949600000003</v>
+      </c>
+      <c r="G218">
+        <v>12.5715789</v>
+      </c>
+      <c r="H218" t="s">
+        <v>20</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="K218" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>969</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C219" t="s">
         <v>543</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D219" t="s">
         <v>252</v>
       </c>
-      <c r="F217">
+      <c r="F219">
         <v>35.026244400000003</v>
       </c>
-      <c r="G217">
+      <c r="G219">
         <v>135.78082180000001</v>
       </c>
-      <c r="H217" t="s">
-        <v>23</v>
-      </c>
-      <c r="I217" s="1" t="s">
+      <c r="H219" t="s">
+        <v>23</v>
+      </c>
+      <c r="I219" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="K217" s="6" t="s">
+      <c r="K219" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="L217" s="1"/>
-    </row>
-    <row r="218" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="L219" s="1"/>
+    </row>
+    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>970</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C220" t="s">
         <v>546</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D220" t="s">
         <v>398</v>
       </c>
-      <c r="F218">
+      <c r="F220">
         <v>41.275596999999998</v>
       </c>
-      <c r="G218">
+      <c r="G220">
         <v>1.9895659999999999</v>
       </c>
-      <c r="H218" t="s">
-        <v>23</v>
-      </c>
-      <c r="I218" s="1" t="s">
+      <c r="H220" t="s">
+        <v>23</v>
+      </c>
+      <c r="I220" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="K218" s="6" t="s">
+      <c r="K220" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="L218" s="1"/>
-    </row>
-    <row r="219" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D219" t="s">
-        <v>102</v>
-      </c>
-      <c r="F219">
-        <v>-21.9841446</v>
-      </c>
-      <c r="G219">
-        <v>-47.8802454</v>
-      </c>
-      <c r="H219" t="s">
-        <v>15</v>
-      </c>
-      <c r="K219" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="L219" s="1"/>
-    </row>
-    <row r="220" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>972</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C220" t="s">
-        <v>551</v>
-      </c>
-      <c r="D220" t="s">
-        <v>552</v>
-      </c>
-      <c r="F220">
-        <v>51.222809699999999</v>
-      </c>
-      <c r="G220">
-        <v>4.4102318</v>
-      </c>
-      <c r="H220" t="s">
-        <v>20</v>
-      </c>
-      <c r="I220" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="K220" s="6" t="s">
-        <v>657</v>
       </c>
       <c r="L220" s="1"/>
     </row>
     <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D221" t="s">
+        <v>102</v>
+      </c>
+      <c r="F221">
+        <v>-21.9841446</v>
+      </c>
+      <c r="G221">
+        <v>-47.8802454</v>
+      </c>
+      <c r="H221" t="s">
+        <v>15</v>
+      </c>
+      <c r="K221" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="L221" s="1"/>
+    </row>
+    <row r="222" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>972</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C222" t="s">
+        <v>551</v>
+      </c>
+      <c r="D222" t="s">
+        <v>552</v>
+      </c>
+      <c r="F222">
+        <v>51.222809699999999</v>
+      </c>
+      <c r="G222">
+        <v>4.4102318</v>
+      </c>
+      <c r="H222" t="s">
+        <v>20</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K222" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L222" s="1"/>
+    </row>
+    <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>973</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B223" t="s">
         <v>1054</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C223" t="s">
         <v>1055</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D223" t="s">
         <v>1017</v>
       </c>
-      <c r="F221">
+      <c r="F223">
         <v>35.759573099999997</v>
       </c>
-      <c r="G221">
+      <c r="G223">
         <v>-79.019299699999905</v>
       </c>
-      <c r="H221" t="s">
-        <v>23</v>
-      </c>
-      <c r="K221" s="6" t="s">
+      <c r="H223" t="s">
+        <v>23</v>
+      </c>
+      <c r="K223" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="L221" s="1"/>
-    </row>
-    <row r="222" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>974</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C222" t="s">
-        <v>26</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F222">
-        <v>40.007436300000002</v>
-      </c>
-      <c r="G222">
-        <v>-105.26864809999999</v>
-      </c>
-      <c r="H222" t="s">
-        <v>23</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="K222" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>975</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C223" t="s">
-        <v>444</v>
-      </c>
-      <c r="D223" t="s">
-        <v>41</v>
-      </c>
-      <c r="F223">
-        <v>55.696949600000003</v>
-      </c>
-      <c r="G223">
-        <v>12.5715789</v>
-      </c>
-      <c r="H223" t="s">
-        <v>23</v>
-      </c>
-      <c r="I223" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="K223" s="6" t="s">
-        <v>645</v>
       </c>
       <c r="L223" s="1"/>
     </row>
     <row r="224" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>974</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C224" t="s">
+        <v>26</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F224">
+        <v>40.007436300000002</v>
+      </c>
+      <c r="G224">
+        <v>-105.26864809999999</v>
+      </c>
+      <c r="H224" t="s">
+        <v>23</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K224" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>975</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C225" t="s">
+        <v>444</v>
+      </c>
+      <c r="D225" t="s">
+        <v>41</v>
+      </c>
+      <c r="F225">
+        <v>55.696949600000003</v>
+      </c>
+      <c r="G225">
+        <v>12.5715789</v>
+      </c>
+      <c r="H225" t="s">
+        <v>23</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="K225" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="L225" s="1"/>
+    </row>
+    <row r="226" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>976</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C226" t="s">
         <v>531</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D226" t="s">
         <v>81</v>
       </c>
-      <c r="F224">
+      <c r="F226">
         <v>43.653225999999997</v>
       </c>
-      <c r="G224">
+      <c r="G226">
         <v>-79.383184299999996</v>
       </c>
-      <c r="H224" t="s">
-        <v>23</v>
-      </c>
-      <c r="I224" s="1" t="s">
+      <c r="H226" t="s">
+        <v>23</v>
+      </c>
+      <c r="I226" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="J224" s="1" t="s">
+      <c r="J226" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K224" s="6" t="s">
+      <c r="K226" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="L226" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="227" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>977</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C227" t="s">
         <v>294</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D227" t="s">
         <v>38</v>
       </c>
-      <c r="F225">
+      <c r="F227">
         <v>43.818863999999998</v>
       </c>
-      <c r="G225">
+      <c r="G227">
         <v>11.192811000000001</v>
       </c>
-      <c r="H225" t="s">
-        <v>23</v>
-      </c>
-      <c r="I225" s="1" t="s">
+      <c r="H227" t="s">
+        <v>23</v>
+      </c>
+      <c r="I227" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="K225" s="6" t="s">
+      <c r="K227" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="L227" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="228" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C228" t="s">
+        <v>567</v>
+      </c>
+      <c r="D228" t="s">
+        <v>234</v>
+      </c>
+      <c r="F228">
+        <v>52.240320000522601</v>
+      </c>
+      <c r="G228">
+        <v>21.018504638719701</v>
+      </c>
+      <c r="H228" t="s">
+        <v>20</v>
+      </c>
+      <c r="I228" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J228" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K228" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L228" s="1"/>
+    </row>
+    <row r="229" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>978</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C229" t="s">
         <v>564</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D229" t="s">
         <v>405</v>
       </c>
-      <c r="F226">
+      <c r="F229">
         <v>60.209825299999999</v>
       </c>
-      <c r="G226">
+      <c r="G229">
         <v>24.976551300000001</v>
       </c>
-      <c r="H226" t="s">
+      <c r="H229" t="s">
         <v>20</v>
       </c>
-      <c r="I226" s="1" t="s">
+      <c r="I229" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="K226" s="6" t="s">
+      <c r="K229" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L226" s="1"/>
-    </row>
-    <row r="227" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>979</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C230" t="s">
         <v>567</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D230" t="s">
         <v>234</v>
       </c>
-      <c r="F227">
+      <c r="F230">
         <v>52.240346299999999</v>
       </c>
-      <c r="G227">
+      <c r="G230">
         <v>21.018601199999999</v>
       </c>
-      <c r="H227" t="s">
+      <c r="H230" t="s">
         <v>20</v>
       </c>
-      <c r="I227" s="1" t="s">
+      <c r="I230" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J227" s="1" t="s">
+      <c r="J230" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="K227" s="6" t="s">
+      <c r="K230" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L227" s="1"/>
-    </row>
-    <row r="228" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="L230" s="1"/>
+    </row>
+    <row r="231" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>980</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B231" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C231" t="s">
         <v>136</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D231" t="s">
         <v>137</v>
       </c>
-      <c r="F228">
+      <c r="F231">
         <v>-35.277699900000002</v>
       </c>
-      <c r="G228">
+      <c r="G231">
         <v>149.118527</v>
       </c>
-      <c r="H228" t="s">
-        <v>23</v>
-      </c>
-      <c r="J228" s="1" t="s">
+      <c r="H231" t="s">
+        <v>23</v>
+      </c>
+      <c r="J231" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="K228" s="6" t="s">
+      <c r="K231" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="L231" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="232" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>981</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C232" t="s">
         <v>573</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D232" t="s">
         <v>62</v>
       </c>
-      <c r="F229">
+      <c r="F232">
         <v>18.905388899999998</v>
       </c>
-      <c r="G229">
+      <c r="G232">
         <v>72.804928000000004</v>
       </c>
-      <c r="H229" t="s">
-        <v>23</v>
-      </c>
-      <c r="I229" s="1" t="s">
+      <c r="H232" t="s">
+        <v>23</v>
+      </c>
+      <c r="I232" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="K229" s="6" t="s">
+      <c r="K232" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="L229" s="4" t="s">
+      <c r="L232" s="4" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="233" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>982</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B233" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C233" t="s">
         <v>270</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D233" t="s">
         <v>137</v>
       </c>
-      <c r="F230">
+      <c r="F233">
         <v>-37.822150399999998</v>
       </c>
-      <c r="G230">
+      <c r="G233">
         <v>145.03895460000001</v>
       </c>
-      <c r="H230" t="s">
-        <v>23</v>
-      </c>
-      <c r="J230" s="1" t="s">
+      <c r="H233" t="s">
+        <v>23</v>
+      </c>
+      <c r="J233" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="K230" s="6" t="s">
+      <c r="K233" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="L233" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>983</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C234" t="s">
         <v>578</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D234" t="s">
         <v>81</v>
       </c>
-      <c r="F231">
+      <c r="F234">
         <v>43.773453500000002</v>
       </c>
-      <c r="G231">
+      <c r="G234">
         <v>-79.501868400000006</v>
       </c>
-      <c r="H231" t="s">
-        <v>23</v>
-      </c>
-      <c r="K231" s="6" t="s">
+      <c r="H234" t="s">
+        <v>23</v>
+      </c>
+      <c r="K234" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L231" s="1"/>
-    </row>
-    <row r="232" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="L234" s="1"/>
+    </row>
+    <row r="235" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>985</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C235" t="s">
         <v>341</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D235" t="s">
         <v>1060</v>
       </c>
-      <c r="F232">
+      <c r="F235">
         <v>52.333756800000003</v>
       </c>
-      <c r="G232">
+      <c r="G235">
         <v>4.8657199000000002</v>
       </c>
-      <c r="H232" t="s">
-        <v>23</v>
-      </c>
-      <c r="K232" s="6" t="s">
+      <c r="H235" t="s">
+        <v>23</v>
+      </c>
+      <c r="K235" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="L232" s="1"/>
-    </row>
-    <row r="233" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>986</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C233" t="s">
-        <v>641</v>
-      </c>
-      <c r="D233" t="s">
-        <v>642</v>
-      </c>
-      <c r="F233">
-        <v>35.305134000000002</v>
-      </c>
-      <c r="G233">
-        <v>25.072593000000001</v>
-      </c>
-      <c r="H233" t="s">
-        <v>23</v>
-      </c>
-      <c r="I233" s="7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="J233" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="K233" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="L233" s="1"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>987</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C236" t="s">
         <v>328</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D236" t="s">
         <v>1017</v>
       </c>
-      <c r="F234">
+      <c r="F236">
         <v>42.360090999999997</v>
       </c>
-      <c r="G234">
+      <c r="G236">
         <v>-71.094160000000002</v>
       </c>
-      <c r="H234" t="s">
-        <v>23</v>
-      </c>
-      <c r="K234" s="6" t="s">
+      <c r="H236" t="s">
+        <v>23</v>
+      </c>
+      <c r="K236" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L234" s="1"/>
-    </row>
-    <row r="235" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D237" t="s">
+        <v>234</v>
+      </c>
+      <c r="F237">
+        <v>52.221188034473002</v>
+      </c>
+      <c r="G237">
+        <v>21.007956952209899</v>
+      </c>
+      <c r="H237" t="s">
+        <v>20</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K237" t="s">
+        <v>657</v>
+      </c>
+      <c r="L237"/>
+    </row>
+    <row r="238" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>988</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C238" t="s">
         <v>582</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D238" t="s">
         <v>1017</v>
       </c>
-      <c r="F235">
+      <c r="F238">
         <v>42.929508400000003</v>
       </c>
-      <c r="G235">
+      <c r="G238">
         <v>-85.588932900000003</v>
       </c>
-      <c r="H235" t="s">
-        <v>23</v>
-      </c>
-      <c r="K235" s="6" t="s">
+      <c r="H238" t="s">
+        <v>23</v>
+      </c>
+      <c r="K238" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="L238" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="239" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>989</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C239" t="s">
         <v>584</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D239" t="s">
         <v>1060</v>
       </c>
-      <c r="F236">
+      <c r="F239">
         <v>52.355818200000002</v>
       </c>
-      <c r="G236">
+      <c r="G239">
         <v>4.9557263000000003</v>
       </c>
-      <c r="H236" t="s">
-        <v>23</v>
-      </c>
-      <c r="I236" s="1" t="s">
+      <c r="H239" t="s">
+        <v>23</v>
+      </c>
+      <c r="I239" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="K236" s="6" t="s">
+      <c r="K239" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="L239" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="240" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>990</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C240" t="s">
         <v>587</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D240" t="s">
         <v>588</v>
       </c>
-      <c r="F237">
+      <c r="F240">
         <v>22.418096999999999</v>
       </c>
-      <c r="G237">
+      <c r="G240">
         <v>114.207953</v>
       </c>
-      <c r="H237" t="s">
-        <v>23</v>
-      </c>
-      <c r="I237" s="1" t="s">
+      <c r="H240" t="s">
+        <v>23</v>
+      </c>
+      <c r="I240" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="K237" s="6" t="s">
+      <c r="K240" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="L240" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="241" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>991</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D238" t="s">
-        <v>69</v>
-      </c>
-      <c r="F238">
-        <v>49.419140200000001</v>
-      </c>
-      <c r="G238">
-        <v>8.6702492000000007</v>
-      </c>
-      <c r="H238" t="s">
-        <v>23</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="K238" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="L238" s="1"/>
-    </row>
-    <row r="239" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>992</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D239" t="s">
-        <v>69</v>
-      </c>
-      <c r="F239">
-        <v>52.382964100000002</v>
-      </c>
-      <c r="G239">
-        <v>9.7196988999999991</v>
-      </c>
-      <c r="H239" t="s">
-        <v>20</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="K239" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L239" s="1"/>
-    </row>
-    <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>993</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C240" t="s">
-        <v>245</v>
-      </c>
-      <c r="D240" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F240">
-        <v>40.7982133</v>
-      </c>
-      <c r="G240">
-        <v>-77.859908399999995</v>
-      </c>
-      <c r="H240" t="s">
-        <v>23</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="K240" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>994</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="D241" t="s">
         <v>69</v>
       </c>
       <c r="F241">
-        <v>50.726771499999998</v>
+        <v>49.419140200000001</v>
       </c>
       <c r="G241">
-        <v>7.0865226999999997</v>
+        <v>8.6702492000000007</v>
       </c>
       <c r="H241" t="s">
         <v>23</v>
       </c>
+      <c r="I241" s="1" t="s">
+        <v>591</v>
+      </c>
       <c r="K241" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L241" s="1"/>
     </row>
     <row r="242" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C242" t="s">
-        <v>599</v>
+        <v>592</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="D242" t="s">
-        <v>1017</v>
+        <v>69</v>
       </c>
       <c r="F242">
-        <v>34.413962900000001</v>
+        <v>52.382964100000002</v>
       </c>
       <c r="G242">
-        <v>-119.848947</v>
+        <v>9.7196988999999991</v>
       </c>
       <c r="H242" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>740</v>
+        <v>657</v>
       </c>
       <c r="L242" s="1"/>
     </row>
     <row r="243" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>993</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F243">
+        <v>40.7982133</v>
+      </c>
+      <c r="G243">
+        <v>-77.859908399999995</v>
+      </c>
+      <c r="H243" t="s">
+        <v>23</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="K243" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>994</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="F244">
+        <v>50.726771499999998</v>
+      </c>
+      <c r="G244">
+        <v>7.0865226999999997</v>
+      </c>
+      <c r="H244" t="s">
+        <v>23</v>
+      </c>
+      <c r="K244" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="L244" s="1"/>
+    </row>
+    <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>995</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C245" t="s">
+        <v>599</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F245">
+        <v>34.413962900000001</v>
+      </c>
+      <c r="G245">
+        <v>-119.848947</v>
+      </c>
+      <c r="H245" t="s">
+        <v>23</v>
+      </c>
+      <c r="K245" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>996</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C246" t="s">
         <v>123</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D246" t="s">
         <v>30</v>
       </c>
-      <c r="F243">
+      <c r="F246">
         <v>48.713740000000001</v>
       </c>
-      <c r="G243">
+      <c r="G246">
         <v>2.2034927</v>
       </c>
-      <c r="H243" t="s">
-        <v>23</v>
-      </c>
-      <c r="J243" s="1" t="s">
+      <c r="H246" t="s">
+        <v>23</v>
+      </c>
+      <c r="J246" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K243" s="6" t="s">
+      <c r="K246" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="L243" s="5" t="s">
+      <c r="L246" s="5" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="247" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>997</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C247" t="s">
         <v>601</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F244">
-        <v>34.097743000000001</v>
-      </c>
-      <c r="G244">
-        <v>-117.711803</v>
-      </c>
-      <c r="H244" t="s">
-        <v>23</v>
-      </c>
-      <c r="K244" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="L244" s="1"/>
-    </row>
-    <row r="245" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>998</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D245" t="s">
-        <v>69</v>
-      </c>
-      <c r="F245">
-        <v>49.425377400000002</v>
-      </c>
-      <c r="G245">
-        <v>7.7555496000000002</v>
-      </c>
-      <c r="H245" t="s">
-        <v>23</v>
-      </c>
-      <c r="K245" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="L245" s="1"/>
-    </row>
-    <row r="246" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C246" t="s">
-        <v>186</v>
-      </c>
-      <c r="D246" t="s">
-        <v>56</v>
-      </c>
-      <c r="F246">
-        <v>1.3483099000000001</v>
-      </c>
-      <c r="G246">
-        <v>103.6831347</v>
-      </c>
-      <c r="H246" t="s">
-        <v>23</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="J246" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="K246" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="L246" s="1"/>
-    </row>
-    <row r="247" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C247" t="s">
-        <v>609</v>
       </c>
       <c r="D247" t="s">
         <v>1017</v>
       </c>
       <c r="F247">
+        <v>34.097743000000001</v>
+      </c>
+      <c r="G247">
+        <v>-117.711803</v>
+      </c>
+      <c r="H247" t="s">
+        <v>23</v>
+      </c>
+      <c r="K247" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="L247" s="1"/>
+    </row>
+    <row r="248" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>998</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="F248">
+        <v>49.425377400000002</v>
+      </c>
+      <c r="G248">
+        <v>7.7555496000000002</v>
+      </c>
+      <c r="H248" t="s">
+        <v>23</v>
+      </c>
+      <c r="K248" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="L248" s="1"/>
+    </row>
+    <row r="249" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C249" t="s">
+        <v>186</v>
+      </c>
+      <c r="D249" t="s">
+        <v>56</v>
+      </c>
+      <c r="F249">
+        <v>1.3483099000000001</v>
+      </c>
+      <c r="G249">
+        <v>103.6831347</v>
+      </c>
+      <c r="H249" t="s">
+        <v>23</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="K249" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="L249" s="1"/>
+    </row>
+    <row r="250" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C250" t="s">
+        <v>609</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F250">
         <v>40.8075355</v>
       </c>
-      <c r="G247">
+      <c r="G250">
         <v>-73.962572699999996</v>
       </c>
-      <c r="H247" t="s">
-        <v>23</v>
-      </c>
-      <c r="K247" s="6" t="s">
+      <c r="H250" t="s">
+        <v>23</v>
+      </c>
+      <c r="K250" s="6" t="s">
         <v>756</v>
-      </c>
-      <c r="L247" s="1"/>
-    </row>
-    <row r="248" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C248" t="s">
-        <v>612</v>
-      </c>
-      <c r="D248" t="s">
-        <v>62</v>
-      </c>
-      <c r="F248">
-        <v>23.253028</v>
-      </c>
-      <c r="G248">
-        <v>77.450444000000005</v>
-      </c>
-      <c r="H248" t="s">
-        <v>20</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="K248" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L248" s="1"/>
-    </row>
-    <row r="249" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C249" t="s">
-        <v>26</v>
-      </c>
-      <c r="D249" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F249">
-        <v>40.007436300000002</v>
-      </c>
-      <c r="G249">
-        <v>-105.26864809999999</v>
-      </c>
-      <c r="H249" t="s">
-        <v>23</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="K249" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="L249" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C250" t="s">
-        <v>620</v>
-      </c>
-      <c r="D250" t="s">
-        <v>234</v>
-      </c>
-      <c r="F250">
-        <v>50.0609623</v>
-      </c>
-      <c r="G250">
-        <v>19.934107399999998</v>
-      </c>
-      <c r="H250" t="s">
-        <v>20</v>
-      </c>
-      <c r="I250" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="J250" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="K250" s="6" t="s">
-        <v>657</v>
       </c>
       <c r="L250" s="1"/>
     </row>
     <row r="251" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1056</v>
+        <v>1003</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="C251" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="D251" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F251">
-        <v>44.225279499999999</v>
+        <v>23.253028</v>
       </c>
       <c r="G251">
-        <v>-76.495141199999907</v>
+        <v>77.450444000000005</v>
       </c>
       <c r="H251" t="s">
         <v>20</v>
       </c>
+      <c r="I251" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>614</v>
+      </c>
       <c r="K251" s="6" t="s">
         <v>657</v>
       </c>
       <c r="L251" s="1"/>
     </row>
-    <row r="252" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C252" t="s">
-        <v>609</v>
+        <v>26</v>
       </c>
       <c r="D252" t="s">
         <v>1017</v>
       </c>
       <c r="F252">
-        <v>40.8075355</v>
+        <v>40.007436300000002</v>
       </c>
       <c r="G252">
-        <v>-73.962572699999996</v>
+        <v>-105.26864809999999</v>
       </c>
       <c r="H252" t="s">
         <v>23</v>
       </c>
+      <c r="I252" s="1" t="s">
+        <v>616</v>
+      </c>
       <c r="K252" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="L252" s="1"/>
-    </row>
-    <row r="253" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C253" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D253" t="s">
-        <v>1017</v>
+        <v>234</v>
       </c>
       <c r="F253">
-        <v>32.9857619</v>
+        <v>50.0609623</v>
       </c>
       <c r="G253">
-        <v>-96.750099300000002</v>
+        <v>19.934107399999998</v>
       </c>
       <c r="H253" t="s">
         <v>20</v>
       </c>
+      <c r="I253" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="K253" s="6" t="s">
         <v>657</v>
       </c>
       <c r="L253" s="1"/>
     </row>
-    <row r="254" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C254" t="s">
+        <v>623</v>
+      </c>
+      <c r="D254" t="s">
+        <v>81</v>
+      </c>
+      <c r="F254">
+        <v>44.225279499999999</v>
+      </c>
+      <c r="G254">
+        <v>-76.495141199999907</v>
+      </c>
+      <c r="H254" t="s">
+        <v>20</v>
+      </c>
+      <c r="K254" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L254" s="1"/>
+    </row>
+    <row r="255" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C255" t="s">
+        <v>609</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F255">
+        <v>40.8075355</v>
+      </c>
+      <c r="G255">
+        <v>-73.962572699999996</v>
+      </c>
+      <c r="H255" t="s">
+        <v>23</v>
+      </c>
+      <c r="K255" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="L255" s="1"/>
+    </row>
+    <row r="256" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C256" t="s">
+        <v>626</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F256">
+        <v>32.9857619</v>
+      </c>
+      <c r="G256">
+        <v>-96.750099300000002</v>
+      </c>
+      <c r="H256" t="s">
+        <v>20</v>
+      </c>
+      <c r="K256" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L256" s="1"/>
+    </row>
+    <row r="257" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>1010</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C257" t="s">
         <v>628</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D257" t="s">
         <v>116</v>
       </c>
-      <c r="F254">
+      <c r="F257">
         <v>37.841507</v>
       </c>
-      <c r="G254">
+      <c r="G257">
         <v>112.53001399999999</v>
       </c>
-      <c r="H254" t="s">
-        <v>23</v>
-      </c>
-      <c r="I254" s="1" t="s">
+      <c r="H257" t="s">
+        <v>23</v>
+      </c>
+      <c r="I257" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="K254" s="6" t="s">
+      <c r="K257" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="L257" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="258" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>1011</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C258" t="s">
         <v>631</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D258" t="s">
         <v>588</v>
       </c>
-      <c r="F255">
+      <c r="F258">
         <v>22.4162632</v>
       </c>
-      <c r="G255">
+      <c r="G258">
         <v>114.2109318</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H258" t="s">
         <v>20</v>
       </c>
-      <c r="I255" s="1" t="s">
+      <c r="I258" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="K255" s="6" t="s">
+      <c r="K258" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L255" s="1"/>
-    </row>
-    <row r="256" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="L258" s="1"/>
+    </row>
+    <row r="259" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>1012</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B259" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D259" t="s">
         <v>69</v>
       </c>
-      <c r="F256">
+      <c r="F259">
         <v>48.529454999999999</v>
       </c>
-      <c r="G256">
+      <c r="G259">
         <v>9.0437720000000006</v>
       </c>
-      <c r="H256" t="s">
-        <v>23</v>
-      </c>
-      <c r="K256" s="6" t="s">
+      <c r="H259" t="s">
+        <v>23</v>
+      </c>
+      <c r="K259" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="L259" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="260" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>1013</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B260" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D260" t="s">
         <v>202</v>
       </c>
-      <c r="F257">
+      <c r="F260">
         <v>47.269212400000001</v>
       </c>
-      <c r="G257">
+      <c r="G260">
         <v>11.404102399999999</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H260" t="s">
         <v>20</v>
       </c>
-      <c r="J257" s="1" t="s">
+      <c r="J260" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="K257" s="6" t="s">
+      <c r="K260" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L257" s="1"/>
-    </row>
-    <row r="258" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="L260" s="1"/>
+    </row>
+    <row r="261" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>1014</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C261" t="s">
         <v>638</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D261" t="s">
         <v>1017</v>
       </c>
-      <c r="F258">
+      <c r="F261">
         <v>42.360090999999997</v>
       </c>
-      <c r="G258">
+      <c r="G261">
         <v>-71.094160000000002</v>
       </c>
-      <c r="H258" t="s">
-        <v>23</v>
-      </c>
-      <c r="K258" s="6" t="s">
+      <c r="H261" t="s">
+        <v>23</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="L258" s="1"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K259" s="6"/>
-    </row>
-    <row r="260" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="L261" s="1"/>
+    </row>
+    <row r="262" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>986</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C262" t="s">
+        <v>641</v>
+      </c>
+      <c r="D262" t="s">
+        <v>642</v>
+      </c>
+      <c r="F262">
+        <v>35.305134000000002</v>
+      </c>
+      <c r="G262">
+        <v>25.072593000000001</v>
+      </c>
+      <c r="H262" t="s">
+        <v>23</v>
+      </c>
+      <c r="I262" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="K262" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="L262" s="1"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K263" s="6"/>
+    </row>
+    <row r="264" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>774</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B264" t="s">
         <v>21</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C264" t="s">
         <v>22</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D264" t="s">
         <v>1017</v>
       </c>
-      <c r="F260">
+      <c r="F264">
         <v>32.2318851</v>
       </c>
-      <c r="G260">
+      <c r="G264">
         <v>-110.9501094</v>
       </c>
-      <c r="H260" t="s">
-        <v>23</v>
-      </c>
-      <c r="I260" t="s">
+      <c r="H264" t="s">
+        <v>23</v>
+      </c>
+      <c r="I264" t="s">
         <v>24</v>
       </c>
-      <c r="J260"/>
-      <c r="K260" t="s">
+      <c r="J264"/>
+      <c r="K264" t="s">
         <v>653</v>
       </c>
-      <c r="L260"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="L264"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>792</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B265" t="s">
         <v>79</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C265" t="s">
         <v>80</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D265" t="s">
         <v>81</v>
       </c>
-      <c r="F261">
+      <c r="F265">
         <v>53.523218900000003</v>
       </c>
-      <c r="G261">
+      <c r="G265">
         <v>-113.5263186</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H265" t="s">
         <v>20</v>
       </c>
-      <c r="I261"/>
-      <c r="J261" t="s">
+      <c r="I265"/>
+      <c r="J265" t="s">
         <v>82</v>
       </c>
-      <c r="K261" t="s">
+      <c r="K265" t="s">
         <v>657</v>
       </c>
-      <c r="L261" t="s">
+      <c r="L265" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>805</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B266" t="s">
         <v>114</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C266" t="s">
         <v>115</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D266" t="s">
         <v>116</v>
       </c>
-      <c r="F262">
+      <c r="F266">
         <v>39.986913000000001</v>
       </c>
-      <c r="G262">
+      <c r="G266">
         <v>116.30587389999999</v>
       </c>
-      <c r="H262" t="s">
+      <c r="H266" t="s">
         <v>15</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I266" t="s">
         <v>117</v>
       </c>
-      <c r="J262" t="s">
+      <c r="J266" t="s">
         <v>118</v>
       </c>
-      <c r="K262" t="s">
+      <c r="K266" t="s">
         <v>656</v>
       </c>
-      <c r="L262" t="s">
+      <c r="L266" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>809</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B267" t="s">
         <v>129</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C267" t="s">
         <v>130</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D267" t="s">
         <v>1017</v>
       </c>
-      <c r="F263">
+      <c r="F267">
         <v>37.427474500000002</v>
       </c>
-      <c r="G263">
+      <c r="G267">
         <v>-122.169719</v>
       </c>
-      <c r="H263" t="s">
-        <v>23</v>
-      </c>
-      <c r="I263"/>
-      <c r="J263"/>
-      <c r="K263" t="s">
+      <c r="H267" t="s">
+        <v>23</v>
+      </c>
+      <c r="I267"/>
+      <c r="J267"/>
+      <c r="K267" t="s">
         <v>744</v>
       </c>
-      <c r="L263" t="s">
+      <c r="L267" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>814</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D264" t="s">
-        <v>30</v>
-      </c>
-      <c r="F264">
-        <v>48.842205800000002</v>
-      </c>
-      <c r="G264">
-        <v>2.3451689</v>
-      </c>
-      <c r="H264" t="s">
-        <v>15</v>
-      </c>
-      <c r="K264" t="s">
-        <v>708</v>
-      </c>
-      <c r="L264" s="5" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>832</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D265" t="s">
-        <v>62</v>
-      </c>
-      <c r="F265">
-        <v>12.9225525</v>
-      </c>
-      <c r="G265">
-        <v>77.592889700000001</v>
-      </c>
-      <c r="H265" t="s">
-        <v>15</v>
-      </c>
-      <c r="I265" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K265" t="s">
-        <v>656</v>
-      </c>
-      <c r="L265" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>846</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D266" t="s">
-        <v>48</v>
-      </c>
-      <c r="F266">
-        <v>-45.479067100000002</v>
-      </c>
-      <c r="G266">
-        <v>170.15475670000001</v>
-      </c>
-      <c r="H266" t="s">
-        <v>20</v>
-      </c>
-      <c r="K266" t="s">
-        <v>657</v>
-      </c>
-      <c r="L266" s="5" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>855</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D267" t="s">
-        <v>252</v>
-      </c>
-      <c r="F267">
-        <v>35.801062000000002</v>
-      </c>
-      <c r="G267">
-        <v>139.71977899999999</v>
-      </c>
-      <c r="H267" t="s">
-        <v>23</v>
-      </c>
-      <c r="K267" t="s">
-        <v>645</v>
-      </c>
-      <c r="L267" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="268" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>871</v>
+        <v>814</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D268" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F268">
-        <v>-35.277699900000002</v>
+        <v>48.842205800000002</v>
       </c>
       <c r="G268">
-        <v>149.118527</v>
+        <v>2.3451689</v>
       </c>
       <c r="H268" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K268" t="s">
-        <v>657</v>
+        <v>708</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>880</v>
+        <v>832</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>307</v>
+        <v>188</v>
       </c>
       <c r="D269" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="F269">
-        <v>37.841507</v>
+        <v>12.9225525</v>
       </c>
       <c r="G269">
-        <v>112.53001399999999</v>
+        <v>77.592889700000001</v>
       </c>
       <c r="H269" t="s">
         <v>15</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="K269" t="s">
         <v>656</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>309</v>
+        <v>46</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>310</v>
+        <v>47</v>
       </c>
       <c r="D270" t="s">
-        <v>311</v>
+        <v>48</v>
       </c>
       <c r="F270">
-        <v>19.325721999999999</v>
+        <v>-45.479067100000002</v>
       </c>
       <c r="G270">
-        <v>-99.180436999999998</v>
+        <v>170.15475670000001</v>
       </c>
       <c r="H270" t="s">
-        <v>23</v>
-      </c>
-      <c r="I270" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="K270" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>891</v>
+        <v>855</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="D271" t="s">
-        <v>1060</v>
+        <v>252</v>
       </c>
       <c r="F271">
-        <v>52.333756800000003</v>
+        <v>35.801062000000002</v>
       </c>
       <c r="G271">
-        <v>4.8657199000000002</v>
+        <v>139.71977899999999</v>
       </c>
       <c r="H271" t="s">
         <v>23</v>
       </c>
       <c r="K271" t="s">
-        <v>728</v>
+        <v>645</v>
+      </c>
+      <c r="L271" s="5" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>899</v>
+        <v>871</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D272" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="F272">
-        <v>48.842205800000002</v>
+        <v>-35.277699900000002</v>
       </c>
       <c r="G272">
-        <v>2.3451689</v>
+        <v>149.118527</v>
       </c>
       <c r="H272" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K272" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="L272" s="5" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>906</v>
-      </c>
-      <c r="B273" t="s">
-        <v>372</v>
-      </c>
-      <c r="C273" t="s">
-        <v>373</v>
+        <v>880</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="D273" t="s">
-        <v>1017</v>
+        <v>116</v>
       </c>
       <c r="F273">
-        <v>34.201308099999999</v>
+        <v>37.841507</v>
       </c>
       <c r="G273">
-        <v>-118.1713944</v>
+        <v>112.53001399999999</v>
       </c>
       <c r="H273" t="s">
-        <v>23</v>
-      </c>
-      <c r="I273" t="s">
-        <v>374</v>
-      </c>
-      <c r="J273" t="s">
-        <v>375</v>
+        <v>15</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="K273" t="s">
         <v>656</v>
       </c>
-      <c r="L273" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L273" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>937</v>
-      </c>
-      <c r="B274" t="s">
-        <v>461</v>
-      </c>
-      <c r="C274" t="s">
-        <v>462</v>
+        <v>881</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="D274" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="F274">
-        <v>18.545665799999998</v>
+        <v>19.325721999999999</v>
       </c>
       <c r="G274">
-        <v>73.806586100000004</v>
+        <v>-99.180436999999998</v>
       </c>
       <c r="H274" t="s">
         <v>23</v>
       </c>
-      <c r="I274" t="s">
-        <v>463</v>
-      </c>
-      <c r="J274" t="s">
-        <v>464</v>
+      <c r="I274" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="K274" t="s">
-        <v>714</v>
-      </c>
-      <c r="L274"/>
-    </row>
-    <row r="275" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>940</v>
-      </c>
-      <c r="B275" t="s">
-        <v>471</v>
-      </c>
-      <c r="C275" t="s">
-        <v>472</v>
+        <v>891</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="D275" t="s">
-        <v>14</v>
+        <v>1060</v>
       </c>
       <c r="F275">
-        <v>51.524559199999999</v>
+        <v>52.333756800000003</v>
       </c>
       <c r="G275">
-        <v>-0.1340401</v>
+        <v>4.8657199000000002</v>
       </c>
       <c r="H275" t="s">
         <v>23</v>
       </c>
-      <c r="I275" t="s">
-        <v>473</v>
-      </c>
-      <c r="J275"/>
       <c r="K275" t="s">
-        <v>656</v>
-      </c>
-      <c r="L275" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>971</v>
-      </c>
-      <c r="B276" t="s">
-        <v>548</v>
-      </c>
-      <c r="C276" t="s">
-        <v>549</v>
+        <v>899</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D276" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F276">
-        <v>26.512338799999998</v>
+        <v>48.842205800000002</v>
       </c>
       <c r="G276">
-        <v>80.232900000000001</v>
+        <v>2.3451689</v>
       </c>
       <c r="H276" t="s">
-        <v>20</v>
-      </c>
-      <c r="I276"/>
-      <c r="J276"/>
+        <v>23</v>
+      </c>
       <c r="K276" t="s">
-        <v>657</v>
-      </c>
-      <c r="L276"/>
-    </row>
-    <row r="277" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+      <c r="L276" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>999</v>
+        <v>906</v>
       </c>
       <c r="B277" t="s">
-        <v>604</v>
+        <v>372</v>
       </c>
       <c r="C277" t="s">
-        <v>26</v>
+        <v>373</v>
       </c>
       <c r="D277" t="s">
         <v>1017</v>
       </c>
       <c r="F277">
-        <v>40.007436300000002</v>
+        <v>34.201308099999999</v>
       </c>
       <c r="G277">
-        <v>-105.26864809999999</v>
+        <v>-118.1713944</v>
       </c>
       <c r="H277" t="s">
         <v>23</v>
       </c>
-      <c r="I277"/>
-      <c r="J277"/>
+      <c r="I277" t="s">
+        <v>374</v>
+      </c>
+      <c r="J277" t="s">
+        <v>375</v>
+      </c>
       <c r="K277" t="s">
-        <v>653</v>
-      </c>
-      <c r="L277"/>
-    </row>
-    <row r="278" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="L277" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1002</v>
+        <v>937</v>
       </c>
       <c r="B278" t="s">
-        <v>46</v>
+        <v>461</v>
       </c>
       <c r="C278" t="s">
-        <v>47</v>
+        <v>462</v>
       </c>
       <c r="D278" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F278">
-        <v>-45.479067100000002</v>
+        <v>18.545665799999998</v>
       </c>
       <c r="G278">
-        <v>170.15475670000001</v>
+        <v>73.806586100000004</v>
       </c>
       <c r="H278" t="s">
         <v>23</v>
       </c>
       <c r="I278" t="s">
-        <v>610</v>
-      </c>
-      <c r="J278"/>
+        <v>463</v>
+      </c>
+      <c r="J278" t="s">
+        <v>464</v>
+      </c>
       <c r="K278" t="s">
-        <v>656</v>
-      </c>
-      <c r="L278" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="L278"/>
+    </row>
+    <row r="279" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1005</v>
+        <v>940</v>
       </c>
       <c r="B279" t="s">
-        <v>617</v>
+        <v>471</v>
       </c>
       <c r="C279" t="s">
-        <v>618</v>
+        <v>472</v>
       </c>
       <c r="D279" t="s">
-        <v>1017</v>
+        <v>14</v>
       </c>
       <c r="F279">
-        <v>40.423705400000003</v>
+        <v>51.524559199999999</v>
       </c>
       <c r="G279">
-        <v>-86.921194600000007</v>
+        <v>-0.1340401</v>
       </c>
       <c r="H279" t="s">
         <v>23</v>
       </c>
-      <c r="I279"/>
+      <c r="I279" t="s">
+        <v>473</v>
+      </c>
       <c r="J279"/>
       <c r="K279" t="s">
-        <v>653</v>
-      </c>
-      <c r="L279"/>
-    </row>
-    <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="L279" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>984</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>639</v>
+        <v>971</v>
+      </c>
+      <c r="B280" t="s">
+        <v>548</v>
       </c>
       <c r="C280" t="s">
-        <v>640</v>
+        <v>549</v>
       </c>
       <c r="D280" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F280">
-        <v>45.617910899999998</v>
+        <v>26.512338799999998</v>
       </c>
       <c r="G280">
-        <v>-61.995441599999999</v>
+        <v>80.232900000000001</v>
       </c>
       <c r="H280" t="s">
         <v>20</v>
       </c>
-      <c r="K280" s="6" t="s">
+      <c r="I280"/>
+      <c r="J280"/>
+      <c r="K280" t="s">
         <v>657</v>
       </c>
-      <c r="L280" s="1" t="s">
+      <c r="L280"/>
+    </row>
+    <row r="281" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>999</v>
+      </c>
+      <c r="B281" t="s">
+        <v>604</v>
+      </c>
+      <c r="C281" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F281">
+        <v>40.007436300000002</v>
+      </c>
+      <c r="G281">
+        <v>-105.26864809999999</v>
+      </c>
+      <c r="H281" t="s">
+        <v>23</v>
+      </c>
+      <c r="I281"/>
+      <c r="J281"/>
+      <c r="K281" t="s">
+        <v>653</v>
+      </c>
+      <c r="L281"/>
+    </row>
+    <row r="282" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B282" t="s">
+        <v>46</v>
+      </c>
+      <c r="C282" t="s">
+        <v>47</v>
+      </c>
+      <c r="D282" t="s">
+        <v>48</v>
+      </c>
+      <c r="F282">
+        <v>-45.479067100000002</v>
+      </c>
+      <c r="G282">
+        <v>170.15475670000001</v>
+      </c>
+      <c r="H282" t="s">
+        <v>23</v>
+      </c>
+      <c r="I282" t="s">
+        <v>610</v>
+      </c>
+      <c r="J282"/>
+      <c r="K282" t="s">
+        <v>656</v>
+      </c>
+      <c r="L282" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B283" t="s">
+        <v>617</v>
+      </c>
+      <c r="C283" t="s">
+        <v>618</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F283">
+        <v>40.423705400000003</v>
+      </c>
+      <c r="G283">
+        <v>-86.921194600000007</v>
+      </c>
+      <c r="H283" t="s">
+        <v>23</v>
+      </c>
+      <c r="I283"/>
+      <c r="J283"/>
+      <c r="K283" t="s">
+        <v>653</v>
+      </c>
+      <c r="L283"/>
+    </row>
+    <row r="284" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>984</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C284" t="s">
+        <v>640</v>
+      </c>
+      <c r="D284" t="s">
+        <v>81</v>
+      </c>
+      <c r="F284">
+        <v>45.617910899999998</v>
+      </c>
+      <c r="G284">
+        <v>-61.995441599999999</v>
+      </c>
+      <c r="H284" t="s">
+        <v>20</v>
+      </c>
+      <c r="K284" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L284" s="1" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="285" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>1135</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B285" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C285" t="s">
         <v>1138</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D285" t="s">
         <v>14</v>
       </c>
-      <c r="F281">
+      <c r="F285">
         <v>50.864623999999999</v>
       </c>
-      <c r="G281">
+      <c r="G285">
         <v>-8.7287000000000003E-2</v>
       </c>
-      <c r="H281" t="s">
-        <v>23</v>
-      </c>
-      <c r="I281" s="8" t="s">
+      <c r="H285" t="s">
+        <v>23</v>
+      </c>
+      <c r="I285" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="K281" s="6" t="s">
+      <c r="K285" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="L281" s="1"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B282"/>
-      <c r="C282"/>
-      <c r="I282"/>
-      <c r="J282"/>
-      <c r="L282"/>
+      <c r="L285" s="1"/>
+    </row>
+    <row r="286" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A286" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D286" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11">
+        <v>36.885610399999997</v>
+      </c>
+      <c r="G286" s="11">
+        <v>-76.306777699999998</v>
+      </c>
+      <c r="H286" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I286" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J286" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K286" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="L286" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K259 K280:K281">
+  <conditionalFormatting sqref="K284:K286 K1:K263">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
@@ -12997,256 +13238,259 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B93" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B23" r:id="rId4"/>
-    <hyperlink ref="B29" r:id="rId5"/>
-    <hyperlink ref="B92" r:id="rId6"/>
-    <hyperlink ref="B35" r:id="rId7"/>
-    <hyperlink ref="B98" r:id="rId8"/>
-    <hyperlink ref="B80" r:id="rId9"/>
-    <hyperlink ref="B81" r:id="rId10"/>
-    <hyperlink ref="B82" r:id="rId11"/>
-    <hyperlink ref="B105" r:id="rId12"/>
-    <hyperlink ref="B46" r:id="rId13"/>
-    <hyperlink ref="B56" r:id="rId14"/>
-    <hyperlink ref="B100" r:id="rId15"/>
-    <hyperlink ref="B124" r:id="rId16"/>
-    <hyperlink ref="B74" r:id="rId17"/>
-    <hyperlink ref="B96" r:id="rId18"/>
-    <hyperlink ref="B33" r:id="rId19"/>
-    <hyperlink ref="B73" r:id="rId20"/>
-    <hyperlink ref="B39" r:id="rId21"/>
-    <hyperlink ref="B13" r:id="rId22"/>
-    <hyperlink ref="B9" r:id="rId23"/>
-    <hyperlink ref="B6" r:id="rId24"/>
-    <hyperlink ref="B10" r:id="rId25"/>
-    <hyperlink ref="B25" r:id="rId26"/>
-    <hyperlink ref="B27" r:id="rId27"/>
-    <hyperlink ref="B40" r:id="rId28"/>
-    <hyperlink ref="B41" r:id="rId29"/>
-    <hyperlink ref="B45" r:id="rId30"/>
-    <hyperlink ref="B52" r:id="rId31"/>
-    <hyperlink ref="B66" r:id="rId32"/>
-    <hyperlink ref="B85" r:id="rId33"/>
-    <hyperlink ref="B88" r:id="rId34"/>
-    <hyperlink ref="B91" r:id="rId35"/>
-    <hyperlink ref="B97" r:id="rId36"/>
-    <hyperlink ref="B118" r:id="rId37"/>
-    <hyperlink ref="B19" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="B59" r:id="rId40"/>
-    <hyperlink ref="B71" r:id="rId41"/>
-    <hyperlink ref="B86" r:id="rId42"/>
-    <hyperlink ref="B101" r:id="rId43"/>
-    <hyperlink ref="B115" r:id="rId44"/>
-    <hyperlink ref="B117" r:id="rId45"/>
-    <hyperlink ref="B17" r:id="rId46"/>
-    <hyperlink ref="B89" r:id="rId47"/>
-    <hyperlink ref="B3" r:id="rId48"/>
-    <hyperlink ref="B55" r:id="rId49"/>
-    <hyperlink ref="B79" r:id="rId50"/>
-    <hyperlink ref="B76" r:id="rId51"/>
-    <hyperlink ref="B112" r:id="rId52"/>
-    <hyperlink ref="B78" r:id="rId53"/>
-    <hyperlink ref="B61" r:id="rId54"/>
-    <hyperlink ref="B65" r:id="rId55"/>
-    <hyperlink ref="B12" r:id="rId56"/>
-    <hyperlink ref="B20" r:id="rId57"/>
-    <hyperlink ref="B30" r:id="rId58"/>
-    <hyperlink ref="B31" r:id="rId59"/>
-    <hyperlink ref="B107" r:id="rId60"/>
-    <hyperlink ref="B110" r:id="rId61"/>
-    <hyperlink ref="B7" r:id="rId62"/>
-    <hyperlink ref="B15" r:id="rId63"/>
-    <hyperlink ref="B60" r:id="rId64"/>
-    <hyperlink ref="B67" r:id="rId65"/>
-    <hyperlink ref="B72" r:id="rId66"/>
-    <hyperlink ref="B121" r:id="rId67"/>
-    <hyperlink ref="B87" r:id="rId68"/>
-    <hyperlink ref="B104" r:id="rId69"/>
-    <hyperlink ref="B14" r:id="rId70"/>
-    <hyperlink ref="B36" r:id="rId71"/>
-    <hyperlink ref="B77" r:id="rId72"/>
-    <hyperlink ref="B113" r:id="rId73"/>
-    <hyperlink ref="B24" r:id="rId74"/>
-    <hyperlink ref="B103" r:id="rId75"/>
-    <hyperlink ref="B263" r:id="rId76"/>
-    <hyperlink ref="B44" r:id="rId77"/>
-    <hyperlink ref="B34" r:id="rId78"/>
-    <hyperlink ref="B4" r:id="rId79"/>
-    <hyperlink ref="B16" r:id="rId80"/>
-    <hyperlink ref="B22" r:id="rId81"/>
-    <hyperlink ref="B49" r:id="rId82"/>
-    <hyperlink ref="B51" r:id="rId83"/>
-    <hyperlink ref="B94" r:id="rId84"/>
-    <hyperlink ref="B99" r:id="rId85"/>
-    <hyperlink ref="B106" r:id="rId86"/>
-    <hyperlink ref="B120" r:id="rId87"/>
-    <hyperlink ref="B57" r:id="rId88"/>
-    <hyperlink ref="B83" r:id="rId89"/>
-    <hyperlink ref="B90" r:id="rId90"/>
-    <hyperlink ref="B58" r:id="rId91"/>
-    <hyperlink ref="B42" r:id="rId92"/>
-    <hyperlink ref="B64" r:id="rId93"/>
-    <hyperlink ref="B122" r:id="rId94"/>
-    <hyperlink ref="B63" r:id="rId95"/>
-    <hyperlink ref="B102" r:id="rId96"/>
-    <hyperlink ref="B18" r:id="rId97"/>
-    <hyperlink ref="B47" r:id="rId98"/>
-    <hyperlink ref="B109" r:id="rId99"/>
-    <hyperlink ref="B125" r:id="rId100"/>
-    <hyperlink ref="B70" r:id="rId101"/>
-    <hyperlink ref="B11" r:id="rId102"/>
-    <hyperlink ref="B260" r:id="rId103"/>
-    <hyperlink ref="B262" r:id="rId104"/>
-    <hyperlink ref="B261" r:id="rId105"/>
-    <hyperlink ref="B75" r:id="rId106"/>
-    <hyperlink ref="B116" r:id="rId107"/>
-    <hyperlink ref="B215" r:id="rId108"/>
-    <hyperlink ref="B175" r:id="rId109"/>
-    <hyperlink ref="B128" r:id="rId110"/>
-    <hyperlink ref="B142" r:id="rId111"/>
-    <hyperlink ref="B235" r:id="rId112"/>
-    <hyperlink ref="B258" r:id="rId113"/>
-    <hyperlink ref="B234" r:id="rId114"/>
-    <hyperlink ref="B176" r:id="rId115"/>
-    <hyperlink ref="B137" r:id="rId116"/>
-    <hyperlink ref="B199" r:id="rId117"/>
-    <hyperlink ref="B252" r:id="rId118"/>
-    <hyperlink ref="B247" r:id="rId119"/>
-    <hyperlink ref="B240" r:id="rId120"/>
-    <hyperlink ref="B159" r:id="rId121"/>
-    <hyperlink ref="B279" r:id="rId122"/>
-    <hyperlink ref="B249" r:id="rId123"/>
-    <hyperlink ref="B277" r:id="rId124"/>
-    <hyperlink ref="B222" r:id="rId125"/>
-    <hyperlink ref="B182" r:id="rId126"/>
-    <hyperlink ref="B168" r:id="rId127"/>
-    <hyperlink ref="B155" r:id="rId128"/>
-    <hyperlink ref="B140" r:id="rId129"/>
-    <hyperlink ref="B170" r:id="rId130"/>
-    <hyperlink ref="B195" r:id="rId131"/>
-    <hyperlink ref="B186" r:id="rId132"/>
-    <hyperlink ref="B210" r:id="rId133"/>
-    <hyperlink ref="B139" r:id="rId134"/>
-    <hyperlink ref="B196" r:id="rId135"/>
-    <hyperlink ref="B141" r:id="rId136"/>
-    <hyperlink ref="B221" r:id="rId137" display="http://www.phy.duke.edu/research/photon/qoptics/"/>
-    <hyperlink ref="B203" r:id="rId138"/>
-    <hyperlink ref="B242" r:id="rId139"/>
-    <hyperlink ref="B273" r:id="rId140"/>
-    <hyperlink ref="B244" r:id="rId141"/>
-    <hyperlink ref="B179" r:id="rId142"/>
-    <hyperlink ref="B253" r:id="rId143"/>
-    <hyperlink ref="B177" r:id="rId144"/>
-    <hyperlink ref="B250" r:id="rId145"/>
-    <hyperlink ref="B227" r:id="rId146"/>
-    <hyperlink ref="B145" r:id="rId147"/>
-    <hyperlink ref="B246" r:id="rId148"/>
-    <hyperlink ref="B218" r:id="rId149"/>
-    <hyperlink ref="B153" r:id="rId150"/>
-    <hyperlink ref="B278" r:id="rId151"/>
-    <hyperlink ref="B127" r:id="rId152"/>
-    <hyperlink ref="B236" r:id="rId153"/>
-    <hyperlink ref="B232" r:id="rId154"/>
-    <hyperlink ref="B213" r:id="rId155"/>
-    <hyperlink ref="B217" r:id="rId156"/>
-    <hyperlink ref="B160" r:id="rId157"/>
-    <hyperlink ref="B154" r:id="rId158"/>
-    <hyperlink ref="B281" r:id="rId159"/>
-    <hyperlink ref="B225" r:id="rId160"/>
-    <hyperlink ref="B214" r:id="rId161"/>
-    <hyperlink ref="B190" r:id="rId162"/>
-    <hyperlink ref="B248" r:id="rId163"/>
-    <hyperlink ref="B229" r:id="rId164"/>
-    <hyperlink ref="B276" r:id="rId165"/>
-    <hyperlink ref="B206" r:id="rId166"/>
-    <hyperlink ref="B274" r:id="rId167"/>
-    <hyperlink ref="B178" r:id="rId168"/>
-    <hyperlink ref="B237" r:id="rId169"/>
-    <hyperlink ref="B245" r:id="rId170"/>
-    <hyperlink ref="B241" r:id="rId171"/>
-    <hyperlink ref="B239" r:id="rId172"/>
-    <hyperlink ref="B238" r:id="rId173"/>
-    <hyperlink ref="B202" r:id="rId174"/>
-    <hyperlink ref="B194" r:id="rId175"/>
-    <hyperlink ref="B187" r:id="rId176"/>
-    <hyperlink ref="B181" r:id="rId177"/>
-    <hyperlink ref="B167" r:id="rId178"/>
-    <hyperlink ref="B164" r:id="rId179"/>
-    <hyperlink ref="B161" r:id="rId180"/>
-    <hyperlink ref="B151" r:id="rId181"/>
-    <hyperlink ref="B150" r:id="rId182"/>
-    <hyperlink ref="B243" r:id="rId183"/>
-    <hyperlink ref="B191" r:id="rId184"/>
-    <hyperlink ref="B180" r:id="rId185"/>
-    <hyperlink ref="B171" r:id="rId186"/>
-    <hyperlink ref="B165" r:id="rId187"/>
-    <hyperlink ref="B135" r:id="rId188"/>
-    <hyperlink ref="B133" r:id="rId189"/>
-    <hyperlink ref="B226" r:id="rId190"/>
-    <hyperlink ref="B152" r:id="rId191"/>
-    <hyperlink ref="B223" r:id="rId192"/>
-    <hyperlink ref="B209" r:id="rId193"/>
-    <hyperlink ref="B172" r:id="rId194"/>
-    <hyperlink ref="B255" r:id="rId195"/>
-    <hyperlink ref="B254" r:id="rId196"/>
-    <hyperlink ref="B280" r:id="rId197"/>
-    <hyperlink ref="B251" r:id="rId198" display="http://www.physics.queensu.ca/%7ezaremba/"/>
-    <hyperlink ref="B231" r:id="rId199"/>
-    <hyperlink ref="B224" r:id="rId200"/>
-    <hyperlink ref="B211" r:id="rId201"/>
-    <hyperlink ref="B162" r:id="rId202"/>
-    <hyperlink ref="B158" r:id="rId203"/>
-    <hyperlink ref="B148" r:id="rId204"/>
-    <hyperlink ref="B147" r:id="rId205"/>
-    <hyperlink ref="B144" r:id="rId206"/>
-    <hyperlink ref="B131" r:id="rId207"/>
-    <hyperlink ref="B146" r:id="rId208"/>
-    <hyperlink ref="B220" r:id="rId209"/>
-    <hyperlink ref="B257" r:id="rId210"/>
-    <hyperlink ref="B201" r:id="rId211"/>
-    <hyperlink ref="B198" r:id="rId212"/>
-    <hyperlink ref="B230" r:id="rId213"/>
-    <hyperlink ref="B228" r:id="rId214"/>
-    <hyperlink ref="B207" r:id="rId215"/>
-    <hyperlink ref="B184" r:id="rId216"/>
-    <hyperlink ref="B126" r:id="rId217"/>
-    <hyperlink ref="B275" r:id="rId218"/>
-    <hyperlink ref="B183" r:id="rId219"/>
-    <hyperlink ref="B149" r:id="rId220"/>
-    <hyperlink ref="B136" r:id="rId221"/>
-    <hyperlink ref="B185" r:id="rId222" display="http://www.soton.ac.uk/~janne"/>
-    <hyperlink ref="B166" r:id="rId223"/>
-    <hyperlink ref="B233" r:id="rId224"/>
-    <hyperlink ref="B193" r:id="rId225" display="http://www.atomoptic.fr/~theory"/>
-    <hyperlink ref="B174" r:id="rId226"/>
-    <hyperlink ref="B163" r:id="rId227"/>
-    <hyperlink ref="B256" r:id="rId228"/>
-    <hyperlink ref="B197" r:id="rId229"/>
-    <hyperlink ref="B95" r:id="rId230"/>
-    <hyperlink ref="B129" r:id="rId231"/>
-    <hyperlink ref="B138" r:id="rId232"/>
-    <hyperlink ref="B204" r:id="rId233"/>
-    <hyperlink ref="B169" r:id="rId234"/>
-    <hyperlink ref="B212" r:id="rId235"/>
-    <hyperlink ref="B62" r:id="rId236"/>
-    <hyperlink ref="B205" r:id="rId237"/>
-    <hyperlink ref="B123" r:id="rId238"/>
-    <hyperlink ref="B37" r:id="rId239"/>
-    <hyperlink ref="B43" r:id="rId240"/>
-    <hyperlink ref="B156" r:id="rId241"/>
-    <hyperlink ref="B189" r:id="rId242"/>
-    <hyperlink ref="B216" r:id="rId243"/>
-    <hyperlink ref="B68" r:id="rId244"/>
-    <hyperlink ref="B192" r:id="rId245"/>
+    <hyperlink ref="B93" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B92" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B98" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B80" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B81" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B82" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B104" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B46" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B57" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B101" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B124" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B74" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B96" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B73" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B39" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B6" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B53" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B66" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B85" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B88" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B91" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B97" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B118" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B19" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B60" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B71" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B86" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B111" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B115" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B117" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B17" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B89" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B3" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B56" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B79" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B76" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B112" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B78" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B12" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B20" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B106" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B109" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B7" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B15" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B61" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B72" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B121" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B87" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B103" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B14" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B36" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B77" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B113" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B24" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B286" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B267" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B44" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B34" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B4" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B16" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B22" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B49" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B51" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B99" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B105" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B120" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B58" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B83" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B90" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B59" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B42" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B64" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B122" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B63" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B102" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B18" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B47" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B108" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B125" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B70" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B11" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B264" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B266" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B265" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B75" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B116" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B216" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B176" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B128" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B142" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B238" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B261" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B236" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B177" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B138" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B201" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B255" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B250" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B243" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B159" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B283" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B252" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B281" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B224" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B183" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B169" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B155" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B140" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B171" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B196" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B187" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B211" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B139" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B197" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B141" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B223" r:id="rId137" display="http://www.phy.duke.edu/research/photon/qoptics/" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B205" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B245" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B277" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B247" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B180" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B256" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B178" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B253" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B230" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B145" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B249" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B220" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B153" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B282" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B127" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B239" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B235" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B214" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B219" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B161" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B154" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B285" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B227" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B215" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B251" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B232" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B280" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B208" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B278" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B179" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B240" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B248" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B244" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B242" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B241" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B204" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B195" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B188" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B182" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B168" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B165" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B162" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B152" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B151" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B246" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B192" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B181" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B172" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B166" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B135" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B133" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B229" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B156" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B225" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B218" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B173" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B258" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B257" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B284" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B254" r:id="rId198" display="http://www.physics.queensu.ca/%7ezaremba/" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B234" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B226" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B212" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B163" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B158" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B149" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B147" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B144" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B130" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B146" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B222" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B260" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B203" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B200" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B231" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B209" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B185" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B126" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B279" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B184" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B150" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B136" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B186" r:id="rId222" display="http://www.soton.ac.uk/~janne" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B167" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B262" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B194" r:id="rId225" display="http://www.atomoptic.fr/~theory" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B175" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B164" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B259" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B199" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B95" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B132" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B137" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B206" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B170" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B213" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B52" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B207" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B123" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B37" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B43" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B157" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B190" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B217" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B68" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B193" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B100" r:id="rId246" xr:uid="{700A2C29-F502-43ED-A6D5-919F0D84AE4D}"/>
+    <hyperlink ref="B148" r:id="rId247" xr:uid="{14EE5D90-80B4-4DE3-B33B-D12A9B1F538F}"/>
+    <hyperlink ref="B198" r:id="rId248" xr:uid="{5B907E6F-4702-4835-8588-94B27CEF1DCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId246"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId249"/>
   <tableParts count="1">
-    <tablePart r:id="rId247"/>
+    <tablePart r:id="rId250"/>
   </tableParts>
 </worksheet>
 </file>
--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Work\Ultracool\AllColdAtoms\generate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C829BF-4D3F-4C1D-B293-E08A10A80866}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87963642-0AF3-447D-AC61-3CECC7143A78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1213">
   <si>
     <t>name</t>
   </si>
@@ -1798,9 +1798,6 @@
     <t>BEC, optical lattices, reduced dimensions, quantum computing, precision measurements</t>
   </si>
   <si>
-    <t>https://www.qo.uni-bonn.de/quantum-optics-group</t>
-  </si>
-  <si>
     <t>University of Bonn</t>
   </si>
   <si>
@@ -3659,6 +3656,12 @@
   </si>
   <si>
     <t>https://www.physik.uni-hamburg.de/en/ilp/sengstock.html</t>
+  </si>
+  <si>
+    <t>https://www.qo.uni-bonn.de/de</t>
+  </si>
+  <si>
+    <t>Kindai University</t>
   </si>
 </sst>
 </file>
@@ -4666,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L216" sqref="L216"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4726,7 +4729,7 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -4750,15 +4753,15 @@
         <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -4779,16 +4782,16 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -4797,7 +4800,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F4">
         <v>40.007436300000002</v>
@@ -4812,21 +4815,21 @@
         <v>27</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C5" t="s">
         <v>1081</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1082</v>
       </c>
       <c r="D5" t="s">
         <v>101</v>
@@ -4843,13 +4846,13 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
@@ -4876,12 +4879,12 @@
         <v>32</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>33</v>
@@ -4905,16 +4908,16 @@
         <v>36</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -4932,16 +4935,16 @@
         <v>23</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -4962,13 +4965,13 @@
         <v>41</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>42</v>
@@ -4992,24 +4995,24 @@
         <v>44</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D11" t="s">
         <v>1009</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1010</v>
       </c>
       <c r="F11">
         <v>37.271552999999997</v>
@@ -5021,12 +5024,12 @@
         <v>23</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -5047,15 +5050,15 @@
         <v>20</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>48</v>
@@ -5076,13 +5079,13 @@
         <v>15</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>51</v>
@@ -5091,7 +5094,7 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F14">
         <v>32.880060399999998</v>
@@ -5103,13 +5106,13 @@
         <v>23</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>53</v>
@@ -5133,21 +5136,21 @@
         <v>56</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C16" t="s">
         <v>1169</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1170</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -5162,16 +5165,16 @@
         <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>57</v>
@@ -5180,7 +5183,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F17">
         <v>40.007436300000002</v>
@@ -5195,19 +5198,19 @@
         <v>58</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" t="s">
         <v>1173</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1174</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -5222,13 +5225,13 @@
         <v>20</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>59</v>
@@ -5252,13 +5255,13 @@
         <v>62</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>63</v>
@@ -5267,7 +5270,7 @@
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F20">
         <v>43.1305531</v>
@@ -5282,13 +5285,13 @@
         <v>65</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>66</v>
@@ -5312,15 +5315,15 @@
         <v>69</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>45</v>
@@ -5341,15 +5344,15 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>70</v>
@@ -5373,15 +5376,15 @@
         <v>72</v>
       </c>
       <c r="K23" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>73</v>
@@ -5390,7 +5393,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F24">
         <v>40.007436300000002</v>
@@ -5405,13 +5408,13 @@
         <v>74</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>75</v>
@@ -5435,15 +5438,15 @@
         <v>77</v>
       </c>
       <c r="K25" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>82</v>
@@ -5452,7 +5455,7 @@
         <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F26">
         <v>35.844058199999999</v>
@@ -5464,13 +5467,13 @@
         <v>23</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>42</v>
@@ -5491,24 +5494,24 @@
         <v>15</v>
       </c>
       <c r="K27" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" t="s">
         <v>1078</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>1079</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1080</v>
       </c>
       <c r="F28">
         <v>36.225372999999998</v>
@@ -5520,12 +5523,12 @@
         <v>20</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
@@ -5549,18 +5552,18 @@
         <v>44</v>
       </c>
       <c r="K29" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C30" t="s">
         <v>85</v>
@@ -5581,15 +5584,15 @@
         <v>86</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>87</v>
@@ -5613,15 +5616,15 @@
         <v>88</v>
       </c>
       <c r="K31" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>89</v>
@@ -5645,13 +5648,13 @@
         <v>91</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>92</v>
@@ -5675,13 +5678,13 @@
         <v>94</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
@@ -5705,24 +5708,24 @@
         <v>98</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" t="s">
         <v>1176</v>
       </c>
-      <c r="C35" t="s">
-        <v>1177</v>
-      </c>
       <c r="D35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F35">
         <v>41.3164370968437</v>
@@ -5734,13 +5737,13 @@
         <v>23</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>99</v>
@@ -5767,13 +5770,13 @@
         <v>103</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>104</v>
@@ -5782,7 +5785,7 @@
         <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F37">
         <v>39.7510136</v>
@@ -5797,13 +5800,13 @@
         <v>106</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>107</v>
@@ -5830,13 +5833,13 @@
         <v>110</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>111</v>
@@ -5845,7 +5848,7 @@
         <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F39">
         <v>33.775617799999999</v>
@@ -5857,18 +5860,18 @@
         <v>23</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C40" t="s">
         <v>114</v>
@@ -5886,25 +5889,25 @@
         <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B41" t="s">
+        <v>611</v>
+      </c>
+      <c r="C41" t="s">
         <v>612</v>
       </c>
-      <c r="C41" t="s">
-        <v>613</v>
-      </c>
       <c r="D41" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F41">
         <v>40.423681000000002</v>
@@ -5916,12 +5919,12 @@
         <v>23</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>118</v>
@@ -5948,13 +5951,13 @@
         <v>121</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -5978,15 +5981,15 @@
         <v>44</v>
       </c>
       <c r="K43" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>123</v>
@@ -6007,15 +6010,15 @@
         <v>15</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>125</v>
@@ -6024,7 +6027,7 @@
         <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F45">
         <v>41.788607900000002</v>
@@ -6039,19 +6042,19 @@
         <v>127</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" t="s">
         <v>1105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1106</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
@@ -6066,16 +6069,16 @@
         <v>23</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B47" t="s">
         <v>1178</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1179</v>
       </c>
       <c r="C47" t="s">
         <v>226</v>
@@ -6093,17 +6096,17 @@
         <v>23</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>130</v>
@@ -6112,7 +6115,7 @@
         <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F48">
         <v>39.138053200000002</v>
@@ -6130,15 +6133,15 @@
         <v>133</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
@@ -6162,15 +6165,15 @@
         <v>44</v>
       </c>
       <c r="K49" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L49" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>134</v>
@@ -6191,13 +6194,13 @@
         <v>23</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>137</v>
@@ -6206,7 +6209,7 @@
         <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F51">
         <v>44.477852800000001</v>
@@ -6221,13 +6224,13 @@
         <v>139</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>142</v>
@@ -6248,13 +6251,13 @@
         <v>20</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>144</v>
@@ -6263,7 +6266,7 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F53">
         <v>40.007436300000002</v>
@@ -6278,13 +6281,13 @@
         <v>145</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B54" t="s">
         <v>146</v>
@@ -6308,15 +6311,15 @@
         <v>148</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>149</v>
@@ -6325,7 +6328,7 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F55">
         <v>40.007436300000002</v>
@@ -6340,22 +6343,22 @@
         <v>150</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F56">
         <v>40.007436300000002</v>
@@ -6367,17 +6370,17 @@
         <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L56"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>151</v>
@@ -6398,18 +6401,18 @@
         <v>23</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C58" t="s">
         <v>1014</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1015</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -6426,18 +6429,18 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C59" t="s">
-        <v>538</v>
+        <v>1212</v>
       </c>
       <c r="D59" t="s">
         <v>249</v>
@@ -6453,18 +6456,18 @@
       </c>
       <c r="I59"/>
       <c r="K59" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C60" t="s">
         <v>153</v>
@@ -6482,16 +6485,16 @@
         <v>23</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>154</v>
@@ -6518,13 +6521,13 @@
         <v>157</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>158</v>
@@ -6533,7 +6536,7 @@
         <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F62">
         <v>40.105215899999997</v>
@@ -6545,13 +6548,13 @@
         <v>23</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>160</v>
@@ -6560,7 +6563,7 @@
         <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F63">
         <v>41.316324399999999</v>
@@ -6578,15 +6581,15 @@
         <v>163</v>
       </c>
       <c r="K63" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>164</v>
@@ -6613,15 +6616,15 @@
         <v>167</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>168</v>
@@ -6642,13 +6645,13 @@
         <v>23</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>170</v>
@@ -6657,7 +6660,7 @@
         <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F66">
         <v>52.090152699999997</v>
@@ -6672,24 +6675,24 @@
         <v>172</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" t="s">
         <v>1182</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>1183</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1184</v>
       </c>
       <c r="F67">
         <v>47.489090643903801</v>
@@ -6701,19 +6704,19 @@
         <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="J67" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="K67" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L67"/>
     </row>
     <row r="68" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>173</v>
@@ -6722,7 +6725,7 @@
         <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F68">
         <v>42.377002900000001</v>
@@ -6737,15 +6740,15 @@
         <v>175</v>
       </c>
       <c r="K68" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>176</v>
@@ -6754,7 +6757,7 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F69">
         <v>42.278043599999997</v>
@@ -6769,13 +6772,13 @@
         <v>178</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>179</v>
@@ -6784,7 +6787,7 @@
         <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F70">
         <v>52.090737400000002</v>
@@ -6796,15 +6799,15 @@
         <v>20</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>181</v>
@@ -6828,15 +6831,15 @@
         <v>183</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>184</v>
@@ -6860,19 +6863,19 @@
         <v>69</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" t="s">
         <v>1122</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1123</v>
       </c>
       <c r="D73" t="s">
         <v>68</v>
@@ -6887,25 +6890,25 @@
         <v>20</v>
       </c>
       <c r="I73" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J73" t="s">
         <v>1124</v>
       </c>
-      <c r="J73" t="s">
-        <v>1125</v>
-      </c>
       <c r="K73" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L73"/>
     </row>
     <row r="74" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C74" t="s">
         <v>1018</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1019</v>
       </c>
       <c r="D74" t="s">
         <v>68</v>
@@ -6921,13 +6924,13 @@
       </c>
       <c r="I74"/>
       <c r="K74" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>189</v>
@@ -6936,7 +6939,7 @@
         <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F75">
         <v>46.731922500000003</v>
@@ -6948,13 +6951,13 @@
         <v>23</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>191</v>
@@ -6975,15 +6978,15 @@
         <v>23</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>193</v>
@@ -7004,13 +7007,13 @@
         <v>23</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>195</v>
@@ -7037,16 +7040,16 @@
         <v>198</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>199</v>
@@ -7067,16 +7070,16 @@
         <v>201</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="L79" s="1"/>
     </row>
     <row r="80" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="C80" t="s">
         <v>220</v>
@@ -7095,16 +7098,16 @@
       </c>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K80" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L80"/>
     </row>
     <row r="81" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>202</v>
@@ -7131,15 +7134,15 @@
         <v>205</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>206</v>
@@ -7148,7 +7151,7 @@
         <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F82">
         <v>33.948005299999998</v>
@@ -7163,15 +7166,15 @@
         <v>208</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>209</v>
@@ -7180,7 +7183,7 @@
         <v>210</v>
       </c>
       <c r="D83" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F83">
         <v>37.459882</v>
@@ -7192,13 +7195,13 @@
         <v>20</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>211</v>
@@ -7222,16 +7225,16 @@
         <v>213</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C85" t="s">
         <v>214</v>
@@ -7249,24 +7252,24 @@
         <v>23</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B86" t="s">
         <v>1160</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1161</v>
       </c>
       <c r="C86" t="s">
         <v>190</v>
       </c>
       <c r="D86" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F86">
         <v>46.7310277252978</v>
@@ -7278,19 +7281,19 @@
         <v>20</v>
       </c>
       <c r="I86" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J86" t="s">
         <v>1162</v>
       </c>
-      <c r="J86" t="s">
-        <v>1163</v>
-      </c>
       <c r="K86" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L86"/>
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>215</v>
@@ -7317,13 +7320,13 @@
         <v>218</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>219</v>
@@ -7344,13 +7347,13 @@
         <v>20</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>221</v>
@@ -7359,7 +7362,7 @@
         <v>159</v>
       </c>
       <c r="D89" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F89">
         <v>40.105215899999997</v>
@@ -7371,13 +7374,13 @@
         <v>23</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B90" t="s">
         <v>146</v>
@@ -7401,15 +7404,15 @@
         <v>222</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>223</v>
@@ -7433,18 +7436,18 @@
         <v>225</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>226</v>
@@ -7468,13 +7471,13 @@
         <v>228</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L92" s="1"/>
     </row>
     <row r="93" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>229</v>
@@ -7501,18 +7504,18 @@
         <v>233</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C94" t="s">
         <v>234</v>
@@ -7536,15 +7539,15 @@
         <v>236</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>237</v>
@@ -7571,13 +7574,13 @@
         <v>240</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>241</v>
@@ -7586,7 +7589,7 @@
         <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F96">
         <v>40.7982133</v>
@@ -7598,13 +7601,13 @@
         <v>23</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>243</v>
@@ -7628,15 +7631,15 @@
         <v>244</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>245</v>
@@ -7660,15 +7663,15 @@
         <v>246</v>
       </c>
       <c r="K98" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>250</v>
@@ -7695,15 +7698,15 @@
         <v>253</v>
       </c>
       <c r="K99" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="L99" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="L99" s="5" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>254</v>
@@ -7712,7 +7715,7 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F100">
         <v>40.007436300000002</v>
@@ -7724,22 +7727,22 @@
         <v>20</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L100" s="1"/>
     </row>
     <row r="101" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C101" t="s">
         <v>255</v>
       </c>
       <c r="D101" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F101">
         <v>42.377002900000001</v>
@@ -7751,13 +7754,13 @@
         <v>23</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>256</v>
@@ -7778,18 +7781,18 @@
         <v>23</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C103" t="s">
         <v>258</v>
@@ -7813,12 +7816,12 @@
         <v>260</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>261</v>
@@ -7839,13 +7842,13 @@
         <v>23</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>263</v>
@@ -7854,7 +7857,7 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F105">
         <v>40.007436300000002</v>
@@ -7869,22 +7872,22 @@
         <v>264</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L105" s="1"/>
     </row>
     <row r="106" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" t="s">
         <v>1140</v>
       </c>
-      <c r="C106" t="s">
-        <v>1141</v>
-      </c>
       <c r="D106" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F106">
         <v>30.695768098503201</v>
@@ -7897,16 +7900,16 @@
       </c>
       <c r="I106"/>
       <c r="J106" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="K106" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L106"/>
     </row>
     <row r="107" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>265</v>
@@ -7930,15 +7933,15 @@
         <v>267</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>268</v>
@@ -7947,7 +7950,7 @@
         <v>255</v>
       </c>
       <c r="D108" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F108">
         <v>42.377002900000001</v>
@@ -7959,13 +7962,13 @@
         <v>23</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L108" s="1"/>
     </row>
     <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>273</v>
@@ -7974,7 +7977,7 @@
         <v>274</v>
       </c>
       <c r="D109" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F109">
         <v>30.2849185</v>
@@ -7986,18 +7989,18 @@
         <v>23</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>1187</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>1188</v>
       </c>
       <c r="C110" t="s">
         <v>390</v>
@@ -8015,17 +8018,17 @@
         <v>23</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="J110"/>
       <c r="K110" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L110"/>
     </row>
     <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>275</v>
@@ -8046,13 +8049,13 @@
         <v>23</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L111" s="1"/>
     </row>
     <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>277</v>
@@ -8061,7 +8064,7 @@
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F112">
         <v>40.007436300000002</v>
@@ -8076,15 +8079,15 @@
         <v>278</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>279</v>
@@ -8105,13 +8108,13 @@
         <v>23</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B114" t="s">
         <v>146</v>
@@ -8135,15 +8138,15 @@
         <v>282</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>283</v>
@@ -8152,7 +8155,7 @@
         <v>284</v>
       </c>
       <c r="D115" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F115">
         <v>45.7529003</v>
@@ -8164,13 +8167,13 @@
         <v>23</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>45</v>
@@ -8191,18 +8194,18 @@
         <v>20</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C117" t="s">
         <v>147</v>
@@ -8226,15 +8229,15 @@
         <v>286</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>287</v>
@@ -8255,13 +8258,13 @@
         <v>23</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>289</v>
@@ -8288,18 +8291,18 @@
         <v>292</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C120" t="s">
         <v>214</v>
@@ -8320,13 +8323,13 @@
         <v>293</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B121" t="s">
         <v>294</v>
@@ -8353,13 +8356,13 @@
         <v>298</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>299</v>
@@ -8383,19 +8386,19 @@
         <v>301</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" t="s">
         <v>1026</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1027</v>
       </c>
       <c r="D123" t="s">
         <v>583</v>
@@ -8411,13 +8414,13 @@
       </c>
       <c r="I123" s="3"/>
       <c r="K123" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>310</v>
@@ -8441,13 +8444,13 @@
         <v>312</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L124" s="1"/>
     </row>
     <row r="125" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>313</v>
@@ -8474,21 +8477,21 @@
         <v>316</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C126" t="s">
         <v>1028</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1029</v>
       </c>
       <c r="D126" t="s">
         <v>200</v>
@@ -8504,12 +8507,12 @@
       </c>
       <c r="I126"/>
       <c r="K126" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>317</v>
@@ -8518,7 +8521,7 @@
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F127">
         <v>40.007436300000002</v>
@@ -8533,13 +8536,13 @@
         <v>318</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L127" s="1"/>
     </row>
     <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>319</v>
@@ -8563,15 +8566,15 @@
         <v>322</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>323</v>
@@ -8580,7 +8583,7 @@
         <v>324</v>
       </c>
       <c r="D129" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F129">
         <v>42.360090999999997</v>
@@ -8592,22 +8595,22 @@
         <v>23</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L129" s="1"/>
     </row>
     <row r="130" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" t="s">
         <v>1091</v>
       </c>
-      <c r="C130" t="s">
-        <v>1092</v>
-      </c>
       <c r="D130" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F130">
         <v>37.335293999999998</v>
@@ -8619,16 +8622,16 @@
         <v>20</v>
       </c>
       <c r="I130" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L130" s="1"/>
     </row>
     <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>325</v>
@@ -8652,13 +8655,13 @@
         <v>326</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L131" s="1"/>
     </row>
     <row r="132" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>327</v>
@@ -8667,7 +8670,7 @@
         <v>284</v>
       </c>
       <c r="D132" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F132">
         <v>45.7529003</v>
@@ -8682,13 +8685,13 @@
         <v>328</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>329</v>
@@ -8715,15 +8718,15 @@
         <v>331</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>332</v>
@@ -8744,13 +8747,13 @@
         <v>23</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L134" s="1"/>
     </row>
     <row r="135" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>333</v>
@@ -8759,7 +8762,7 @@
         <v>334</v>
       </c>
       <c r="D135" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F135">
         <v>44.935970900000001</v>
@@ -8774,22 +8777,22 @@
         <v>335</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L135" s="1"/>
     </row>
     <row r="136" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" t="s">
         <v>1191</v>
       </c>
-      <c r="C136" t="s">
-        <v>1192</v>
-      </c>
       <c r="D136" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F136">
         <v>51.448068653910397</v>
@@ -8801,28 +8804,28 @@
         <v>15</v>
       </c>
       <c r="I136" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J136" t="s">
         <v>1193</v>
       </c>
-      <c r="J136" t="s">
-        <v>1194</v>
-      </c>
       <c r="K136" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L136" s="1"/>
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" t="s">
         <v>1064</v>
       </c>
-      <c r="C137" t="s">
-        <v>1065</v>
-      </c>
       <c r="D137" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F137">
         <v>39.981988000000001</v>
@@ -8834,13 +8837,13 @@
         <v>20</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L137" s="1"/>
     </row>
     <row r="138" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>338</v>
@@ -8864,13 +8867,13 @@
         <v>340</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L138" s="1"/>
     </row>
     <row r="139" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>341</v>
@@ -8891,19 +8894,19 @@
         <v>23</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L139" s="1"/>
     </row>
     <row r="140" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C140" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D140" t="s">
         <v>68</v>
@@ -8921,13 +8924,13 @@
         <v>343</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L140" s="1"/>
     </row>
     <row r="141" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>344</v>
@@ -8951,18 +8954,18 @@
         <v>346</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C142" t="s">
         <v>84</v>
@@ -8980,12 +8983,12 @@
         <v>15</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>347</v>
@@ -9006,12 +9009,12 @@
         <v>23</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>349</v>
@@ -9035,21 +9038,21 @@
         <v>351</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>1196</v>
-      </c>
       <c r="C145" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D145" t="s">
         <v>30</v>
@@ -9064,22 +9067,22 @@
         <v>23</v>
       </c>
       <c r="I145" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J145" t="s">
         <v>1197</v>
       </c>
-      <c r="J145" t="s">
-        <v>1198</v>
-      </c>
       <c r="K145" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L145" s="1"/>
     </row>
     <row r="146" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="C146" t="s">
         <v>79</v>
@@ -9097,13 +9100,13 @@
         <v>23</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>352</v>
@@ -9112,7 +9115,7 @@
         <v>177</v>
       </c>
       <c r="D147" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F147">
         <v>42.278043599999997</v>
@@ -9127,15 +9130,15 @@
         <v>353</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>354</v>
@@ -9144,7 +9147,7 @@
         <v>355</v>
       </c>
       <c r="D148" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F148">
         <v>37.427474500000002</v>
@@ -9159,15 +9162,15 @@
         <v>356</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>357</v>
@@ -9176,7 +9179,7 @@
         <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F149">
         <v>40.007436300000002</v>
@@ -9191,15 +9194,15 @@
         <v>358</v>
       </c>
       <c r="K149" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="L149" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>359</v>
@@ -9208,7 +9211,7 @@
         <v>360</v>
       </c>
       <c r="D150" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F150">
         <v>36.127023600000001</v>
@@ -9220,13 +9223,13 @@
         <v>23</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L150" s="1"/>
     </row>
     <row r="151" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>361</v>
@@ -9235,7 +9238,7 @@
         <v>362</v>
       </c>
       <c r="D151" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F151">
         <v>44.105721600000003</v>
@@ -9253,19 +9256,19 @@
         <v>364</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L151" s="1"/>
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" t="s">
         <v>1037</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1038</v>
       </c>
       <c r="D152" t="s">
         <v>101</v>
@@ -9280,19 +9283,19 @@
         <v>20</v>
       </c>
       <c r="I152" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L152" s="1"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>365</v>
@@ -9313,13 +9316,13 @@
         <v>23</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L153" s="1"/>
     </row>
     <row r="154" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>366</v>
@@ -9340,19 +9343,19 @@
         <v>20</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L154" s="1"/>
     </row>
     <row r="155" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>372</v>
@@ -9379,15 +9382,15 @@
         <v>375</v>
       </c>
       <c r="K155" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="L155" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>376</v>
@@ -9411,22 +9414,22 @@
         <v>378</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L156" s="1"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C157" t="s">
         <v>1144</v>
       </c>
-      <c r="C157" t="s">
-        <v>1145</v>
-      </c>
       <c r="D157" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F157">
         <v>41.807733382103898</v>
@@ -9438,15 +9441,15 @@
         <v>23</v>
       </c>
       <c r="K157" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L157" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>379</v>
@@ -9470,15 +9473,15 @@
         <v>381</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>382</v>
@@ -9502,13 +9505,13 @@
         <v>384</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L159" s="1"/>
     </row>
     <row r="160" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>385</v>
@@ -9535,15 +9538,15 @@
         <v>388</v>
       </c>
       <c r="K160" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="L160" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>389</v>
@@ -9567,15 +9570,15 @@
         <v>391</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>392</v>
@@ -9599,15 +9602,15 @@
         <v>395</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>396</v>
@@ -9628,13 +9631,13 @@
         <v>23</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L163" s="1"/>
     </row>
     <row r="164" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>317</v>
@@ -9643,7 +9646,7 @@
         <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F164">
         <v>40.007436300000002</v>
@@ -9658,13 +9661,13 @@
         <v>398</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L164" s="1"/>
     </row>
     <row r="165" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>399</v>
@@ -9688,19 +9691,19 @@
         <v>402</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L165" s="1"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C166" t="s">
         <v>1107</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1108</v>
       </c>
       <c r="D166" t="s">
         <v>200</v>
@@ -9715,16 +9718,16 @@
         <v>23</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="L166" s="1"/>
     </row>
     <row r="167" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C167" t="s">
         <v>403</v>
@@ -9745,15 +9748,15 @@
         <v>404</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>405</v>
@@ -9762,7 +9765,7 @@
         <v>242</v>
       </c>
       <c r="D168" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F168">
         <v>40.7982133</v>
@@ -9774,18 +9777,18 @@
         <v>23</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>1100</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="C169" t="s">
         <v>226</v>
@@ -9803,13 +9806,13 @@
         <v>23</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L169" s="1"/>
     </row>
     <row r="170" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>406</v>
@@ -9830,13 +9833,13 @@
         <v>23</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L170" s="1"/>
     </row>
     <row r="171" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>408</v>
@@ -9860,13 +9863,13 @@
         <v>410</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L171" s="1"/>
     </row>
     <row r="172" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>411</v>
@@ -9890,24 +9893,24 @@
         <v>413</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="C173" t="s">
         <v>1201</v>
       </c>
-      <c r="C173" t="s">
-        <v>1202</v>
-      </c>
       <c r="D173" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F173">
         <v>36.014007141256101</v>
@@ -9920,13 +9923,13 @@
       </c>
       <c r="I173"/>
       <c r="K173" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L173" s="1"/>
     </row>
     <row r="174" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>414</v>
@@ -9950,15 +9953,15 @@
         <v>416</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>417</v>
@@ -9982,13 +9985,13 @@
         <v>419</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L175" s="1"/>
     </row>
     <row r="176" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>420</v>
@@ -10012,15 +10015,15 @@
         <v>421</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>422</v>
@@ -10047,15 +10050,15 @@
         <v>425</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>426</v>
@@ -10082,13 +10085,13 @@
         <v>429</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L178" s="1"/>
     </row>
     <row r="179" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>430</v>
@@ -10097,7 +10100,7 @@
         <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F179">
         <v>40.007436300000002</v>
@@ -10112,19 +10115,19 @@
         <v>431</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L179" s="1"/>
     </row>
     <row r="180" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" t="s">
         <v>1067</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1068</v>
       </c>
       <c r="D180" t="s">
         <v>97</v>
@@ -10139,19 +10142,19 @@
         <v>23</v>
       </c>
       <c r="I180" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J180" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="J180" s="1" t="s">
-        <v>1070</v>
-      </c>
       <c r="K180" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L180" s="1"/>
     </row>
     <row r="181" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>432</v>
@@ -10160,7 +10163,7 @@
         <v>433</v>
       </c>
       <c r="D181" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F181">
         <v>39.138053200000002</v>
@@ -10175,13 +10178,13 @@
         <v>434</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L181" s="1"/>
     </row>
     <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>435</v>
@@ -10208,15 +10211,15 @@
         <v>438</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>439</v>
@@ -10237,18 +10240,18 @@
         <v>23</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C184" t="s">
         <v>311</v>
@@ -10266,13 +10269,13 @@
         <v>15</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L184" s="1"/>
     </row>
     <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>441</v>
@@ -10296,15 +10299,15 @@
         <v>443</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>444</v>
@@ -10313,7 +10316,7 @@
         <v>284</v>
       </c>
       <c r="D186" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F186">
         <v>45.7529003</v>
@@ -10328,13 +10331,13 @@
         <v>445</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L186" s="1"/>
     </row>
     <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>446</v>
@@ -10343,7 +10346,7 @@
         <v>177</v>
       </c>
       <c r="D187" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F187">
         <v>42.278043599999997</v>
@@ -10358,13 +10361,13 @@
         <v>447</v>
       </c>
       <c r="K187" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L187" s="1"/>
     </row>
     <row r="188" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>448</v>
@@ -10373,7 +10376,7 @@
         <v>449</v>
       </c>
       <c r="D188" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F188">
         <v>30.2849185</v>
@@ -10388,13 +10391,13 @@
         <v>450</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L188" s="1"/>
     </row>
     <row r="189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>451</v>
@@ -10421,13 +10424,13 @@
         <v>454</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>455</v>
@@ -10436,7 +10439,7 @@
         <v>112</v>
       </c>
       <c r="D190" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F190">
         <v>33.775617799999999</v>
@@ -10451,15 +10454,15 @@
         <v>456</v>
       </c>
       <c r="K190" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>461</v>
@@ -10486,21 +10489,21 @@
         <v>464</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B192" t="s">
         <v>1203</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>1204</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1205</v>
       </c>
       <c r="D192" t="s">
         <v>321</v>
@@ -10516,12 +10519,12 @@
       </c>
       <c r="I192"/>
       <c r="K192" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>465</v>
@@ -10542,13 +10545,13 @@
         <v>23</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L193" s="1"/>
     </row>
     <row r="194" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>470</v>
@@ -10557,7 +10560,7 @@
         <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F194">
         <v>40.007436300000002</v>
@@ -10572,13 +10575,13 @@
         <v>471</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L194" s="1"/>
     </row>
     <row r="195" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>472</v>
@@ -10605,21 +10608,21 @@
         <v>475</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B196" s="15" t="s">
         <v>1164</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="C196" t="s">
         <v>1165</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1166</v>
       </c>
       <c r="D196" t="s">
         <v>61</v>
@@ -10634,13 +10637,13 @@
         <v>20</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L196" s="1"/>
     </row>
     <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>476</v>
@@ -10664,21 +10667,21 @@
         <v>477</v>
       </c>
       <c r="K197" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B198" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C198" t="s">
         <v>1043</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1044</v>
       </c>
       <c r="D198" t="s">
         <v>14</v>
@@ -10693,13 +10696,13 @@
         <v>20</v>
       </c>
       <c r="K198" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L198" s="1"/>
     </row>
     <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>478</v>
@@ -10708,7 +10711,7 @@
         <v>479</v>
       </c>
       <c r="D199" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F199">
         <v>38.033552899999997</v>
@@ -10723,13 +10726,13 @@
         <v>480</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L199" s="1"/>
     </row>
     <row r="200" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>481</v>
@@ -10750,13 +10753,13 @@
         <v>20</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L200" s="1"/>
     </row>
     <row r="201" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B201" t="s">
         <v>483</v>
@@ -10765,7 +10768,7 @@
         <v>484</v>
       </c>
       <c r="D201" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F201">
         <v>43.076591999999998</v>
@@ -10780,21 +10783,21 @@
         <v>485</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="C202" t="s">
         <v>1111</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1112</v>
       </c>
       <c r="D202" t="s">
         <v>19</v>
@@ -10809,13 +10812,13 @@
         <v>23</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L202" s="1"/>
     </row>
     <row r="203" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>486</v>
@@ -10842,15 +10845,15 @@
         <v>489</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>140</v>
@@ -10874,18 +10877,18 @@
         <v>490</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C205" t="s">
         <v>390</v>
@@ -10900,21 +10903,21 @@
         <v>9.9846195000000009</v>
       </c>
       <c r="H205" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B206" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C206" t="s">
         <v>1045</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1046</v>
       </c>
       <c r="D206" t="s">
         <v>30</v>
@@ -10929,15 +10932,15 @@
         <v>20</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>491</v>
@@ -10958,13 +10961,13 @@
         <v>20</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L207" s="1"/>
     </row>
     <row r="208" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>493</v>
@@ -10973,7 +10976,7 @@
         <v>494</v>
       </c>
       <c r="D208" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F208">
         <v>38.536048000000001</v>
@@ -10988,13 +10991,13 @@
         <v>495</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L208" s="1"/>
     </row>
     <row r="209" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>496</v>
@@ -11003,7 +11006,7 @@
         <v>497</v>
       </c>
       <c r="D209" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F209">
         <v>37.228384300000002</v>
@@ -11018,22 +11021,22 @@
         <v>498</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L209" s="1"/>
     </row>
     <row r="210" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="C210" t="s">
         <v>479</v>
       </c>
       <c r="D210" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F210">
         <v>38.033628934789498</v>
@@ -11045,17 +11048,17 @@
         <v>23</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J210"/>
       <c r="K210" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L210"/>
     </row>
     <row r="211" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>499</v>
@@ -11079,13 +11082,13 @@
         <v>501</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L211" s="1"/>
     </row>
     <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>502</v>
@@ -11109,13 +11112,13 @@
         <v>213</v>
       </c>
       <c r="K212" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L212" s="1"/>
     </row>
     <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>504</v>
@@ -11124,7 +11127,7 @@
         <v>505</v>
       </c>
       <c r="D213" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F213">
         <v>40.912376100000003</v>
@@ -11139,16 +11142,16 @@
         <v>506</v>
       </c>
       <c r="K213" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L213" s="1"/>
     </row>
     <row r="214" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B214" t="s">
         <v>1132</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1133</v>
       </c>
       <c r="C214" t="s">
         <v>143</v>
@@ -11167,13 +11170,13 @@
       </c>
       <c r="I214"/>
       <c r="K214" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L214" s="1"/>
     </row>
     <row r="215" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>507</v>
@@ -11197,18 +11200,18 @@
         <v>508</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>509</v>
@@ -11229,13 +11232,13 @@
         <v>510</v>
       </c>
       <c r="K216" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L216" s="1"/>
     </row>
     <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>511</v>
@@ -11244,7 +11247,7 @@
         <v>512</v>
       </c>
       <c r="D217" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F217">
         <v>35.205893600000003</v>
@@ -11262,18 +11265,18 @@
         <v>514</v>
       </c>
       <c r="K217" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>1061</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="C218" t="s">
         <v>39</v>
@@ -11293,22 +11296,22 @@
       <c r="I218"/>
       <c r="J218"/>
       <c r="K218" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L218"/>
     </row>
     <row r="219" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="C219" t="s">
         <v>210</v>
       </c>
       <c r="D219" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F219">
         <v>37.459879000000001</v>
@@ -11320,17 +11323,17 @@
         <v>23</v>
       </c>
       <c r="I219" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J219"/>
       <c r="K219" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="L219"/>
     </row>
     <row r="220" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>515</v>
@@ -11354,13 +11357,13 @@
         <v>517</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L220" s="1"/>
     </row>
     <row r="221" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>518</v>
@@ -11381,15 +11384,15 @@
         <v>23</v>
       </c>
       <c r="K221" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B222" t="s">
         <v>519</v>
@@ -11398,7 +11401,7 @@
         <v>520</v>
       </c>
       <c r="D222" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F222">
         <v>50.087110600000003</v>
@@ -11413,15 +11416,15 @@
         <v>521</v>
       </c>
       <c r="K222" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>522</v>
@@ -11430,7 +11433,7 @@
         <v>523</v>
       </c>
       <c r="D223" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F223">
         <v>37.871899200000001</v>
@@ -11445,15 +11448,15 @@
         <v>524</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>525</v>
@@ -11480,19 +11483,19 @@
         <v>528</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L224" s="1"/>
     </row>
     <row r="225" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="C225" t="s">
         <v>1072</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1073</v>
       </c>
       <c r="D225" t="s">
         <v>68</v>
@@ -11507,16 +11510,16 @@
         <v>23</v>
       </c>
       <c r="I225" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K225" s="6" t="s">
         <v>1074</v>
-      </c>
-      <c r="K225" s="6" t="s">
-        <v>1075</v>
       </c>
       <c r="L225" s="1"/>
     </row>
     <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>529</v>
@@ -11525,7 +11528,7 @@
         <v>180</v>
       </c>
       <c r="D226" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F226">
         <v>52.090737400000002</v>
@@ -11537,13 +11540,13 @@
         <v>20</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L226" s="1"/>
     </row>
     <row r="227" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>202</v>
@@ -11570,15 +11573,15 @@
         <v>532</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>533</v>
@@ -11587,7 +11590,7 @@
         <v>534</v>
       </c>
       <c r="D228" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F228">
         <v>47.655335100000002</v>
@@ -11599,24 +11602,24 @@
         <v>23</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C229" t="s">
         <v>270</v>
       </c>
       <c r="D229" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F229">
         <v>36.885344000000003</v>
@@ -11628,16 +11631,16 @@
         <v>23</v>
       </c>
       <c r="I229" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K229" s="6" t="s">
         <v>1095</v>
-      </c>
-      <c r="K229" s="6" t="s">
-        <v>1096</v>
       </c>
       <c r="L229" s="1"/>
     </row>
     <row r="230" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>535</v>
@@ -11661,15 +11664,15 @@
         <v>536</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>537</v>
@@ -11693,13 +11696,13 @@
         <v>539</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L231" s="1"/>
     </row>
     <row r="232" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>540</v>
@@ -11723,19 +11726,19 @@
         <v>542</v>
       </c>
       <c r="K232" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L232" s="1"/>
     </row>
     <row r="233" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C233" t="s">
         <v>1041</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1042</v>
       </c>
       <c r="D233" t="s">
         <v>101</v>
@@ -11750,13 +11753,13 @@
         <v>15</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>545</v>
@@ -11783,22 +11786,22 @@
         <v>549</v>
       </c>
       <c r="K234" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L234" s="1"/>
     </row>
     <row r="235" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B235" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C235" t="s">
         <v>1047</v>
       </c>
-      <c r="C235" t="s">
-        <v>1048</v>
-      </c>
       <c r="D235" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F235">
         <v>35.759573099999997</v>
@@ -11810,13 +11813,13 @@
         <v>23</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L235" s="1"/>
     </row>
     <row r="236" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>550</v>
@@ -11825,7 +11828,7 @@
         <v>26</v>
       </c>
       <c r="D236" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F236">
         <v>40.007436300000002</v>
@@ -11840,15 +11843,15 @@
         <v>551</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>552</v>
@@ -11872,13 +11875,13 @@
         <v>553</v>
       </c>
       <c r="K237" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L237" s="1"/>
     </row>
     <row r="238" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>554</v>
@@ -11905,15 +11908,15 @@
         <v>528</v>
       </c>
       <c r="K238" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>556</v>
@@ -11937,18 +11940,18 @@
         <v>557</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B240" t="s">
         <v>1151</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1152</v>
       </c>
       <c r="C240" t="s">
         <v>562</v>
@@ -11966,19 +11969,19 @@
         <v>20</v>
       </c>
       <c r="I240" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J240" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="K240" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L240" s="1"/>
     </row>
     <row r="241" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>558</v>
@@ -12002,13 +12005,13 @@
         <v>560</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L241" s="1"/>
     </row>
     <row r="242" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>561</v>
@@ -12035,13 +12038,13 @@
         <v>564</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L242" s="1"/>
     </row>
     <row r="243" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>565</v>
@@ -12065,15 +12068,15 @@
         <v>566</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>567</v>
@@ -12097,15 +12100,15 @@
         <v>569</v>
       </c>
       <c r="K244" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L244" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>570</v>
@@ -12129,15 +12132,15 @@
         <v>571</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>572</v>
@@ -12158,13 +12161,13 @@
         <v>23</v>
       </c>
       <c r="K246" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L246" s="1"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>574</v>
@@ -12173,7 +12176,7 @@
         <v>337</v>
       </c>
       <c r="D247" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F247">
         <v>52.333756800000003</v>
@@ -12185,13 +12188,13 @@
         <v>23</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L247" s="1"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>575</v>
@@ -12200,7 +12203,7 @@
         <v>324</v>
       </c>
       <c r="D248" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F248">
         <v>42.360090999999997</v>
@@ -12212,19 +12215,19 @@
         <v>23</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L248" s="1"/>
     </row>
     <row r="249" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B249" t="s">
         <v>1154</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>1155</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1156</v>
       </c>
       <c r="D249" t="s">
         <v>231</v>
@@ -12239,19 +12242,19 @@
         <v>20</v>
       </c>
       <c r="I249" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J249" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="J249" s="1" t="s">
-        <v>1158</v>
-      </c>
       <c r="K249" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L249"/>
     </row>
     <row r="250" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>576</v>
@@ -12260,7 +12263,7 @@
         <v>577</v>
       </c>
       <c r="D250" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F250">
         <v>42.929508400000003</v>
@@ -12272,15 +12275,15 @@
         <v>23</v>
       </c>
       <c r="K250" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>578</v>
@@ -12289,7 +12292,7 @@
         <v>579</v>
       </c>
       <c r="D251" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F251">
         <v>52.355818200000002</v>
@@ -12304,15 +12307,15 @@
         <v>580</v>
       </c>
       <c r="K251" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>581</v>
@@ -12336,15 +12339,15 @@
         <v>584</v>
       </c>
       <c r="K252" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>585</v>
@@ -12368,13 +12371,13 @@
         <v>586</v>
       </c>
       <c r="K253" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L253" s="1"/>
     </row>
     <row r="254" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>587</v>
@@ -12398,13 +12401,13 @@
         <v>588</v>
       </c>
       <c r="K254" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L254" s="1"/>
     </row>
     <row r="255" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>589</v>
@@ -12413,7 +12416,7 @@
         <v>242</v>
       </c>
       <c r="D255" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F255">
         <v>40.7982133</v>
@@ -12428,21 +12431,21 @@
         <v>590</v>
       </c>
       <c r="K255" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="D256" t="s">
         <v>68</v>
@@ -12457,22 +12460,22 @@
         <v>23</v>
       </c>
       <c r="K256" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L256" s="1"/>
     </row>
     <row r="257" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C257" t="s">
         <v>593</v>
       </c>
-      <c r="C257" t="s">
-        <v>594</v>
-      </c>
       <c r="D257" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F257">
         <v>34.413962900000001</v>
@@ -12484,13 +12487,13 @@
         <v>23</v>
       </c>
       <c r="K257" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L257" s="1"/>
     </row>
     <row r="258" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>42</v>
@@ -12514,24 +12517,24 @@
         <v>44</v>
       </c>
       <c r="K258" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="L258" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="L258" s="5" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C259" t="s">
         <v>595</v>
       </c>
-      <c r="C259" t="s">
-        <v>596</v>
-      </c>
       <c r="D259" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F259">
         <v>34.097743000000001</v>
@@ -12543,19 +12546,19 @@
         <v>23</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L259" s="1"/>
     </row>
     <row r="260" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="D260" t="s">
         <v>68</v>
@@ -12570,16 +12573,16 @@
         <v>23</v>
       </c>
       <c r="K260" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L260" s="1"/>
     </row>
     <row r="261" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C261" t="s">
         <v>185</v>
@@ -12597,28 +12600,28 @@
         <v>23</v>
       </c>
       <c r="I261" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J261" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="J261" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="K261" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L261" s="1"/>
     </row>
     <row r="262" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C262" t="s">
         <v>603</v>
       </c>
-      <c r="C262" t="s">
-        <v>604</v>
-      </c>
       <c r="D262" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F262">
         <v>40.8075355</v>
@@ -12630,19 +12633,19 @@
         <v>23</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L262" s="1"/>
     </row>
     <row r="263" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C263" t="s">
         <v>606</v>
-      </c>
-      <c r="C263" t="s">
-        <v>607</v>
       </c>
       <c r="D263" t="s">
         <v>61</v>
@@ -12657,28 +12660,28 @@
         <v>20</v>
       </c>
       <c r="I263" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J263" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="J263" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="K263" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L263" s="1"/>
     </row>
     <row r="264" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
       </c>
       <c r="D264" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F264">
         <v>40.007436300000002</v>
@@ -12690,24 +12693,24 @@
         <v>23</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C265" t="s">
         <v>614</v>
-      </c>
-      <c r="C265" t="s">
-        <v>615</v>
       </c>
       <c r="D265" t="s">
         <v>231</v>
@@ -12722,25 +12725,25 @@
         <v>20</v>
       </c>
       <c r="I265" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="J265" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="J265" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="K265" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L265" s="1"/>
     </row>
     <row r="266" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B266" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C266" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D266" t="s">
         <v>80</v>
@@ -12755,22 +12758,22 @@
         <v>20</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L266" s="1"/>
     </row>
     <row r="267" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C267" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D267" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F267">
         <v>40.8075355</v>
@@ -12782,22 +12785,22 @@
         <v>23</v>
       </c>
       <c r="K267" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L267" s="1"/>
     </row>
     <row r="268" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C268" t="s">
         <v>620</v>
       </c>
-      <c r="C268" t="s">
-        <v>621</v>
-      </c>
       <c r="D268" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F268">
         <v>32.9857619</v>
@@ -12809,19 +12812,19 @@
         <v>20</v>
       </c>
       <c r="K268" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L268" s="1"/>
     </row>
     <row r="269" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C269" t="s">
         <v>622</v>
-      </c>
-      <c r="C269" t="s">
-        <v>623</v>
       </c>
       <c r="D269" t="s">
         <v>115</v>
@@ -12836,24 +12839,24 @@
         <v>23</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K269" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C270" t="s">
         <v>625</v>
-      </c>
-      <c r="C270" t="s">
-        <v>626</v>
       </c>
       <c r="D270" t="s">
         <v>583</v>
@@ -12868,22 +12871,22 @@
         <v>20</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K270" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L270" s="1"/>
     </row>
     <row r="271" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="D271" t="s">
         <v>68</v>
@@ -12898,18 +12901,18 @@
         <v>23</v>
       </c>
       <c r="K271" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>257</v>
@@ -12927,25 +12930,25 @@
         <v>20</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K272" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L272" s="1"/>
     </row>
     <row r="273" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C273" t="s">
         <v>632</v>
       </c>
-      <c r="C273" t="s">
-        <v>633</v>
-      </c>
       <c r="D273" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F273">
         <v>42.360090999999997</v>
@@ -12957,22 +12960,22 @@
         <v>23</v>
       </c>
       <c r="K273" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L273" s="1"/>
     </row>
     <row r="274" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C274" t="s">
+        <v>635</v>
+      </c>
+      <c r="D274" t="s">
         <v>636</v>
-      </c>
-      <c r="D274" t="s">
-        <v>637</v>
       </c>
       <c r="F274">
         <v>35.305134000000002</v>
@@ -12984,13 +12987,13 @@
         <v>23</v>
       </c>
       <c r="I274" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K274" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L274" s="1"/>
     </row>
@@ -12999,7 +13002,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B276" t="s">
         <v>21</v>
@@ -13008,7 +13011,7 @@
         <v>22</v>
       </c>
       <c r="D276" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F276">
         <v>32.2318851</v>
@@ -13024,13 +13027,13 @@
       </c>
       <c r="J276"/>
       <c r="K276" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L276"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B277" t="s">
         <v>78</v>
@@ -13055,15 +13058,15 @@
         <v>81</v>
       </c>
       <c r="K277" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L277" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B278" t="s">
         <v>113</v>
@@ -13090,15 +13093,15 @@
         <v>117</v>
       </c>
       <c r="K278" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L278" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B279" t="s">
         <v>128</v>
@@ -13107,7 +13110,7 @@
         <v>129</v>
       </c>
       <c r="D279" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F279">
         <v>37.427474500000002</v>
@@ -13121,15 +13124,15 @@
       <c r="I279"/>
       <c r="J279"/>
       <c r="K279" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L279" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>140</v>
@@ -13150,15 +13153,15 @@
         <v>15</v>
       </c>
       <c r="K280" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>186</v>
@@ -13182,15 +13185,15 @@
         <v>188</v>
       </c>
       <c r="K281" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>45</v>
@@ -13211,15 +13214,15 @@
         <v>20</v>
       </c>
       <c r="K282" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>247</v>
@@ -13240,15 +13243,15 @@
         <v>23</v>
       </c>
       <c r="K283" t="s">
+        <v>639</v>
+      </c>
+      <c r="L283" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="L283" s="5" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>281</v>
@@ -13269,15 +13272,15 @@
         <v>20</v>
       </c>
       <c r="K284" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>302</v>
@@ -13304,15 +13307,15 @@
         <v>304</v>
       </c>
       <c r="K285" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L285" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>305</v>
@@ -13339,15 +13342,15 @@
         <v>309</v>
       </c>
       <c r="K286" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L286" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>336</v>
@@ -13356,7 +13359,7 @@
         <v>337</v>
       </c>
       <c r="D287" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F287">
         <v>52.333756800000003</v>
@@ -13368,12 +13371,12 @@
         <v>23</v>
       </c>
       <c r="K287" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>140</v>
@@ -13394,15 +13397,15 @@
         <v>23</v>
       </c>
       <c r="K288" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B289" t="s">
         <v>368</v>
@@ -13411,7 +13414,7 @@
         <v>369</v>
       </c>
       <c r="D289" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F289">
         <v>34.201308099999999</v>
@@ -13429,15 +13432,15 @@
         <v>371</v>
       </c>
       <c r="K289" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L289" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B290" t="s">
         <v>457</v>
@@ -13464,13 +13467,13 @@
         <v>460</v>
       </c>
       <c r="K290" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L290"/>
     </row>
     <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B291" t="s">
         <v>467</v>
@@ -13495,15 +13498,15 @@
       </c>
       <c r="J291"/>
       <c r="K291" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L291" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B292" t="s">
         <v>543</v>
@@ -13526,22 +13529,22 @@
       <c r="I292"/>
       <c r="J292"/>
       <c r="K292" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L292"/>
     </row>
     <row r="293" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B293" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C293" t="s">
         <v>26</v>
       </c>
       <c r="D293" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F293">
         <v>40.007436300000002</v>
@@ -13555,13 +13558,13 @@
       <c r="I293"/>
       <c r="J293"/>
       <c r="K293" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L293"/>
     </row>
     <row r="294" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B294" t="s">
         <v>45</v>
@@ -13582,28 +13585,28 @@
         <v>23</v>
       </c>
       <c r="I294" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J294"/>
       <c r="K294" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L294" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B295" t="s">
+        <v>611</v>
+      </c>
+      <c r="C295" t="s">
         <v>612</v>
       </c>
-      <c r="C295" t="s">
-        <v>613</v>
-      </c>
       <c r="D295" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F295">
         <v>40.423705400000003</v>
@@ -13617,19 +13620,19 @@
       <c r="I295"/>
       <c r="J295"/>
       <c r="K295" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L295"/>
     </row>
     <row r="296" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C296" t="s">
         <v>634</v>
-      </c>
-      <c r="C296" t="s">
-        <v>635</v>
       </c>
       <c r="D296" t="s">
         <v>80</v>
@@ -13644,21 +13647,21 @@
         <v>20</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="297" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>1129</v>
-      </c>
       <c r="C297" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D297" t="s">
         <v>14</v>
@@ -13673,16 +13676,16 @@
         <v>23</v>
       </c>
       <c r="I297" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L297" s="1"/>
     </row>
     <row r="298" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B298" s="10" t="s">
         <v>269</v>
@@ -13691,7 +13694,7 @@
         <v>270</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E298" s="11"/>
       <c r="F298" s="11">
@@ -13710,7 +13713,7 @@
         <v>272</v>
       </c>
       <c r="K298" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L298" s="14"/>
     </row>

--- a/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
+++ b/generate/ucan_utoronto_database_production_with_geocode-edited2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Work\Ultracool\AllColdAtoms\generate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87963642-0AF3-447D-AC61-3CECC7143A78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423C4251-25E4-4C27-9933-850ED9E2C2E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1222">
   <si>
     <t>name</t>
   </si>
@@ -151,9 +151,6 @@
     <t>BEC in optical lattices, molecular quantum gases</t>
   </si>
   <si>
-    <t>https://www.lcf.institutoptique.fr/Groupes-de-recherche/Optique-atomique</t>
-  </si>
-  <si>
     <t>Laboratoire Charles Fabry, Institut d'Optique</t>
   </si>
   <si>
@@ -2113,12 +2110,6 @@
     <t>Cr, Dy, Rb, Er</t>
   </si>
   <si>
-    <t>He, Rb</t>
-  </si>
-  <si>
-    <t>See also Aspect group, Bouchoule group, Bourdel group, Cheneau group, Clement group, Westbrook group.</t>
-  </si>
-  <si>
     <t>Rb, Sr, RbK</t>
   </si>
   <si>
@@ -3662,6 +3653,42 @@
   </si>
   <si>
     <t>Kindai University</t>
+  </si>
+  <si>
+    <t>Sr 84 (2D optical lattice + quantum microscope). See also Aspect group, Bouchoule group, Bourdel group, Cheneau group, Clement group, Westbrook group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rb 87 (1D gas on chip). See also Aspect group, Bouchoule group, Bourdel group, Cheneau group, Clement group, Westbrook group.</t>
+  </si>
+  <si>
+    <t>K 39 (1D and 2D disordered gases). See also Aspect group, Bouchoule group, Bourdel group, Cheneau group, Clement group, Westbrook group.</t>
+  </si>
+  <si>
+    <t>He* both 3 and 4 (3D optical lattice, direct momentum space observation of the 3D Mott transition). See also Aspect group, Bouchoule group, Bourdel group, Cheneau group, Clement group, Westbrook group.</t>
+  </si>
+  <si>
+    <t>Rb 87 (Anderson localization of matter waves). See also Aspect group, Bouchoule group, Bourdel group, Cheneau group, Clement group, Westbrook group.</t>
+  </si>
+  <si>
+    <t>He* 4 (quantum optics with atoms : Hong Ou Mandel, interferometry...). See also Aspect group, Bouchoule group, Bourdel group, Cheneau group, Clement group, Westbrook group.</t>
+  </si>
+  <si>
+    <t>https://www.lcf.institutoptique.fr/groupes-de-recherche/gaz-quantiques/experiences/quantum-atom-optics</t>
+  </si>
+  <si>
+    <t>https://www.lcf.institutoptique.fr/groupes-de-recherche/gaz-quantiques/experiences/quantum-transport-disorder</t>
+  </si>
+  <si>
+    <t>https://www.lcf.institutoptique.fr/groupes-de-recherche/gaz-quantiques/experiences/disordered-quantum-gases-tunable-interactions</t>
+  </si>
+  <si>
+    <t>https://www.lcf.institutoptique.fr/groupes-de-recherche/gaz-quantiques/experiences/degenerate-gases-atom-chips</t>
+  </si>
+  <si>
+    <t>https://www.lcf.institutoptique.fr/groupes-de-recherche/gaz-quantiques/experiences/dynamique-quantique</t>
+  </si>
+  <si>
+    <t>https://www.lcf.institutoptique.fr/groupes-de-recherche/gaz-quantiques/experiences/lattice-gases</t>
   </si>
 </sst>
 </file>
@@ -4320,6 +4347,26 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -4347,26 +4394,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4381,7 +4408,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L274" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L274" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:L274" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:L268">
     <sortCondition ref="A1:A268"/>
@@ -4395,10 +4422,10 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="lat"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="long"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="exp_theor"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="fields" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="people" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="atom" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="comment" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="fields" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="people" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="atom" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4669,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="A1:L274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4729,7 +4756,7 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -4753,15 +4780,15 @@
         <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -4782,16 +4809,16 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -4800,7 +4827,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F4">
         <v>40.007436300000002</v>
@@ -4815,24 +4842,24 @@
         <v>27</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B5" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>-32.069001999999998</v>
@@ -4846,13 +4873,13 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
@@ -4879,12 +4906,12 @@
         <v>32</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>33</v>
@@ -4908,16 +4935,16 @@
         <v>36</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -4935,16 +4962,16 @@
         <v>23</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -4965,19 +4992,19 @@
         <v>41</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -4992,27 +5019,27 @@
         <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>696</v>
+        <v>646</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>697</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C11" t="s">
         <v>1007</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1010</v>
-      </c>
       <c r="D11" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F11">
         <v>37.271552999999997</v>
@@ -5024,21 +5051,21 @@
         <v>23</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
       </c>
       <c r="F12">
         <v>-45.479067100000002</v>
@@ -5050,24 +5077,24 @@
         <v>20</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
       </c>
       <c r="F13">
         <v>45.810570300000002</v>
@@ -5079,22 +5106,22 @@
         <v>15</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F14">
         <v>32.880060399999998</v>
@@ -5106,22 +5133,22 @@
         <v>23</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
       </c>
       <c r="F15">
         <v>1.2966426</v>
@@ -5133,27 +5160,27 @@
         <v>23</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C16" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16">
         <v>45.947635908377002</v>
@@ -5165,25 +5192,25 @@
         <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F17">
         <v>40.007436300000002</v>
@@ -5195,22 +5222,22 @@
         <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C18" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -5225,22 +5252,22 @@
         <v>20</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
       </c>
       <c r="F19">
         <v>28.591266000000001</v>
@@ -5252,25 +5279,25 @@
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F20">
         <v>43.1305531</v>
@@ -5282,25 +5309,25 @@
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
         <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
       </c>
       <c r="F21">
         <v>49.874777999999999</v>
@@ -5312,27 +5339,27 @@
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
       </c>
       <c r="F22">
         <v>-45.479067100000002</v>
@@ -5344,24 +5371,24 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23">
         <v>48.259664399999998</v>
@@ -5373,27 +5400,27 @@
         <v>23</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F24">
         <v>40.007436300000002</v>
@@ -5405,22 +5432,22 @@
         <v>20</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -5435,27 +5462,27 @@
         <v>23</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
       <c r="D26" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F26">
         <v>35.844058199999999</v>
@@ -5467,19 +5494,19 @@
         <v>23</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -5494,24 +5521,24 @@
         <v>15</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>696</v>
+        <v>646</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>697</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D28" t="s">
         <v>1076</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1079</v>
       </c>
       <c r="F28">
         <v>36.225372999999998</v>
@@ -5523,18 +5550,18 @@
         <v>20</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C29" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -5549,24 +5576,24 @@
         <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>697</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
@@ -5581,24 +5608,24 @@
         <v>23</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -5613,27 +5640,27 @@
         <v>23</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32">
         <v>-45.864683499999998</v>
@@ -5645,25 +5672,25 @@
         <v>20</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33">
         <v>-36.732389400000002</v>
@@ -5675,25 +5702,25 @@
         <v>20</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>96</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
       </c>
       <c r="F34">
         <v>46.519055700000003</v>
@@ -5705,27 +5732,27 @@
         <v>23</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C35" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D35" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F35">
         <v>41.3164370968437</v>
@@ -5737,22 +5764,22 @@
         <v>23</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
         <v>99</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>100</v>
-      </c>
-      <c r="D36" t="s">
-        <v>101</v>
       </c>
       <c r="F36">
         <v>-21.123383400000002</v>
@@ -5764,28 +5791,28 @@
         <v>20</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="K36" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
       <c r="D37" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F37">
         <v>39.7510136</v>
@@ -5797,22 +5824,22 @@
         <v>20</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
         <v>107</v>
-      </c>
-      <c r="C38" t="s">
-        <v>108</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -5827,28 +5854,28 @@
         <v>23</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="K38" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
         <v>111</v>
       </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
       <c r="D39" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F39">
         <v>33.775617799999999</v>
@@ -5860,24 +5887,24 @@
         <v>23</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
         <v>114</v>
-      </c>
-      <c r="D40" t="s">
-        <v>115</v>
       </c>
       <c r="F40">
         <v>39.986908</v>
@@ -5889,25 +5916,25 @@
         <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B41" t="s">
+        <v>610</v>
+      </c>
+      <c r="C41" t="s">
         <v>611</v>
       </c>
-      <c r="C41" t="s">
-        <v>612</v>
-      </c>
       <c r="D41" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F41">
         <v>40.423681000000002</v>
@@ -5919,21 +5946,21 @@
         <v>23</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
         <v>118</v>
       </c>
-      <c r="C42" t="s">
-        <v>119</v>
-      </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42">
         <v>30.263943999999999</v>
@@ -5945,25 +5972,25 @@
         <v>20</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="K42" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>1220</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
         <v>30</v>
@@ -5978,24 +6005,24 @@
         <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>696</v>
+        <v>638</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>697</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
         <v>123</v>
-      </c>
-      <c r="C44" t="s">
-        <v>124</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -6010,24 +6037,24 @@
         <v>15</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" t="s">
         <v>125</v>
       </c>
-      <c r="C45" t="s">
-        <v>126</v>
-      </c>
       <c r="D45" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F45">
         <v>41.788607900000002</v>
@@ -6039,25 +6066,25 @@
         <v>23</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C46" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F46">
         <v>43.471178000000002</v>
@@ -6069,22 +6096,22 @@
         <v>23</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B47" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47">
         <v>49.419140200000001</v>
@@ -6096,26 +6123,26 @@
         <v>23</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
         <v>130</v>
       </c>
-      <c r="C48" t="s">
-        <v>131</v>
-      </c>
       <c r="D48" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F48">
         <v>39.138053200000002</v>
@@ -6127,27 +6154,27 @@
         <v>20</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="K48" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>1221</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
         <v>30</v>
@@ -6162,27 +6189,27 @@
         <v>23</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>696</v>
+        <v>657</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>697</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="s">
         <v>134</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>135</v>
-      </c>
-      <c r="D50" t="s">
-        <v>136</v>
       </c>
       <c r="F50">
         <v>-35.277699900000002</v>
@@ -6194,22 +6221,22 @@
         <v>23</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
         <v>137</v>
       </c>
-      <c r="C51" t="s">
-        <v>138</v>
-      </c>
       <c r="D51" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F51">
         <v>44.477852800000001</v>
@@ -6221,22 +6248,22 @@
         <v>20</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
         <v>142</v>
-      </c>
-      <c r="C52" t="s">
-        <v>143</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -6251,22 +6278,22 @@
         <v>20</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F53">
         <v>40.007436300000002</v>
@@ -6278,22 +6305,22 @@
         <v>23</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s">
         <v>146</v>
-      </c>
-      <c r="C54" t="s">
-        <v>147</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -6308,27 +6335,27 @@
         <v>23</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F55">
         <v>40.007436300000002</v>
@@ -6340,25 +6367,25 @@
         <v>23</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F56">
         <v>40.007436300000002</v>
@@ -6370,23 +6397,23 @@
         <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L56"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" t="s">
         <v>151</v>
-      </c>
-      <c r="C57" t="s">
-        <v>152</v>
       </c>
       <c r="D57" t="s">
         <v>30</v>
@@ -6401,21 +6428,21 @@
         <v>23</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B58" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C58" t="s">
         <v>1011</v>
       </c>
-      <c r="C58" t="s">
-        <v>1014</v>
-      </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F58">
         <v>50.060986999999997</v>
@@ -6429,21 +6456,21 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C59" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F59">
         <v>34.6502718080677</v>
@@ -6456,21 +6483,21 @@
       </c>
       <c r="I59"/>
       <c r="K59" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -6485,25 +6512,25 @@
         <v>23</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" t="s">
         <v>154</v>
       </c>
-      <c r="C61" t="s">
-        <v>155</v>
-      </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F61">
         <v>-27.495430599999999</v>
@@ -6515,28 +6542,28 @@
         <v>20</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="K61" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" t="s">
         <v>158</v>
       </c>
-      <c r="C62" t="s">
-        <v>159</v>
-      </c>
       <c r="D62" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F62">
         <v>40.105215899999997</v>
@@ -6548,22 +6575,22 @@
         <v>23</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
         <v>160</v>
       </c>
-      <c r="C63" t="s">
-        <v>161</v>
-      </c>
       <c r="D63" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F63">
         <v>41.316324399999999</v>
@@ -6575,30 +6602,30 @@
         <v>15</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="K63" s="6" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F64">
         <v>48.422230499999998</v>
@@ -6610,30 +6637,30 @@
         <v>23</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="K64" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
         <v>168</v>
       </c>
-      <c r="C65" t="s">
-        <v>169</v>
-      </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F65">
         <v>1.2971550000000001</v>
@@ -6645,22 +6672,22 @@
         <v>23</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" t="s">
         <v>170</v>
       </c>
-      <c r="C66" t="s">
-        <v>171</v>
-      </c>
       <c r="D66" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F66">
         <v>52.090152699999997</v>
@@ -6672,27 +6699,27 @@
         <v>23</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D67" t="s">
         <v>1180</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1183</v>
       </c>
       <c r="F67">
         <v>47.489090643903801</v>
@@ -6704,28 +6731,28 @@
         <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J67" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="K67" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L67"/>
     </row>
     <row r="68" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
         <v>173</v>
       </c>
-      <c r="C68" t="s">
-        <v>174</v>
-      </c>
       <c r="D68" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F68">
         <v>42.377002900000001</v>
@@ -6737,27 +6764,27 @@
         <v>23</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
         <v>176</v>
       </c>
-      <c r="C69" t="s">
-        <v>177</v>
-      </c>
       <c r="D69" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F69">
         <v>42.278043599999997</v>
@@ -6769,25 +6796,25 @@
         <v>20</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
         <v>179</v>
       </c>
-      <c r="C70" t="s">
-        <v>180</v>
-      </c>
       <c r="D70" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F70">
         <v>52.090737400000002</v>
@@ -6799,21 +6826,21 @@
         <v>20</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s">
         <v>181</v>
-      </c>
-      <c r="C71" t="s">
-        <v>182</v>
       </c>
       <c r="D71" t="s">
         <v>30</v>
@@ -6828,27 +6855,27 @@
         <v>20</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
         <v>184</v>
       </c>
-      <c r="C72" t="s">
-        <v>185</v>
-      </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F72">
         <v>1.3483099000000001</v>
@@ -6860,25 +6887,25 @@
         <v>23</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C73" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F73">
         <v>52.512535999999997</v>
@@ -6890,28 +6917,28 @@
         <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="J73" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="K73" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L73"/>
     </row>
     <row r="74" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B74" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C74" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F74">
         <v>52.375891600000003</v>
@@ -6924,22 +6951,22 @@
       </c>
       <c r="I74"/>
       <c r="K74" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
         <v>189</v>
       </c>
-      <c r="C75" t="s">
-        <v>190</v>
-      </c>
       <c r="D75" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F75">
         <v>46.731922500000003</v>
@@ -6951,22 +6978,22 @@
         <v>23</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F76">
         <v>52.382964100000002</v>
@@ -6978,24 +7005,24 @@
         <v>23</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" t="s">
         <v>193</v>
       </c>
-      <c r="C77" t="s">
-        <v>194</v>
-      </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77">
         <v>47.376313000000003</v>
@@ -7007,22 +7034,22 @@
         <v>23</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" t="s">
         <v>195</v>
       </c>
-      <c r="C78" t="s">
-        <v>196</v>
-      </c>
       <c r="D78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F78">
         <v>51.078159900000003</v>
@@ -7034,28 +7061,28 @@
         <v>20</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="K78" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" t="s">
         <v>199</v>
-      </c>
-      <c r="D79" t="s">
-        <v>200</v>
       </c>
       <c r="F79">
         <v>47.263354200000002</v>
@@ -7067,22 +7094,22 @@
         <v>23</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="L79" s="1"/>
     </row>
     <row r="80" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -7098,22 +7125,22 @@
       </c>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="K80" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L80"/>
     </row>
     <row r="81" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" t="s">
         <v>202</v>
-      </c>
-      <c r="C81" t="s">
-        <v>203</v>
       </c>
       <c r="D81" t="s">
         <v>38</v>
@@ -7128,30 +7155,30 @@
         <v>23</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="K81" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" t="s">
         <v>206</v>
       </c>
-      <c r="C82" t="s">
-        <v>207</v>
-      </c>
       <c r="D82" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F82">
         <v>33.948005299999998</v>
@@ -7163,27 +7190,27 @@
         <v>23</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" t="s">
         <v>209</v>
       </c>
-      <c r="C83" t="s">
-        <v>210</v>
-      </c>
       <c r="D83" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="F83">
         <v>37.459882</v>
@@ -7195,19 +7222,19 @@
         <v>20</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" t="s">
         <v>211</v>
-      </c>
-      <c r="C84" t="s">
-        <v>212</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
@@ -7222,22 +7249,22 @@
         <v>23</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -7252,24 +7279,24 @@
         <v>23</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B86" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F86">
         <v>46.7310277252978</v>
@@ -7281,25 +7308,25 @@
         <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="J86" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="K86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L86"/>
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" t="s">
         <v>215</v>
-      </c>
-      <c r="C87" t="s">
-        <v>216</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -7314,25 +7341,25 @@
         <v>15</v>
       </c>
       <c r="I87" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="K87" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" t="s">
         <v>219</v>
-      </c>
-      <c r="C88" t="s">
-        <v>220</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -7347,22 +7374,22 @@
         <v>20</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F89">
         <v>40.105215899999997</v>
@@ -7374,19 +7401,19 @@
         <v>23</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
         <v>146</v>
-      </c>
-      <c r="C90" t="s">
-        <v>147</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -7401,24 +7428,24 @@
         <v>20</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" t="s">
         <v>223</v>
-      </c>
-      <c r="C91" t="s">
-        <v>224</v>
       </c>
       <c r="D91" t="s">
         <v>30</v>
@@ -7433,27 +7460,27 @@
         <v>15</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F92">
         <v>49.419140200000001</v>
@@ -7465,28 +7492,28 @@
         <v>20</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="K92" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L92" s="1"/>
     </row>
     <row r="93" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" t="s">
         <v>229</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>230</v>
-      </c>
-      <c r="D93" t="s">
-        <v>231</v>
       </c>
       <c r="F93">
         <v>50.029727000000001</v>
@@ -7498,27 +7525,27 @@
         <v>23</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="K93" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D94" t="s">
         <v>30</v>
@@ -7533,30 +7560,30 @@
         <v>23</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="K94" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" t="s">
         <v>237</v>
       </c>
-      <c r="C95" t="s">
-        <v>238</v>
-      </c>
       <c r="D95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F95">
         <v>28.544975600000001</v>
@@ -7568,28 +7595,28 @@
         <v>20</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="K95" s="6" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" t="s">
         <v>241</v>
       </c>
-      <c r="C96" t="s">
-        <v>242</v>
-      </c>
       <c r="D96" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F96">
         <v>40.7982133</v>
@@ -7601,19 +7628,19 @@
         <v>23</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
         <v>30</v>
@@ -7628,24 +7655,24 @@
         <v>23</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -7660,24 +7687,24 @@
         <v>23</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K98" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" t="s">
         <v>250</v>
-      </c>
-      <c r="C99" t="s">
-        <v>251</v>
       </c>
       <c r="D99" t="s">
         <v>30</v>
@@ -7692,30 +7719,30 @@
         <v>23</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="K99" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="L99" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="L99" s="5" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C100" t="s">
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F100">
         <v>40.007436300000002</v>
@@ -7727,22 +7754,22 @@
         <v>20</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L100" s="1"/>
     </row>
     <row r="101" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F101">
         <v>42.377002900000001</v>
@@ -7754,22 +7781,22 @@
         <v>23</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="D102" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F102">
         <v>47.269212400000001</v>
@@ -7781,21 +7808,21 @@
         <v>23</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D103" t="s">
         <v>30</v>
@@ -7810,24 +7837,24 @@
         <v>23</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J103" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="K103" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" t="s">
         <v>261</v>
-      </c>
-      <c r="C104" t="s">
-        <v>262</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -7842,22 +7869,22 @@
         <v>23</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F105">
         <v>40.007436300000002</v>
@@ -7869,25 +7896,25 @@
         <v>23</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L105" s="1"/>
     </row>
     <row r="106" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C106" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D106" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F106">
         <v>30.695768098503201</v>
@@ -7900,25 +7927,25 @@
       </c>
       <c r="I106"/>
       <c r="J106" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="K106" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L106"/>
     </row>
     <row r="107" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C107" t="s">
         <v>265</v>
       </c>
-      <c r="C107" t="s">
-        <v>266</v>
-      </c>
       <c r="D107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F107">
         <v>-37.822150399999998</v>
@@ -7930,27 +7957,27 @@
         <v>15</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D108" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F108">
         <v>42.377002900000001</v>
@@ -7962,22 +7989,22 @@
         <v>23</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L108" s="1"/>
     </row>
     <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C109" t="s">
         <v>273</v>
       </c>
-      <c r="C109" t="s">
-        <v>274</v>
-      </c>
       <c r="D109" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F109">
         <v>30.2849185</v>
@@ -7989,24 +8016,24 @@
         <v>23</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C110" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F110">
         <v>53.566564100000001</v>
@@ -8018,23 +8045,23 @@
         <v>23</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="J110"/>
       <c r="K110" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L110"/>
     </row>
     <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C111" t="s">
         <v>275</v>
-      </c>
-      <c r="C111" t="s">
-        <v>276</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
@@ -8049,22 +8076,22 @@
         <v>23</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L111" s="1"/>
     </row>
     <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F112">
         <v>40.007436300000002</v>
@@ -8076,27 +8103,27 @@
         <v>20</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C113" t="s">
         <v>279</v>
       </c>
-      <c r="C113" t="s">
-        <v>280</v>
-      </c>
       <c r="D113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F113">
         <v>-36.852337800000001</v>
@@ -8108,19 +8135,19 @@
         <v>23</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" t="s">
         <v>146</v>
-      </c>
-      <c r="C114" t="s">
-        <v>147</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
@@ -8135,27 +8162,27 @@
         <v>23</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" t="s">
         <v>283</v>
       </c>
-      <c r="C115" t="s">
-        <v>284</v>
-      </c>
       <c r="D115" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F115">
         <v>45.7529003</v>
@@ -8167,22 +8194,22 @@
         <v>23</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" t="s">
         <v>45</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>46</v>
-      </c>
-      <c r="D116" t="s">
-        <v>47</v>
       </c>
       <c r="F116">
         <v>-45.479067100000002</v>
@@ -8194,21 +8221,21 @@
         <v>20</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
@@ -8223,30 +8250,30 @@
         <v>20</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="K117" s="6" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="D118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F118">
         <v>48.259664399999998</v>
@@ -8258,19 +8285,19 @@
         <v>23</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" t="s">
         <v>289</v>
-      </c>
-      <c r="C119" t="s">
-        <v>290</v>
       </c>
       <c r="D119" t="s">
         <v>38</v>
@@ -8285,27 +8312,27 @@
         <v>15</v>
       </c>
       <c r="I119" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="K119" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
@@ -8320,25 +8347,25 @@
         <v>20</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B121" t="s">
+        <v>293</v>
+      </c>
+      <c r="C121" t="s">
         <v>294</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>295</v>
-      </c>
-      <c r="D121" t="s">
-        <v>296</v>
       </c>
       <c r="F121">
         <v>46.042355899999997</v>
@@ -8350,28 +8377,28 @@
         <v>23</v>
       </c>
       <c r="I121" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="K121" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="D122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F122">
         <v>49.419140200000001</v>
@@ -8383,25 +8410,25 @@
         <v>23</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C123" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D123" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F123">
         <v>22.336399799999999</v>
@@ -8414,22 +8441,22 @@
       </c>
       <c r="I123" s="3"/>
       <c r="K123" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="D124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F124">
         <v>49.398752399999999</v>
@@ -8441,22 +8468,22 @@
         <v>23</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L124" s="1"/>
     </row>
     <row r="125" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C125" t="s">
         <v>313</v>
-      </c>
-      <c r="C125" t="s">
-        <v>314</v>
       </c>
       <c r="D125" t="s">
         <v>30</v>
@@ -8471,30 +8498,30 @@
         <v>15</v>
       </c>
       <c r="I125" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="K125" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B126" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C126" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D126" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F126">
         <v>48.213185499999902</v>
@@ -8507,21 +8534,21 @@
       </c>
       <c r="I126"/>
       <c r="K126" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C127" t="s">
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F127">
         <v>40.007436300000002</v>
@@ -8533,25 +8560,25 @@
         <v>23</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L127" s="1"/>
     </row>
     <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C128" t="s">
         <v>319</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>320</v>
-      </c>
-      <c r="D128" t="s">
-        <v>321</v>
       </c>
       <c r="F128">
         <v>63.8205484</v>
@@ -8563,27 +8590,27 @@
         <v>15</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C129" t="s">
         <v>323</v>
       </c>
-      <c r="C129" t="s">
-        <v>324</v>
-      </c>
       <c r="D129" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F129">
         <v>42.360090999999997</v>
@@ -8595,22 +8622,22 @@
         <v>23</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="L129" s="1"/>
     </row>
     <row r="130" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C130" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D130" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F130">
         <v>37.335293999999998</v>
@@ -8622,25 +8649,25 @@
         <v>20</v>
       </c>
       <c r="I130" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L130" s="1"/>
     </row>
     <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F131">
         <v>-27.495430599999999</v>
@@ -8652,25 +8679,25 @@
         <v>20</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="L131" s="1"/>
     </row>
     <row r="132" spans="1:12" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D132" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F132">
         <v>45.7529003</v>
@@ -8682,25 +8709,25 @@
         <v>23</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C133" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133" t="s">
         <v>135</v>
-      </c>
-      <c r="D133" t="s">
-        <v>136</v>
       </c>
       <c r="F133">
         <v>-35.277699900000002</v>
@@ -8712,30 +8739,30 @@
         <v>20</v>
       </c>
       <c r="I133" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="K133" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C134" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F134">
         <v>-45.864683499999998</v>
@@ -8747,22 +8774,22 @@
         <v>23</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L134" s="1"/>
     </row>
     <row r="135" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C135" t="s">
         <v>333</v>
       </c>
-      <c r="C135" t="s">
-        <v>334</v>
-      </c>
       <c r="D135" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F135">
         <v>44.935970900000001</v>
@@ -8774,25 +8801,25 @@
         <v>23</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L135" s="1"/>
     </row>
     <row r="136" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C136" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D136" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F136">
         <v>51.448068653910397</v>
@@ -8804,28 +8831,28 @@
         <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="J136" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L136" s="1"/>
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D137" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F137">
         <v>39.981988000000001</v>
@@ -8837,22 +8864,22 @@
         <v>20</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L137" s="1"/>
     </row>
     <row r="138" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C138" t="s">
         <v>338</v>
       </c>
-      <c r="C138" t="s">
-        <v>339</v>
-      </c>
       <c r="D138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F138">
         <v>49.260605200000001</v>
@@ -8864,25 +8891,25 @@
         <v>20</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L138" s="1"/>
     </row>
     <row r="139" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C139" t="s">
         <v>341</v>
       </c>
-      <c r="C139" t="s">
-        <v>342</v>
-      </c>
       <c r="D139" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F139">
         <v>35.689487499999998</v>
@@ -8894,22 +8921,22 @@
         <v>23</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L139" s="1"/>
     </row>
     <row r="140" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C140" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F140">
         <v>50.726771499999998</v>
@@ -8921,22 +8948,22 @@
         <v>23</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L140" s="1"/>
     </row>
     <row r="141" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" t="s">
         <v>344</v>
-      </c>
-      <c r="C141" t="s">
-        <v>345</v>
       </c>
       <c r="D141" t="s">
         <v>30</v>
@@ -8951,24 +8978,24 @@
         <v>15</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D142" t="s">
         <v>30</v>
@@ -8983,18 +9010,18 @@
         <v>15</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C143" t="s">
         <v>347</v>
-      </c>
-      <c r="C143" t="s">
-        <v>348</v>
       </c>
       <c r="D143" t="s">
         <v>30</v>
@@ -9009,18 +9036,18 @@
         <v>23</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" t="s">
         <v>349</v>
-      </c>
-      <c r="C144" t="s">
-        <v>350</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -9035,24 +9062,24 @@
         <v>15</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C145" t="s">
         <v>1195</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1198</v>
       </c>
       <c r="D145" t="s">
         <v>30</v>
@@ -9067,28 +9094,28 @@
         <v>23</v>
       </c>
       <c r="I145" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="J145" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="L145" s="1"/>
     </row>
     <row r="146" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C146" t="s">
+        <v>78</v>
+      </c>
+      <c r="D146" t="s">
         <v>79</v>
-      </c>
-      <c r="D146" t="s">
-        <v>80</v>
       </c>
       <c r="F146">
         <v>53.523218900000003</v>
@@ -9100,22 +9127,22 @@
         <v>23</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C147" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D147" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F147">
         <v>42.278043599999997</v>
@@ -9127,27 +9154,27 @@
         <v>23</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C148" t="s">
         <v>354</v>
       </c>
-      <c r="C148" t="s">
-        <v>355</v>
-      </c>
       <c r="D148" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F148">
         <v>37.427474500000002</v>
@@ -9159,27 +9186,27 @@
         <v>23</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C149" t="s">
         <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F149">
         <v>40.007436300000002</v>
@@ -9191,27 +9218,27 @@
         <v>23</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C150" t="s">
         <v>359</v>
       </c>
-      <c r="C150" t="s">
-        <v>360</v>
-      </c>
       <c r="D150" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F150">
         <v>36.127023600000001</v>
@@ -9223,22 +9250,22 @@
         <v>23</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L150" s="1"/>
     </row>
     <row r="151" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C151" t="s">
         <v>361</v>
       </c>
-      <c r="C151" t="s">
-        <v>362</v>
-      </c>
       <c r="D151" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F151">
         <v>44.105721600000003</v>
@@ -9250,28 +9277,28 @@
         <v>23</v>
       </c>
       <c r="I151" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J151" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="K151" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L151" s="1"/>
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C152" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D152" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F152">
         <v>-5.8393706999999999</v>
@@ -9283,28 +9310,28 @@
         <v>20</v>
       </c>
       <c r="I152" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L152" s="1"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C153" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F153">
         <v>49.260605200000001</v>
@@ -9316,22 +9343,22 @@
         <v>23</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L153" s="1"/>
     </row>
     <row r="154" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C154" t="s">
         <v>366</v>
       </c>
-      <c r="C154" t="s">
-        <v>367</v>
-      </c>
       <c r="D154" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F154">
         <v>52.221201200000003</v>
@@ -9343,28 +9370,28 @@
         <v>20</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L154" s="1"/>
     </row>
     <row r="155" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C155" t="s">
         <v>372</v>
       </c>
-      <c r="C155" t="s">
-        <v>373</v>
-      </c>
       <c r="D155" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F155">
         <v>-23.561399099999999</v>
@@ -9376,30 +9403,30 @@
         <v>23</v>
       </c>
       <c r="I155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J155" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J155" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="K155" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="L155" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C156" t="s">
         <v>376</v>
       </c>
-      <c r="C156" t="s">
-        <v>377</v>
-      </c>
       <c r="D156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F156">
         <v>43.464257799999999</v>
@@ -9411,25 +9438,25 @@
         <v>23</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L156" s="1"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C157" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D157" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F157">
         <v>41.807733382103898</v>
@@ -9441,24 +9468,24 @@
         <v>23</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C158" t="s">
         <v>379</v>
       </c>
-      <c r="C158" t="s">
-        <v>380</v>
-      </c>
       <c r="D158" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F158">
         <v>49.278093699999999</v>
@@ -9470,24 +9497,24 @@
         <v>23</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C159" t="s">
         <v>382</v>
-      </c>
-      <c r="C159" t="s">
-        <v>383</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
@@ -9502,25 +9529,25 @@
         <v>20</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L159" s="1"/>
     </row>
     <row r="160" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="D160" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F160">
         <v>50.728592999999996</v>
@@ -9532,30 +9559,30 @@
         <v>23</v>
       </c>
       <c r="I160" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J160" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J160" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="K160" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="L160" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="D161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F161">
         <v>53.566564100000001</v>
@@ -9567,27 +9594,27 @@
         <v>23</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C162" t="s">
         <v>392</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>393</v>
-      </c>
-      <c r="D162" t="s">
-        <v>394</v>
       </c>
       <c r="F162">
         <v>43.3104637</v>
@@ -9599,27 +9626,27 @@
         <v>20</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C163" t="s">
         <v>396</v>
       </c>
-      <c r="C163" t="s">
-        <v>397</v>
-      </c>
       <c r="D163" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F163">
         <v>35.440489599999999</v>
@@ -9631,22 +9658,22 @@
         <v>23</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L163" s="1"/>
     </row>
     <row r="164" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C164" t="s">
         <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F164">
         <v>40.007436300000002</v>
@@ -9658,25 +9685,25 @@
         <v>23</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L164" s="1"/>
     </row>
     <row r="165" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C165" t="s">
         <v>399</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>400</v>
-      </c>
-      <c r="D165" t="s">
-        <v>401</v>
       </c>
       <c r="F165">
         <v>60.172634799999997</v>
@@ -9688,25 +9715,25 @@
         <v>15</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L165" s="1"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C166" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D166" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F166">
         <v>47.263354200000002</v>
@@ -9718,22 +9745,22 @@
         <v>23</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="L166" s="1"/>
     </row>
     <row r="167" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C167" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D167" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F167">
         <v>43.260879000000003</v>
@@ -9745,27 +9772,27 @@
         <v>20</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D168" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F168">
         <v>40.7982133</v>
@@ -9777,24 +9804,24 @@
         <v>23</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D169" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F169">
         <v>49.419111000000001</v>
@@ -9806,22 +9833,22 @@
         <v>23</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="L169" s="1"/>
     </row>
     <row r="170" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C170" t="s">
         <v>406</v>
       </c>
-      <c r="C170" t="s">
-        <v>407</v>
-      </c>
       <c r="D170" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F170">
         <v>34.947723400000001</v>
@@ -9833,22 +9860,22 @@
         <v>23</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L170" s="1"/>
     </row>
     <row r="171" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="D171" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F171">
         <v>49.440065699999998</v>
@@ -9860,25 +9887,25 @@
         <v>23</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L171" s="1"/>
     </row>
     <row r="172" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C172" t="s">
         <v>411</v>
       </c>
-      <c r="C172" t="s">
-        <v>412</v>
-      </c>
       <c r="D172" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F172">
         <v>43.662891700000003</v>
@@ -9890,27 +9917,27 @@
         <v>20</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C173" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D173" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="F173">
         <v>36.014007141256101</v>
@@ -9923,19 +9950,19 @@
       </c>
       <c r="I173"/>
       <c r="K173" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L173" s="1"/>
     </row>
     <row r="174" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C174" t="s">
         <v>414</v>
-      </c>
-      <c r="C174" t="s">
-        <v>415</v>
       </c>
       <c r="D174" t="s">
         <v>14</v>
@@ -9950,27 +9977,27 @@
         <v>20</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="D175" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F175">
         <v>49.425377400000002</v>
@@ -9982,22 +10009,22 @@
         <v>20</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L175" s="1"/>
     </row>
     <row r="176" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C176" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D176" t="s">
         <v>30</v>
@@ -10012,24 +10039,24 @@
         <v>15</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C177" t="s">
         <v>422</v>
-      </c>
-      <c r="C177" t="s">
-        <v>423</v>
       </c>
       <c r="D177" t="s">
         <v>40</v>
@@ -10044,30 +10071,30 @@
         <v>20</v>
       </c>
       <c r="I177" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J177" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J177" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="K177" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="D178" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F178">
         <v>48.781647200000002</v>
@@ -10079,28 +10106,28 @@
         <v>23</v>
       </c>
       <c r="I178" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J178" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J178" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="K178" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L178" s="1"/>
     </row>
     <row r="179" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C179" t="s">
         <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F179">
         <v>40.007436300000002</v>
@@ -10112,25 +10139,25 @@
         <v>15</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L179" s="1"/>
     </row>
     <row r="180" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C180" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D180" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F180">
         <v>47.564731000000002</v>
@@ -10142,28 +10169,28 @@
         <v>23</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L180" s="1"/>
     </row>
     <row r="181" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C181" t="s">
         <v>432</v>
       </c>
-      <c r="C181" t="s">
-        <v>433</v>
-      </c>
       <c r="D181" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F181">
         <v>39.138053200000002</v>
@@ -10175,22 +10202,22 @@
         <v>23</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L181" s="1"/>
     </row>
     <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C182" t="s">
         <v>435</v>
-      </c>
-      <c r="C182" t="s">
-        <v>436</v>
       </c>
       <c r="D182" t="s">
         <v>30</v>
@@ -10205,27 +10232,27 @@
         <v>15</v>
       </c>
       <c r="I182" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J182" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J182" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="K182" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C183" t="s">
         <v>439</v>
-      </c>
-      <c r="C183" t="s">
-        <v>440</v>
       </c>
       <c r="D183" t="s">
         <v>40</v>
@@ -10240,24 +10267,24 @@
         <v>23</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C184" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F184">
         <v>49.398752399999999</v>
@@ -10269,19 +10296,19 @@
         <v>15</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L184" s="1"/>
     </row>
     <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C185" t="s">
         <v>441</v>
-      </c>
-      <c r="C185" t="s">
-        <v>442</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -10296,27 +10323,27 @@
         <v>20</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C186" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D186" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F186">
         <v>45.7529003</v>
@@ -10328,25 +10355,25 @@
         <v>20</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L186" s="1"/>
     </row>
     <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D187" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F187">
         <v>42.278043599999997</v>
@@ -10358,25 +10385,25 @@
         <v>23</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K187" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L187" s="1"/>
     </row>
     <row r="188" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C188" t="s">
         <v>448</v>
       </c>
-      <c r="C188" t="s">
-        <v>449</v>
-      </c>
       <c r="D188" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F188">
         <v>30.2849185</v>
@@ -10388,25 +10415,25 @@
         <v>23</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="L188" s="1"/>
     </row>
     <row r="189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C189" t="s">
         <v>451</v>
       </c>
-      <c r="C189" t="s">
-        <v>452</v>
-      </c>
       <c r="D189" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F189">
         <v>13.012825599999999</v>
@@ -10418,28 +10445,28 @@
         <v>15</v>
       </c>
       <c r="I189" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J189" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="J189" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="K189" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C190" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D190" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F190">
         <v>33.775617799999999</v>
@@ -10451,24 +10478,24 @@
         <v>23</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K190" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C191" t="s">
         <v>461</v>
-      </c>
-      <c r="C191" t="s">
-        <v>462</v>
       </c>
       <c r="D191" t="s">
         <v>30</v>
@@ -10483,30 +10510,30 @@
         <v>15</v>
       </c>
       <c r="I191" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J191" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="J191" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="K191" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B192" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C192" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D192" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F192">
         <v>55.712514172791899</v>
@@ -10519,21 +10546,21 @@
       </c>
       <c r="I192"/>
       <c r="K192" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="D193" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F193">
         <v>48.259664399999998</v>
@@ -10545,22 +10572,22 @@
         <v>23</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L193" s="1"/>
     </row>
     <row r="194" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C194" t="s">
         <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F194">
         <v>40.007436300000002</v>
@@ -10572,22 +10599,22 @@
         <v>20</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L194" s="1"/>
     </row>
     <row r="195" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C195" t="s">
         <v>472</v>
-      </c>
-      <c r="C195" t="s">
-        <v>473</v>
       </c>
       <c r="D195" t="s">
         <v>14</v>
@@ -10602,30 +10629,30 @@
         <v>23</v>
       </c>
       <c r="I195" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J195" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="J195" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="K195" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C196" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D196" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F196">
         <v>31.775379606080701</v>
@@ -10637,22 +10664,22 @@
         <v>20</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L196" s="1"/>
     </row>
     <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C197" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D197" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F197">
         <v>-27.495430599999999</v>
@@ -10664,24 +10691,24 @@
         <v>23</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K197" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B198" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C198" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D198" t="s">
         <v>14</v>
@@ -10696,22 +10723,22 @@
         <v>20</v>
       </c>
       <c r="K198" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L198" s="1"/>
     </row>
     <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C199" t="s">
         <v>478</v>
       </c>
-      <c r="C199" t="s">
-        <v>479</v>
-      </c>
       <c r="D199" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F199">
         <v>38.033552899999997</v>
@@ -10723,25 +10750,25 @@
         <v>23</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L199" s="1"/>
     </row>
     <row r="200" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="D200" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F200">
         <v>52.517882999999998</v>
@@ -10753,22 +10780,22 @@
         <v>20</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L200" s="1"/>
     </row>
     <row r="201" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B201" t="s">
+        <v>482</v>
+      </c>
+      <c r="C201" t="s">
         <v>483</v>
       </c>
-      <c r="C201" t="s">
-        <v>484</v>
-      </c>
       <c r="D201" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F201">
         <v>43.076591999999998</v>
@@ -10780,24 +10807,24 @@
         <v>15</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C202" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D202" t="s">
         <v>19</v>
@@ -10812,19 +10839,19 @@
         <v>23</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="L202" s="1"/>
     </row>
     <row r="203" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C203" t="s">
         <v>486</v>
-      </c>
-      <c r="C203" t="s">
-        <v>487</v>
       </c>
       <c r="D203" t="s">
         <v>38</v>
@@ -10839,27 +10866,27 @@
         <v>20</v>
       </c>
       <c r="I203" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J203" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J203" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="K203" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C204" t="s">
         <v>140</v>
-      </c>
-      <c r="C204" t="s">
-        <v>141</v>
       </c>
       <c r="D204" t="s">
         <v>30</v>
@@ -10874,27 +10901,27 @@
         <v>23</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C205" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D205" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F205">
         <v>53.566564100000001</v>
@@ -10903,21 +10930,21 @@
         <v>9.9846195000000009</v>
       </c>
       <c r="H205" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B206" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C206" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D206" t="s">
         <v>30</v>
@@ -10932,24 +10959,24 @@
         <v>20</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="D207" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F207">
         <v>52.382964100000002</v>
@@ -10961,22 +10988,22 @@
         <v>20</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L207" s="1"/>
     </row>
     <row r="208" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C208" t="s">
         <v>493</v>
       </c>
-      <c r="C208" t="s">
-        <v>494</v>
-      </c>
       <c r="D208" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F208">
         <v>38.536048000000001</v>
@@ -10988,25 +11015,25 @@
         <v>20</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L208" s="1"/>
     </row>
     <row r="209" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C209" t="s">
         <v>496</v>
       </c>
-      <c r="C209" t="s">
-        <v>497</v>
-      </c>
       <c r="D209" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F209">
         <v>37.228384300000002</v>
@@ -11018,25 +11045,25 @@
         <v>20</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L209" s="1"/>
     </row>
     <row r="210" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C210" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D210" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F210">
         <v>38.033628934789498</v>
@@ -11048,26 +11075,26 @@
         <v>23</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="J210"/>
       <c r="K210" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L210"/>
     </row>
     <row r="211" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="D211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F211">
         <v>53.577424999999998</v>
@@ -11079,25 +11106,25 @@
         <v>20</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L211" s="1"/>
     </row>
     <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="D212" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F212">
         <v>48.198654599999998</v>
@@ -11109,25 +11136,25 @@
         <v>23</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K212" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L212" s="1"/>
     </row>
     <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C213" t="s">
         <v>504</v>
       </c>
-      <c r="C213" t="s">
-        <v>505</v>
-      </c>
       <c r="D213" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F213">
         <v>40.912376100000003</v>
@@ -11139,22 +11166,22 @@
         <v>23</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K213" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L213" s="1"/>
     </row>
     <row r="214" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B214" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C214" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D214" t="s">
         <v>14</v>
@@ -11170,22 +11197,22 @@
       </c>
       <c r="I214"/>
       <c r="K214" s="6" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="L214" s="1"/>
     </row>
     <row r="215" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D215" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F215">
         <v>48.198654599999998</v>
@@ -11197,27 +11224,27 @@
         <v>23</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D216" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F216">
         <v>53.551084600000003</v>
@@ -11229,25 +11256,25 @@
         <v>23</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K216" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L216" s="1"/>
     </row>
     <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C217" t="s">
         <v>511</v>
       </c>
-      <c r="C217" t="s">
-        <v>512</v>
-      </c>
       <c r="D217" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F217">
         <v>35.205893600000003</v>
@@ -11259,24 +11286,24 @@
         <v>15</v>
       </c>
       <c r="I217" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="J217" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="J217" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="K217" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C218" t="s">
         <v>39</v>
@@ -11296,22 +11323,22 @@
       <c r="I218"/>
       <c r="J218"/>
       <c r="K218" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L218"/>
     </row>
     <row r="219" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C219" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D219" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="F219">
         <v>37.459879000000001</v>
@@ -11323,26 +11350,26 @@
         <v>23</v>
       </c>
       <c r="I219" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="J219"/>
       <c r="K219" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="L219"/>
     </row>
     <row r="220" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C220" t="s">
         <v>515</v>
       </c>
-      <c r="C220" t="s">
-        <v>516</v>
-      </c>
       <c r="D220" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F220">
         <v>30.975639399999999</v>
@@ -11354,25 +11381,25 @@
         <v>20</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L220" s="1"/>
     </row>
     <row r="221" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C221" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F221">
         <v>-37.822150399999998</v>
@@ -11384,24 +11411,24 @@
         <v>23</v>
       </c>
       <c r="K221" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B222" t="s">
+        <v>518</v>
+      </c>
+      <c r="C222" t="s">
         <v>519</v>
       </c>
-      <c r="C222" t="s">
-        <v>520</v>
-      </c>
       <c r="D222" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F222">
         <v>50.087110600000003</v>
@@ -11413,27 +11440,27 @@
         <v>20</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K222" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C223" t="s">
         <v>522</v>
       </c>
-      <c r="C223" t="s">
-        <v>523</v>
-      </c>
       <c r="D223" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F223">
         <v>37.871899200000001</v>
@@ -11445,27 +11472,27 @@
         <v>23</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C224" t="s">
         <v>525</v>
       </c>
-      <c r="C224" t="s">
-        <v>526</v>
-      </c>
       <c r="D224" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F224">
         <v>43.653225999999997</v>
@@ -11477,28 +11504,28 @@
         <v>23</v>
       </c>
       <c r="I224" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J224" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="J224" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="K224" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L224" s="1"/>
     </row>
     <row r="225" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C225" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D225" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F225">
         <v>52.296484</v>
@@ -11510,25 +11537,25 @@
         <v>23</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="K225" s="6" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="L225" s="1"/>
     </row>
     <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C226" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D226" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F226">
         <v>52.090737400000002</v>
@@ -11540,19 +11567,19 @@
         <v>20</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="L226" s="1"/>
     </row>
     <row r="227" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C227" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D227" t="s">
         <v>38</v>
@@ -11567,30 +11594,30 @@
         <v>20</v>
       </c>
       <c r="I227" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J227" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="J227" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="K227" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C228" t="s">
         <v>533</v>
       </c>
-      <c r="C228" t="s">
-        <v>534</v>
-      </c>
       <c r="D228" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F228">
         <v>47.655335100000002</v>
@@ -11602,24 +11629,24 @@
         <v>23</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D229" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F229">
         <v>36.885344000000003</v>
@@ -11631,22 +11658,22 @@
         <v>23</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="K229" s="6" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="L229" s="1"/>
     </row>
     <row r="230" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C230" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D230" t="s">
         <v>40</v>
@@ -11661,27 +11688,27 @@
         <v>20</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C231" t="s">
         <v>537</v>
       </c>
-      <c r="C231" t="s">
-        <v>538</v>
-      </c>
       <c r="D231" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F231">
         <v>35.026244400000003</v>
@@ -11693,25 +11720,25 @@
         <v>23</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="L231" s="1"/>
     </row>
     <row r="232" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C232" t="s">
         <v>540</v>
       </c>
-      <c r="C232" t="s">
-        <v>541</v>
-      </c>
       <c r="D232" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F232">
         <v>41.275596999999998</v>
@@ -11723,25 +11750,25 @@
         <v>23</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K232" s="6" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="L232" s="1"/>
     </row>
     <row r="233" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C233" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D233" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F233">
         <v>-21.9841446</v>
@@ -11753,22 +11780,22 @@
         <v>15</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C234" t="s">
         <v>545</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>546</v>
-      </c>
-      <c r="D234" t="s">
-        <v>547</v>
       </c>
       <c r="F234">
         <v>51.222809699999999</v>
@@ -11780,28 +11807,28 @@
         <v>20</v>
       </c>
       <c r="I234" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J234" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="J234" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="K234" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L234" s="1"/>
     </row>
     <row r="235" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B235" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C235" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D235" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F235">
         <v>35.759573099999997</v>
@@ -11813,22 +11840,22 @@
         <v>23</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L235" s="1"/>
     </row>
     <row r="236" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C236" t="s">
         <v>26</v>
       </c>
       <c r="D236" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F236">
         <v>40.007436300000002</v>
@@ -11840,24 +11867,24 @@
         <v>23</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C237" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D237" t="s">
         <v>40</v>
@@ -11872,25 +11899,25 @@
         <v>23</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K237" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L237" s="1"/>
     </row>
     <row r="238" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C238" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D238" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F238">
         <v>43.653225999999997</v>
@@ -11902,27 +11929,27 @@
         <v>23</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K238" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C239" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D239" t="s">
         <v>38</v>
@@ -11937,27 +11964,27 @@
         <v>23</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B240" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C240" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D240" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F240">
         <v>52.240320000522601</v>
@@ -11969,28 +11996,28 @@
         <v>20</v>
       </c>
       <c r="I240" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="J240" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="K240" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L240" s="1"/>
     </row>
     <row r="241" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C241" t="s">
         <v>558</v>
       </c>
-      <c r="C241" t="s">
-        <v>559</v>
-      </c>
       <c r="D241" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F241">
         <v>60.209825299999999</v>
@@ -12002,25 +12029,25 @@
         <v>20</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L241" s="1"/>
     </row>
     <row r="242" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C242" t="s">
         <v>561</v>
       </c>
-      <c r="C242" t="s">
-        <v>562</v>
-      </c>
       <c r="D242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F242">
         <v>52.240346299999999</v>
@@ -12032,28 +12059,28 @@
         <v>20</v>
       </c>
       <c r="I242" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J242" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J242" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="K242" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L242" s="1"/>
     </row>
     <row r="243" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C243" t="s">
+        <v>134</v>
+      </c>
+      <c r="D243" t="s">
         <v>135</v>
-      </c>
-      <c r="D243" t="s">
-        <v>136</v>
       </c>
       <c r="F243">
         <v>-35.277699900000002</v>
@@ -12065,27 +12092,27 @@
         <v>23</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C244" t="s">
         <v>567</v>
       </c>
-      <c r="C244" t="s">
-        <v>568</v>
-      </c>
       <c r="D244" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F244">
         <v>18.905388899999998</v>
@@ -12097,27 +12124,27 @@
         <v>23</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K244" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L244" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C245" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D245" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F245">
         <v>-37.822150399999998</v>
@@ -12129,27 +12156,27 @@
         <v>23</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C246" t="s">
         <v>572</v>
       </c>
-      <c r="C246" t="s">
-        <v>573</v>
-      </c>
       <c r="D246" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F246">
         <v>43.773453500000002</v>
@@ -12161,22 +12188,22 @@
         <v>23</v>
       </c>
       <c r="K246" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L246" s="1"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C247" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D247" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F247">
         <v>52.333756800000003</v>
@@ -12188,22 +12215,22 @@
         <v>23</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L247" s="1"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C248" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D248" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F248">
         <v>42.360090999999997</v>
@@ -12215,22 +12242,22 @@
         <v>23</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L248" s="1"/>
     </row>
     <row r="249" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B249" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C249" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D249" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F249">
         <v>52.221188034473002</v>
@@ -12242,28 +12269,28 @@
         <v>20</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="K249" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L249"/>
     </row>
     <row r="250" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C250" t="s">
         <v>576</v>
       </c>
-      <c r="C250" t="s">
-        <v>577</v>
-      </c>
       <c r="D250" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F250">
         <v>42.929508400000003</v>
@@ -12275,24 +12302,24 @@
         <v>23</v>
       </c>
       <c r="K250" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C251" t="s">
         <v>578</v>
       </c>
-      <c r="C251" t="s">
-        <v>579</v>
-      </c>
       <c r="D251" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F251">
         <v>52.355818200000002</v>
@@ -12304,27 +12331,27 @@
         <v>23</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K251" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C252" t="s">
         <v>581</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>582</v>
-      </c>
-      <c r="D252" t="s">
-        <v>583</v>
       </c>
       <c r="F252">
         <v>22.418096999999999</v>
@@ -12336,27 +12363,27 @@
         <v>23</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K252" s="6" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D253" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F253">
         <v>49.419140200000001</v>
@@ -12368,25 +12395,25 @@
         <v>23</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K253" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L253" s="1"/>
     </row>
     <row r="254" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D254" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F254">
         <v>52.382964100000002</v>
@@ -12398,25 +12425,25 @@
         <v>20</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K254" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L254" s="1"/>
     </row>
     <row r="255" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C255" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D255" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F255">
         <v>40.7982133</v>
@@ -12428,27 +12455,27 @@
         <v>23</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K255" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D256" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F256">
         <v>50.726771499999998</v>
@@ -12460,22 +12487,22 @@
         <v>23</v>
       </c>
       <c r="K256" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L256" s="1"/>
     </row>
     <row r="257" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C257" t="s">
         <v>592</v>
       </c>
-      <c r="C257" t="s">
-        <v>593</v>
-      </c>
       <c r="D257" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F257">
         <v>34.413962900000001</v>
@@ -12487,19 +12514,19 @@
         <v>23</v>
       </c>
       <c r="K257" s="6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="L257" s="1"/>
     </row>
     <row r="258" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>42</v>
+        <v>1216</v>
       </c>
       <c r="C258" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D258" t="s">
         <v>30</v>
@@ -12514,27 +12541,27 @@
         <v>23</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K258" s="6" t="s">
-        <v>696</v>
+        <v>657</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>697</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C259" t="s">
         <v>594</v>
       </c>
-      <c r="C259" t="s">
-        <v>595</v>
-      </c>
       <c r="D259" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F259">
         <v>34.097743000000001</v>
@@ -12546,22 +12573,22 @@
         <v>23</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L259" s="1"/>
     </row>
     <row r="260" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="D260" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F260">
         <v>49.425377400000002</v>
@@ -12573,22 +12600,22 @@
         <v>23</v>
       </c>
       <c r="K260" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L260" s="1"/>
     </row>
     <row r="261" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C261" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F261">
         <v>1.3483099000000001</v>
@@ -12600,28 +12627,28 @@
         <v>23</v>
       </c>
       <c r="I261" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J261" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="J261" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="K261" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L261" s="1"/>
     </row>
     <row r="262" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C262" t="s">
         <v>602</v>
       </c>
-      <c r="C262" t="s">
-        <v>603</v>
-      </c>
       <c r="D262" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F262">
         <v>40.8075355</v>
@@ -12633,22 +12660,22 @@
         <v>23</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L262" s="1"/>
     </row>
     <row r="263" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C263" t="s">
         <v>605</v>
       </c>
-      <c r="C263" t="s">
-        <v>606</v>
-      </c>
       <c r="D263" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F263">
         <v>23.253028</v>
@@ -12660,28 +12687,28 @@
         <v>20</v>
       </c>
       <c r="I263" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J263" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="J263" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="K263" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L263" s="1"/>
     </row>
     <row r="264" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
       </c>
       <c r="D264" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F264">
         <v>40.007436300000002</v>
@@ -12693,27 +12720,27 @@
         <v>23</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C265" t="s">
         <v>613</v>
       </c>
-      <c r="C265" t="s">
-        <v>614</v>
-      </c>
       <c r="D265" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F265">
         <v>50.0609623</v>
@@ -12725,28 +12752,28 @@
         <v>20</v>
       </c>
       <c r="I265" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J265" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="J265" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="K265" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L265" s="1"/>
     </row>
     <row r="266" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B266" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C266" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D266" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F266">
         <v>44.225279499999999</v>
@@ -12758,22 +12785,22 @@
         <v>20</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L266" s="1"/>
     </row>
     <row r="267" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C267" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D267" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F267">
         <v>40.8075355</v>
@@ -12785,22 +12812,22 @@
         <v>23</v>
       </c>
       <c r="K267" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="L267" s="1"/>
     </row>
     <row r="268" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C268" t="s">
         <v>619</v>
       </c>
-      <c r="C268" t="s">
-        <v>620</v>
-      </c>
       <c r="D268" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F268">
         <v>32.9857619</v>
@@ -12812,22 +12839,22 @@
         <v>20</v>
       </c>
       <c r="K268" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L268" s="1"/>
     </row>
     <row r="269" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C269" t="s">
         <v>621</v>
       </c>
-      <c r="C269" t="s">
-        <v>622</v>
-      </c>
       <c r="D269" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F269">
         <v>37.841507</v>
@@ -12839,27 +12866,27 @@
         <v>23</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K269" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C270" t="s">
         <v>624</v>
       </c>
-      <c r="C270" t="s">
-        <v>625</v>
-      </c>
       <c r="D270" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F270">
         <v>22.4162632</v>
@@ -12871,25 +12898,25 @@
         <v>20</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K270" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L270" s="1"/>
     </row>
     <row r="271" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="D271" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F271">
         <v>48.529454999999999</v>
@@ -12901,24 +12928,24 @@
         <v>23</v>
       </c>
       <c r="K271" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D272" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F272">
         <v>47.269212400000001</v>
@@ -12930,25 +12957,25 @@
         <v>20</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K272" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L272" s="1"/>
     </row>
     <row r="273" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C273" t="s">
+        <v>631</v>
+      </c>
+      <c r="D273" t="s">
         <v>1006</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C273" t="s">
-        <v>632</v>
-      </c>
-      <c r="D273" t="s">
-        <v>1009</v>
       </c>
       <c r="F273">
         <v>42.360090999999997</v>
@@ -12960,22 +12987,22 @@
         <v>23</v>
       </c>
       <c r="K273" s="6" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="L273" s="1"/>
     </row>
     <row r="274" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C274" t="s">
+        <v>634</v>
+      </c>
+      <c r="D274" t="s">
         <v>635</v>
-      </c>
-      <c r="D274" t="s">
-        <v>636</v>
       </c>
       <c r="F274">
         <v>35.305134000000002</v>
@@ -12987,13 +13014,13 @@
         <v>23</v>
       </c>
       <c r="I274" s="7" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K274" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L274" s="1"/>
     </row>
@@ -13002,7 +13029,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B276" t="s">
         <v>21</v>
@@ -13011,7 +13038,7 @@
         <v>22</v>
       </c>
       <c r="D276" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F276">
         <v>32.2318851</v>
@@ -13027,22 +13054,22 @@
       </c>
       <c r="J276"/>
       <c r="K276" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L276"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B277" t="s">
+        <v>77</v>
+      </c>
+      <c r="C277" t="s">
         <v>78</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>79</v>
-      </c>
-      <c r="D277" t="s">
-        <v>80</v>
       </c>
       <c r="F277">
         <v>53.523218900000003</v>
@@ -13055,27 +13082,27 @@
       </c>
       <c r="I277"/>
       <c r="J277" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K277" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L277" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B278" t="s">
+        <v>112</v>
+      </c>
+      <c r="C278" t="s">
         <v>113</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>114</v>
-      </c>
-      <c r="D278" t="s">
-        <v>115</v>
       </c>
       <c r="F278">
         <v>39.986913000000001</v>
@@ -13087,30 +13114,30 @@
         <v>15</v>
       </c>
       <c r="I278" t="s">
+        <v>115</v>
+      </c>
+      <c r="J278" t="s">
         <v>116</v>
       </c>
-      <c r="J278" t="s">
-        <v>117</v>
-      </c>
       <c r="K278" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L278" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B279" t="s">
+        <v>127</v>
+      </c>
+      <c r="C279" t="s">
         <v>128</v>
       </c>
-      <c r="C279" t="s">
-        <v>129</v>
-      </c>
       <c r="D279" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F279">
         <v>37.427474500000002</v>
@@ -13124,21 +13151,21 @@
       <c r="I279"/>
       <c r="J279"/>
       <c r="K279" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="L279" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D280" t="s">
         <v>30</v>
@@ -13153,24 +13180,24 @@
         <v>15</v>
       </c>
       <c r="K280" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="D281" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F281">
         <v>12.9225525</v>
@@ -13182,27 +13209,27 @@
         <v>15</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K281" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" t="s">
         <v>46</v>
-      </c>
-      <c r="D282" t="s">
-        <v>47</v>
       </c>
       <c r="F282">
         <v>-45.479067100000002</v>
@@ -13214,24 +13241,24 @@
         <v>20</v>
       </c>
       <c r="K282" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="D283" t="s">
         <v>248</v>
-      </c>
-      <c r="D283" t="s">
-        <v>249</v>
       </c>
       <c r="F283">
         <v>35.801062000000002</v>
@@ -13243,24 +13270,24 @@
         <v>23</v>
       </c>
       <c r="K283" t="s">
+        <v>638</v>
+      </c>
+      <c r="L283" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="L283" s="5" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C284" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D284" t="s">
         <v>135</v>
-      </c>
-      <c r="D284" t="s">
-        <v>136</v>
       </c>
       <c r="F284">
         <v>-35.277699900000002</v>
@@ -13272,24 +13299,24 @@
         <v>20</v>
       </c>
       <c r="K284" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="D285" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F285">
         <v>37.841507</v>
@@ -13301,30 +13328,30 @@
         <v>15</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K285" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L285" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" t="s">
         <v>306</v>
-      </c>
-      <c r="D286" t="s">
-        <v>307</v>
       </c>
       <c r="F286">
         <v>19.325721999999999</v>
@@ -13336,30 +13363,30 @@
         <v>23</v>
       </c>
       <c r="I286" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J286" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J286" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="K286" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L286" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="D287" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F287">
         <v>52.333756800000003</v>
@@ -13371,18 +13398,18 @@
         <v>23</v>
       </c>
       <c r="K287" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D288" t="s">
         <v>30</v>
@@ -13397,24 +13424,24 @@
         <v>23</v>
       </c>
       <c r="K288" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B289" t="s">
+        <v>367</v>
+      </c>
+      <c r="C289" t="s">
         <v>368</v>
       </c>
-      <c r="C289" t="s">
-        <v>369</v>
-      </c>
       <c r="D289" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F289">
         <v>34.201308099999999</v>
@@ -13426,30 +13453,30 @@
         <v>23</v>
       </c>
       <c r="I289" t="s">
+        <v>369</v>
+      </c>
+      <c r="J289" t="s">
         <v>370</v>
       </c>
-      <c r="J289" t="s">
-        <v>371</v>
-      </c>
       <c r="K289" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L289" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B290" t="s">
+        <v>456</v>
+      </c>
+      <c r="C290" t="s">
         <v>457</v>
       </c>
-      <c r="C290" t="s">
-        <v>458</v>
-      </c>
       <c r="D290" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F290">
         <v>18.545665799999998</v>
@@ -13461,25 +13488,25 @@
         <v>23</v>
       </c>
       <c r="I290" t="s">
+        <v>458</v>
+      </c>
+      <c r="J290" t="s">
         <v>459</v>
       </c>
-      <c r="J290" t="s">
-        <v>460</v>
-      </c>
       <c r="K290" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L290"/>
     </row>
     <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B291" t="s">
+        <v>466</v>
+      </c>
+      <c r="C291" t="s">
         <v>467</v>
-      </c>
-      <c r="C291" t="s">
-        <v>468</v>
       </c>
       <c r="D291" t="s">
         <v>14</v>
@@ -13494,28 +13521,28 @@
         <v>23</v>
       </c>
       <c r="I291" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J291"/>
       <c r="K291" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L291" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B292" t="s">
+        <v>542</v>
+      </c>
+      <c r="C292" t="s">
         <v>543</v>
       </c>
-      <c r="C292" t="s">
-        <v>544</v>
-      </c>
       <c r="D292" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F292">
         <v>26.512338799999998</v>
@@ -13529,22 +13556,22 @@
       <c r="I292"/>
       <c r="J292"/>
       <c r="K292" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L292"/>
     </row>
     <row r="293" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B293" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C293" t="s">
         <v>26</v>
       </c>
       <c r="D293" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F293">
         <v>40.007436300000002</v>
@@ -13558,22 +13585,22 @@
       <c r="I293"/>
       <c r="J293"/>
       <c r="K293" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L293"/>
     </row>
     <row r="294" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B294" t="s">
+        <v>44</v>
+      </c>
+      <c r="C294" t="s">
         <v>45</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>46</v>
-      </c>
-      <c r="D294" t="s">
-        <v>47</v>
       </c>
       <c r="F294">
         <v>-45.479067100000002</v>
@@ -13585,28 +13612,28 @@
         <v>23</v>
       </c>
       <c r="I294" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J294"/>
       <c r="K294" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L294" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B295" t="s">
+        <v>610</v>
+      </c>
+      <c r="C295" t="s">
         <v>611</v>
       </c>
-      <c r="C295" t="s">
-        <v>612</v>
-      </c>
       <c r="D295" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F295">
         <v>40.423705400000003</v>
@@ -13620,22 +13647,22 @@
       <c r="I295"/>
       <c r="J295"/>
       <c r="K295" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L295"/>
     </row>
     <row r="296" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C296" t="s">
         <v>633</v>
       </c>
-      <c r="C296" t="s">
-        <v>634</v>
-      </c>
       <c r="D296" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F296">
         <v>45.617910899999998</v>
@@ -13647,21 +13674,21 @@
         <v>20</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="297" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C297" t="s">
         <v>1127</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1130</v>
       </c>
       <c r="D297" t="s">
         <v>14</v>
@@ -13676,25 +13703,25 @@
         <v>23</v>
       </c>
       <c r="I297" s="8" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L297" s="1"/>
     </row>
     <row r="298" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B298" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C298" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C298" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="D298" s="11" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E298" s="11"/>
       <c r="F298" s="11">
@@ -13707,30 +13734,30 @@
         <v>23</v>
       </c>
       <c r="I298" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J298" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="J298" s="12" t="s">
-        <v>272</v>
-      </c>
       <c r="K298" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L298" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K296:K298 K1:K275">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="4">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Exp/Theory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Exp"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>
